--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -119,6 +119,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13253,7 +13259,10 @@
   <dimension ref="B1:K512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K512"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13269,26 +13278,26 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13760,12 +13769,18 @@
       <c r="D24" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E24" s="2">
+        <v>111000000000003</v>
+      </c>
+      <c r="F24" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000023::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000023::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -17244,12 +17259,18 @@
       <c r="D197" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E197" s="2">
+        <v>111000000000003</v>
+      </c>
+      <c r="F197" s="2">
+        <v>160000000000002</v>
+      </c>
       <c r="H197" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000196::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000196::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.2">
@@ -21908,12 +21929,18 @@
       <c r="D429" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E429" s="2">
+        <v>111000000000003</v>
+      </c>
+      <c r="F429" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H429" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K429" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000428::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000428::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="430" spans="2:11" x14ac:dyDescent="0.2">
@@ -22128,12 +22155,18 @@
       <c r="D440" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E440" s="2">
+        <v>111000000000003</v>
+      </c>
+      <c r="F440" s="2">
+        <v>160000000000003</v>
+      </c>
       <c r="H440" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K440" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000439::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000439::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="441" spans="2:11" x14ac:dyDescent="0.2">
@@ -23296,12 +23329,18 @@
       <c r="D498" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E498" s="2">
+        <v>111000000000003</v>
+      </c>
+      <c r="F498" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H498" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K498" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000497::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000497::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="499" spans="2:11" x14ac:dyDescent="0.2">

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -13259,10 +13259,10 @@
   <dimension ref="B1:K512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="11">
   <si>
     <t>ID Pekerja</t>
   </si>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -124,6 +124,15 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4537,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H512"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13256,13 +13265,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K512"/>
+  <dimension ref="B1:M512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K512"/>
+      <selection pane="bottomRight" activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13275,10 +13284,12 @@
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
@@ -13300,8 +13311,11 @@
       <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="str">
         <f>MAIN!B2</f>
         <v>Abdollah Syani Siregar</v>
@@ -13328,8 +13342,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000001::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M2" s="8">
+        <v>164000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="str">
         <f>MAIN!B3</f>
         <v>Abdul Karim</v>
@@ -13356,8 +13373,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000002::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="8">
+        <v>164000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="str">
         <f>MAIN!B4</f>
         <v>Abdul Rahman Sitompul</v>
@@ -13376,8 +13396,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000003::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="8">
+        <v>164000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="str">
         <f>MAIN!B5</f>
         <v>Abdul Risan</v>
@@ -13396,8 +13419,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000004::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="8">
+        <v>164000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="str">
         <f>MAIN!B6</f>
         <v>Abdullah Nabil</v>
@@ -13416,8 +13442,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000005::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="8">
+        <v>164000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="str">
         <f>MAIN!B7</f>
         <v>Adhitya Danar</v>
@@ -13436,8 +13465,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000006::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="8">
+        <v>164000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="str">
         <f>MAIN!B8</f>
         <v>Adi Ruswandi</v>
@@ -13456,8 +13488,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000007::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="8">
+        <v>164000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="str">
         <f>MAIN!B9</f>
         <v>Adietya Dharmawan</v>
@@ -13476,8 +13511,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000008::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="8">
+        <v>164000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="str">
         <f>MAIN!B10</f>
         <v>Aditya Yudha Prawira</v>
@@ -13496,8 +13534,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000009::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="8">
+        <v>164000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="str">
         <f>MAIN!B11</f>
         <v>Adli Margie</v>
@@ -13516,8 +13557,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000010::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="8">
+        <v>164000000000010</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="str">
         <f>MAIN!B12</f>
         <v>Afrida Eka Putri</v>
@@ -13536,8 +13580,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000011::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="8">
+        <v>164000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="str">
         <f>MAIN!B13</f>
         <v>Agnes Sutedja</v>
@@ -13556,8 +13603,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000012::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="8">
+        <v>164000000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="str">
         <f>MAIN!B14</f>
         <v>Agung Hendarto</v>
@@ -13576,8 +13626,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000013::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="8">
+        <v>164000000000013</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="str">
         <f>MAIN!B15</f>
         <v>Agus Priyatno Mahmudo</v>
@@ -13596,8 +13649,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000014::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="8">
+        <v>164000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="str">
         <f>MAIN!B16</f>
         <v>Agus Salim</v>
@@ -13616,8 +13672,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000015::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M16" s="8">
+        <v>164000000000015</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="str">
         <f>MAIN!B17</f>
         <v>Agus Tanto</v>
@@ -13636,8 +13695,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000016::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="8">
+        <v>164000000000016</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="str">
         <f>MAIN!B18</f>
         <v>Ahmad Faiz Haems Muda</v>
@@ -13656,8 +13718,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000017::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="8">
+        <v>164000000000017</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="str">
         <f>MAIN!B19</f>
         <v>Ahmad Faza</v>
@@ -13676,8 +13741,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000018::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M19" s="8">
+        <v>164000000000018</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="str">
         <f>MAIN!B20</f>
         <v>Ahmad Syaifullah</v>
@@ -13696,8 +13764,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000019::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="8">
+        <v>164000000000019</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="str">
         <f>MAIN!B21</f>
         <v>Ahmad Zulkarnaen</v>
@@ -13716,8 +13787,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000020::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="8">
+        <v>164000000000020</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="str">
         <f>MAIN!B22</f>
         <v>Ajan</v>
@@ -13736,8 +13810,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000021::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="8">
+        <v>164000000000021</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="str">
         <f>MAIN!B23</f>
         <v>Al Amin</v>
@@ -13756,8 +13833,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000022::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="8">
+        <v>164000000000022</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="str">
         <f>MAIN!B24</f>
         <v>Aldi Mulyadi</v>
@@ -13782,8 +13862,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000023::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="8">
+        <v>164000000000023</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="str">
         <f>MAIN!B25</f>
         <v>Alexandri</v>
@@ -13802,8 +13885,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000024::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M25" s="8">
+        <v>164000000000024</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="str">
         <f>MAIN!B26</f>
         <v>Alfaedi</v>
@@ -13822,8 +13908,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000025::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="8">
+        <v>164000000000025</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="str">
         <f>MAIN!B27</f>
         <v>Ali Wahono</v>
@@ -13842,8 +13931,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000026::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="8">
+        <v>164000000000026</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="str">
         <f>MAIN!B28</f>
         <v>Alphaliyanri Lasria</v>
@@ -13862,8 +13954,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000027::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M28" s="8">
+        <v>164000000000027</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="str">
         <f>MAIN!B29</f>
         <v>Ambon Rumalean</v>
@@ -13882,8 +13977,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000028::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M29" s="8">
+        <v>164000000000028</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="str">
         <f>MAIN!B30</f>
         <v>Amir Sofyan Hadi</v>
@@ -13902,8 +14000,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000029::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M30" s="8">
+        <v>164000000000029</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="str">
         <f>MAIN!B31</f>
         <v>Anak Agung Netti Ariani</v>
@@ -13922,8 +14023,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000030::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M31" s="8">
+        <v>164000000000030</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="str">
         <f>MAIN!B32</f>
         <v>Andri Gunawan</v>
@@ -13942,8 +14046,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000031::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="8">
+        <v>164000000000031</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="str">
         <f>MAIN!B33</f>
         <v>Andri Herdiansyah</v>
@@ -13962,8 +14069,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000032::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="8">
+        <v>164000000000032</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="str">
         <f>MAIN!B34</f>
         <v>Andrie</v>
@@ -13982,8 +14092,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000033::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M34" s="8">
+        <v>164000000000033</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="str">
         <f>MAIN!B35</f>
         <v>Anggina Tri Yudandi</v>
@@ -14002,8 +14115,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000034::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="8">
+        <v>164000000000034</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="str">
         <f>MAIN!B36</f>
         <v>Anggit Ismiyanto</v>
@@ -14022,8 +14138,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000035::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M36" s="8">
+        <v>164000000000035</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="str">
         <f>MAIN!B37</f>
         <v>Anika Setyowati</v>
@@ -14042,8 +14161,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000036::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M37" s="8">
+        <v>164000000000036</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="str">
         <f>MAIN!B38</f>
         <v>Anisah</v>
@@ -14062,8 +14184,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000037::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="8">
+        <v>164000000000037</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="str">
         <f>MAIN!B39</f>
         <v>Anna Savitrie</v>
@@ -14082,8 +14207,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000038::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M39" s="8">
+        <v>164000000000038</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="str">
         <f>MAIN!B40</f>
         <v>Annisa Dewi Arumsari</v>
@@ -14102,8 +14230,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000039::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M40" s="8">
+        <v>164000000000039</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="str">
         <f>MAIN!B41</f>
         <v>Annyes Sri Maristi</v>
@@ -14122,8 +14253,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000040::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M41" s="8">
+        <v>164000000000040</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="str">
         <f>MAIN!B42</f>
         <v>Antok</v>
@@ -14142,8 +14276,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000041::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M42" s="8">
+        <v>164000000000041</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="str">
         <f>MAIN!B43</f>
         <v>Anton Iryanto</v>
@@ -14162,8 +14299,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000042::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="8">
+        <v>164000000000042</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="str">
         <f>MAIN!B44</f>
         <v>Antony Pakpahan</v>
@@ -14182,8 +14322,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000043::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M44" s="8">
+        <v>164000000000043</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="str">
         <f>MAIN!B45</f>
         <v>Anugerah Januariansyah</v>
@@ -14202,8 +14345,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000044::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M45" s="8">
+        <v>164000000000044</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="str">
         <f>MAIN!B46</f>
         <v>Anwar Purnomo</v>
@@ -14222,8 +14368,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000045::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M46" s="8">
+        <v>164000000000045</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="str">
         <f>MAIN!B47</f>
         <v>Ardhi Swasono</v>
@@ -14242,8 +14391,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000046::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M47" s="8">
+        <v>164000000000046</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="str">
         <f>MAIN!B48</f>
         <v>Ardi</v>
@@ -14262,8 +14414,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000047::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M48" s="8">
+        <v>164000000000047</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="str">
         <f>MAIN!B49</f>
         <v>Ardiansyah</v>
@@ -14282,8 +14437,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000048::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M49" s="8">
+        <v>164000000000048</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="str">
         <f>MAIN!B50</f>
         <v>Ardisam</v>
@@ -14302,8 +14460,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000049::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M50" s="8">
+        <v>164000000000049</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="str">
         <f>MAIN!B51</f>
         <v>Ardita</v>
@@ -14322,8 +14483,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000050::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M51" s="8">
+        <v>164000000000050</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="str">
         <f>MAIN!B52</f>
         <v>Ares S. Mauboi</v>
@@ -14342,8 +14506,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000051::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M52" s="8">
+        <v>164000000000051</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="str">
         <f>MAIN!B53</f>
         <v>Arfah Hanum</v>
@@ -14362,8 +14529,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000052::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M53" s="8">
+        <v>164000000000052</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="str">
         <f>MAIN!B54</f>
         <v>Arfianti Haryani</v>
@@ -14382,8 +14552,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000053::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M54" s="8">
+        <v>164000000000053</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="str">
         <f>MAIN!B55</f>
         <v>Ari Priwarsono</v>
@@ -14402,8 +14575,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000054::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M55" s="8">
+        <v>164000000000054</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="str">
         <f>MAIN!B56</f>
         <v>Ari Yuniasmono</v>
@@ -14422,8 +14598,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000055::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M56" s="8">
+        <v>164000000000055</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="str">
         <f>MAIN!B57</f>
         <v>Arif Gunawan</v>
@@ -14442,8 +14621,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000056::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M57" s="8">
+        <v>164000000000056</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="str">
         <f>MAIN!B58</f>
         <v>Arif Prasetyo</v>
@@ -14462,8 +14644,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000057::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M58" s="8">
+        <v>164000000000057</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="str">
         <f>MAIN!B59</f>
         <v>Arini</v>
@@ -14482,8 +14667,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000058::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="8">
+        <v>164000000000058</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="str">
         <f>MAIN!B60</f>
         <v>Ario Setyo Gunawan</v>
@@ -14502,8 +14690,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000059::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M60" s="8">
+        <v>164000000000059</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="str">
         <f>MAIN!B61</f>
         <v>Ario Yulianto Wibowo</v>
@@ -14522,8 +14713,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000060::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M61" s="8">
+        <v>164000000000060</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="str">
         <f>MAIN!B62</f>
         <v>Aris Widodo Pamungkas</v>
@@ -14542,8 +14736,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000061::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M62" s="8">
+        <v>164000000000061</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="str">
         <f>MAIN!B63</f>
         <v>Arjiyanto</v>
@@ -14562,8 +14759,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000062::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M63" s="8">
+        <v>164000000000062</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="str">
         <f>MAIN!B64</f>
         <v>Arman</v>
@@ -14582,8 +14782,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000063::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M64" s="8">
+        <v>164000000000063</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="str">
         <f>MAIN!B65</f>
         <v>Aryoko Sudiro</v>
@@ -14602,8 +14805,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000064::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M65" s="8">
+        <v>164000000000064</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="str">
         <f>MAIN!B66</f>
         <v>Astamyugo</v>
@@ -14622,8 +14828,11 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000065::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M66" s="8">
+        <v>164000000000065</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="str">
         <f>MAIN!B67</f>
         <v>Atmo Sastro Dinoto</v>
@@ -14650,8 +14859,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000066::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M67" s="8">
+        <v>164000000000066</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="str">
         <f>MAIN!B68</f>
         <v>Awaludin</v>
@@ -14670,8 +14882,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000067::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M68" s="8">
+        <v>164000000000067</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="str">
         <f>MAIN!B69</f>
         <v>Bachtiar</v>
@@ -14690,8 +14905,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000068::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M69" s="8">
+        <v>164000000000068</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="str">
         <f>MAIN!B70</f>
         <v>Bambang Irawan</v>
@@ -14710,8 +14928,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000069::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M70" s="8">
+        <v>164000000000069</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="str">
         <f>MAIN!B71</f>
         <v>Bambang Prihatin</v>
@@ -14730,8 +14951,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000070::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M71" s="8">
+        <v>164000000000070</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="str">
         <f>MAIN!B72</f>
         <v>Bani Mustazeni</v>
@@ -14750,8 +14974,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000071::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M72" s="8">
+        <v>164000000000071</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="str">
         <f>MAIN!B73</f>
         <v>Bardai</v>
@@ -14770,8 +14997,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000072::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M73" s="8">
+        <v>164000000000072</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="str">
         <f>MAIN!B74</f>
         <v>Barika</v>
@@ -14790,8 +15020,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000073::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M74" s="8">
+        <v>164000000000073</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="str">
         <f>MAIN!B75</f>
         <v>Bela Retmalantika</v>
@@ -14810,8 +15043,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000074::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M75" s="8">
+        <v>164000000000074</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="str">
         <f>MAIN!B76</f>
         <v>Belina Lindarwani</v>
@@ -14830,8 +15066,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000075::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="8">
+        <v>164000000000075</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="str">
         <f>MAIN!B77</f>
         <v>Benita Sofia</v>
@@ -14850,8 +15089,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000076::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M77" s="8">
+        <v>164000000000076</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="str">
         <f>MAIN!B78</f>
         <v>Bherly Novrandy</v>
@@ -14870,8 +15112,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000077::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M78" s="8">
+        <v>164000000000077</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="str">
         <f>MAIN!B79</f>
         <v>Binsar</v>
@@ -14890,8 +15135,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000078::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M79" s="8">
+        <v>164000000000078</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="str">
         <f>MAIN!B80</f>
         <v>Bondhan Sosiarta</v>
@@ -14910,8 +15158,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000079::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="8">
+        <v>164000000000079</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="str">
         <f>MAIN!B81</f>
         <v>Budi Pranata Sinaga</v>
@@ -14930,8 +15181,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000080::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="8">
+        <v>164000000000080</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="str">
         <f>MAIN!B82</f>
         <v>Budi Satrio</v>
@@ -14950,8 +15204,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000081::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M82" s="8">
+        <v>164000000000081</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="str">
         <f>MAIN!B83</f>
         <v>Budianto</v>
@@ -14970,8 +15227,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000082::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="8">
+        <v>164000000000082</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="str">
         <f>MAIN!B84</f>
         <v>Budiman</v>
@@ -14990,8 +15250,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000083::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M84" s="8">
+        <v>164000000000083</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="str">
         <f>MAIN!B85</f>
         <v>Cahyaning Annisa</v>
@@ -15010,8 +15273,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000084::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M85" s="8">
+        <v>164000000000084</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="str">
         <f>MAIN!B86</f>
         <v>Cahyaningrum Widiastuti</v>
@@ -15030,8 +15296,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000085::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M86" s="8">
+        <v>164000000000085</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="str">
         <f>MAIN!B87</f>
         <v>Cecep Maulana</v>
@@ -15050,8 +15319,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000086::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M87" s="8">
+        <v>164000000000086</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="str">
         <f>MAIN!B88</f>
         <v>Chairul Musaddat</v>
@@ -15070,8 +15342,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000087::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M88" s="8">
+        <v>164000000000087</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="str">
         <f>MAIN!B89</f>
         <v>Christianto</v>
@@ -15090,8 +15365,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000088::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="8">
+        <v>164000000000088</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="str">
         <f>MAIN!B90</f>
         <v>Dadan Hermawan</v>
@@ -15110,8 +15388,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000089::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M90" s="8">
+        <v>164000000000089</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="str">
         <f>MAIN!B91</f>
         <v>Dadan Suhendar</v>
@@ -15130,8 +15411,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000090::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="8">
+        <v>164000000000090</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="str">
         <f>MAIN!B92</f>
         <v>Dadi Anda Zuchradi</v>
@@ -15150,8 +15434,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000091::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M92" s="8">
+        <v>164000000000091</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="str">
         <f>MAIN!B93</f>
         <v>Darsito</v>
@@ -15170,8 +15457,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000092::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M93" s="8">
+        <v>164000000000092</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="str">
         <f>MAIN!B94</f>
         <v>David Lumban Gaol</v>
@@ -15190,8 +15480,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000093::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="8">
+        <v>164000000000093</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="str">
         <f>MAIN!B95</f>
         <v>Deddy Rochman</v>
@@ -15210,8 +15503,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000094::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M95" s="8">
+        <v>164000000000094</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="str">
         <f>MAIN!B96</f>
         <v>Dedi Kusnadi</v>
@@ -15230,8 +15526,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000095::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="8">
+        <v>164000000000095</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="str">
         <f>MAIN!B97</f>
         <v>Dedi Marciano Rizanur</v>
@@ -15250,8 +15549,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000096::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M97" s="8">
+        <v>164000000000096</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="str">
         <f>MAIN!B98</f>
         <v>Dedi Rianto</v>
@@ -15270,8 +15572,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000097::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M98" s="8">
+        <v>164000000000097</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="str">
         <f>MAIN!B99</f>
         <v>Dedi Syahputra</v>
@@ -15290,8 +15595,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000098::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M99" s="8">
+        <v>164000000000098</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="str">
         <f>MAIN!B100</f>
         <v>Deni Setiawan</v>
@@ -15310,8 +15618,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000099::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="8">
+        <v>164000000000099</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="str">
         <f>MAIN!B101</f>
         <v>Deny Adi</v>
@@ -15330,8 +15641,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000100::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="8">
+        <v>164000000000100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="str">
         <f>MAIN!B102</f>
         <v>Desi Herawati</v>
@@ -15350,8 +15664,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000101::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M102" s="8">
+        <v>164000000000101</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="str">
         <f>MAIN!B103</f>
         <v>Desi Setiowati</v>
@@ -15370,8 +15687,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000102::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M103" s="8">
+        <v>164000000000102</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="str">
         <f>MAIN!B104</f>
         <v>Dian Firdaus</v>
@@ -15390,8 +15710,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000103::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M104" s="8">
+        <v>164000000000103</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="str">
         <f>MAIN!B105</f>
         <v>Dian Hariyana</v>
@@ -15410,8 +15733,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000104::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M105" s="8">
+        <v>164000000000104</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="str">
         <f>MAIN!B106</f>
         <v>Dinnar Budiarti</v>
@@ -15430,8 +15756,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000105::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M106" s="8">
+        <v>164000000000105</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="str">
         <f>MAIN!B107</f>
         <v>Dionesius S. Duka</v>
@@ -15450,8 +15779,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000106::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M107" s="8">
+        <v>164000000000106</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="str">
         <f>MAIN!B108</f>
         <v>Diyah Martina</v>
@@ -15470,8 +15802,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000107::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M108" s="8">
+        <v>164000000000107</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="str">
         <f>MAIN!B109</f>
         <v>Djuang Tampubolon</v>
@@ -15490,8 +15825,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000108::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M109" s="8">
+        <v>164000000000108</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="str">
         <f>MAIN!B110</f>
         <v>Dodit Widiarto</v>
@@ -15510,8 +15848,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000109::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M110" s="8">
+        <v>164000000000109</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="str">
         <f>MAIN!B111</f>
         <v>Dony Darmawan</v>
@@ -15530,8 +15871,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000110::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M111" s="8">
+        <v>164000000000110</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="str">
         <f>MAIN!B112</f>
         <v>Dony Setiawan</v>
@@ -15550,8 +15894,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000111::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M112" s="8">
+        <v>164000000000111</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="str">
         <f>MAIN!B113</f>
         <v>Dudi Rustandi</v>
@@ -15570,8 +15917,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000112::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M113" s="8">
+        <v>164000000000112</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="str">
         <f>MAIN!B114</f>
         <v>Dudung</v>
@@ -15590,8 +15940,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000113::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M114" s="8">
+        <v>164000000000113</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="str">
         <f>MAIN!B115</f>
         <v>Dwi Joko</v>
@@ -15610,8 +15963,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000114::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M115" s="8">
+        <v>164000000000114</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="str">
         <f>MAIN!B116</f>
         <v>Dwinanto Prabowo</v>
@@ -15630,8 +15986,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000115::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M116" s="8">
+        <v>164000000000115</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="str">
         <f>MAIN!B117</f>
         <v>Eddy Waluyo</v>
@@ -15650,8 +16009,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000116::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M117" s="8">
+        <v>164000000000116</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="str">
         <f>MAIN!B118</f>
         <v>Edi Siswanto</v>
@@ -15670,8 +16032,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000117::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M118" s="8">
+        <v>164000000000117</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="str">
         <f>MAIN!B119</f>
         <v>Edi Turnip</v>
@@ -15690,8 +16055,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000118::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M119" s="8">
+        <v>164000000000118</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="str">
         <f>MAIN!B120</f>
         <v>Edy Putra Waskita</v>
@@ -15710,8 +16078,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000119::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M120" s="8">
+        <v>164000000000119</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="str">
         <f>MAIN!B121</f>
         <v>Edy Situmeang</v>
@@ -15730,8 +16101,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000120::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M121" s="8">
+        <v>164000000000120</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="str">
         <f>MAIN!B122</f>
         <v>Effendi fendi</v>
@@ -15750,8 +16124,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000121::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M122" s="8">
+        <v>164000000000121</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="str">
         <f>MAIN!B123</f>
         <v>Efrina Dwililia</v>
@@ -15770,8 +16147,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000122::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M123" s="8">
+        <v>164000000000122</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="str">
         <f>MAIN!B124</f>
         <v>Eka Bagus</v>
@@ -15783,15 +16163,24 @@
       <c r="D124" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E124" s="2">
+        <v>111000000000011</v>
+      </c>
+      <c r="F124" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000123::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000123::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M124" s="8">
+        <v>164000000000123</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="str">
         <f>MAIN!B125</f>
         <v>Eka Hamidah</v>
@@ -15810,8 +16199,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000124::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M125" s="8">
+        <v>164000000000124</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="str">
         <f>MAIN!B126</f>
         <v>Eka Purwanti</v>
@@ -15830,8 +16222,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000125::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M126" s="8">
+        <v>164000000000125</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="str">
         <f>MAIN!B127</f>
         <v>Eko Kurniawan</v>
@@ -15850,8 +16245,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000126::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M127" s="8">
+        <v>164000000000126</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="str">
         <f>MAIN!B128</f>
         <v>Eko Laksono</v>
@@ -15870,8 +16268,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000127::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M128" s="8">
+        <v>164000000000127</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="str">
         <f>MAIN!B129</f>
         <v>Eko Syambudi</v>
@@ -15890,8 +16291,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000128::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M129" s="8">
+        <v>164000000000128</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="str">
         <f>MAIN!B130</f>
         <v>Elieser Ferdy P.</v>
@@ -15910,8 +16314,11 @@
         <f t="shared" si="1"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000129::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M130" s="8">
+        <v>164000000000129</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="str">
         <f>MAIN!B131</f>
         <v>Elisa</v>
@@ -15938,8 +16345,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000130::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M131" s="8">
+        <v>164000000000130</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="str">
         <f>MAIN!B132</f>
         <v>Elsa Jayanti</v>
@@ -15958,8 +16368,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000131::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M132" s="8">
+        <v>164000000000131</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="str">
         <f>MAIN!B133</f>
         <v>Elsa Mardian</v>
@@ -15978,8 +16391,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000132::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M133" s="8">
+        <v>164000000000132</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="str">
         <f>MAIN!B134</f>
         <v>Emir Paranita Nasution</v>
@@ -15998,8 +16414,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000133::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M134" s="8">
+        <v>164000000000133</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="str">
         <f>MAIN!B135</f>
         <v>Enceng Hemawan</v>
@@ -16018,8 +16437,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000134::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M135" s="8">
+        <v>164000000000134</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="str">
         <f>MAIN!B136</f>
         <v>Endang</v>
@@ -16038,8 +16460,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000135::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M136" s="8">
+        <v>164000000000135</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="str">
         <f>MAIN!B137</f>
         <v>Endang Lestari</v>
@@ -16058,8 +16483,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000136::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M137" s="8">
+        <v>164000000000136</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="str">
         <f>MAIN!B138</f>
         <v>Endang Sobari</v>
@@ -16078,8 +16506,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000137::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M138" s="8">
+        <v>164000000000137</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="str">
         <f>MAIN!B139</f>
         <v>Endang Sutrisna</v>
@@ -16098,8 +16529,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000138::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M139" s="8">
+        <v>164000000000138</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="str">
         <f>MAIN!B140</f>
         <v>Erfananda Rasyid</v>
@@ -16118,8 +16552,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000139::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M140" s="8">
+        <v>164000000000139</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="str">
         <f>MAIN!B141</f>
         <v>Ernawati</v>
@@ -16138,8 +16575,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000140::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M141" s="8">
+        <v>164000000000140</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="str">
         <f>MAIN!B142</f>
         <v>Erwin Firmansyah</v>
@@ -16158,8 +16598,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000141::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M142" s="8">
+        <v>164000000000141</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="str">
         <f>MAIN!B143</f>
         <v>Erwin Said</v>
@@ -16178,8 +16621,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000142::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M143" s="8">
+        <v>164000000000142</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="str">
         <f>MAIN!B144</f>
         <v>Esa Annahar</v>
@@ -16198,8 +16644,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000143::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M144" s="8">
+        <v>164000000000143</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="str">
         <f>MAIN!B145</f>
         <v>Faiz Horifal</v>
@@ -16218,8 +16667,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000144::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M145" s="8">
+        <v>164000000000144</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="str">
         <f>MAIN!B146</f>
         <v>Fani Dwi Astutik</v>
@@ -16238,8 +16690,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000145::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M146" s="8">
+        <v>164000000000145</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="str">
         <f>MAIN!B147</f>
         <v>Fardi Nauli R</v>
@@ -16258,8 +16713,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000146::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M147" s="8">
+        <v>164000000000146</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="str">
         <f>MAIN!B148</f>
         <v>Farekh Huzair</v>
@@ -16278,8 +16736,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000147::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M148" s="8">
+        <v>164000000000147</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="str">
         <f>MAIN!B149</f>
         <v>Farhana</v>
@@ -16298,8 +16759,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000148::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M149" s="8">
+        <v>164000000000148</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="str">
         <f>MAIN!B150</f>
         <v>Febriyanto Ahdiat</v>
@@ -16318,8 +16782,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000149::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M150" s="8">
+        <v>164000000000149</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="str">
         <f>MAIN!B151</f>
         <v>Febryan Mahsyar</v>
@@ -16338,8 +16805,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000150::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M151" s="8">
+        <v>164000000000150</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="str">
         <f>MAIN!B152</f>
         <v>Felpy</v>
@@ -16358,8 +16828,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000151::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M152" s="8">
+        <v>164000000000151</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="str">
         <f>MAIN!B153</f>
         <v>Feri Priyanto</v>
@@ -16378,8 +16851,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000152::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M153" s="8">
+        <v>164000000000152</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="str">
         <f>MAIN!B154</f>
         <v>Ferry P Simanjuntak</v>
@@ -16398,8 +16874,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000153::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M154" s="8">
+        <v>164000000000153</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="str">
         <f>MAIN!B155</f>
         <v>Fikri</v>
@@ -16418,8 +16897,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000154::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M155" s="8">
+        <v>164000000000154</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="str">
         <f>MAIN!B156</f>
         <v>Fikri Caesarandi</v>
@@ -16438,8 +16920,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000155::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M156" s="8">
+        <v>164000000000155</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="str">
         <f>MAIN!B157</f>
         <v>Firman Akbar</v>
@@ -16458,8 +16943,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000156::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M157" s="8">
+        <v>164000000000156</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="str">
         <f>MAIN!B158</f>
         <v>Fitriastuti Kurnia</v>
@@ -16471,15 +16959,24 @@
       <c r="D158" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E158" s="2">
+        <v>111000000000011</v>
+      </c>
+      <c r="F158" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H158" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M158" s="8">
+        <v>164000000000157</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="str">
         <f>MAIN!B159</f>
         <v>Francis Imanuel</v>
@@ -16498,8 +16995,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000158::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M159" s="8">
+        <v>164000000000158</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="str">
         <f>MAIN!B160</f>
         <v>Frando J. Siahan</v>
@@ -16518,8 +17018,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000159::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M160" s="8">
+        <v>164000000000159</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="str">
         <f>MAIN!B161</f>
         <v>Frederika Intan</v>
@@ -16538,8 +17041,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000160::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M161" s="8">
+        <v>164000000000160</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="str">
         <f>MAIN!B162</f>
         <v>Fuad Febrian</v>
@@ -16558,8 +17064,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000161::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M162" s="8">
+        <v>164000000000161</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="str">
         <f>MAIN!B163</f>
         <v>Fuzi Mafhrozi</v>
@@ -16578,8 +17087,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000162::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M163" s="8">
+        <v>164000000000162</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="str">
         <f>MAIN!B164</f>
         <v>Galuh Swastika</v>
@@ -16598,8 +17110,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000163::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M164" s="8">
+        <v>164000000000163</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="str">
         <f>MAIN!B165</f>
         <v>Ganda Yuharis R.</v>
@@ -16618,8 +17133,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000164::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M165" s="8">
+        <v>164000000000164</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="str">
         <f>MAIN!B166</f>
         <v>Gatot Harsono</v>
@@ -16638,8 +17156,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000165::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M166" s="8">
+        <v>164000000000165</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="str">
         <f>MAIN!B167</f>
         <v>Gina Septa</v>
@@ -16658,8 +17179,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000166::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M167" s="8">
+        <v>164000000000166</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="str">
         <f>MAIN!B168</f>
         <v>Grace Kurniawan</v>
@@ -16678,8 +17202,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000167::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M168" s="8">
+        <v>164000000000167</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="str">
         <f>MAIN!B169</f>
         <v>Gunawan</v>
@@ -16698,8 +17225,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000168::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M169" s="8">
+        <v>164000000000168</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="str">
         <f>MAIN!B170</f>
         <v>Gustia Rakhmanita</v>
@@ -16718,8 +17248,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000169::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M170" s="8">
+        <v>164000000000169</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="str">
         <f>MAIN!B171</f>
         <v>Habib Abdullaj</v>
@@ -16738,8 +17271,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000170::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M171" s="8">
+        <v>164000000000170</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="str">
         <f>MAIN!B172</f>
         <v>Hadi Kasmuri</v>
@@ -16758,8 +17294,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000171::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M172" s="8">
+        <v>164000000000171</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="str">
         <f>MAIN!B173</f>
         <v>Haikal</v>
@@ -16778,8 +17317,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000172::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M173" s="8">
+        <v>164000000000172</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="str">
         <f>MAIN!B174</f>
         <v>Hanantowiryo Tamtama</v>
@@ -16798,8 +17340,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000173::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M174" s="8">
+        <v>164000000000173</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="str">
         <f>MAIN!B175</f>
         <v>Handoko</v>
@@ -16818,8 +17363,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000174::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M175" s="8">
+        <v>164000000000174</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="str">
         <f>MAIN!B176</f>
         <v>Hanif Ashari</v>
@@ -16838,8 +17386,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000175::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M176" s="8">
+        <v>164000000000175</v>
+      </c>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="str">
         <f>MAIN!B177</f>
         <v>Hanif Eko Saputro</v>
@@ -16858,8 +17409,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000176::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M177" s="8">
+        <v>164000000000176</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="str">
         <f>MAIN!B178</f>
         <v>Hardianto</v>
@@ -16878,8 +17432,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000177::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M178" s="8">
+        <v>164000000000177</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="str">
         <f>MAIN!B179</f>
         <v>Harlen Amudi Purba</v>
@@ -16898,8 +17455,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000178::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M179" s="8">
+        <v>164000000000178</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="str">
         <f>MAIN!B180</f>
         <v>Harry Isnaeni</v>
@@ -16918,8 +17478,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000179::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M180" s="8">
+        <v>164000000000179</v>
+      </c>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="str">
         <f>MAIN!B181</f>
         <v>Hasan Gani</v>
@@ -16938,8 +17501,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000180::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M181" s="8">
+        <v>164000000000180</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="str">
         <f>MAIN!B182</f>
         <v>Hasrul</v>
@@ -16958,8 +17524,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000181::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M182" s="8">
+        <v>164000000000181</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="str">
         <f>MAIN!B183</f>
         <v>Hendar Pambudi</v>
@@ -16978,8 +17547,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000182::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M183" s="8">
+        <v>164000000000182</v>
+      </c>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="str">
         <f>MAIN!B184</f>
         <v>Hendri Kustian</v>
@@ -16998,8 +17570,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000183::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M184" s="8">
+        <v>164000000000183</v>
+      </c>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="str">
         <f>MAIN!B185</f>
         <v>Hendrik</v>
@@ -17018,8 +17593,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000184::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M185" s="8">
+        <v>164000000000184</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="str">
         <f>MAIN!B186</f>
         <v>Herdi Yulia Rohmana</v>
@@ -17038,8 +17616,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000185::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M186" s="8">
+        <v>164000000000185</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="str">
         <f>MAIN!B187</f>
         <v>Heri Susanto</v>
@@ -17058,8 +17639,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000186::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M187" s="8">
+        <v>164000000000186</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="str">
         <f>MAIN!B188</f>
         <v>Herlin Juli Asri</v>
@@ -17078,8 +17662,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000187::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M188" s="8">
+        <v>164000000000187</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="str">
         <f>MAIN!B189</f>
         <v>Herman Budoyo</v>
@@ -17098,8 +17685,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000188::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M189" s="8">
+        <v>164000000000188</v>
+      </c>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="str">
         <f>MAIN!B190</f>
         <v>Herni Yuliati</v>
@@ -17118,8 +17708,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000189::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M190" s="8">
+        <v>164000000000189</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="str">
         <f>MAIN!B191</f>
         <v>Hernita Dwi</v>
@@ -17138,8 +17731,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000190::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M191" s="8">
+        <v>164000000000190</v>
+      </c>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="str">
         <f>MAIN!B192</f>
         <v>Herri Setyawan</v>
@@ -17158,8 +17754,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000191::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M192" s="8">
+        <v>164000000000191</v>
+      </c>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="str">
         <f>MAIN!B193</f>
         <v>Heru Sugiri</v>
@@ -17178,8 +17777,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000192::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M193" s="8">
+        <v>164000000000192</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="str">
         <f>MAIN!B194</f>
         <v>Hervian Bagus Saputra</v>
@@ -17198,8 +17800,11 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000193::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M194" s="8">
+        <v>164000000000193</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="str">
         <f>MAIN!B195</f>
         <v>H.R. Marlina S. T. R.</v>
@@ -17226,8 +17831,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000194::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M195" s="8">
+        <v>164000000000194</v>
+      </c>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="str">
         <f>MAIN!B196</f>
         <v>Ibrahim Soukani</v>
@@ -17246,8 +17854,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000195::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M196" s="8">
+        <v>164000000000195</v>
+      </c>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="str">
         <f>MAIN!B197</f>
         <v>Icha Mailinda Syamsoedin</v>
@@ -17272,8 +17883,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000196::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M197" s="8">
+        <v>164000000000196</v>
+      </c>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="str">
         <f>MAIN!B198</f>
         <v>Ichsanudin</v>
@@ -17292,8 +17906,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000197::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M198" s="8">
+        <v>164000000000197</v>
+      </c>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="str">
         <f>MAIN!B199</f>
         <v>Ida Tri Wulaningsih</v>
@@ -17312,8 +17929,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000198::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M199" s="8">
+        <v>164000000000198</v>
+      </c>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="str">
         <f>MAIN!B200</f>
         <v>Idham</v>
@@ -17332,8 +17952,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000199::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M200" s="8">
+        <v>164000000000199</v>
+      </c>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="str">
         <f>MAIN!B201</f>
         <v>Idham Nasution</v>
@@ -17352,8 +17975,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000200::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M201" s="8">
+        <v>164000000000200</v>
+      </c>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="str">
         <f>MAIN!B202</f>
         <v>Idian</v>
@@ -17372,8 +17998,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000201::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M202" s="8">
+        <v>164000000000201</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="str">
         <f>MAIN!B203</f>
         <v>Ikun M. Soedrajat</v>
@@ -17392,8 +18021,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000202::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M203" s="8">
+        <v>164000000000202</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="str">
         <f>MAIN!B204</f>
         <v>Ilham Arisyandy</v>
@@ -17412,8 +18044,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000203::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M204" s="8">
+        <v>164000000000203</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="str">
         <f>MAIN!B205</f>
         <v>Ilham</v>
@@ -17432,8 +18067,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000204::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M205" s="8">
+        <v>164000000000204</v>
+      </c>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="str">
         <f>MAIN!B206</f>
         <v>Imam Basuki</v>
@@ -17452,8 +18090,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000205::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M206" s="8">
+        <v>164000000000205</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="str">
         <f>MAIN!B207</f>
         <v>Imam Mustofa</v>
@@ -17472,8 +18113,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000206::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M207" s="8">
+        <v>164000000000206</v>
+      </c>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="str">
         <f>MAIN!B208</f>
         <v>Imam Safiiy</v>
@@ -17492,8 +18136,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000207::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M208" s="8">
+        <v>164000000000207</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="str">
         <f>MAIN!B209</f>
         <v>Iman Hakiki</v>
@@ -17512,8 +18159,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000208::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M209" s="8">
+        <v>164000000000208</v>
+      </c>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="str">
         <f>MAIN!B210</f>
         <v>Imelda Claudia</v>
@@ -17532,8 +18182,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000209::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M210" s="8">
+        <v>164000000000209</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="str">
         <f>MAIN!B211</f>
         <v>Indawan Haryadi</v>
@@ -17552,8 +18205,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000210::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M211" s="8">
+        <v>164000000000210</v>
+      </c>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="str">
         <f>MAIN!B212</f>
         <v>Indra Jaya</v>
@@ -17572,8 +18228,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000211::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M212" s="8">
+        <v>164000000000211</v>
+      </c>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="str">
         <f>MAIN!B213</f>
         <v>Indra Muchtar</v>
@@ -17592,8 +18251,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000212::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M213" s="8">
+        <v>164000000000212</v>
+      </c>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B214" s="1" t="str">
         <f>MAIN!B214</f>
         <v>Irvan</v>
@@ -17612,8 +18274,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000213::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M214" s="8">
+        <v>164000000000213</v>
+      </c>
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="str">
         <f>MAIN!B215</f>
         <v>Irvan Agus Dharma</v>
@@ -17632,8 +18297,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000214::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M215" s="8">
+        <v>164000000000214</v>
+      </c>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="str">
         <f>MAIN!B216</f>
         <v>Irwan</v>
@@ -17652,8 +18320,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000215::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M216" s="8">
+        <v>164000000000215</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B217" s="1" t="str">
         <f>MAIN!B217</f>
         <v>Isa Anshori</v>
@@ -17672,8 +18343,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000216::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M217" s="8">
+        <v>164000000000216</v>
+      </c>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B218" s="1" t="str">
         <f>MAIN!B218</f>
         <v>Isa Taufiq</v>
@@ -17692,8 +18366,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000217::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M218" s="8">
+        <v>164000000000217</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B219" s="1" t="str">
         <f>MAIN!B219</f>
         <v>Iskandarsyah</v>
@@ -17712,8 +18389,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000218::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M219" s="8">
+        <v>164000000000218</v>
+      </c>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B220" s="1" t="str">
         <f>MAIN!B220</f>
         <v>Istanto Istanto</v>
@@ -17732,8 +18412,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000219::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M220" s="8">
+        <v>164000000000219</v>
+      </c>
+    </row>
+    <row r="221" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B221" s="1" t="str">
         <f>MAIN!B221</f>
         <v>Iswahyuni</v>
@@ -17752,8 +18435,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000220::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M221" s="8">
+        <v>164000000000220</v>
+      </c>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="str">
         <f>MAIN!B222</f>
         <v>Iva Nurvahayati</v>
@@ -17772,8 +18458,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000221::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M222" s="8">
+        <v>164000000000221</v>
+      </c>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B223" s="1" t="str">
         <f>MAIN!B223</f>
         <v>Iwan Setiawan</v>
@@ -17792,8 +18481,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000222::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M223" s="8">
+        <v>164000000000222</v>
+      </c>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B224" s="1" t="str">
         <f>MAIN!B224</f>
         <v>Iwan Sumantri</v>
@@ -17812,8 +18504,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000223::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M224" s="8">
+        <v>164000000000223</v>
+      </c>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="str">
         <f>MAIN!B225</f>
         <v>Iwan Wibawa</v>
@@ -17832,8 +18527,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000224::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M225" s="8">
+        <v>164000000000224</v>
+      </c>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="str">
         <f>MAIN!B226</f>
         <v>Iyus Darwin</v>
@@ -17852,8 +18550,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000225::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M226" s="8">
+        <v>164000000000225</v>
+      </c>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="str">
         <f>MAIN!B227</f>
         <v>Jaenudin</v>
@@ -17872,8 +18573,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000226::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M227" s="8">
+        <v>164000000000226</v>
+      </c>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="str">
         <f>MAIN!B228</f>
         <v>Jaruli Samosir</v>
@@ -17892,8 +18596,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000227::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M228" s="8">
+        <v>164000000000227</v>
+      </c>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="str">
         <f>MAIN!B229</f>
         <v>Jaya Ganef</v>
@@ -17912,8 +18619,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000228::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M229" s="8">
+        <v>164000000000228</v>
+      </c>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="str">
         <f>MAIN!B230</f>
         <v>Jaya Sitepu</v>
@@ -17932,8 +18642,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000229::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M230" s="8">
+        <v>164000000000229</v>
+      </c>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="str">
         <f>MAIN!B231</f>
         <v>Jeefrianda H. P. Sigalingging</v>
@@ -17952,8 +18665,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000230::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M231" s="8">
+        <v>164000000000230</v>
+      </c>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="str">
         <f>MAIN!B232</f>
         <v>Jerry Djajasaputra</v>
@@ -17972,8 +18688,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000231::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M232" s="8">
+        <v>164000000000231</v>
+      </c>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="str">
         <f>MAIN!B233</f>
         <v>Jimmy Wal</v>
@@ -17992,8 +18711,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000232::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M233" s="8">
+        <v>164000000000232</v>
+      </c>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="str">
         <f>MAIN!B234</f>
         <v>Jodie Satria</v>
@@ -18012,8 +18734,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000233::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M234" s="8">
+        <v>164000000000233</v>
+      </c>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B235" s="1" t="str">
         <f>MAIN!B235</f>
         <v>Johannes Silalahi</v>
@@ -18032,8 +18757,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000234::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M235" s="8">
+        <v>164000000000234</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="str">
         <f>MAIN!B236</f>
         <v>Joko Wiyono</v>
@@ -18052,8 +18780,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000235::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M236" s="8">
+        <v>164000000000235</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B237" s="1" t="str">
         <f>MAIN!B237</f>
         <v>Jondril Hantoni</v>
@@ -18072,8 +18803,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000236::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M237" s="8">
+        <v>164000000000236</v>
+      </c>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B238" s="1" t="str">
         <f>MAIN!B238</f>
         <v>Jonhar Aziz</v>
@@ -18092,8 +18826,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000237::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M238" s="8">
+        <v>164000000000237</v>
+      </c>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B239" s="1" t="str">
         <f>MAIN!B239</f>
         <v>Juan Talitha</v>
@@ -18112,8 +18849,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000238::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M239" s="8">
+        <v>164000000000238</v>
+      </c>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="str">
         <f>MAIN!B240</f>
         <v>Juharja Juharja</v>
@@ -18132,8 +18872,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000239::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M240" s="8">
+        <v>164000000000239</v>
+      </c>
+    </row>
+    <row r="241" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B241" s="1" t="str">
         <f>MAIN!B241</f>
         <v>Juminar</v>
@@ -18152,8 +18895,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000240::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M241" s="8">
+        <v>164000000000240</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="str">
         <f>MAIN!B242</f>
         <v>Jumino</v>
@@ -18172,8 +18918,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000241::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M242" s="8">
+        <v>164000000000241</v>
+      </c>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="str">
         <f>MAIN!B243</f>
         <v>Junaedi</v>
@@ -18192,8 +18941,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000242::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M243" s="8">
+        <v>164000000000242</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="str">
         <f>MAIN!B244</f>
         <v>Junaidi</v>
@@ -18212,8 +18964,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000243::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M244" s="8">
+        <v>164000000000243</v>
+      </c>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="str">
         <f>MAIN!B245</f>
         <v>Jusuf Bobby Putra</v>
@@ -18232,8 +18987,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000244::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M245" s="8">
+        <v>164000000000244</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="str">
         <f>MAIN!B246</f>
         <v>Jusuf Gandi</v>
@@ -18252,8 +19010,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000245::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M246" s="8">
+        <v>164000000000245</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="str">
         <f>MAIN!B247</f>
         <v>Kahar Triyono</v>
@@ -18272,8 +19033,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000246::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M247" s="8">
+        <v>164000000000246</v>
+      </c>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="str">
         <f>MAIN!B248</f>
         <v>Keila</v>
@@ -18292,8 +19056,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000247::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M248" s="8">
+        <v>164000000000247</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="str">
         <f>MAIN!B249</f>
         <v>Kendra Daniswara</v>
@@ -18312,8 +19079,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000248::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M249" s="8">
+        <v>164000000000248</v>
+      </c>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="str">
         <f>MAIN!B250</f>
         <v>Kevin Henokh Tambunan</v>
@@ -18332,8 +19102,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000249::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M250" s="8">
+        <v>164000000000249</v>
+      </c>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="str">
         <f>MAIN!B251</f>
         <v>Khafid Fahrurrozi</v>
@@ -18352,8 +19125,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000250::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M251" s="8">
+        <v>164000000000250</v>
+      </c>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="str">
         <f>MAIN!B252</f>
         <v>Kholik</v>
@@ -18372,8 +19148,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000251::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M252" s="8">
+        <v>164000000000251</v>
+      </c>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="str">
         <f>MAIN!B253</f>
         <v>Kiki Mustikawati</v>
@@ -18392,8 +19171,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000252::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M253" s="8">
+        <v>164000000000252</v>
+      </c>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B254" s="1" t="str">
         <f>MAIN!B254</f>
         <v>Kornelius Sakan</v>
@@ -18412,8 +19194,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000253::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M254" s="8">
+        <v>164000000000253</v>
+      </c>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B255" s="1" t="str">
         <f>MAIN!B255</f>
         <v>Kosasih</v>
@@ -18432,8 +19217,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000254::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M255" s="8">
+        <v>164000000000254</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="str">
         <f>MAIN!B256</f>
         <v>Krisnawan</v>
@@ -18452,8 +19240,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000255::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M256" s="8">
+        <v>164000000000255</v>
+      </c>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B257" s="1" t="str">
         <f>MAIN!B257</f>
         <v>Kurniadi</v>
@@ -18472,8 +19263,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000256::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M257" s="8">
+        <v>164000000000256</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="str">
         <f>MAIN!B258</f>
         <v>Kurniawan</v>
@@ -18492,8 +19286,11 @@
         <f t="shared" si="3"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000257::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M258" s="8">
+        <v>164000000000257</v>
+      </c>
+    </row>
+    <row r="259" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="str">
         <f>MAIN!B259</f>
         <v>Laode</v>
@@ -18520,8 +19317,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000258::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M259" s="8">
+        <v>164000000000258</v>
+      </c>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B260" s="1" t="str">
         <f>MAIN!B260</f>
         <v>Leo Nababan</v>
@@ -18540,8 +19340,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000259::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M260" s="8">
+        <v>164000000000259</v>
+      </c>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B261" s="1" t="str">
         <f>MAIN!B261</f>
         <v>Liani Atmaningrum</v>
@@ -18560,8 +19363,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000260::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M261" s="8">
+        <v>164000000000260</v>
+      </c>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="str">
         <f>MAIN!B262</f>
         <v>Liaseptriani Liaseptriani</v>
@@ -18580,8 +19386,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000261::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M262" s="8">
+        <v>164000000000261</v>
+      </c>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B263" s="1" t="str">
         <f>MAIN!B263</f>
         <v>Lisma Natalia</v>
@@ -18600,8 +19409,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000262::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M263" s="8">
+        <v>164000000000262</v>
+      </c>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="str">
         <f>MAIN!B264</f>
         <v>Listyo Hartanto</v>
@@ -18620,8 +19432,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000263::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M264" s="8">
+        <v>164000000000263</v>
+      </c>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B265" s="1" t="str">
         <f>MAIN!B265</f>
         <v>M. Ari Ardizah Nasution</v>
@@ -18640,8 +19455,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000264::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M265" s="8">
+        <v>164000000000264</v>
+      </c>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="str">
         <f>MAIN!B266</f>
         <v>M. Denny  Micrazudin</v>
@@ -18660,8 +19478,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000265::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M266" s="8">
+        <v>164000000000265</v>
+      </c>
+    </row>
+    <row r="267" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B267" s="1" t="str">
         <f>MAIN!B267</f>
         <v>M. Ridho Pramudia</v>
@@ -18680,8 +19501,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000266::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M267" s="8">
+        <v>164000000000266</v>
+      </c>
+    </row>
+    <row r="268" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B268" s="1" t="str">
         <f>MAIN!B268</f>
         <v>M. Rusdi</v>
@@ -18700,8 +19524,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000267::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M268" s="8">
+        <v>164000000000267</v>
+      </c>
+    </row>
+    <row r="269" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B269" s="1" t="str">
         <f>MAIN!B269</f>
         <v>M. Ervan Isyawal Akbar</v>
@@ -18720,8 +19547,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000268::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M269" s="8">
+        <v>164000000000268</v>
+      </c>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B270" s="1" t="str">
         <f>MAIN!B270</f>
         <v>Maharani Tanjungsari</v>
@@ -18740,8 +19570,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000269::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M270" s="8">
+        <v>164000000000269</v>
+      </c>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B271" s="1" t="str">
         <f>MAIN!B271</f>
         <v>Maharani Uthmaniah</v>
@@ -18760,8 +19593,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000270::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M271" s="8">
+        <v>164000000000270</v>
+      </c>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="str">
         <f>MAIN!B272</f>
         <v>Manotar Tamba</v>
@@ -18780,8 +19616,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000271::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M272" s="8">
+        <v>164000000000271</v>
+      </c>
+    </row>
+    <row r="273" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B273" s="1" t="str">
         <f>MAIN!B273</f>
         <v>Maradona Manurung</v>
@@ -18800,8 +19639,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000272::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M273" s="8">
+        <v>164000000000272</v>
+      </c>
+    </row>
+    <row r="274" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="str">
         <f>MAIN!B274</f>
         <v>Marbun Pantas Banjarmahon</v>
@@ -18820,8 +19662,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000273::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M274" s="8">
+        <v>164000000000273</v>
+      </c>
+    </row>
+    <row r="275" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B275" s="1" t="str">
         <f>MAIN!B275</f>
         <v>Marcella Avia Ramadhinaningrum</v>
@@ -18840,8 +19685,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000274::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M275" s="8">
+        <v>164000000000274</v>
+      </c>
+    </row>
+    <row r="276" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="str">
         <f>MAIN!B276</f>
         <v>Marissa Watak</v>
@@ -18860,8 +19708,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000275::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M276" s="8">
+        <v>164000000000275</v>
+      </c>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B277" s="1" t="str">
         <f>MAIN!B277</f>
         <v>Marten Tabun</v>
@@ -18880,8 +19731,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000276::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M277" s="8">
+        <v>164000000000276</v>
+      </c>
+    </row>
+    <row r="278" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B278" s="1" t="str">
         <f>MAIN!B278</f>
         <v>Martimbul Rahman</v>
@@ -18900,8 +19754,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000277::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M278" s="8">
+        <v>164000000000277</v>
+      </c>
+    </row>
+    <row r="279" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="str">
         <f>MAIN!B279</f>
         <v>Marungkil Sagala</v>
@@ -18920,8 +19777,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000278::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M279" s="8">
+        <v>164000000000278</v>
+      </c>
+    </row>
+    <row r="280" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B280" s="1" t="str">
         <f>MAIN!B280</f>
         <v>Marzuki</v>
@@ -18940,8 +19800,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000279::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M280" s="8">
+        <v>164000000000279</v>
+      </c>
+    </row>
+    <row r="281" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B281" s="1" t="str">
         <f>MAIN!B281</f>
         <v>Mashuri Mashuri</v>
@@ -18960,8 +19823,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000280::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M281" s="8">
+        <v>164000000000280</v>
+      </c>
+    </row>
+    <row r="282" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="str">
         <f>MAIN!B282</f>
         <v>Mat Soleh</v>
@@ -18980,8 +19846,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000281::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M282" s="8">
+        <v>164000000000281</v>
+      </c>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B283" s="1" t="str">
         <f>MAIN!B283</f>
         <v>Mhd Syahputra</v>
@@ -19000,8 +19869,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000282::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M283" s="8">
+        <v>164000000000282</v>
+      </c>
+    </row>
+    <row r="284" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="str">
         <f>MAIN!B284</f>
         <v>Mia Puspitasari</v>
@@ -19020,8 +19892,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000283::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M284" s="8">
+        <v>164000000000283</v>
+      </c>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B285" s="1" t="str">
         <f>MAIN!B285</f>
         <v>Midin Ena</v>
@@ -19040,8 +19915,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000284::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M285" s="8">
+        <v>164000000000284</v>
+      </c>
+    </row>
+    <row r="286" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B286" s="1" t="str">
         <f>MAIN!B286</f>
         <v>Miftakhul Muzakky</v>
@@ -19060,8 +19938,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000285::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M286" s="8">
+        <v>164000000000285</v>
+      </c>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B287" s="1" t="str">
         <f>MAIN!B287</f>
         <v>Mista</v>
@@ -19080,8 +19961,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000286::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M287" s="8">
+        <v>164000000000286</v>
+      </c>
+    </row>
+    <row r="288" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B288" s="1" t="str">
         <f>MAIN!B288</f>
         <v>Mochamad Samman</v>
@@ -19100,8 +19984,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000287::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M288" s="8">
+        <v>164000000000287</v>
+      </c>
+    </row>
+    <row r="289" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B289" s="1" t="str">
         <f>MAIN!B289</f>
         <v>Moh. Afif</v>
@@ -19120,8 +20007,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000288::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M289" s="8">
+        <v>164000000000288</v>
+      </c>
+    </row>
+    <row r="290" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B290" s="1" t="str">
         <f>MAIN!B290</f>
         <v>Mohammad Arman Tompo</v>
@@ -19140,8 +20030,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000289::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M290" s="8">
+        <v>164000000000289</v>
+      </c>
+    </row>
+    <row r="291" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B291" s="1" t="str">
         <f>MAIN!B291</f>
         <v>Mohd. Elfan Pratama</v>
@@ -19160,8 +20053,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000290::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M291" s="8">
+        <v>164000000000290</v>
+      </c>
+    </row>
+    <row r="292" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B292" s="1" t="str">
         <f>MAIN!B292</f>
         <v>Monang Simarmata</v>
@@ -19180,8 +20076,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000291::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M292" s="8">
+        <v>164000000000291</v>
+      </c>
+    </row>
+    <row r="293" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B293" s="1" t="str">
         <f>MAIN!B293</f>
         <v>Moritz Thomsen Marbun</v>
@@ -19200,8 +20099,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000292::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M293" s="8">
+        <v>164000000000292</v>
+      </c>
+    </row>
+    <row r="294" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B294" s="1" t="str">
         <f>MAIN!B294</f>
         <v>Muhamad Hamdan Rifai</v>
@@ -19220,8 +20122,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000293::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M294" s="8">
+        <v>164000000000293</v>
+      </c>
+    </row>
+    <row r="295" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B295" s="1" t="str">
         <f>MAIN!B295</f>
         <v>Muhamad Ikhsan</v>
@@ -19240,8 +20145,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000294::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M295" s="8">
+        <v>164000000000294</v>
+      </c>
+    </row>
+    <row r="296" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B296" s="1" t="str">
         <f>MAIN!B296</f>
         <v>Muhamad Nurhamsach</v>
@@ -19260,8 +20168,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000295::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M296" s="8">
+        <v>164000000000295</v>
+      </c>
+    </row>
+    <row r="297" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B297" s="1" t="str">
         <f>MAIN!B297</f>
         <v>Muhammad Ardiansyah</v>
@@ -19280,8 +20191,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000296::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M297" s="8">
+        <v>164000000000296</v>
+      </c>
+    </row>
+    <row r="298" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B298" s="1" t="str">
         <f>MAIN!B298</f>
         <v>Muhammad Khadafy</v>
@@ -19300,8 +20214,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000297::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M298" s="8">
+        <v>164000000000297</v>
+      </c>
+    </row>
+    <row r="299" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B299" s="1" t="str">
         <f>MAIN!B299</f>
         <v>Muhammad Taufan</v>
@@ -19320,8 +20237,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000298::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M299" s="8">
+        <v>164000000000298</v>
+      </c>
+    </row>
+    <row r="300" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B300" s="1" t="str">
         <f>MAIN!B300</f>
         <v>Muklis</v>
@@ -19340,8 +20260,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000299::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M300" s="8">
+        <v>164000000000299</v>
+      </c>
+    </row>
+    <row r="301" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B301" s="1" t="str">
         <f>MAIN!B301</f>
         <v>Mulia Rohanson Harahap</v>
@@ -19360,8 +20283,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000300::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M301" s="8">
+        <v>164000000000300</v>
+      </c>
+    </row>
+    <row r="302" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B302" s="1" t="str">
         <f>MAIN!B302</f>
         <v>Mullan Tresna</v>
@@ -19380,8 +20306,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000301::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M302" s="8">
+        <v>164000000000301</v>
+      </c>
+    </row>
+    <row r="303" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B303" s="1" t="str">
         <f>MAIN!B303</f>
         <v>Mulyadi</v>
@@ -19400,8 +20329,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000302::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M303" s="8">
+        <v>164000000000302</v>
+      </c>
+    </row>
+    <row r="304" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B304" s="1" t="str">
         <f>MAIN!B304</f>
         <v>Mulyono</v>
@@ -19420,8 +20352,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000303::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="305" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M304" s="8">
+        <v>164000000000303</v>
+      </c>
+    </row>
+    <row r="305" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B305" s="1" t="str">
         <f>MAIN!B305</f>
         <v>Murdiansyah</v>
@@ -19440,8 +20375,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000304::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="306" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M305" s="8">
+        <v>164000000000304</v>
+      </c>
+    </row>
+    <row r="306" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B306" s="1" t="str">
         <f>MAIN!B306</f>
         <v>Mursalim</v>
@@ -19460,8 +20398,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000305::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="307" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M306" s="8">
+        <v>164000000000305</v>
+      </c>
+    </row>
+    <row r="307" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B307" s="1" t="str">
         <f>MAIN!B307</f>
         <v>Nancy Meriana Sinaga</v>
@@ -19480,8 +20421,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000306::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M307" s="8">
+        <v>164000000000306</v>
+      </c>
+    </row>
+    <row r="308" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="str">
         <f>MAIN!B308</f>
         <v>Nandang</v>
@@ -19500,8 +20444,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000307::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M308" s="8">
+        <v>164000000000307</v>
+      </c>
+    </row>
+    <row r="309" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B309" s="1" t="str">
         <f>MAIN!B309</f>
         <v>Narno</v>
@@ -19520,8 +20467,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000308::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M309" s="8">
+        <v>164000000000308</v>
+      </c>
+    </row>
+    <row r="310" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="str">
         <f>MAIN!B310</f>
         <v>Nasrul Anwar P.</v>
@@ -19540,8 +20490,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000309::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M310" s="8">
+        <v>164000000000309</v>
+      </c>
+    </row>
+    <row r="311" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B311" s="1" t="str">
         <f>MAIN!B311</f>
         <v>Nawal</v>
@@ -19560,8 +20513,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000310::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="312" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M311" s="8">
+        <v>164000000000310</v>
+      </c>
+    </row>
+    <row r="312" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B312" s="1" t="str">
         <f>MAIN!B312</f>
         <v>Nawir Lahamutu</v>
@@ -19580,8 +20536,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000311::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M312" s="8">
+        <v>164000000000311</v>
+      </c>
+    </row>
+    <row r="313" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B313" s="1" t="str">
         <f>MAIN!B313</f>
         <v>Nicky Kurnia</v>
@@ -19600,8 +20559,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000312::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="314" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M313" s="8">
+        <v>164000000000312</v>
+      </c>
+    </row>
+    <row r="314" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B314" s="1" t="str">
         <f>MAIN!B314</f>
         <v>Noercholis Firmansyah</v>
@@ -19620,8 +20582,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000313::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M314" s="8">
+        <v>164000000000313</v>
+      </c>
+    </row>
+    <row r="315" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B315" s="1" t="str">
         <f>MAIN!B315</f>
         <v>Nopitasari</v>
@@ -19640,8 +20605,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000314::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="316" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M315" s="8">
+        <v>164000000000314</v>
+      </c>
+    </row>
+    <row r="316" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B316" s="1" t="str">
         <f>MAIN!B316</f>
         <v>Nora Meilissa</v>
@@ -19660,8 +20628,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000315::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="317" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M316" s="8">
+        <v>164000000000315</v>
+      </c>
+    </row>
+    <row r="317" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B317" s="1" t="str">
         <f>MAIN!B317</f>
         <v>Novalia</v>
@@ -19680,8 +20651,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000316::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="318" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M317" s="8">
+        <v>164000000000316</v>
+      </c>
+    </row>
+    <row r="318" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B318" s="1" t="str">
         <f>MAIN!B318</f>
         <v>Novan Nugraha</v>
@@ -19700,8 +20674,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000317::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M318" s="8">
+        <v>164000000000317</v>
+      </c>
+    </row>
+    <row r="319" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B319" s="1" t="str">
         <f>MAIN!B319</f>
         <v>Nugraha</v>
@@ -19720,8 +20697,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000318::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="320" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M319" s="8">
+        <v>164000000000318</v>
+      </c>
+    </row>
+    <row r="320" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B320" s="1" t="str">
         <f>MAIN!B320</f>
         <v>Nugroho Putranto</v>
@@ -19740,8 +20720,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000319::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="321" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M320" s="8">
+        <v>164000000000319</v>
+      </c>
+    </row>
+    <row r="321" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B321" s="1" t="str">
         <f>MAIN!B321</f>
         <v>Nur Indra Sri Melati</v>
@@ -19760,8 +20743,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000320::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="322" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M321" s="8">
+        <v>164000000000320</v>
+      </c>
+    </row>
+    <row r="322" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B322" s="1" t="str">
         <f>MAIN!B322</f>
         <v>Nur Kusumowati</v>
@@ -19780,8 +20766,11 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000321::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="323" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M322" s="8">
+        <v>164000000000321</v>
+      </c>
+    </row>
+    <row r="323" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B323" s="1" t="str">
         <f>MAIN!B323</f>
         <v>Nurhidayat</v>
@@ -19808,8 +20797,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000322::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="324" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M323" s="8">
+        <v>164000000000322</v>
+      </c>
+    </row>
+    <row r="324" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B324" s="1" t="str">
         <f>MAIN!B324</f>
         <v>Otong Bustori</v>
@@ -19828,8 +20820,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000323::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="325" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M324" s="8">
+        <v>164000000000323</v>
+      </c>
+    </row>
+    <row r="325" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B325" s="1" t="str">
         <f>MAIN!B325</f>
         <v>Paino Suprayinto</v>
@@ -19848,8 +20843,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000324::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="326" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M325" s="8">
+        <v>164000000000324</v>
+      </c>
+    </row>
+    <row r="326" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B326" s="1" t="str">
         <f>MAIN!B326</f>
         <v>Panca Yudi Baskoro</v>
@@ -19868,8 +20866,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000325::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="327" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M326" s="8">
+        <v>164000000000325</v>
+      </c>
+    </row>
+    <row r="327" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B327" s="1" t="str">
         <f>MAIN!B327</f>
         <v>Panji Bima Santri</v>
@@ -19888,8 +20889,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000326::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="328" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M327" s="8">
+        <v>164000000000326</v>
+      </c>
+    </row>
+    <row r="328" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B328" s="1" t="str">
         <f>MAIN!B328</f>
         <v>Parulian Napitupulu</v>
@@ -19908,8 +20912,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000327::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="329" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M328" s="8">
+        <v>164000000000327</v>
+      </c>
+    </row>
+    <row r="329" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B329" s="1" t="str">
         <f>MAIN!B329</f>
         <v>Paryanto</v>
@@ -19928,8 +20935,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000328::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="330" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M329" s="8">
+        <v>164000000000328</v>
+      </c>
+    </row>
+    <row r="330" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B330" s="1" t="str">
         <f>MAIN!B330</f>
         <v>Pikri Hidayat</v>
@@ -19948,8 +20958,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000329::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="331" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M330" s="8">
+        <v>164000000000329</v>
+      </c>
+    </row>
+    <row r="331" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B331" s="1" t="str">
         <f>MAIN!B331</f>
         <v>Prayanti Dewi Anggraini</v>
@@ -19968,8 +20981,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000330::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="332" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M331" s="8">
+        <v>164000000000330</v>
+      </c>
+    </row>
+    <row r="332" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B332" s="1" t="str">
         <f>MAIN!B332</f>
         <v>Prayati Zai</v>
@@ -19988,8 +21004,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000331::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="333" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M332" s="8">
+        <v>164000000000331</v>
+      </c>
+    </row>
+    <row r="333" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B333" s="1" t="str">
         <f>MAIN!B333</f>
         <v>Pristu Andonoto</v>
@@ -20008,8 +21027,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000332::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="334" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M333" s="8">
+        <v>164000000000332</v>
+      </c>
+    </row>
+    <row r="334" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B334" s="1" t="str">
         <f>MAIN!B334</f>
         <v>Putra Perdana Tirtomoyo</v>
@@ -20028,8 +21050,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000333::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="335" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M334" s="8">
+        <v>164000000000333</v>
+      </c>
+    </row>
+    <row r="335" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B335" s="1" t="str">
         <f>MAIN!B335</f>
         <v>R. Lar Kumalaning Tresno</v>
@@ -20048,8 +21073,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000334::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="336" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M335" s="8">
+        <v>164000000000334</v>
+      </c>
+    </row>
+    <row r="336" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B336" s="1" t="str">
         <f>MAIN!B336</f>
         <v>Rachmad</v>
@@ -20068,8 +21096,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000335::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="337" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M336" s="8">
+        <v>164000000000335</v>
+      </c>
+    </row>
+    <row r="337" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B337" s="1" t="str">
         <f>MAIN!B337</f>
         <v>Radjiman</v>
@@ -20088,8 +21119,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000336::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="338" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M337" s="8">
+        <v>164000000000336</v>
+      </c>
+    </row>
+    <row r="338" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B338" s="1" t="str">
         <f>MAIN!B338</f>
         <v>Rafi Firman Saputra</v>
@@ -20108,8 +21142,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000337::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="339" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M338" s="8">
+        <v>164000000000337</v>
+      </c>
+    </row>
+    <row r="339" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B339" s="1" t="str">
         <f>MAIN!B339</f>
         <v>Rahmat Riyadi</v>
@@ -20128,8 +21165,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000338::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="340" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M339" s="8">
+        <v>164000000000338</v>
+      </c>
+    </row>
+    <row r="340" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B340" s="1" t="str">
         <f>MAIN!B340</f>
         <v>Rahmat Sirfano</v>
@@ -20148,8 +21188,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000339::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="341" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M340" s="8">
+        <v>164000000000339</v>
+      </c>
+    </row>
+    <row r="341" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B341" s="1" t="str">
         <f>MAIN!B341</f>
         <v>Rais Indra Noor</v>
@@ -20168,8 +21211,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000340::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="342" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M341" s="8">
+        <v>164000000000340</v>
+      </c>
+    </row>
+    <row r="342" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B342" s="1" t="str">
         <f>MAIN!B342</f>
         <v>Rakman A. Hadi</v>
@@ -20188,8 +21234,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000341::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="343" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M342" s="8">
+        <v>164000000000341</v>
+      </c>
+    </row>
+    <row r="343" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B343" s="1" t="str">
         <f>MAIN!B343</f>
         <v>Ramaizon</v>
@@ -20208,8 +21257,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000342::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="344" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M343" s="8">
+        <v>164000000000342</v>
+      </c>
+    </row>
+    <row r="344" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B344" s="1" t="str">
         <f>MAIN!B344</f>
         <v>Rangga Darmawan</v>
@@ -20228,8 +21280,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000343::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="345" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M344" s="8">
+        <v>164000000000343</v>
+      </c>
+    </row>
+    <row r="345" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B345" s="1" t="str">
         <f>MAIN!B345</f>
         <v>Raoli Nainggolan</v>
@@ -20248,8 +21303,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000344::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="346" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M345" s="8">
+        <v>164000000000344</v>
+      </c>
+    </row>
+    <row r="346" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B346" s="1" t="str">
         <f>MAIN!B346</f>
         <v>Rayan Suryadikara</v>
@@ -20268,8 +21326,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000345::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="347" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M346" s="8">
+        <v>164000000000345</v>
+      </c>
+    </row>
+    <row r="347" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B347" s="1" t="str">
         <f>MAIN!B347</f>
         <v>Redi Setiadi</v>
@@ -20288,8 +21349,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000346::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="348" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M347" s="8">
+        <v>164000000000346</v>
+      </c>
+    </row>
+    <row r="348" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B348" s="1" t="str">
         <f>MAIN!B348</f>
         <v>Redi Subekti</v>
@@ -20308,8 +21372,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000347::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="349" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M348" s="8">
+        <v>164000000000347</v>
+      </c>
+    </row>
+    <row r="349" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B349" s="1" t="str">
         <f>MAIN!B349</f>
         <v>Rendy Prananta Purba</v>
@@ -20328,8 +21395,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000348::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="350" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M349" s="8">
+        <v>164000000000348</v>
+      </c>
+    </row>
+    <row r="350" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B350" s="1" t="str">
         <f>MAIN!B350</f>
         <v>Reni Septiana</v>
@@ -20348,8 +21418,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000349::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="351" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M350" s="8">
+        <v>164000000000349</v>
+      </c>
+    </row>
+    <row r="351" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B351" s="1" t="str">
         <f>MAIN!B351</f>
         <v>Rere Ronggolawe</v>
@@ -20368,8 +21441,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000350::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="352" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M351" s="8">
+        <v>164000000000350</v>
+      </c>
+    </row>
+    <row r="352" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B352" s="1" t="str">
         <f>MAIN!B352</f>
         <v>Retnasha Gameswari</v>
@@ -20388,8 +21464,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000351::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="353" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M352" s="8">
+        <v>164000000000351</v>
+      </c>
+    </row>
+    <row r="353" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B353" s="1" t="str">
         <f>MAIN!B353</f>
         <v>Rhino Priawan</v>
@@ -20408,8 +21487,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000352::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="354" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M353" s="8">
+        <v>164000000000352</v>
+      </c>
+    </row>
+    <row r="354" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B354" s="1" t="str">
         <f>MAIN!B354</f>
         <v>Rian Yushak</v>
@@ -20428,8 +21510,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000353::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="355" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M354" s="8">
+        <v>164000000000353</v>
+      </c>
+    </row>
+    <row r="355" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B355" s="1" t="str">
         <f>MAIN!B355</f>
         <v>Riandi</v>
@@ -20448,8 +21533,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000354::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="356" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M355" s="8">
+        <v>164000000000354</v>
+      </c>
+    </row>
+    <row r="356" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B356" s="1" t="str">
         <f>MAIN!B356</f>
         <v>Ricky Samuel</v>
@@ -20468,8 +21556,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000355::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="357" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M356" s="8">
+        <v>164000000000355</v>
+      </c>
+    </row>
+    <row r="357" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B357" s="1" t="str">
         <f>MAIN!B357</f>
         <v>Ridwan Nurhadi</v>
@@ -20488,8 +21579,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000356::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="358" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M357" s="8">
+        <v>164000000000356</v>
+      </c>
+    </row>
+    <row r="358" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B358" s="1" t="str">
         <f>MAIN!B358</f>
         <v>Rifki</v>
@@ -20508,8 +21602,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000357::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="359" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M358" s="8">
+        <v>164000000000357</v>
+      </c>
+    </row>
+    <row r="359" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B359" s="1" t="str">
         <f>MAIN!B359</f>
         <v>Rika Ginting</v>
@@ -20528,8 +21625,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000358::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="360" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M359" s="8">
+        <v>164000000000358</v>
+      </c>
+    </row>
+    <row r="360" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B360" s="1" t="str">
         <f>MAIN!B360</f>
         <v>Riki Chairul Anwar</v>
@@ -20548,8 +21648,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000359::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="361" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M360" s="8">
+        <v>164000000000359</v>
+      </c>
+    </row>
+    <row r="361" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B361" s="1" t="str">
         <f>MAIN!B361</f>
         <v>Riki Evindra</v>
@@ -20568,8 +21671,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000360::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="362" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M361" s="8">
+        <v>164000000000360</v>
+      </c>
+    </row>
+    <row r="362" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B362" s="1" t="str">
         <f>MAIN!B362</f>
         <v>Rinaldi Asrin</v>
@@ -20588,8 +21694,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000361::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="363" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M362" s="8">
+        <v>164000000000361</v>
+      </c>
+    </row>
+    <row r="363" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B363" s="1" t="str">
         <f>MAIN!B363</f>
         <v>Rio Hakim</v>
@@ -20608,8 +21717,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000362::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="364" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M363" s="8">
+        <v>164000000000362</v>
+      </c>
+    </row>
+    <row r="364" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B364" s="1" t="str">
         <f>MAIN!B364</f>
         <v>Rio Martha</v>
@@ -20628,8 +21740,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000363::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="365" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M364" s="8">
+        <v>164000000000363</v>
+      </c>
+    </row>
+    <row r="365" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B365" s="1" t="str">
         <f>MAIN!B365</f>
         <v>Risdyanto Risdyanto</v>
@@ -20648,8 +21763,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000364::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="366" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M365" s="8">
+        <v>164000000000364</v>
+      </c>
+    </row>
+    <row r="366" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B366" s="1" t="str">
         <f>MAIN!B366</f>
         <v>Rizak Tri Septian</v>
@@ -20668,8 +21786,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000365::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="367" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M366" s="8">
+        <v>164000000000365</v>
+      </c>
+    </row>
+    <row r="367" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B367" s="1" t="str">
         <f>MAIN!B367</f>
         <v>Rizki Akbar</v>
@@ -20688,8 +21809,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000366::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="368" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M367" s="8">
+        <v>164000000000366</v>
+      </c>
+    </row>
+    <row r="368" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B368" s="1" t="str">
         <f>MAIN!B368</f>
         <v>Rizky Fauzy</v>
@@ -20708,8 +21832,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000367::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="369" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M368" s="8">
+        <v>164000000000367</v>
+      </c>
+    </row>
+    <row r="369" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B369" s="1" t="str">
         <f>MAIN!B369</f>
         <v>Rizky Reza Pradipta</v>
@@ -20728,8 +21855,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000368::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="370" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M369" s="8">
+        <v>164000000000368</v>
+      </c>
+    </row>
+    <row r="370" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B370" s="1" t="str">
         <f>MAIN!B370</f>
         <v>Rohendi Rohendi</v>
@@ -20748,8 +21878,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000369::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="371" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M370" s="8">
+        <v>164000000000369</v>
+      </c>
+    </row>
+    <row r="371" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B371" s="1" t="str">
         <f>MAIN!B371</f>
         <v>Rohmani</v>
@@ -20768,8 +21901,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000370::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="372" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M371" s="8">
+        <v>164000000000370</v>
+      </c>
+    </row>
+    <row r="372" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B372" s="1" t="str">
         <f>MAIN!B372</f>
         <v>Rommel Hutapea</v>
@@ -20788,8 +21924,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000371::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="373" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M372" s="8">
+        <v>164000000000371</v>
+      </c>
+    </row>
+    <row r="373" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B373" s="1" t="str">
         <f>MAIN!B373</f>
         <v>Roy Aditya</v>
@@ -20808,8 +21947,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000372::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="374" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M373" s="8">
+        <v>164000000000372</v>
+      </c>
+    </row>
+    <row r="374" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B374" s="1" t="str">
         <f>MAIN!B374</f>
         <v>Rubah</v>
@@ -20828,8 +21970,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000373::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="375" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M374" s="8">
+        <v>164000000000373</v>
+      </c>
+    </row>
+    <row r="375" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B375" s="1" t="str">
         <f>MAIN!B375</f>
         <v>Rudi Junaedi</v>
@@ -20848,8 +21993,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000374::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="376" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M375" s="8">
+        <v>164000000000374</v>
+      </c>
+    </row>
+    <row r="376" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B376" s="1" t="str">
         <f>MAIN!B376</f>
         <v>Ruswandi</v>
@@ -20868,8 +22016,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000375::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="377" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M376" s="8">
+        <v>164000000000375</v>
+      </c>
+    </row>
+    <row r="377" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B377" s="1" t="str">
         <f>MAIN!B377</f>
         <v>Ryan Bagus Sasminta</v>
@@ -20888,8 +22039,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000376::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="378" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M377" s="8">
+        <v>164000000000376</v>
+      </c>
+    </row>
+    <row r="378" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B378" s="1" t="str">
         <f>MAIN!B378</f>
         <v>Saarah Andriani</v>
@@ -20908,8 +22062,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000377::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="379" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M378" s="8">
+        <v>164000000000377</v>
+      </c>
+    </row>
+    <row r="379" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B379" s="1" t="str">
         <f>MAIN!B379</f>
         <v>Safira Nurbaiti</v>
@@ -20928,8 +22085,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000378::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="380" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M379" s="8">
+        <v>164000000000378</v>
+      </c>
+    </row>
+    <row r="380" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B380" s="1" t="str">
         <f>MAIN!B380</f>
         <v>Saifulloh</v>
@@ -20948,8 +22108,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000379::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="381" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M380" s="8">
+        <v>164000000000379</v>
+      </c>
+    </row>
+    <row r="381" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B381" s="1" t="str">
         <f>MAIN!B381</f>
         <v>Saifuloh</v>
@@ -20968,8 +22131,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000380::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="382" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M381" s="8">
+        <v>164000000000380</v>
+      </c>
+    </row>
+    <row r="382" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B382" s="1" t="str">
         <f>MAIN!B382</f>
         <v>Sakinah Tantriani</v>
@@ -20988,8 +22154,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000381::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="383" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M382" s="8">
+        <v>164000000000381</v>
+      </c>
+    </row>
+    <row r="383" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="str">
         <f>MAIN!B383</f>
         <v>Samad Abdul</v>
@@ -21008,8 +22177,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000382::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="384" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M383" s="8">
+        <v>164000000000382</v>
+      </c>
+    </row>
+    <row r="384" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B384" s="1" t="str">
         <f>MAIN!B384</f>
         <v>Samsul Hadi</v>
@@ -21028,8 +22200,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000383::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="385" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M384" s="8">
+        <v>164000000000383</v>
+      </c>
+    </row>
+    <row r="385" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B385" s="1" t="str">
         <f>MAIN!B385</f>
         <v>Sandika</v>
@@ -21048,8 +22223,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000384::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="386" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M385" s="8">
+        <v>164000000000384</v>
+      </c>
+    </row>
+    <row r="386" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B386" s="1" t="str">
         <f>MAIN!B386</f>
         <v>Sang Toga Sitompul</v>
@@ -21068,8 +22246,11 @@
         <f t="shared" si="5"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000385::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="387" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M386" s="8">
+        <v>164000000000385</v>
+      </c>
+    </row>
+    <row r="387" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B387" s="1" t="str">
         <f>MAIN!B387</f>
         <v>Santi Dewi R. W.</v>
@@ -21096,8 +22277,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000386::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="388" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M387" s="8">
+        <v>164000000000386</v>
+      </c>
+    </row>
+    <row r="388" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B388" s="1" t="str">
         <f>MAIN!B388</f>
         <v>Sarah Sibarani</v>
@@ -21116,8 +22300,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000387::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="389" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M388" s="8">
+        <v>164000000000387</v>
+      </c>
+    </row>
+    <row r="389" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B389" s="1" t="str">
         <f>MAIN!B389</f>
         <v>Sarif Hidayatul Umah</v>
@@ -21136,8 +22323,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000388::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="390" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M389" s="8">
+        <v>164000000000388</v>
+      </c>
+    </row>
+    <row r="390" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B390" s="1" t="str">
         <f>MAIN!B390</f>
         <v>Satria Budi Raharja</v>
@@ -21156,8 +22346,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000389::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="391" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M390" s="8">
+        <v>164000000000389</v>
+      </c>
+    </row>
+    <row r="391" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B391" s="1" t="str">
         <f>MAIN!B391</f>
         <v>Saut M. P. L. Tobing</v>
@@ -21176,8 +22369,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000390::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="392" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M391" s="8">
+        <v>164000000000390</v>
+      </c>
+    </row>
+    <row r="392" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B392" s="1" t="str">
         <f>MAIN!B392</f>
         <v>Seftiyan Hadi Maulana</v>
@@ -21196,8 +22392,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000391::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="393" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M392" s="8">
+        <v>164000000000391</v>
+      </c>
+    </row>
+    <row r="393" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B393" s="1" t="str">
         <f>MAIN!B393</f>
         <v>Sena Andi Satria</v>
@@ -21216,8 +22415,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000392::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="394" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M393" s="8">
+        <v>164000000000392</v>
+      </c>
+    </row>
+    <row r="394" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B394" s="1" t="str">
         <f>MAIN!B394</f>
         <v>Setiadi</v>
@@ -21236,8 +22438,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000393::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="395" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M394" s="8">
+        <v>164000000000393</v>
+      </c>
+    </row>
+    <row r="395" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B395" s="1" t="str">
         <f>MAIN!B395</f>
         <v>Sherly Tamira</v>
@@ -21256,8 +22461,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000394::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="396" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M395" s="8">
+        <v>164000000000394</v>
+      </c>
+    </row>
+    <row r="396" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B396" s="1" t="str">
         <f>MAIN!B396</f>
         <v>Shihab</v>
@@ -21276,8 +22484,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000395::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="397" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M396" s="8">
+        <v>164000000000395</v>
+      </c>
+    </row>
+    <row r="397" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B397" s="1" t="str">
         <f>MAIN!B397</f>
         <v>Shobarin Jabar</v>
@@ -21296,8 +22507,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000396::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="398" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M397" s="8">
+        <v>164000000000396</v>
+      </c>
+    </row>
+    <row r="398" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B398" s="1" t="str">
         <f>MAIN!B398</f>
         <v>Sholehah</v>
@@ -21316,8 +22530,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000397::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="399" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M398" s="8">
+        <v>164000000000397</v>
+      </c>
+    </row>
+    <row r="399" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B399" s="1" t="str">
         <f>MAIN!B399</f>
         <v>Sigit Rudiantono</v>
@@ -21336,8 +22553,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000398::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="400" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M399" s="8">
+        <v>164000000000398</v>
+      </c>
+    </row>
+    <row r="400" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B400" s="1" t="str">
         <f>MAIN!B400</f>
         <v>Silvia Putri</v>
@@ -21356,8 +22576,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000399::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M400" s="8">
+        <v>164000000000399</v>
+      </c>
+    </row>
+    <row r="401" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B401" s="1" t="str">
         <f>MAIN!B401</f>
         <v>Simron Ronaldi Nasution</v>
@@ -21376,8 +22599,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000400::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="402" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M401" s="8">
+        <v>164000000000400</v>
+      </c>
+    </row>
+    <row r="402" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B402" s="1" t="str">
         <f>MAIN!B402</f>
         <v>Sinta Vera Trikawati</v>
@@ -21396,8 +22622,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000401::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="403" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M402" s="8">
+        <v>164000000000401</v>
+      </c>
+    </row>
+    <row r="403" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B403" s="1" t="str">
         <f>MAIN!B403</f>
         <v>Sir Muhammad Zafrulloh Khan</v>
@@ -21416,8 +22645,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000402::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="404" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M403" s="8">
+        <v>164000000000402</v>
+      </c>
+    </row>
+    <row r="404" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B404" s="1" t="str">
         <f>MAIN!B404</f>
         <v>Siska Marlina</v>
@@ -21436,8 +22668,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000403::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="405" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M404" s="8">
+        <v>164000000000403</v>
+      </c>
+    </row>
+    <row r="405" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B405" s="1" t="str">
         <f>MAIN!B405</f>
         <v>Siswanto</v>
@@ -21456,8 +22691,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000404::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="406" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M405" s="8">
+        <v>164000000000404</v>
+      </c>
+    </row>
+    <row r="406" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B406" s="1" t="str">
         <f>MAIN!B406</f>
         <v>Siti Mulyani</v>
@@ -21476,8 +22714,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000405::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="407" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M406" s="8">
+        <v>164000000000405</v>
+      </c>
+    </row>
+    <row r="407" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B407" s="1" t="str">
         <f>MAIN!B407</f>
         <v>Sjanti Devi</v>
@@ -21496,8 +22737,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000406::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="408" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M407" s="8">
+        <v>164000000000406</v>
+      </c>
+    </row>
+    <row r="408" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B408" s="1" t="str">
         <f>MAIN!B408</f>
         <v>Slamet Budi Setiawan</v>
@@ -21516,8 +22760,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000407::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="409" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M408" s="8">
+        <v>164000000000407</v>
+      </c>
+    </row>
+    <row r="409" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B409" s="1" t="str">
         <f>MAIN!B409</f>
         <v>Sofyan Maulana</v>
@@ -21536,8 +22783,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000408::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="410" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M409" s="8">
+        <v>164000000000408</v>
+      </c>
+    </row>
+    <row r="410" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B410" s="1" t="str">
         <f>MAIN!B410</f>
         <v>Subagio</v>
@@ -21556,8 +22806,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000409::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="411" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M410" s="8">
+        <v>164000000000409</v>
+      </c>
+    </row>
+    <row r="411" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B411" s="1" t="str">
         <f>MAIN!B411</f>
         <v>Suci Mardiana</v>
@@ -21576,8 +22829,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000410::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="412" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M411" s="8">
+        <v>164000000000410</v>
+      </c>
+    </row>
+    <row r="412" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B412" s="1" t="str">
         <f>MAIN!B412</f>
         <v>Suci Rachma Sari</v>
@@ -21596,8 +22852,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000411::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="413" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M412" s="8">
+        <v>164000000000411</v>
+      </c>
+    </row>
+    <row r="413" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B413" s="1" t="str">
         <f>MAIN!B413</f>
         <v>Sudarlan Sudarlan</v>
@@ -21616,8 +22875,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000412::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="414" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M413" s="8">
+        <v>164000000000412</v>
+      </c>
+    </row>
+    <row r="414" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B414" s="1" t="str">
         <f>MAIN!B414</f>
         <v>Sufie Amalia</v>
@@ -21636,8 +22898,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000413::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="415" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M414" s="8">
+        <v>164000000000413</v>
+      </c>
+    </row>
+    <row r="415" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B415" s="1" t="str">
         <f>MAIN!B415</f>
         <v>Sugeng Ismanto</v>
@@ -21656,8 +22921,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000414::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="416" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M415" s="8">
+        <v>164000000000414</v>
+      </c>
+    </row>
+    <row r="416" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="str">
         <f>MAIN!B416</f>
         <v>Sugiarto Sugiarto</v>
@@ -21676,8 +22944,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000415::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="417" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M416" s="8">
+        <v>164000000000415</v>
+      </c>
+    </row>
+    <row r="417" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B417" s="1" t="str">
         <f>MAIN!B417</f>
         <v>Sulih</v>
@@ -21696,8 +22967,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000416::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="418" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M417" s="8">
+        <v>164000000000416</v>
+      </c>
+    </row>
+    <row r="418" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B418" s="1" t="str">
         <f>MAIN!B418</f>
         <v>Sumadi</v>
@@ -21716,8 +22990,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000417::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="419" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M418" s="8">
+        <v>164000000000417</v>
+      </c>
+    </row>
+    <row r="419" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B419" s="1" t="str">
         <f>MAIN!B419</f>
         <v>Sumirat</v>
@@ -21736,8 +23013,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000418::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="420" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M419" s="8">
+        <v>164000000000418</v>
+      </c>
+    </row>
+    <row r="420" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B420" s="1" t="str">
         <f>MAIN!B420</f>
         <v>Sunaryati</v>
@@ -21756,8 +23036,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000419::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="421" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M420" s="8">
+        <v>164000000000419</v>
+      </c>
+    </row>
+    <row r="421" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B421" s="1" t="str">
         <f>MAIN!B421</f>
         <v>Supriyadi</v>
@@ -21776,8 +23059,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000420::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="422" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M421" s="8">
+        <v>164000000000420</v>
+      </c>
+    </row>
+    <row r="422" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B422" s="1" t="str">
         <f>MAIN!B422</f>
         <v>Suriono Suriono</v>
@@ -21796,8 +23082,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000421::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="423" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M422" s="8">
+        <v>164000000000421</v>
+      </c>
+    </row>
+    <row r="423" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B423" s="1" t="str">
         <f>MAIN!B423</f>
         <v>Surono</v>
@@ -21816,8 +23105,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000422::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="424" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M423" s="8">
+        <v>164000000000422</v>
+      </c>
+    </row>
+    <row r="424" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B424" s="1" t="str">
         <f>MAIN!B424</f>
         <v>Surtoyo Syukri</v>
@@ -21836,8 +23128,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000423::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="425" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M424" s="8">
+        <v>164000000000423</v>
+      </c>
+    </row>
+    <row r="425" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B425" s="1" t="str">
         <f>MAIN!B425</f>
         <v>Suryadi</v>
@@ -21856,8 +23151,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000424::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="426" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M425" s="8">
+        <v>164000000000424</v>
+      </c>
+    </row>
+    <row r="426" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B426" s="1" t="str">
         <f>MAIN!B426</f>
         <v>Susilawati</v>
@@ -21876,8 +23174,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000425::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="427" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M426" s="8">
+        <v>164000000000425</v>
+      </c>
+    </row>
+    <row r="427" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B427" s="1" t="str">
         <f>MAIN!B427</f>
         <v>Sutarno</v>
@@ -21896,8 +23197,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000426::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M427" s="8">
+        <v>164000000000426</v>
+      </c>
+    </row>
+    <row r="428" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B428" s="1" t="str">
         <f>MAIN!B428</f>
         <v>Sutra Riandi</v>
@@ -21916,8 +23220,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000427::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="429" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M428" s="8">
+        <v>164000000000427</v>
+      </c>
+    </row>
+    <row r="429" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B429" s="1" t="str">
         <f>MAIN!B429</f>
         <v>Suyanto</v>
@@ -21942,8 +23249,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000428::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="430" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M429" s="8">
+        <v>164000000000428</v>
+      </c>
+    </row>
+    <row r="430" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B430" s="1" t="str">
         <f>MAIN!B430</f>
         <v>Swar Jono</v>
@@ -21962,8 +23272,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000429::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="431" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M430" s="8">
+        <v>164000000000429</v>
+      </c>
+    </row>
+    <row r="431" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B431" s="1" t="str">
         <f>MAIN!B431</f>
         <v>Syafruddin</v>
@@ -21982,8 +23295,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000430::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="432" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M431" s="8">
+        <v>164000000000430</v>
+      </c>
+    </row>
+    <row r="432" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B432" s="1" t="str">
         <f>MAIN!B432</f>
         <v>Syafrudin Machmud</v>
@@ -22002,8 +23318,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000431::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M432" s="8">
+        <v>164000000000431</v>
+      </c>
+    </row>
+    <row r="433" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B433" s="1" t="str">
         <f>MAIN!B433</f>
         <v>Syahrizal</v>
@@ -22022,8 +23341,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000432::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="434" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M433" s="8">
+        <v>164000000000432</v>
+      </c>
+    </row>
+    <row r="434" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B434" s="1" t="str">
         <f>MAIN!B434</f>
         <v>Syaiful Idjam</v>
@@ -22042,8 +23364,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000433::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="435" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M434" s="8">
+        <v>164000000000433</v>
+      </c>
+    </row>
+    <row r="435" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="str">
         <f>MAIN!B435</f>
         <v>T. Assubki Ismail</v>
@@ -22062,8 +23387,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000434::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M435" s="8">
+        <v>164000000000434</v>
+      </c>
+    </row>
+    <row r="436" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B436" s="1" t="str">
         <f>MAIN!B436</f>
         <v>Taslim</v>
@@ -22082,8 +23410,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000435::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="437" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M436" s="8">
+        <v>164000000000435</v>
+      </c>
+    </row>
+    <row r="437" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B437" s="1" t="str">
         <f>MAIN!B437</f>
         <v>Taufik Mulia Pane</v>
@@ -22102,8 +23433,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000436::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="438" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M437" s="8">
+        <v>164000000000436</v>
+      </c>
+    </row>
+    <row r="438" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B438" s="1" t="str">
         <f>MAIN!B438</f>
         <v>Tedy Harseno</v>
@@ -22122,8 +23456,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000437::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="439" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M438" s="8">
+        <v>164000000000437</v>
+      </c>
+    </row>
+    <row r="439" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B439" s="1" t="str">
         <f>MAIN!B439</f>
         <v>Teguh Joko Pamuji</v>
@@ -22142,8 +23479,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000438::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="440" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M439" s="8">
+        <v>164000000000438</v>
+      </c>
+    </row>
+    <row r="440" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B440" s="1" t="str">
         <f>MAIN!B440</f>
         <v>Teguh Pratama Januzir Sukin</v>
@@ -22168,8 +23508,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000439::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="441" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M440" s="8">
+        <v>164000000000439</v>
+      </c>
+    </row>
+    <row r="441" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B441" s="1" t="str">
         <f>MAIN!B441</f>
         <v>Teguh Susanto</v>
@@ -22188,8 +23531,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000440::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M441" s="8">
+        <v>164000000000440</v>
+      </c>
+    </row>
+    <row r="442" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B442" s="1" t="str">
         <f>MAIN!B442</f>
         <v>Tenri Sumange</v>
@@ -22208,8 +23554,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000441::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M442" s="8">
+        <v>164000000000441</v>
+      </c>
+    </row>
+    <row r="443" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B443" s="1" t="str">
         <f>MAIN!B443</f>
         <v>Teuku Zulkifli</v>
@@ -22228,8 +23577,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000442::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M443" s="8">
+        <v>164000000000442</v>
+      </c>
+    </row>
+    <row r="444" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B444" s="1" t="str">
         <f>MAIN!B444</f>
         <v>Tiara Kemalasari</v>
@@ -22248,8 +23600,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000443::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="445" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M444" s="8">
+        <v>164000000000443</v>
+      </c>
+    </row>
+    <row r="445" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B445" s="1" t="str">
         <f>MAIN!B445</f>
         <v>Tjhang Linawati</v>
@@ -22268,8 +23623,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000444::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="446" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M445" s="8">
+        <v>164000000000444</v>
+      </c>
+    </row>
+    <row r="446" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B446" s="1" t="str">
         <f>MAIN!B446</f>
         <v>Totok Kristianto</v>
@@ -22288,8 +23646,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000445::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M446" s="8">
+        <v>164000000000445</v>
+      </c>
+    </row>
+    <row r="447" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="str">
         <f>MAIN!B447</f>
         <v>Tri Aji</v>
@@ -22308,8 +23669,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000446::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M447" s="8">
+        <v>164000000000446</v>
+      </c>
+    </row>
+    <row r="448" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B448" s="1" t="str">
         <f>MAIN!B448</f>
         <v>Tri M. Saputra</v>
@@ -22328,8 +23692,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000447::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="449" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M448" s="8">
+        <v>164000000000447</v>
+      </c>
+    </row>
+    <row r="449" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B449" s="1" t="str">
         <f>MAIN!B449</f>
         <v>Triani Irma</v>
@@ -22348,8 +23715,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000448::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="450" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M449" s="8">
+        <v>164000000000448</v>
+      </c>
+    </row>
+    <row r="450" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B450" s="1" t="str">
         <f>MAIN!B450</f>
         <v>Trisyanto</v>
@@ -22368,8 +23738,11 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000449::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="451" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M450" s="8">
+        <v>164000000000449</v>
+      </c>
+    </row>
+    <row r="451" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B451" s="1" t="str">
         <f>MAIN!B451</f>
         <v>Triwiarti Dibya</v>
@@ -22396,8 +23769,11 @@
 ");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000450::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="452" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M451" s="8">
+        <v>164000000000450</v>
+      </c>
+    </row>
+    <row r="452" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B452" s="1" t="str">
         <f>MAIN!B452</f>
         <v>Triyono</v>
@@ -22416,8 +23792,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000451::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="453" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M452" s="8">
+        <v>164000000000451</v>
+      </c>
+    </row>
+    <row r="453" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B453" s="1" t="str">
         <f>MAIN!B453</f>
         <v>Turita Pramuning Marantina</v>
@@ -22436,8 +23815,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000452::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="454" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M453" s="8">
+        <v>164000000000452</v>
+      </c>
+    </row>
+    <row r="454" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B454" s="1" t="str">
         <f>MAIN!B454</f>
         <v>Tutus Ary</v>
@@ -22456,8 +23838,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000453::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="455" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M454" s="8">
+        <v>164000000000453</v>
+      </c>
+    </row>
+    <row r="455" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B455" s="1" t="str">
         <f>MAIN!B455</f>
         <v>Ubaidillah</v>
@@ -22476,8 +23861,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000454::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="456" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M455" s="8">
+        <v>164000000000454</v>
+      </c>
+    </row>
+    <row r="456" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B456" s="1" t="str">
         <f>MAIN!B456</f>
         <v>Ujang Barma</v>
@@ -22496,8 +23884,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000455::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="457" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M456" s="8">
+        <v>164000000000455</v>
+      </c>
+    </row>
+    <row r="457" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B457" s="1" t="str">
         <f>MAIN!B457</f>
         <v>Ujang Suryana</v>
@@ -22516,8 +23907,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000456::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="458" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M457" s="8">
+        <v>164000000000456</v>
+      </c>
+    </row>
+    <row r="458" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B458" s="1" t="str">
         <f>MAIN!B458</f>
         <v>Ulman Juanda</v>
@@ -22536,8 +23930,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000457::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="459" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M458" s="8">
+        <v>164000000000457</v>
+      </c>
+    </row>
+    <row r="459" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B459" s="1" t="str">
         <f>MAIN!B459</f>
         <v>Urbanus</v>
@@ -22556,8 +23953,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000458::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="460" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M459" s="8">
+        <v>164000000000458</v>
+      </c>
+    </row>
+    <row r="460" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B460" s="1" t="str">
         <f>MAIN!B460</f>
         <v>Uswatun Hasamah</v>
@@ -22576,8 +23976,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000459::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="461" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M460" s="8">
+        <v>164000000000459</v>
+      </c>
+    </row>
+    <row r="461" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B461" s="1" t="str">
         <f>MAIN!B461</f>
         <v>Uswatun Khasanah</v>
@@ -22596,8 +23999,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000460::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="462" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M461" s="8">
+        <v>164000000000460</v>
+      </c>
+    </row>
+    <row r="462" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B462" s="1" t="str">
         <f>MAIN!B462</f>
         <v>Utami Dewi</v>
@@ -22616,8 +24022,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000461::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="463" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M462" s="8">
+        <v>164000000000461</v>
+      </c>
+    </row>
+    <row r="463" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B463" s="1" t="str">
         <f>MAIN!B463</f>
         <v>Utanto</v>
@@ -22636,8 +24045,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000462::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="464" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M463" s="8">
+        <v>164000000000462</v>
+      </c>
+    </row>
+    <row r="464" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B464" s="1" t="str">
         <f>MAIN!B464</f>
         <v>Veradita Yulanda</v>
@@ -22656,8 +24068,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000463::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="465" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M464" s="8">
+        <v>164000000000463</v>
+      </c>
+    </row>
+    <row r="465" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B465" s="1" t="str">
         <f>MAIN!B465</f>
         <v>Vidhy Kartika Putri</v>
@@ -22676,8 +24091,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000464::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="466" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M465" s="8">
+        <v>164000000000464</v>
+      </c>
+    </row>
+    <row r="466" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B466" s="1" t="str">
         <f>MAIN!B466</f>
         <v>Vonny Agram</v>
@@ -22696,8 +24114,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000465::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="467" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M466" s="8">
+        <v>164000000000465</v>
+      </c>
+    </row>
+    <row r="467" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B467" s="1" t="str">
         <f>MAIN!B467</f>
         <v>Wahyu</v>
@@ -22716,8 +24137,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000466::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="468" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M467" s="8">
+        <v>164000000000466</v>
+      </c>
+    </row>
+    <row r="468" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B468" s="1" t="str">
         <f>MAIN!B468</f>
         <v>Wahyu Ramadhani</v>
@@ -22736,8 +24160,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000467::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="469" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M468" s="8">
+        <v>164000000000467</v>
+      </c>
+    </row>
+    <row r="469" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B469" s="1" t="str">
         <f>MAIN!B469</f>
         <v>Wahyu Widodo</v>
@@ -22756,8 +24183,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000468::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="470" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M469" s="8">
+        <v>164000000000468</v>
+      </c>
+    </row>
+    <row r="470" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B470" s="1" t="str">
         <f>MAIN!B470</f>
         <v>Warsito Edy Saputra</v>
@@ -22776,8 +24206,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000469::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="471" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M470" s="8">
+        <v>164000000000469</v>
+      </c>
+    </row>
+    <row r="471" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B471" s="1" t="str">
         <f>MAIN!B471</f>
         <v>Weldi Wimar</v>
@@ -22796,8 +24229,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000470::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="472" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M471" s="8">
+        <v>164000000000470</v>
+      </c>
+    </row>
+    <row r="472" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B472" s="1" t="str">
         <f>MAIN!B472</f>
         <v>Wendy Septiyan</v>
@@ -22816,8 +24252,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000471::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="473" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M472" s="8">
+        <v>164000000000471</v>
+      </c>
+    </row>
+    <row r="473" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B473" s="1" t="str">
         <f>MAIN!B473</f>
         <v>Willy Indarto</v>
@@ -22836,8 +24275,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000472::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="474" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M473" s="8">
+        <v>164000000000472</v>
+      </c>
+    </row>
+    <row r="474" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B474" s="1" t="str">
         <f>MAIN!B474</f>
         <v>Winda Suherman</v>
@@ -22856,8 +24298,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000473::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="475" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M474" s="8">
+        <v>164000000000473</v>
+      </c>
+    </row>
+    <row r="475" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B475" s="1" t="str">
         <f>MAIN!B475</f>
         <v>Wisnu Ardian</v>
@@ -22876,8 +24321,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000474::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="476" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M475" s="8">
+        <v>164000000000474</v>
+      </c>
+    </row>
+    <row r="476" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B476" s="1" t="str">
         <f>MAIN!B476</f>
         <v>Wisudanto C. Suntoyo</v>
@@ -22896,8 +24344,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000475::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="477" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M476" s="8">
+        <v>164000000000475</v>
+      </c>
+    </row>
+    <row r="477" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B477" s="1" t="str">
         <f>MAIN!B477</f>
         <v>Yahya Adyasa Febriansyah</v>
@@ -22916,8 +24367,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000476::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="478" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M477" s="8">
+        <v>164000000000476</v>
+      </c>
+    </row>
+    <row r="478" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B478" s="1" t="str">
         <f>MAIN!B478</f>
         <v>Yakup Sunaryo</v>
@@ -22936,8 +24390,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000477::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="479" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M478" s="8">
+        <v>164000000000477</v>
+      </c>
+    </row>
+    <row r="479" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B479" s="1" t="str">
         <f>MAIN!B479</f>
         <v>Yanuar Tri Ananda</v>
@@ -22956,8 +24413,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000478::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="480" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M479" s="8">
+        <v>164000000000478</v>
+      </c>
+    </row>
+    <row r="480" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B480" s="1" t="str">
         <f>MAIN!B480</f>
         <v>Yasir Liem</v>
@@ -22976,8 +24436,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000479::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="481" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M480" s="8">
+        <v>164000000000479</v>
+      </c>
+    </row>
+    <row r="481" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B481" s="1" t="str">
         <f>MAIN!B481</f>
         <v>Yefri Hendrayani</v>
@@ -22996,8 +24459,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000480::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="482" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M481" s="8">
+        <v>164000000000480</v>
+      </c>
+    </row>
+    <row r="482" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B482" s="1" t="str">
         <f>MAIN!B482</f>
         <v>Yessi Setiarini</v>
@@ -23016,8 +24482,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000481::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="483" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M482" s="8">
+        <v>164000000000481</v>
+      </c>
+    </row>
+    <row r="483" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B483" s="1" t="str">
         <f>MAIN!B483</f>
         <v>Yorid Fae</v>
@@ -23036,8 +24505,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000482::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="484" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M483" s="8">
+        <v>164000000000482</v>
+      </c>
+    </row>
+    <row r="484" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B484" s="1" t="str">
         <f>MAIN!B484</f>
         <v>Yosef Hang Wan</v>
@@ -23056,8 +24528,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000483::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="485" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M484" s="8">
+        <v>164000000000483</v>
+      </c>
+    </row>
+    <row r="485" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B485" s="1" t="str">
         <f>MAIN!B485</f>
         <v>Yossie Deliana</v>
@@ -23076,8 +24551,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000484::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="486" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M485" s="8">
+        <v>164000000000484</v>
+      </c>
+    </row>
+    <row r="486" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B486" s="1" t="str">
         <f>MAIN!B486</f>
         <v>Yudi Rahmadi</v>
@@ -23096,8 +24574,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000485::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="487" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M486" s="8">
+        <v>164000000000485</v>
+      </c>
+    </row>
+    <row r="487" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B487" s="1" t="str">
         <f>MAIN!B487</f>
         <v>Yudo Jati Rahmat Satrio</v>
@@ -23116,8 +24597,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000486::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="488" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M487" s="8">
+        <v>164000000000486</v>
+      </c>
+    </row>
+    <row r="488" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B488" s="1" t="str">
         <f>MAIN!B488</f>
         <v>Yuliandaru Suryoatmodjo</v>
@@ -23136,8 +24620,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000487::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="489" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M488" s="8">
+        <v>164000000000487</v>
+      </c>
+    </row>
+    <row r="489" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B489" s="1" t="str">
         <f>MAIN!B489</f>
         <v>Yulianta</v>
@@ -23156,8 +24643,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000488::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="490" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M489" s="8">
+        <v>164000000000488</v>
+      </c>
+    </row>
+    <row r="490" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B490" s="1" t="str">
         <f>MAIN!B490</f>
         <v>Yulianti</v>
@@ -23176,8 +24666,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000489::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="491" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M490" s="8">
+        <v>164000000000489</v>
+      </c>
+    </row>
+    <row r="491" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B491" s="1" t="str">
         <f>MAIN!B491</f>
         <v>Yulius</v>
@@ -23196,8 +24689,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000490::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="492" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M491" s="8">
+        <v>164000000000490</v>
+      </c>
+    </row>
+    <row r="492" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B492" s="1" t="str">
         <f>MAIN!B492</f>
         <v>Yunni Sazili</v>
@@ -23216,8 +24712,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000491::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="493" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M492" s="8">
+        <v>164000000000491</v>
+      </c>
+    </row>
+    <row r="493" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B493" s="1" t="str">
         <f>MAIN!B493</f>
         <v>Yusman</v>
@@ -23236,8 +24735,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000492::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="494" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M493" s="8">
+        <v>164000000000492</v>
+      </c>
+    </row>
+    <row r="494" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B494" s="1" t="str">
         <f>MAIN!B494</f>
         <v>Yusri Azhar</v>
@@ -23256,8 +24758,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000493::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="495" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M494" s="8">
+        <v>164000000000493</v>
+      </c>
+    </row>
+    <row r="495" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B495" s="1" t="str">
         <f>MAIN!B495</f>
         <v>Zafrizal</v>
@@ -23276,8 +24781,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000494::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="496" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M495" s="8">
+        <v>164000000000494</v>
+      </c>
+    </row>
+    <row r="496" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B496" s="1" t="str">
         <f>MAIN!B496</f>
         <v>Zafrizal Rifla (Ucok)</v>
@@ -23296,8 +24804,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000495::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="497" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M496" s="8">
+        <v>164000000000495</v>
+      </c>
+    </row>
+    <row r="497" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B497" s="1" t="str">
         <f>MAIN!B497</f>
         <v>Zainuddin</v>
@@ -23316,8 +24827,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000496::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="498" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M497" s="8">
+        <v>164000000000496</v>
+      </c>
+    </row>
+    <row r="498" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B498" s="1" t="str">
         <f>MAIN!B498</f>
         <v>Zainudin Anwar</v>
@@ -23342,8 +24856,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000497::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="499" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M498" s="8">
+        <v>164000000000497</v>
+      </c>
+    </row>
+    <row r="499" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="str">
         <f>MAIN!B499</f>
         <v>Zaire Dite Biscaya</v>
@@ -23362,8 +24879,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000498::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="500" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M499" s="8">
+        <v>164000000000498</v>
+      </c>
+    </row>
+    <row r="500" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B500" s="1" t="str">
         <f>MAIN!B500</f>
         <v>Zalfi Yandri</v>
@@ -23382,8 +24902,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000499::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="501" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M500" s="8">
+        <v>164000000000499</v>
+      </c>
+    </row>
+    <row r="501" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B501" s="1" t="str">
         <f>MAIN!B501</f>
         <v>Zam Roji</v>
@@ -23402,8 +24925,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000500::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="502" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M501" s="8">
+        <v>164000000000500</v>
+      </c>
+    </row>
+    <row r="502" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B502" s="1" t="str">
         <f>MAIN!B502</f>
         <v>Zulfikar Siregar</v>
@@ -23422,8 +24948,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000501::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="503" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M502" s="8">
+        <v>164000000000501</v>
+      </c>
+    </row>
+    <row r="503" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B503" s="1" t="str">
         <f>MAIN!B503</f>
         <v>Adythia Adikara</v>
@@ -23442,8 +24971,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000502::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="504" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M503" s="8">
+        <v>164000000000502</v>
+      </c>
+    </row>
+    <row r="504" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B504" s="1" t="str">
         <f>MAIN!B504</f>
         <v>Agus Sopyan Hadi</v>
@@ -23462,8 +24994,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000503::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="505" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M504" s="8">
+        <v>164000000000503</v>
+      </c>
+    </row>
+    <row r="505" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B505" s="1" t="str">
         <f>MAIN!B505</f>
         <v>Azis Purwandana</v>
@@ -23482,8 +25017,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000504::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="506" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M505" s="8">
+        <v>164000000000504</v>
+      </c>
+    </row>
+    <row r="506" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B506" s="1" t="str">
         <f>MAIN!B506</f>
         <v>Heryanto</v>
@@ -23502,8 +25040,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000505::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="507" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M506" s="8">
+        <v>164000000000505</v>
+      </c>
+    </row>
+    <row r="507" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B507" s="1" t="str">
         <f>MAIN!B507</f>
         <v>Imran</v>
@@ -23522,8 +25063,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000506::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="508" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M507" s="8">
+        <v>164000000000506</v>
+      </c>
+    </row>
+    <row r="508" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="str">
         <f>MAIN!B508</f>
         <v>Khamim</v>
@@ -23542,8 +25086,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000507::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="509" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M508" s="8">
+        <v>164000000000507</v>
+      </c>
+    </row>
+    <row r="509" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B509" s="1" t="str">
         <f>MAIN!B509</f>
         <v>Rafi Artman Siddiq</v>
@@ -23562,8 +25109,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000508::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="510" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M509" s="8">
+        <v>164000000000508</v>
+      </c>
+    </row>
+    <row r="510" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B510" s="1" t="str">
         <f>MAIN!B510</f>
         <v>Riza</v>
@@ -23582,8 +25132,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000509::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="511" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M510" s="8">
+        <v>164000000000509</v>
+      </c>
+    </row>
+    <row r="511" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B511" s="1" t="str">
         <f>MAIN!B511</f>
         <v>Slamet Riadi</v>
@@ -23602,8 +25155,11 @@
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000510::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
-    </row>
-    <row r="512" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M511" s="8">
+        <v>164000000000510</v>
+      </c>
+    </row>
+    <row r="512" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="str">
         <f>MAIN!B512</f>
         <v>Wisnu Andra Isdianto</v>
@@ -23621,6 +25177,9 @@
       <c r="K512" s="1" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000511::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M512" s="8">
+        <v>164000000000511</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4546,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H512"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13268,10 +13268,10 @@
   <dimension ref="B1:M512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C410" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K152" sqref="K152"/>
+      <selection pane="bottomRight" activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13711,12 +13711,18 @@
       <c r="D18" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E18" s="2">
+        <v>111000000000006</v>
+      </c>
+      <c r="F18" s="2">
+        <v>160000000000003</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000017::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000017::bigint, 163000000000001::bigint, 111000000000006::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M18" s="8">
         <v>164000000000017</v>
@@ -19187,12 +19193,18 @@
       <c r="D254" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E254" s="2">
+        <v>111000000000006</v>
+      </c>
+      <c r="F254" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H254" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000253::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000253::bigint, 163000000000001::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M254" s="8">
         <v>164000000000253</v>
@@ -22523,12 +22535,18 @@
       <c r="D398" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E398" s="2">
+        <v>111000000000006</v>
+      </c>
+      <c r="F398" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H398" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K398" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000397::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000397::bigint, 163000000000001::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M398" s="8">
         <v>164000000000397</v>
@@ -22891,12 +22909,18 @@
       <c r="D414" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E414" s="2">
+        <v>111000000000006</v>
+      </c>
+      <c r="F414" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H414" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K414" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000413::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000413::bigint, 163000000000001::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M414" s="8">
         <v>164000000000413</v>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="16">
   <si>
     <t>ID Pekerja</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>9999-12-31 23:59:59+07</t>
+  </si>
+  <si>
+    <t>2014-09-30 23:59:59+07</t>
+  </si>
+  <si>
+    <t>2010-03-01 00:00:00+07</t>
+  </si>
+  <si>
+    <t>2003-7-7 00:00:00+07</t>
+  </si>
+  <si>
+    <t>2023-02-11 23:59:59+07</t>
+  </si>
+  <si>
+    <t>1900-12-31 23:59:59+07</t>
   </si>
 </sst>
 </file>
@@ -111,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -134,11 +149,43 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4546,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H512"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="B414" sqref="B414"/>
+    <sheetView topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13268,10 +13315,10 @@
   <dimension ref="B1:M512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C410" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C414" sqref="C414"/>
+      <selection pane="bottomRight" activeCell="F453" sqref="F453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13281,7 +13328,7 @@
     <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
@@ -13328,7 +13375,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="str">
         <f>CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -13340,7 +13387,7 @@
 CONCATENATE(IF(EXACT(H2, ""), ", null", CONCATENATE(", '", H2, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I2, ""), ", null", CONCATENATE(", ", I2, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000001::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000001::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M2" s="8">
         <v>164000000000001</v>
@@ -13359,7 +13406,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="str">
         <f t="shared" ref="K3:K66" si="0">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -13371,7 +13418,7 @@
 CONCATENATE(IF(EXACT(H3, ""), ", null", CONCATENATE(", '", H3, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I3, ""), ", null", CONCATENATE(", ", I3, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000002::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000002::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M3" s="8">
         <v>164000000000002</v>
@@ -13390,11 +13437,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000003::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000003::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M4" s="8">
         <v>164000000000003</v>
@@ -13413,11 +13460,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000004::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000004::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M5" s="8">
         <v>164000000000004</v>
@@ -13436,11 +13483,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000005::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000005::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M6" s="8">
         <v>164000000000005</v>
@@ -13459,11 +13506,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000006::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000006::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M7" s="8">
         <v>164000000000006</v>
@@ -13482,11 +13529,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000007::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000007::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M8" s="8">
         <v>164000000000007</v>
@@ -13505,11 +13552,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000008::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000008::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M9" s="8">
         <v>164000000000008</v>
@@ -13528,11 +13575,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000009::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000009::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M10" s="8">
         <v>164000000000009</v>
@@ -13551,11 +13598,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000010::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000010::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M11" s="8">
         <v>164000000000010</v>
@@ -13574,11 +13621,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000011::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000011::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M12" s="8">
         <v>164000000000011</v>
@@ -13596,12 +13643,15 @@
       <c r="D13" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="F13" s="2">
+        <v>160000000000003</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000012::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000012::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M13" s="8">
         <v>164000000000012</v>
@@ -13620,11 +13670,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000013::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000013::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M14" s="8">
         <v>164000000000013</v>
@@ -13643,11 +13693,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000014::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000014::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M15" s="8">
         <v>164000000000014</v>
@@ -13689,11 +13739,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000016::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000016::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M17" s="8">
         <v>164000000000016</v>
@@ -13741,11 +13791,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000018::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000018::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M19" s="8">
         <v>164000000000018</v>
@@ -13764,11 +13814,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000019::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000019::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M20" s="8">
         <v>164000000000019</v>
@@ -13787,11 +13837,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000020::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000020::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M21" s="8">
         <v>164000000000020</v>
@@ -13810,11 +13860,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000021::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000021::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M22" s="8">
         <v>164000000000021</v>
@@ -13833,11 +13883,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000022::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000022::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M23" s="8">
         <v>164000000000022</v>
@@ -13885,11 +13935,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000024::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000024::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M25" s="8">
         <v>164000000000024</v>
@@ -13908,11 +13958,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000025::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000025::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M26" s="8">
         <v>164000000000025</v>
@@ -13931,11 +13981,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000026::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000026::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M27" s="8">
         <v>164000000000026</v>
@@ -13954,11 +14004,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000027::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000027::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M28" s="8">
         <v>164000000000027</v>
@@ -13977,11 +14027,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000028::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000028::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M29" s="8">
         <v>164000000000028</v>
@@ -14000,11 +14050,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000029::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000029::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M30" s="8">
         <v>164000000000029</v>
@@ -14023,11 +14073,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000030::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000030::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M31" s="8">
         <v>164000000000030</v>
@@ -14046,11 +14096,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000031::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000031::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M32" s="8">
         <v>164000000000031</v>
@@ -14069,11 +14119,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000032::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000032::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M33" s="8">
         <v>164000000000032</v>
@@ -14092,11 +14142,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000033::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000033::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M34" s="8">
         <v>164000000000033</v>
@@ -14115,11 +14165,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000034::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000034::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M35" s="8">
         <v>164000000000034</v>
@@ -14138,11 +14188,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000035::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000035::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M36" s="8">
         <v>164000000000035</v>
@@ -14161,11 +14211,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000036::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000036::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M37" s="8">
         <v>164000000000036</v>
@@ -14184,11 +14234,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000037::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000037::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M38" s="8">
         <v>164000000000037</v>
@@ -14207,11 +14257,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000038::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000038::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M39" s="8">
         <v>164000000000038</v>
@@ -14253,11 +14303,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000040::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000040::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M41" s="8">
         <v>164000000000040</v>
@@ -14276,11 +14326,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000041::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000041::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M42" s="8">
         <v>164000000000041</v>
@@ -14299,11 +14349,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000042::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000042::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M43" s="8">
         <v>164000000000042</v>
@@ -14322,11 +14372,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000043::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000043::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M44" s="8">
         <v>164000000000043</v>
@@ -14368,11 +14418,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000045::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000045::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M46" s="8">
         <v>164000000000045</v>
@@ -14391,11 +14441,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000046::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000046::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M47" s="8">
         <v>164000000000046</v>
@@ -14414,11 +14464,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000047::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000047::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M48" s="8">
         <v>164000000000047</v>
@@ -14437,11 +14487,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000048::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000048::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M49" s="8">
         <v>164000000000048</v>
@@ -14460,11 +14510,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000049::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000049::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M50" s="8">
         <v>164000000000049</v>
@@ -14483,11 +14533,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000050::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000050::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M51" s="8">
         <v>164000000000050</v>
@@ -14529,11 +14579,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000052::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000052::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M53" s="8">
         <v>164000000000052</v>
@@ -14552,11 +14602,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000053::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000053::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M54" s="8">
         <v>164000000000053</v>
@@ -14575,11 +14625,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000054::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000054::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M55" s="8">
         <v>164000000000054</v>
@@ -14598,11 +14648,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000055::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000055::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M56" s="8">
         <v>164000000000055</v>
@@ -14621,11 +14671,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000056::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000056::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M57" s="8">
         <v>164000000000056</v>
@@ -14644,11 +14694,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000057::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000057::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M58" s="8">
         <v>164000000000057</v>
@@ -14667,11 +14717,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000058::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000058::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M59" s="8">
         <v>164000000000058</v>
@@ -14690,11 +14740,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000059::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000059::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M60" s="8">
         <v>164000000000059</v>
@@ -14713,11 +14763,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000060::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000060::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M61" s="8">
         <v>164000000000060</v>
@@ -14736,11 +14786,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000061::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000061::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M62" s="8">
         <v>164000000000061</v>
@@ -14759,11 +14809,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000062::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000062::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M63" s="8">
         <v>164000000000062</v>
@@ -14782,11 +14832,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000063::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000063::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M64" s="8">
         <v>164000000000063</v>
@@ -14805,11 +14855,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000064::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000064::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M65" s="8">
         <v>164000000000064</v>
@@ -14828,11 +14878,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000065::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000065::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M66" s="8">
         <v>164000000000065</v>
@@ -14851,7 +14901,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K67" s="1" t="str">
         <f t="shared" ref="K67:K130" si="1">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -14863,7 +14913,7 @@
 CONCATENATE(IF(EXACT(H67, ""), ", null", CONCATENATE(", '", H67, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I67, ""), ", null", CONCATENATE(", ", I67, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000066::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000066::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M67" s="8">
         <v>164000000000066</v>
@@ -14882,11 +14932,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000067::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000067::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M68" s="8">
         <v>164000000000067</v>
@@ -14905,11 +14955,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000068::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000068::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M69" s="8">
         <v>164000000000068</v>
@@ -14928,11 +14978,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000069::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000069::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M70" s="8">
         <v>164000000000069</v>
@@ -14951,11 +15001,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000070::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000070::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M71" s="8">
         <v>164000000000070</v>
@@ -14974,11 +15024,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000071::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000071::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M72" s="8">
         <v>164000000000071</v>
@@ -14997,11 +15047,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000072::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000072::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M73" s="8">
         <v>164000000000072</v>
@@ -15020,11 +15070,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000073::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000073::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M74" s="8">
         <v>164000000000073</v>
@@ -15043,11 +15093,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000074::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000074::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M75" s="8">
         <v>164000000000074</v>
@@ -15089,11 +15139,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000076::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000076::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M77" s="8">
         <v>164000000000076</v>
@@ -15111,12 +15161,21 @@
       <c r="D78" s="2">
         <v>163000000000001</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>10</v>
+      <c r="E78" s="2">
+        <v>111000000000003</v>
+      </c>
+      <c r="F78" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="K78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000077::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000077::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000001::bigint, '2010-03-01 00:00:00+07'::timestamptz, '2014-09-30 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M78" s="8">
         <v>164000000000077</v>
@@ -15135,11 +15194,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000078::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000078::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M79" s="8">
         <v>164000000000078</v>
@@ -15158,11 +15217,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000079::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000079::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M80" s="8">
         <v>164000000000079</v>
@@ -15181,11 +15240,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000080::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000080::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M81" s="8">
         <v>164000000000080</v>
@@ -15204,11 +15263,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000081::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000081::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M82" s="8">
         <v>164000000000081</v>
@@ -15250,11 +15309,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000083::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000083::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M84" s="8">
         <v>164000000000083</v>
@@ -15273,11 +15332,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000084::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000084::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M85" s="8">
         <v>164000000000084</v>
@@ -15296,11 +15355,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000085::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000085::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M86" s="8">
         <v>164000000000085</v>
@@ -15319,11 +15378,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000086::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000086::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M87" s="8">
         <v>164000000000086</v>
@@ -15342,11 +15401,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000087::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000087::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M88" s="8">
         <v>164000000000087</v>
@@ -15365,11 +15424,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000088::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000088::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M89" s="8">
         <v>164000000000088</v>
@@ -15388,11 +15447,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000089::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000089::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M90" s="8">
         <v>164000000000089</v>
@@ -15411,11 +15470,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000090::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000090::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M91" s="8">
         <v>164000000000090</v>
@@ -15434,11 +15493,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000091::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000091::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M92" s="8">
         <v>164000000000091</v>
@@ -15526,11 +15585,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000095::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000095::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M96" s="8">
         <v>164000000000095</v>
@@ -15549,11 +15608,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000096::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000096::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M97" s="8">
         <v>164000000000096</v>
@@ -15572,11 +15631,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000097::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000097::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M98" s="8">
         <v>164000000000097</v>
@@ -15595,11 +15654,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000098::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000098::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M99" s="8">
         <v>164000000000098</v>
@@ -15618,11 +15677,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000099::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000099::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M100" s="8">
         <v>164000000000099</v>
@@ -15664,11 +15723,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000101::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000101::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M102" s="8">
         <v>164000000000101</v>
@@ -15687,11 +15746,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000102::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000102::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M103" s="8">
         <v>164000000000102</v>
@@ -15710,11 +15769,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000103::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000103::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M104" s="8">
         <v>164000000000103</v>
@@ -15733,11 +15792,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000104::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000104::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M105" s="8">
         <v>164000000000104</v>
@@ -15756,11 +15815,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000105::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000105::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M106" s="8">
         <v>164000000000105</v>
@@ -15802,11 +15861,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000107::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000107::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M108" s="8">
         <v>164000000000107</v>
@@ -15825,11 +15884,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K109" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000108::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000108::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M109" s="8">
         <v>164000000000108</v>
@@ -15848,11 +15907,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000109::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000109::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M110" s="8">
         <v>164000000000109</v>
@@ -15871,11 +15930,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000110::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000110::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M111" s="8">
         <v>164000000000110</v>
@@ -15894,11 +15953,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000111::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000111::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M112" s="8">
         <v>164000000000111</v>
@@ -15917,11 +15976,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000112::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000112::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M113" s="8">
         <v>164000000000112</v>
@@ -15940,11 +15999,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K114" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000113::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000113::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M114" s="8">
         <v>164000000000113</v>
@@ -15962,12 +16021,15 @@
       <c r="D115" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="F115" s="2">
+        <v>160000000000003</v>
+      </c>
       <c r="H115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000114::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000114::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M115" s="8">
         <v>164000000000114</v>
@@ -15986,11 +16048,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000115::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000115::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M116" s="8">
         <v>164000000000115</v>
@@ -16032,11 +16094,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000117::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000117::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M118" s="8">
         <v>164000000000117</v>
@@ -16055,11 +16117,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000118::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000118::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M119" s="8">
         <v>164000000000118</v>
@@ -16078,11 +16140,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000119::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000119::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M120" s="8">
         <v>164000000000119</v>
@@ -16101,11 +16163,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000120::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000120::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M121" s="8">
         <v>164000000000120</v>
@@ -16124,11 +16186,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000121::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000121::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M122" s="8">
         <v>164000000000121</v>
@@ -16147,11 +16209,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000122::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000122::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M123" s="8">
         <v>164000000000122</v>
@@ -16199,11 +16261,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000124::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000124::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M125" s="8">
         <v>164000000000124</v>
@@ -16222,11 +16284,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000125::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000125::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M126" s="8">
         <v>164000000000125</v>
@@ -16245,11 +16307,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000126::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000126::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M127" s="8">
         <v>164000000000126</v>
@@ -16268,11 +16330,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000127::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000127::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M128" s="8">
         <v>164000000000127</v>
@@ -16291,11 +16353,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000128::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000128::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M129" s="8">
         <v>164000000000128</v>
@@ -16314,11 +16376,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K130" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000129::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000129::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M130" s="8">
         <v>164000000000129</v>
@@ -16337,7 +16399,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K131" s="1" t="str">
         <f t="shared" ref="K131:K194" si="2">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -16349,7 +16411,7 @@
 CONCATENATE(IF(EXACT(H131, ""), ", null", CONCATENATE(", '", H131, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I131, ""), ", null", CONCATENATE(", ", I131, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000130::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000130::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M131" s="8">
         <v>164000000000130</v>
@@ -16368,11 +16430,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000131::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000131::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M132" s="8">
         <v>164000000000131</v>
@@ -16391,11 +16453,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000132::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000132::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M133" s="8">
         <v>164000000000132</v>
@@ -16414,11 +16476,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000133::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000133::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M134" s="8">
         <v>164000000000133</v>
@@ -16437,11 +16499,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000134::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000134::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M135" s="8">
         <v>164000000000134</v>
@@ -16460,11 +16522,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000135::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000135::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M136" s="8">
         <v>164000000000135</v>
@@ -16483,11 +16545,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000136::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000136::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M137" s="8">
         <v>164000000000136</v>
@@ -16506,11 +16568,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000137::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000137::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M138" s="8">
         <v>164000000000137</v>
@@ -16552,11 +16614,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000139::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000139::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M140" s="8">
         <v>164000000000139</v>
@@ -16575,11 +16637,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000140::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000140::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M141" s="8">
         <v>164000000000140</v>
@@ -16598,11 +16660,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000141::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000141::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M142" s="8">
         <v>164000000000141</v>
@@ -16621,11 +16683,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000142::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000142::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M143" s="8">
         <v>164000000000142</v>
@@ -16644,11 +16706,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000143::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000143::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M144" s="8">
         <v>164000000000143</v>
@@ -16667,11 +16729,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000144::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000144::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M145" s="8">
         <v>164000000000144</v>
@@ -16690,11 +16752,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000145::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000145::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M146" s="8">
         <v>164000000000145</v>
@@ -16713,11 +16775,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000146::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000146::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M147" s="8">
         <v>164000000000146</v>
@@ -16736,11 +16798,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000147::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000147::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M148" s="8">
         <v>164000000000147</v>
@@ -16759,11 +16821,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000148::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000148::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M149" s="8">
         <v>164000000000148</v>
@@ -16782,11 +16844,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000149::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000149::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M150" s="8">
         <v>164000000000149</v>
@@ -16805,11 +16867,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000150::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000150::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M151" s="8">
         <v>164000000000150</v>
@@ -16828,11 +16890,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000151::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000151::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M152" s="8">
         <v>164000000000151</v>
@@ -16851,11 +16913,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000152::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000152::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M153" s="8">
         <v>164000000000152</v>
@@ -16874,11 +16936,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000153::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000153::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M154" s="8">
         <v>164000000000153</v>
@@ -16897,11 +16959,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000154::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000154::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M155" s="8">
         <v>164000000000154</v>
@@ -16943,11 +17005,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000156::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000156::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M157" s="8">
         <v>164000000000156</v>
@@ -16972,11 +17034,11 @@
         <v>160000000000001</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M158" s="8">
         <v>164000000000157</v>
@@ -16995,11 +17057,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000158::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000158::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M159" s="8">
         <v>164000000000158</v>
@@ -17041,11 +17103,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000160::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000160::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M161" s="8">
         <v>164000000000160</v>
@@ -17064,11 +17126,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000161::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000161::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M162" s="8">
         <v>164000000000161</v>
@@ -17087,11 +17149,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000162::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000162::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M163" s="8">
         <v>164000000000162</v>
@@ -17110,11 +17172,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000163::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000163::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M164" s="8">
         <v>164000000000163</v>
@@ -17133,11 +17195,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000164::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000164::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M165" s="8">
         <v>164000000000164</v>
@@ -17156,11 +17218,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000165::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000165::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M166" s="8">
         <v>164000000000165</v>
@@ -17179,11 +17241,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000166::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000166::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M167" s="8">
         <v>164000000000166</v>
@@ -17248,11 +17310,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000169::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000169::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M170" s="8">
         <v>164000000000169</v>
@@ -17271,11 +17333,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000170::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000170::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M171" s="8">
         <v>164000000000170</v>
@@ -17294,11 +17356,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000171::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000171::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M172" s="8">
         <v>164000000000171</v>
@@ -17317,11 +17379,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000172::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000172::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M173" s="8">
         <v>164000000000172</v>
@@ -17340,11 +17402,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000173::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000173::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M174" s="8">
         <v>164000000000173</v>
@@ -17363,11 +17425,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000174::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000174::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M175" s="8">
         <v>164000000000174</v>
@@ -17386,11 +17448,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000175::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000175::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M176" s="8">
         <v>164000000000175</v>
@@ -17409,11 +17471,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000176::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000176::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M177" s="8">
         <v>164000000000176</v>
@@ -17432,11 +17494,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000177::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000177::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M178" s="8">
         <v>164000000000177</v>
@@ -17455,11 +17517,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000178::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000178::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M179" s="8">
         <v>164000000000178</v>
@@ -17478,11 +17540,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000179::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000179::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M180" s="8">
         <v>164000000000179</v>
@@ -17501,11 +17563,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000180::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000180::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M181" s="8">
         <v>164000000000180</v>
@@ -17524,11 +17586,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000181::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000181::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M182" s="8">
         <v>164000000000181</v>
@@ -17547,11 +17609,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000182::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000182::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M183" s="8">
         <v>164000000000182</v>
@@ -17570,11 +17632,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000183::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000183::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M184" s="8">
         <v>164000000000183</v>
@@ -17593,11 +17655,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000184::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000184::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M185" s="8">
         <v>164000000000184</v>
@@ -17616,11 +17678,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000185::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000185::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M186" s="8">
         <v>164000000000185</v>
@@ -17639,11 +17701,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000186::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000186::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M187" s="8">
         <v>164000000000186</v>
@@ -17662,11 +17724,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000187::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000187::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M188" s="8">
         <v>164000000000187</v>
@@ -17685,11 +17747,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000188::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000188::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M189" s="8">
         <v>164000000000188</v>
@@ -17708,11 +17770,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000189::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000189::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M190" s="8">
         <v>164000000000189</v>
@@ -17731,11 +17793,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000190::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000190::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M191" s="8">
         <v>164000000000190</v>
@@ -17754,11 +17816,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000191::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000191::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M192" s="8">
         <v>164000000000191</v>
@@ -17777,11 +17839,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000192::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000192::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M193" s="8">
         <v>164000000000192</v>
@@ -17800,11 +17862,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K194" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000193::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000193::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M194" s="8">
         <v>164000000000193</v>
@@ -17823,7 +17885,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K195" s="1" t="str">
         <f t="shared" ref="K195:K258" si="3">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -17835,7 +17897,7 @@
 CONCATENATE(IF(EXACT(H195, ""), ", null", CONCATENATE(", '", H195, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I195, ""), ", null", CONCATENATE(", ", I195, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000194::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000194::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M195" s="8">
         <v>164000000000194</v>
@@ -17854,11 +17916,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000195::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000195::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M196" s="8">
         <v>164000000000195</v>
@@ -17906,11 +17968,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K198" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000197::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000197::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M198" s="8">
         <v>164000000000197</v>
@@ -17929,11 +17991,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K199" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000198::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000198::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M199" s="8">
         <v>164000000000198</v>
@@ -17952,11 +18014,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000199::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000199::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M200" s="8">
         <v>164000000000199</v>
@@ -17975,11 +18037,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K201" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000200::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000200::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M201" s="8">
         <v>164000000000200</v>
@@ -17998,11 +18060,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000201::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000201::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M202" s="8">
         <v>164000000000201</v>
@@ -18021,11 +18083,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K203" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000202::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000202::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M203" s="8">
         <v>164000000000202</v>
@@ -18044,11 +18106,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K204" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000203::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000203::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M204" s="8">
         <v>164000000000203</v>
@@ -18067,11 +18129,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000204::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000204::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M205" s="8">
         <v>164000000000204</v>
@@ -18090,11 +18152,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K206" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000205::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000205::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M206" s="8">
         <v>164000000000205</v>
@@ -18113,11 +18175,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000206::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000206::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M207" s="8">
         <v>164000000000206</v>
@@ -18136,11 +18198,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000207::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000207::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M208" s="8">
         <v>164000000000207</v>
@@ -18159,11 +18221,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K209" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000208::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000208::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M209" s="8">
         <v>164000000000208</v>
@@ -18182,11 +18244,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K210" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000209::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000209::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M210" s="8">
         <v>164000000000209</v>
@@ -18205,11 +18267,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K211" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000210::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000210::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M211" s="8">
         <v>164000000000210</v>
@@ -18228,11 +18290,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000211::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000211::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M212" s="8">
         <v>164000000000211</v>
@@ -18251,11 +18313,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K213" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000212::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000212::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M213" s="8">
         <v>164000000000212</v>
@@ -18274,11 +18336,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K214" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000213::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000213::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M214" s="8">
         <v>164000000000213</v>
@@ -18297,11 +18359,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000214::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000214::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M215" s="8">
         <v>164000000000214</v>
@@ -18320,11 +18382,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K216" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000215::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000215::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M216" s="8">
         <v>164000000000215</v>
@@ -18343,11 +18405,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000216::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000216::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M217" s="8">
         <v>164000000000216</v>
@@ -18389,11 +18451,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000218::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000218::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M219" s="8">
         <v>164000000000218</v>
@@ -18412,11 +18474,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000219::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000219::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M220" s="8">
         <v>164000000000219</v>
@@ -18435,11 +18497,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000220::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000220::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M221" s="8">
         <v>164000000000220</v>
@@ -18458,11 +18520,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000221::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000221::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M222" s="8">
         <v>164000000000221</v>
@@ -18481,11 +18543,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000222::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000222::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M223" s="8">
         <v>164000000000222</v>
@@ -18504,11 +18566,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000223::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000223::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M224" s="8">
         <v>164000000000223</v>
@@ -18527,11 +18589,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000224::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000224::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M225" s="8">
         <v>164000000000224</v>
@@ -18550,11 +18612,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000225::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000225::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M226" s="8">
         <v>164000000000225</v>
@@ -18573,11 +18635,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000226::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000226::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M227" s="8">
         <v>164000000000226</v>
@@ -18596,11 +18658,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000227::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000227::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M228" s="8">
         <v>164000000000227</v>
@@ -18619,11 +18681,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000228::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000228::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M229" s="8">
         <v>164000000000228</v>
@@ -18642,11 +18704,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000229::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000229::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M230" s="8">
         <v>164000000000229</v>
@@ -18665,11 +18727,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000230::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000230::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M231" s="8">
         <v>164000000000230</v>
@@ -18688,11 +18750,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000231::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000231::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M232" s="8">
         <v>164000000000231</v>
@@ -18710,12 +18772,15 @@
       <c r="D233" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="F233" s="2">
+        <v>160000000000003</v>
+      </c>
       <c r="H233" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000232::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000232::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M233" s="8">
         <v>164000000000232</v>
@@ -18734,11 +18799,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K234" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000233::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000233::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M234" s="8">
         <v>164000000000233</v>
@@ -18757,11 +18822,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K235" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000234::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000234::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M235" s="8">
         <v>164000000000234</v>
@@ -18780,11 +18845,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K236" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000235::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000235::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M236" s="8">
         <v>164000000000235</v>
@@ -18803,11 +18868,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K237" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000236::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000236::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M237" s="8">
         <v>164000000000236</v>
@@ -18826,11 +18891,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K238" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000237::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000237::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M238" s="8">
         <v>164000000000237</v>
@@ -18849,11 +18914,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K239" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000238::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000238::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M239" s="8">
         <v>164000000000238</v>
@@ -18872,11 +18937,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K240" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000239::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000239::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M240" s="8">
         <v>164000000000239</v>
@@ -18895,11 +18960,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K241" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000240::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000240::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M241" s="8">
         <v>164000000000240</v>
@@ -18918,11 +18983,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K242" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000241::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000241::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M242" s="8">
         <v>164000000000241</v>
@@ -18941,11 +19006,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K243" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000242::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000242::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M243" s="8">
         <v>164000000000242</v>
@@ -18964,11 +19029,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K244" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000243::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000243::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M244" s="8">
         <v>164000000000243</v>
@@ -18987,11 +19052,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K245" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000244::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000244::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M245" s="8">
         <v>164000000000244</v>
@@ -19010,11 +19075,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K246" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000245::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000245::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M246" s="8">
         <v>164000000000245</v>
@@ -19033,11 +19098,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K247" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000246::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000246::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M247" s="8">
         <v>164000000000246</v>
@@ -19056,11 +19121,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K248" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000247::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000247::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M248" s="8">
         <v>164000000000247</v>
@@ -19079,11 +19144,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K249" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000248::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000248::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M249" s="8">
         <v>164000000000248</v>
@@ -19102,11 +19167,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000249::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000249::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M250" s="8">
         <v>164000000000249</v>
@@ -19125,11 +19190,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K251" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000250::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000250::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M251" s="8">
         <v>164000000000250</v>
@@ -19148,11 +19213,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K252" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000251::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000251::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M252" s="8">
         <v>164000000000251</v>
@@ -19223,11 +19288,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K255" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000254::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000254::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M255" s="8">
         <v>164000000000254</v>
@@ -19246,11 +19311,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K256" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000255::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000255::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M256" s="8">
         <v>164000000000255</v>
@@ -19269,11 +19334,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K257" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000256::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000256::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M257" s="8">
         <v>164000000000256</v>
@@ -19292,11 +19357,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K258" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000257::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000257::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M258" s="8">
         <v>164000000000257</v>
@@ -19315,7 +19380,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K259" s="1" t="str">
         <f t="shared" ref="K259:K322" si="4">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -19327,7 +19392,7 @@
 CONCATENATE(IF(EXACT(H259, ""), ", null", CONCATENATE(", '", H259, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I259, ""), ", null", CONCATENATE(", ", I259, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000258::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000258::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M259" s="8">
         <v>164000000000258</v>
@@ -19346,11 +19411,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K260" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000259::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000259::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M260" s="8">
         <v>164000000000259</v>
@@ -19369,11 +19434,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K261" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000260::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000260::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M261" s="8">
         <v>164000000000260</v>
@@ -19392,11 +19457,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K262" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000261::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000261::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M262" s="8">
         <v>164000000000261</v>
@@ -19438,11 +19503,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K264" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000263::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000263::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M264" s="8">
         <v>164000000000263</v>
@@ -19461,11 +19526,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000264::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000264::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M265" s="8">
         <v>164000000000264</v>
@@ -19484,11 +19549,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000265::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000265::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M266" s="8">
         <v>164000000000265</v>
@@ -19507,11 +19572,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K267" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000266::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000266::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M267" s="8">
         <v>164000000000266</v>
@@ -19530,11 +19595,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K268" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000267::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000267::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M268" s="8">
         <v>164000000000267</v>
@@ -19553,11 +19618,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K269" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000268::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000268::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M269" s="8">
         <v>164000000000268</v>
@@ -19576,11 +19641,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000269::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000269::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M270" s="8">
         <v>164000000000269</v>
@@ -19599,11 +19664,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K271" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000270::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000270::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M271" s="8">
         <v>164000000000270</v>
@@ -19622,11 +19687,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K272" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000271::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000271::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M272" s="8">
         <v>164000000000271</v>
@@ -19645,11 +19710,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000272::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000272::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M273" s="8">
         <v>164000000000272</v>
@@ -19691,11 +19756,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K275" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000274::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000274::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M275" s="8">
         <v>164000000000274</v>
@@ -19714,11 +19779,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K276" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000275::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000275::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M276" s="8">
         <v>164000000000275</v>
@@ -19760,11 +19825,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000277::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000277::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M278" s="8">
         <v>164000000000277</v>
@@ -19806,11 +19871,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000279::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000279::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M280" s="8">
         <v>164000000000279</v>
@@ -19829,11 +19894,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K281" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000280::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000280::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M281" s="8">
         <v>164000000000280</v>
@@ -19852,11 +19917,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K282" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000281::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000281::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M282" s="8">
         <v>164000000000281</v>
@@ -19875,11 +19940,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K283" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000282::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000282::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M283" s="8">
         <v>164000000000282</v>
@@ -19898,11 +19963,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000283::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000283::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M284" s="8">
         <v>164000000000283</v>
@@ -19921,11 +19986,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000284::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000284::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M285" s="8">
         <v>164000000000284</v>
@@ -19944,11 +20009,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000285::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000285::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M286" s="8">
         <v>164000000000285</v>
@@ -19967,11 +20032,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000286::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000286::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M287" s="8">
         <v>164000000000286</v>
@@ -19990,11 +20055,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K288" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000287::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000287::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M288" s="8">
         <v>164000000000287</v>
@@ -20013,11 +20078,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000288::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000288::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M289" s="8">
         <v>164000000000288</v>
@@ -20036,11 +20101,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K290" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000289::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000289::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M290" s="8">
         <v>164000000000289</v>
@@ -20059,11 +20124,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000290::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000290::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M291" s="8">
         <v>164000000000290</v>
@@ -20082,11 +20147,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K292" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000291::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000291::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M292" s="8">
         <v>164000000000291</v>
@@ -20105,11 +20170,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K293" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000292::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000292::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M293" s="8">
         <v>164000000000292</v>
@@ -20128,11 +20193,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K294" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000293::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000293::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M294" s="8">
         <v>164000000000293</v>
@@ -20151,11 +20216,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K295" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000294::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000294::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M295" s="8">
         <v>164000000000294</v>
@@ -20174,11 +20239,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K296" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000295::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000295::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M296" s="8">
         <v>164000000000295</v>
@@ -20197,11 +20262,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K297" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000296::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000296::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M297" s="8">
         <v>164000000000296</v>
@@ -20220,11 +20285,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K298" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000297::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000297::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M298" s="8">
         <v>164000000000297</v>
@@ -20243,11 +20308,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K299" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000298::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000298::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M299" s="8">
         <v>164000000000298</v>
@@ -20266,11 +20331,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K300" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000299::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000299::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M300" s="8">
         <v>164000000000299</v>
@@ -20289,11 +20354,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K301" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000300::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000300::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M301" s="8">
         <v>164000000000300</v>
@@ -20311,12 +20376,15 @@
       <c r="D302" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="F302" s="2">
+        <v>160000000000003</v>
+      </c>
       <c r="H302" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K302" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000301::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000301::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M302" s="8">
         <v>164000000000301</v>
@@ -20335,11 +20403,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K303" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000302::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000302::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M303" s="8">
         <v>164000000000302</v>
@@ -20358,11 +20426,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K304" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000303::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000303::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M304" s="8">
         <v>164000000000303</v>
@@ -20381,11 +20449,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K305" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000304::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000304::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M305" s="8">
         <v>164000000000304</v>
@@ -20404,11 +20472,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K306" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000305::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000305::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M306" s="8">
         <v>164000000000305</v>
@@ -20427,11 +20495,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K307" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000306::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000306::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M307" s="8">
         <v>164000000000306</v>
@@ -20450,11 +20518,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K308" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000307::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000307::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M308" s="8">
         <v>164000000000307</v>
@@ -20473,11 +20541,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K309" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000308::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000308::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M309" s="8">
         <v>164000000000308</v>
@@ -20496,11 +20564,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K310" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000309::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000309::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M310" s="8">
         <v>164000000000309</v>
@@ -20519,11 +20587,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K311" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000310::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000310::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M311" s="8">
         <v>164000000000310</v>
@@ -20542,11 +20610,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K312" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000311::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000311::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M312" s="8">
         <v>164000000000311</v>
@@ -20565,11 +20633,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K313" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000312::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000312::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M313" s="8">
         <v>164000000000312</v>
@@ -20588,11 +20656,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K314" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000313::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000313::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M314" s="8">
         <v>164000000000313</v>
@@ -20611,11 +20679,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K315" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000314::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000314::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M315" s="8">
         <v>164000000000314</v>
@@ -20634,11 +20702,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K316" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000315::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000315::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M316" s="8">
         <v>164000000000315</v>
@@ -20657,11 +20725,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K317" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000316::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000316::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M317" s="8">
         <v>164000000000316</v>
@@ -20680,11 +20748,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K318" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000317::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000317::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M318" s="8">
         <v>164000000000317</v>
@@ -20703,11 +20771,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K319" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000318::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000318::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M319" s="8">
         <v>164000000000318</v>
@@ -20726,11 +20794,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K320" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000319::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000319::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M320" s="8">
         <v>164000000000319</v>
@@ -20749,11 +20817,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K321" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000320::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000320::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M321" s="8">
         <v>164000000000320</v>
@@ -20772,11 +20840,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K322" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000321::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000321::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M322" s="8">
         <v>164000000000321</v>
@@ -20795,7 +20863,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K323" s="1" t="str">
         <f t="shared" ref="K323:K386" si="5">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -20807,7 +20875,7 @@
 CONCATENATE(IF(EXACT(H323, ""), ", null", CONCATENATE(", '", H323, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I323, ""), ", null", CONCATENATE(", ", I323, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000322::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000322::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M323" s="8">
         <v>164000000000322</v>
@@ -20826,11 +20894,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K324" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000323::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000323::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M324" s="8">
         <v>164000000000323</v>
@@ -20849,11 +20917,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K325" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000324::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000324::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M325" s="8">
         <v>164000000000324</v>
@@ -20872,11 +20940,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K326" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000325::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000325::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M326" s="8">
         <v>164000000000325</v>
@@ -20895,11 +20963,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K327" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000326::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000326::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M327" s="8">
         <v>164000000000326</v>
@@ -20918,11 +20986,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K328" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000327::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000327::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M328" s="8">
         <v>164000000000327</v>
@@ -20941,11 +21009,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K329" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000328::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000328::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M329" s="8">
         <v>164000000000328</v>
@@ -20964,11 +21032,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K330" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000329::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000329::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M330" s="8">
         <v>164000000000329</v>
@@ -20987,11 +21055,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K331" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000330::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000330::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M331" s="8">
         <v>164000000000330</v>
@@ -21010,11 +21078,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K332" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000331::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000331::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M332" s="8">
         <v>164000000000331</v>
@@ -21033,11 +21101,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K333" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000332::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000332::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M333" s="8">
         <v>164000000000332</v>
@@ -21056,11 +21124,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K334" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000333::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000333::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M334" s="8">
         <v>164000000000333</v>
@@ -21079,11 +21147,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K335" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000334::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000334::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M335" s="8">
         <v>164000000000334</v>
@@ -21102,11 +21170,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K336" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000335::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000335::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M336" s="8">
         <v>164000000000335</v>
@@ -21125,11 +21193,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K337" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000336::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000336::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M337" s="8">
         <v>164000000000336</v>
@@ -21148,11 +21216,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K338" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000337::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000337::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M338" s="8">
         <v>164000000000337</v>
@@ -21171,11 +21239,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K339" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000338::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000338::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M339" s="8">
         <v>164000000000338</v>
@@ -21194,11 +21262,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K340" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000339::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000339::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M340" s="8">
         <v>164000000000339</v>
@@ -21217,11 +21285,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K341" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000340::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000340::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M341" s="8">
         <v>164000000000340</v>
@@ -21240,11 +21308,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K342" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000341::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000341::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M342" s="8">
         <v>164000000000341</v>
@@ -21263,11 +21331,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K343" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000342::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000342::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M343" s="8">
         <v>164000000000342</v>
@@ -21286,11 +21354,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K344" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000343::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000343::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M344" s="8">
         <v>164000000000343</v>
@@ -21309,11 +21377,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K345" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000344::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000344::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M345" s="8">
         <v>164000000000344</v>
@@ -21332,11 +21400,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K346" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000345::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000345::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M346" s="8">
         <v>164000000000345</v>
@@ -21355,11 +21423,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K347" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000346::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000346::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M347" s="8">
         <v>164000000000346</v>
@@ -21401,11 +21469,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K349" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000348::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000348::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M349" s="8">
         <v>164000000000348</v>
@@ -21424,11 +21492,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K350" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000349::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000349::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M350" s="8">
         <v>164000000000349</v>
@@ -21447,11 +21515,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K351" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000350::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000350::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M351" s="8">
         <v>164000000000350</v>
@@ -21470,11 +21538,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K352" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000351::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000351::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M352" s="8">
         <v>164000000000351</v>
@@ -21493,11 +21561,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K353" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000352::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000352::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M353" s="8">
         <v>164000000000352</v>
@@ -21516,11 +21584,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K354" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000353::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000353::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M354" s="8">
         <v>164000000000353</v>
@@ -21539,11 +21607,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K355" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000354::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000354::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M355" s="8">
         <v>164000000000354</v>
@@ -21562,11 +21630,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K356" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000355::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000355::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M356" s="8">
         <v>164000000000355</v>
@@ -21585,11 +21653,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K357" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000356::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000356::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M357" s="8">
         <v>164000000000356</v>
@@ -21608,11 +21676,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K358" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000357::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000357::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M358" s="8">
         <v>164000000000357</v>
@@ -21631,11 +21699,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K359" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000358::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000358::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M359" s="8">
         <v>164000000000358</v>
@@ -21654,11 +21722,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K360" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000359::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000359::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M360" s="8">
         <v>164000000000359</v>
@@ -21677,11 +21745,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K361" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000360::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000360::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M361" s="8">
         <v>164000000000360</v>
@@ -21700,11 +21768,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K362" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000361::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000361::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M362" s="8">
         <v>164000000000361</v>
@@ -21723,11 +21791,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K363" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000362::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000362::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M363" s="8">
         <v>164000000000362</v>
@@ -21746,11 +21814,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K364" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000363::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000363::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M364" s="8">
         <v>164000000000363</v>
@@ -21769,11 +21837,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K365" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000364::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000364::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M365" s="8">
         <v>164000000000364</v>
@@ -21792,11 +21860,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K366" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000365::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000365::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M366" s="8">
         <v>164000000000365</v>
@@ -21815,11 +21883,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K367" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000366::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000366::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M367" s="8">
         <v>164000000000366</v>
@@ -21838,11 +21906,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K368" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000367::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000367::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M368" s="8">
         <v>164000000000367</v>
@@ -21861,11 +21929,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K369" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000368::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000368::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M369" s="8">
         <v>164000000000368</v>
@@ -21884,11 +21952,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K370" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000369::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000369::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M370" s="8">
         <v>164000000000369</v>
@@ -21907,11 +21975,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K371" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000370::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000370::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M371" s="8">
         <v>164000000000370</v>
@@ -21930,11 +21998,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K372" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000371::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000371::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M372" s="8">
         <v>164000000000371</v>
@@ -21953,11 +22021,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K373" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000372::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000372::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M373" s="8">
         <v>164000000000372</v>
@@ -21976,11 +22044,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K374" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000373::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000373::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M374" s="8">
         <v>164000000000373</v>
@@ -21999,11 +22067,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K375" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000374::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000374::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M375" s="8">
         <v>164000000000374</v>
@@ -22022,11 +22090,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K376" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000375::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000375::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M376" s="8">
         <v>164000000000375</v>
@@ -22045,11 +22113,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K377" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000376::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000376::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M377" s="8">
         <v>164000000000376</v>
@@ -22068,11 +22136,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K378" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000377::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000377::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M378" s="8">
         <v>164000000000377</v>
@@ -22091,11 +22159,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K379" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000378::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000378::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M379" s="8">
         <v>164000000000378</v>
@@ -22114,11 +22182,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K380" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000379::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000379::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M380" s="8">
         <v>164000000000379</v>
@@ -22137,11 +22205,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K381" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000380::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000380::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M381" s="8">
         <v>164000000000380</v>
@@ -22160,11 +22228,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K382" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000381::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000381::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M382" s="8">
         <v>164000000000381</v>
@@ -22183,11 +22251,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K383" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000382::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000382::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M383" s="8">
         <v>164000000000382</v>
@@ -22206,11 +22274,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K384" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000383::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000383::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M384" s="8">
         <v>164000000000383</v>
@@ -22229,11 +22297,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K385" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000384::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000384::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M385" s="8">
         <v>164000000000384</v>
@@ -22252,11 +22320,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K386" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000385::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000385::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M386" s="8">
         <v>164000000000385</v>
@@ -22275,7 +22343,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K387" s="1" t="str">
         <f t="shared" ref="K387:K450" si="6">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -22287,7 +22355,7 @@
 CONCATENATE(IF(EXACT(H387, ""), ", null", CONCATENATE(", '", H387, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I387, ""), ", null", CONCATENATE(", ", I387, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000386::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000386::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M387" s="8">
         <v>164000000000386</v>
@@ -22306,11 +22374,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K388" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000387::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000387::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M388" s="8">
         <v>164000000000387</v>
@@ -22329,11 +22397,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K389" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000388::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000388::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M389" s="8">
         <v>164000000000388</v>
@@ -22352,11 +22420,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K390" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000389::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000389::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M390" s="8">
         <v>164000000000389</v>
@@ -22375,11 +22443,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K391" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000390::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000390::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M391" s="8">
         <v>164000000000390</v>
@@ -22421,11 +22489,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K393" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000392::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000392::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M393" s="8">
         <v>164000000000392</v>
@@ -22467,11 +22535,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K395" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000394::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000394::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M395" s="8">
         <v>164000000000394</v>
@@ -22490,11 +22558,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K396" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000395::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000395::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M396" s="8">
         <v>164000000000395</v>
@@ -22513,11 +22581,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K397" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000396::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000396::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M397" s="8">
         <v>164000000000396</v>
@@ -22565,11 +22633,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K399" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000398::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000398::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M399" s="8">
         <v>164000000000398</v>
@@ -22588,11 +22656,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000399::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000399::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M400" s="8">
         <v>164000000000399</v>
@@ -22611,11 +22679,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K401" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000400::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000400::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M401" s="8">
         <v>164000000000400</v>
@@ -22634,11 +22702,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K402" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000401::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000401::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M402" s="8">
         <v>164000000000401</v>
@@ -22657,11 +22725,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K403" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000402::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000402::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M403" s="8">
         <v>164000000000402</v>
@@ -22680,11 +22748,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K404" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000403::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000403::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M404" s="8">
         <v>164000000000403</v>
@@ -22703,11 +22771,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K405" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000404::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000404::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M405" s="8">
         <v>164000000000404</v>
@@ -22726,11 +22794,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K406" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000405::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000405::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M406" s="8">
         <v>164000000000405</v>
@@ -22749,11 +22817,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K407" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000406::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000406::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M407" s="8">
         <v>164000000000406</v>
@@ -22772,11 +22840,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K408" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000407::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000407::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M408" s="8">
         <v>164000000000407</v>
@@ -22795,11 +22863,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K409" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000408::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000408::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M409" s="8">
         <v>164000000000408</v>
@@ -22818,11 +22886,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K410" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000409::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000409::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M410" s="8">
         <v>164000000000409</v>
@@ -22841,11 +22909,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K411" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000410::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000410::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M411" s="8">
         <v>164000000000410</v>
@@ -22864,11 +22932,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K412" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000411::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000411::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M412" s="8">
         <v>164000000000411</v>
@@ -22939,11 +23007,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K415" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000414::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000414::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M415" s="8">
         <v>164000000000414</v>
@@ -22962,11 +23030,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000415::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000415::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M416" s="8">
         <v>164000000000415</v>
@@ -22985,11 +23053,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K417" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000416::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000416::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M417" s="8">
         <v>164000000000416</v>
@@ -23008,11 +23076,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K418" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000417::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000417::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M418" s="8">
         <v>164000000000417</v>
@@ -23031,11 +23099,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K419" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000418::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000418::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M419" s="8">
         <v>164000000000418</v>
@@ -23054,11 +23122,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K420" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000419::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000419::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M420" s="8">
         <v>164000000000419</v>
@@ -23077,11 +23145,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K421" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000420::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000420::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M421" s="8">
         <v>164000000000420</v>
@@ -23100,11 +23168,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K422" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000421::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000421::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M422" s="8">
         <v>164000000000421</v>
@@ -23123,11 +23191,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K423" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000422::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000422::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M423" s="8">
         <v>164000000000422</v>
@@ -23146,11 +23214,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K424" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000423::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000423::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M424" s="8">
         <v>164000000000423</v>
@@ -23169,11 +23237,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K425" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000424::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000424::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M425" s="8">
         <v>164000000000424</v>
@@ -23192,11 +23260,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K426" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000425::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000425::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M426" s="8">
         <v>164000000000425</v>
@@ -23215,11 +23283,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K427" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000426::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000426::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M427" s="8">
         <v>164000000000426</v>
@@ -23238,11 +23306,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K428" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000427::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000427::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M428" s="8">
         <v>164000000000427</v>
@@ -23290,11 +23358,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K430" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000429::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000429::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M430" s="8">
         <v>164000000000429</v>
@@ -23313,11 +23381,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K431" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000430::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000430::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M431" s="8">
         <v>164000000000430</v>
@@ -23336,11 +23404,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K432" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000431::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000431::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M432" s="8">
         <v>164000000000431</v>
@@ -23359,11 +23427,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K433" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000432::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000432::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M433" s="8">
         <v>164000000000432</v>
@@ -23382,11 +23450,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K434" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000433::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000433::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M434" s="8">
         <v>164000000000433</v>
@@ -23404,12 +23472,15 @@
       <c r="D435" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="G435" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H435" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K435" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000434::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000434::bigint, 163000000000001::bigint, null::bigint, null::bigint, '2003-7-7 00:00:00+07'::timestamptz, '2023-02-11 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M435" s="8">
         <v>164000000000434</v>
@@ -23428,11 +23499,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K436" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000435::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000435::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M436" s="8">
         <v>164000000000435</v>
@@ -23451,11 +23522,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H437" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K437" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000436::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000436::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M437" s="8">
         <v>164000000000436</v>
@@ -23474,11 +23545,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H438" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K438" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000437::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000437::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M438" s="8">
         <v>164000000000437</v>
@@ -23497,11 +23568,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H439" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K439" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000438::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000438::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M439" s="8">
         <v>164000000000438</v>
@@ -23549,11 +23620,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H441" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K441" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000440::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000440::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M441" s="8">
         <v>164000000000440</v>
@@ -23572,11 +23643,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H442" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K442" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000441::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000441::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M442" s="8">
         <v>164000000000441</v>
@@ -23595,11 +23666,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H443" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K443" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000442::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000442::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M443" s="8">
         <v>164000000000442</v>
@@ -23618,11 +23689,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H444" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K444" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000443::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000443::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M444" s="8">
         <v>164000000000443</v>
@@ -23641,11 +23712,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H445" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K445" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000444::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000444::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M445" s="8">
         <v>164000000000444</v>
@@ -23664,11 +23735,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K446" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000445::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000445::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M446" s="8">
         <v>164000000000445</v>
@@ -23687,11 +23758,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H447" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K447" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000446::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000446::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M447" s="8">
         <v>164000000000446</v>
@@ -23710,11 +23781,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K448" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000447::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000447::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M448" s="8">
         <v>164000000000447</v>
@@ -23733,11 +23804,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K449" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000448::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000448::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M449" s="8">
         <v>164000000000448</v>
@@ -23756,11 +23827,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K450" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000449::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000449::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M450" s="8">
         <v>164000000000449</v>
@@ -23779,7 +23850,7 @@
         <v>163000000000001</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K451" s="1" t="str">
         <f t="shared" ref="K451:K512" si="7">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
@@ -23791,7 +23862,7 @@
 CONCATENATE(IF(EXACT(H451, ""), ", null", CONCATENATE(", '", H451, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I451, ""), ", null", CONCATENATE(", ", I451, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000450::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000450::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M451" s="8">
         <v>164000000000450</v>
@@ -23810,11 +23881,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K452" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000451::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000451::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M452" s="8">
         <v>164000000000451</v>
@@ -23832,12 +23903,15 @@
       <c r="D453" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="F453" s="2">
+        <v>160000000000003</v>
+      </c>
       <c r="H453" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000452::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000452::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M453" s="8">
         <v>164000000000452</v>
@@ -23856,11 +23930,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K454" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000453::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000453::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M454" s="8">
         <v>164000000000453</v>
@@ -23879,11 +23953,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K455" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000454::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000454::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M455" s="8">
         <v>164000000000454</v>
@@ -23902,11 +23976,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K456" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000455::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000455::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M456" s="8">
         <v>164000000000455</v>
@@ -23925,11 +23999,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K457" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000456::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000456::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M457" s="8">
         <v>164000000000456</v>
@@ -23948,11 +24022,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K458" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000457::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000457::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M458" s="8">
         <v>164000000000457</v>
@@ -23971,11 +24045,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K459" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000458::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000458::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M459" s="8">
         <v>164000000000458</v>
@@ -23994,11 +24068,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K460" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000459::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000459::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M460" s="8">
         <v>164000000000459</v>
@@ -24017,11 +24091,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K461" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000460::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000460::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M461" s="8">
         <v>164000000000460</v>
@@ -24040,11 +24114,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K462" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000461::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000461::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M462" s="8">
         <v>164000000000461</v>
@@ -24063,11 +24137,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K463" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000462::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000462::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M463" s="8">
         <v>164000000000462</v>
@@ -24086,11 +24160,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K464" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000463::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000463::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M464" s="8">
         <v>164000000000463</v>
@@ -24109,11 +24183,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K465" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000464::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000464::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M465" s="8">
         <v>164000000000464</v>
@@ -24132,11 +24206,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K466" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000465::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000465::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M466" s="8">
         <v>164000000000465</v>
@@ -24155,11 +24229,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K467" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000466::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000466::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M467" s="8">
         <v>164000000000466</v>
@@ -24178,11 +24252,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H468" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K468" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000467::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000467::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M468" s="8">
         <v>164000000000467</v>
@@ -24201,11 +24275,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H469" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K469" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000468::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000468::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M469" s="8">
         <v>164000000000468</v>
@@ -24224,11 +24298,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K470" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000469::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000469::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M470" s="8">
         <v>164000000000469</v>
@@ -24247,11 +24321,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H471" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K471" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000470::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000470::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M471" s="8">
         <v>164000000000470</v>
@@ -24270,11 +24344,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K472" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000471::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000471::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M472" s="8">
         <v>164000000000471</v>
@@ -24293,11 +24367,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K473" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000472::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000472::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M473" s="8">
         <v>164000000000472</v>
@@ -24316,11 +24390,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H474" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K474" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000473::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000473::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M474" s="8">
         <v>164000000000473</v>
@@ -24339,11 +24413,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K475" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000474::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000474::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M475" s="8">
         <v>164000000000474</v>
@@ -24362,11 +24436,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K476" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000475::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000475::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M476" s="8">
         <v>164000000000475</v>
@@ -24385,11 +24459,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H477" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K477" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000476::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000476::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M477" s="8">
         <v>164000000000476</v>
@@ -24408,11 +24482,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K478" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000477::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000477::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M478" s="8">
         <v>164000000000477</v>
@@ -24431,11 +24505,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K479" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000478::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000478::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M479" s="8">
         <v>164000000000478</v>
@@ -24454,11 +24528,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K480" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000479::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000479::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M480" s="8">
         <v>164000000000479</v>
@@ -24477,11 +24551,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K481" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000480::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000480::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M481" s="8">
         <v>164000000000480</v>
@@ -24500,11 +24574,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K482" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000481::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000481::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M482" s="8">
         <v>164000000000481</v>
@@ -24523,11 +24597,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K483" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000482::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000482::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M483" s="8">
         <v>164000000000482</v>
@@ -24546,11 +24620,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K484" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000483::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000483::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M484" s="8">
         <v>164000000000483</v>
@@ -24569,11 +24643,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K485" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000484::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000484::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M485" s="8">
         <v>164000000000484</v>
@@ -24592,11 +24666,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K486" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000485::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000485::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M486" s="8">
         <v>164000000000485</v>
@@ -24615,11 +24689,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K487" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000486::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000486::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M487" s="8">
         <v>164000000000486</v>
@@ -24661,11 +24735,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K489" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000488::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000488::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M489" s="8">
         <v>164000000000488</v>
@@ -24684,11 +24758,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K490" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000489::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000489::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M490" s="8">
         <v>164000000000489</v>
@@ -24707,11 +24781,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K491" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000490::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000490::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M491" s="8">
         <v>164000000000490</v>
@@ -24730,11 +24804,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K492" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000491::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000491::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M492" s="8">
         <v>164000000000491</v>
@@ -24753,11 +24827,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K493" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000492::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000492::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M493" s="8">
         <v>164000000000492</v>
@@ -24776,11 +24850,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K494" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000493::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000493::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M494" s="8">
         <v>164000000000493</v>
@@ -24799,11 +24873,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K495" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000494::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000494::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M495" s="8">
         <v>164000000000494</v>
@@ -24822,11 +24896,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K496" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000495::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000495::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M496" s="8">
         <v>164000000000495</v>
@@ -24845,11 +24919,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K497" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000496::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000496::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M497" s="8">
         <v>164000000000496</v>
@@ -24897,11 +24971,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K499" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000498::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000498::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M499" s="8">
         <v>164000000000498</v>
@@ -24920,11 +24994,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H500" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K500" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000499::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000499::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M500" s="8">
         <v>164000000000499</v>
@@ -24943,11 +25017,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K501" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000500::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000500::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M501" s="8">
         <v>164000000000500</v>
@@ -24966,11 +25040,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H502" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K502" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000501::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000501::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M502" s="8">
         <v>164000000000501</v>
@@ -24989,11 +25063,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H503" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K503" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000502::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000502::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M503" s="8">
         <v>164000000000502</v>
@@ -25012,11 +25086,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K504" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000503::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000503::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M504" s="8">
         <v>164000000000503</v>
@@ -25035,11 +25109,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K505" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000504::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000504::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M505" s="8">
         <v>164000000000504</v>
@@ -25058,11 +25132,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K506" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000505::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000505::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M506" s="8">
         <v>164000000000505</v>
@@ -25081,11 +25155,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K507" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000506::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000506::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M507" s="8">
         <v>164000000000506</v>
@@ -25104,11 +25178,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K508" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000507::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000507::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M508" s="8">
         <v>164000000000507</v>
@@ -25127,11 +25201,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K509" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000508::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000508::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M509" s="8">
         <v>164000000000508</v>
@@ -25150,11 +25224,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K510" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000509::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000509::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M510" s="8">
         <v>164000000000509</v>
@@ -25173,11 +25247,11 @@
         <v>163000000000001</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K511" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000510::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000510::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M511" s="8">
         <v>164000000000510</v>
@@ -25196,17 +25270,22 @@
         <v>163000000000001</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K512" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000511::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000511::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M512" s="8">
         <v>164000000000511</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H512">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
-    <sheet name="Internal Career" sheetId="2" r:id="rId2"/>
+    <sheet name="Internal Career (Last Position)" sheetId="2" r:id="rId2"/>
+    <sheet name="Internal Career (Previous Pos)" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="19">
   <si>
     <t>ID Pekerja</t>
   </si>
@@ -67,6 +68,15 @@
   <si>
     <t>1900-12-31 23:59:59+07</t>
   </si>
+  <si>
+    <t>2022-01-08 23:59:59+07</t>
+  </si>
+  <si>
+    <t>2018-05-02 00:00:00+07</t>
+  </si>
+  <si>
+    <t>2023-01-05 00:00:00+07</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +104,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +123,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -150,11 +166,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -204,7 +290,7 @@
     <sheetNames>
       <sheetName val="MAIN"/>
       <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Pindahan dari DB ERP Live"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1002,7 +1088,7 @@
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Deny Adi</v>
+            <v>Deny Adi Purnama</v>
           </cell>
           <cell r="F101">
             <v>25000000000100</v>
@@ -4274,7 +4360,7 @@
         </row>
         <row r="510">
           <cell r="B510" t="str">
-            <v>Riza</v>
+            <v>Riza Emir Subekti</v>
           </cell>
           <cell r="F510">
             <v>25000000000509</v>
@@ -4294,6 +4380,294 @@
           </cell>
           <cell r="F512">
             <v>25000000000511</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="B513" t="str">
+            <v>Agus Budi Setiawan</v>
+          </cell>
+          <cell r="F513">
+            <v>25000000000512</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="B514" t="str">
+            <v>Ahmad Choerul</v>
+          </cell>
+          <cell r="F514">
+            <v>25000000000513</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="B515" t="str">
+            <v>Ahmad Yunadi</v>
+          </cell>
+          <cell r="F515">
+            <v>25000000000514</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="B516" t="str">
+            <v>Asep mulyana</v>
+          </cell>
+          <cell r="F516">
+            <v>25000000000515</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="B517" t="str">
+            <v>Bagus Isdiantara</v>
+          </cell>
+          <cell r="F517">
+            <v>25000000000516</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="B518" t="str">
+            <v>Cahyana</v>
+          </cell>
+          <cell r="F518">
+            <v>25000000000517</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="B519" t="str">
+            <v>Dede Hartanto</v>
+          </cell>
+          <cell r="F519">
+            <v>25000000000518</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="B520" t="str">
+            <v>Denny Achmad</v>
+          </cell>
+          <cell r="F520">
+            <v>25000000000519</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="B521" t="str">
+            <v>Dian Setiawan</v>
+          </cell>
+          <cell r="F521">
+            <v>25000000000520</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="B522" t="str">
+            <v>Fabrian Danang Destiyara</v>
+          </cell>
+          <cell r="F522">
+            <v>25000000000521</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="B523" t="str">
+            <v>Ferdian Kriswantoro</v>
+          </cell>
+          <cell r="F523">
+            <v>25000000000522</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="B524" t="str">
+            <v>Fuzi Mafrozi</v>
+          </cell>
+          <cell r="F524">
+            <v>25000000000523</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="B525" t="str">
+            <v>Gilang Setiawan</v>
+          </cell>
+          <cell r="F525">
+            <v>25000000000524</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="B526" t="str">
+            <v>Idris Affandi</v>
+          </cell>
+          <cell r="F526">
+            <v>25000000000525</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="B527" t="str">
+            <v>Indra Wijaya</v>
+          </cell>
+          <cell r="F527">
+            <v>25000000000526</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="B528" t="str">
+            <v>Irma Maulidawati</v>
+          </cell>
+          <cell r="F528">
+            <v>25000000000527</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="B529" t="str">
+            <v>Istikaro Fauziah</v>
+          </cell>
+          <cell r="F529">
+            <v>25000000000528</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="B530" t="str">
+            <v>Muhammad Lukbani</v>
+          </cell>
+          <cell r="F530">
+            <v>25000000000529</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="B531" t="str">
+            <v>Muhammad Sholikhun</v>
+          </cell>
+          <cell r="F531">
+            <v>25000000000530</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="B532" t="str">
+            <v>Muhammad Syarifudin</v>
+          </cell>
+          <cell r="F532">
+            <v>25000000000531</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="B533" t="str">
+            <v>Nadia Rizkiah</v>
+          </cell>
+          <cell r="F533">
+            <v>25000000000532</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="B534" t="str">
+            <v>Nikko Septian</v>
+          </cell>
+          <cell r="F534">
+            <v>25000000000533</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="B535" t="str">
+            <v>Novizan</v>
+          </cell>
+          <cell r="F535">
+            <v>25000000000534</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="B536" t="str">
+            <v>Oqi Suhaqi Yunus</v>
+          </cell>
+          <cell r="F536">
+            <v>25000000000535</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="B537" t="str">
+            <v>Restu Dwi</v>
+          </cell>
+          <cell r="F537">
+            <v>25000000000536</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="B538" t="str">
+            <v>Rizal Amri</v>
+          </cell>
+          <cell r="F538">
+            <v>25000000000537</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="B539" t="str">
+            <v>Ronny Anindika Arnold</v>
+          </cell>
+          <cell r="F539">
+            <v>25000000000538</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="B540" t="str">
+            <v>Samta Harahap</v>
+          </cell>
+          <cell r="F540">
+            <v>25000000000539</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="B541" t="str">
+            <v>Vingky Hendriek Yomerlin</v>
+          </cell>
+          <cell r="F541">
+            <v>25000000000540</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="B542" t="str">
+            <v>Wahyu Teluk Naga</v>
+          </cell>
+          <cell r="F542">
+            <v>25000000000541</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="B543" t="str">
+            <v>Wardah Laily Khoiriyah</v>
+          </cell>
+          <cell r="F543">
+            <v>25000000000542</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="B544" t="str">
+            <v>Wawan Kusworo</v>
+          </cell>
+          <cell r="F544">
+            <v>25000000000543</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="B545" t="str">
+            <v>Wulanraniasih</v>
+          </cell>
+          <cell r="F545">
+            <v>25000000000544</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="B546" t="str">
+            <v>Yogi Perbangkara</v>
+          </cell>
+          <cell r="F546">
+            <v>25000000000545</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="B547" t="str">
+            <v>Yusuf Fathurahman</v>
+          </cell>
+          <cell r="F547">
+            <v>25000000000546</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="B548" t="str">
+            <v>Zeinurani</v>
+          </cell>
+          <cell r="F548">
+            <v>25000000000547</v>
           </cell>
         </row>
       </sheetData>
@@ -4591,10 +4965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H512"/>
+  <dimension ref="A1:H549"/>
   <sheetViews>
-    <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="D435" sqref="D435"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6304,7 +6678,7 @@
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="str">
         <f>[1]MAIN!$B101</f>
-        <v>Deny Adi</v>
+        <v>Deny Adi Purnama</v>
       </c>
       <c r="C101" s="2">
         <f>[1]MAIN!$F101</f>
@@ -12261,7 +12635,7 @@
         <v>25000000000450</v>
       </c>
       <c r="F451" s="1" t="str">
-        <f t="shared" ref="F451:F512" si="7">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorker_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C451, ", '", D451, "');")</f>
+        <f t="shared" ref="F451:F510" si="7">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorker_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C451, ", '", D451, "');")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000450, '');</v>
       </c>
       <c r="H451" s="4">
@@ -13033,7 +13407,7 @@
         <v>32000000000495</v>
       </c>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B497" s="1" t="str">
         <f>[1]MAIN!$B497</f>
         <v>Zainuddin</v>
@@ -13050,7 +13424,7 @@
         <v>32000000000496</v>
       </c>
     </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B498" s="1" t="str">
         <f>[1]MAIN!$B498</f>
         <v>Zainudin Anwar</v>
@@ -13067,7 +13441,7 @@
         <v>32000000000497</v>
       </c>
     </row>
-    <row r="499" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="str">
         <f>[1]MAIN!$B499</f>
         <v>Zaire Dite Biscaya</v>
@@ -13084,7 +13458,7 @@
         <v>32000000000498</v>
       </c>
     </row>
-    <row r="500" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B500" s="1" t="str">
         <f>[1]MAIN!$B500</f>
         <v>Zalfi Yandri</v>
@@ -13101,7 +13475,7 @@
         <v>32000000000499</v>
       </c>
     </row>
-    <row r="501" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B501" s="1" t="str">
         <f>[1]MAIN!$B501</f>
         <v>Zam Roji</v>
@@ -13118,7 +13492,7 @@
         <v>32000000000500</v>
       </c>
     </row>
-    <row r="502" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B502" s="1" t="str">
         <f>[1]MAIN!$B502</f>
         <v>Zulfikar Siregar</v>
@@ -13135,7 +13509,10 @@
         <v>32000000000501</v>
       </c>
     </row>
-    <row r="503" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503" s="11">
+        <v>44491</v>
+      </c>
       <c r="B503" s="1" t="str">
         <f>[1]MAIN!$B503</f>
         <v>Adythia Adikara</v>
@@ -13152,7 +13529,7 @@
         <v>32000000000502</v>
       </c>
     </row>
-    <row r="504" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B504" s="1" t="str">
         <f>[1]MAIN!$B504</f>
         <v>Agus Sopyan Hadi</v>
@@ -13169,7 +13546,7 @@
         <v>32000000000503</v>
       </c>
     </row>
-    <row r="505" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B505" s="1" t="str">
         <f>[1]MAIN!$B505</f>
         <v>Azis Purwandana</v>
@@ -13186,7 +13563,7 @@
         <v>32000000000504</v>
       </c>
     </row>
-    <row r="506" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B506" s="1" t="str">
         <f>[1]MAIN!$B506</f>
         <v>Heryanto</v>
@@ -13203,7 +13580,7 @@
         <v>32000000000505</v>
       </c>
     </row>
-    <row r="507" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B507" s="1" t="str">
         <f>[1]MAIN!$B507</f>
         <v>Imran</v>
@@ -13220,7 +13597,7 @@
         <v>32000000000506</v>
       </c>
     </row>
-    <row r="508" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="str">
         <f>[1]MAIN!$B508</f>
         <v>Khamim</v>
@@ -13237,7 +13614,7 @@
         <v>32000000000507</v>
       </c>
     </row>
-    <row r="509" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B509" s="1" t="str">
         <f>[1]MAIN!$B509</f>
         <v>Rafi Artman Siddiq</v>
@@ -13254,10 +13631,10 @@
         <v>32000000000508</v>
       </c>
     </row>
-    <row r="510" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B510" s="1" t="str">
         <f>[1]MAIN!$B510</f>
-        <v>Riza</v>
+        <v>Riza Emir Subekti</v>
       </c>
       <c r="C510" s="2">
         <f>[1]MAIN!$F510</f>
@@ -13271,7 +13648,7 @@
         <v>32000000000509</v>
       </c>
     </row>
-    <row r="511" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B511" s="1" t="str">
         <f>[1]MAIN!$B511</f>
         <v>Slamet Riadi</v>
@@ -13281,14 +13658,14 @@
         <v>25000000000510</v>
       </c>
       <c r="F511" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F511:F548" si="8">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorker_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C511, ", '", D511, "');")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000510, '');</v>
       </c>
       <c r="H511" s="4">
         <v>32000000000510</v>
       </c>
     </row>
-    <row r="512" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="str">
         <f>[1]MAIN!$B512</f>
         <v>Wisnu Andra Isdianto</v>
@@ -13298,12 +13675,631 @@
         <v>25000000000511</v>
       </c>
       <c r="F512" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000511, '');</v>
       </c>
       <c r="H512" s="4">
         <v>32000000000511</v>
       </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513" s="11">
+        <v>45069</v>
+      </c>
+      <c r="B513" s="1" t="str">
+        <f>[1]MAIN!$B513</f>
+        <v>Agus Budi Setiawan</v>
+      </c>
+      <c r="C513" s="2">
+        <f>[1]MAIN!$F513</f>
+        <v>25000000000512</v>
+      </c>
+      <c r="F513" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000512, '');</v>
+      </c>
+      <c r="H513" s="4">
+        <v>32000000000512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B514" s="1" t="str">
+        <f>[1]MAIN!$B514</f>
+        <v>Ahmad Choerul</v>
+      </c>
+      <c r="C514" s="2">
+        <f>[1]MAIN!$F514</f>
+        <v>25000000000513</v>
+      </c>
+      <c r="F514" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000513, '');</v>
+      </c>
+      <c r="H514" s="4">
+        <v>32000000000513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B515" s="1" t="str">
+        <f>[1]MAIN!$B515</f>
+        <v>Ahmad Yunadi</v>
+      </c>
+      <c r="C515" s="2">
+        <f>[1]MAIN!$F515</f>
+        <v>25000000000514</v>
+      </c>
+      <c r="F515" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000514, '');</v>
+      </c>
+      <c r="H515" s="4">
+        <v>32000000000514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B516" s="1" t="str">
+        <f>[1]MAIN!$B516</f>
+        <v>Asep mulyana</v>
+      </c>
+      <c r="C516" s="2">
+        <f>[1]MAIN!$F516</f>
+        <v>25000000000515</v>
+      </c>
+      <c r="F516" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000515, '');</v>
+      </c>
+      <c r="H516" s="4">
+        <v>32000000000515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B517" s="1" t="str">
+        <f>[1]MAIN!$B517</f>
+        <v>Bagus Isdiantara</v>
+      </c>
+      <c r="C517" s="2">
+        <f>[1]MAIN!$F517</f>
+        <v>25000000000516</v>
+      </c>
+      <c r="F517" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000516, '');</v>
+      </c>
+      <c r="H517" s="4">
+        <v>32000000000516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B518" s="1" t="str">
+        <f>[1]MAIN!$B518</f>
+        <v>Cahyana</v>
+      </c>
+      <c r="C518" s="2">
+        <f>[1]MAIN!$F518</f>
+        <v>25000000000517</v>
+      </c>
+      <c r="F518" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000517, '');</v>
+      </c>
+      <c r="H518" s="4">
+        <v>32000000000517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B519" s="1" t="str">
+        <f>[1]MAIN!$B519</f>
+        <v>Dede Hartanto</v>
+      </c>
+      <c r="C519" s="2">
+        <f>[1]MAIN!$F519</f>
+        <v>25000000000518</v>
+      </c>
+      <c r="F519" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000518, '');</v>
+      </c>
+      <c r="H519" s="4">
+        <v>32000000000518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B520" s="1" t="str">
+        <f>[1]MAIN!$B520</f>
+        <v>Denny Achmad</v>
+      </c>
+      <c r="C520" s="2">
+        <f>[1]MAIN!$F520</f>
+        <v>25000000000519</v>
+      </c>
+      <c r="F520" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000519, '');</v>
+      </c>
+      <c r="H520" s="4">
+        <v>32000000000519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B521" s="1" t="str">
+        <f>[1]MAIN!$B521</f>
+        <v>Dian Setiawan</v>
+      </c>
+      <c r="C521" s="2">
+        <f>[1]MAIN!$F521</f>
+        <v>25000000000520</v>
+      </c>
+      <c r="F521" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000520, '');</v>
+      </c>
+      <c r="H521" s="4">
+        <v>32000000000520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B522" s="1" t="str">
+        <f>[1]MAIN!$B522</f>
+        <v>Fabrian Danang Destiyara</v>
+      </c>
+      <c r="C522" s="2">
+        <f>[1]MAIN!$F522</f>
+        <v>25000000000521</v>
+      </c>
+      <c r="F522" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000521, '');</v>
+      </c>
+      <c r="H522" s="4">
+        <v>32000000000521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B523" s="1" t="str">
+        <f>[1]MAIN!$B523</f>
+        <v>Ferdian Kriswantoro</v>
+      </c>
+      <c r="C523" s="2">
+        <f>[1]MAIN!$F523</f>
+        <v>25000000000522</v>
+      </c>
+      <c r="F523" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000522, '');</v>
+      </c>
+      <c r="H523" s="4">
+        <v>32000000000522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B524" s="1" t="str">
+        <f>[1]MAIN!$B524</f>
+        <v>Fuzi Mafrozi</v>
+      </c>
+      <c r="C524" s="2">
+        <f>[1]MAIN!$F524</f>
+        <v>25000000000523</v>
+      </c>
+      <c r="F524" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000523, '');</v>
+      </c>
+      <c r="H524" s="4">
+        <v>32000000000523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B525" s="1" t="str">
+        <f>[1]MAIN!$B525</f>
+        <v>Gilang Setiawan</v>
+      </c>
+      <c r="C525" s="2">
+        <f>[1]MAIN!$F525</f>
+        <v>25000000000524</v>
+      </c>
+      <c r="F525" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000524, '');</v>
+      </c>
+      <c r="H525" s="4">
+        <v>32000000000524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B526" s="1" t="str">
+        <f>[1]MAIN!$B526</f>
+        <v>Idris Affandi</v>
+      </c>
+      <c r="C526" s="2">
+        <f>[1]MAIN!$F526</f>
+        <v>25000000000525</v>
+      </c>
+      <c r="F526" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000525, '');</v>
+      </c>
+      <c r="H526" s="4">
+        <v>32000000000525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B527" s="1" t="str">
+        <f>[1]MAIN!$B527</f>
+        <v>Indra Wijaya</v>
+      </c>
+      <c r="C527" s="2">
+        <f>[1]MAIN!$F527</f>
+        <v>25000000000526</v>
+      </c>
+      <c r="F527" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000526, '');</v>
+      </c>
+      <c r="H527" s="4">
+        <v>32000000000526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B528" s="1" t="str">
+        <f>[1]MAIN!$B528</f>
+        <v>Irma Maulidawati</v>
+      </c>
+      <c r="C528" s="2">
+        <f>[1]MAIN!$F528</f>
+        <v>25000000000527</v>
+      </c>
+      <c r="F528" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000527, '');</v>
+      </c>
+      <c r="H528" s="4">
+        <v>32000000000527</v>
+      </c>
+    </row>
+    <row r="529" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B529" s="1" t="str">
+        <f>[1]MAIN!$B529</f>
+        <v>Istikaro Fauziah</v>
+      </c>
+      <c r="C529" s="2">
+        <f>[1]MAIN!$F529</f>
+        <v>25000000000528</v>
+      </c>
+      <c r="F529" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000528, '');</v>
+      </c>
+      <c r="H529" s="4">
+        <v>32000000000528</v>
+      </c>
+    </row>
+    <row r="530" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B530" s="1" t="str">
+        <f>[1]MAIN!$B530</f>
+        <v>Muhammad Lukbani</v>
+      </c>
+      <c r="C530" s="2">
+        <f>[1]MAIN!$F530</f>
+        <v>25000000000529</v>
+      </c>
+      <c r="F530" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000529, '');</v>
+      </c>
+      <c r="H530" s="4">
+        <v>32000000000529</v>
+      </c>
+    </row>
+    <row r="531" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B531" s="1" t="str">
+        <f>[1]MAIN!$B531</f>
+        <v>Muhammad Sholikhun</v>
+      </c>
+      <c r="C531" s="2">
+        <f>[1]MAIN!$F531</f>
+        <v>25000000000530</v>
+      </c>
+      <c r="F531" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000530, '');</v>
+      </c>
+      <c r="H531" s="4">
+        <v>32000000000530</v>
+      </c>
+    </row>
+    <row r="532" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B532" s="1" t="str">
+        <f>[1]MAIN!$B532</f>
+        <v>Muhammad Syarifudin</v>
+      </c>
+      <c r="C532" s="2">
+        <f>[1]MAIN!$F532</f>
+        <v>25000000000531</v>
+      </c>
+      <c r="F532" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000531, '');</v>
+      </c>
+      <c r="H532" s="4">
+        <v>32000000000531</v>
+      </c>
+    </row>
+    <row r="533" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B533" s="1" t="str">
+        <f>[1]MAIN!$B533</f>
+        <v>Nadia Rizkiah</v>
+      </c>
+      <c r="C533" s="2">
+        <f>[1]MAIN!$F533</f>
+        <v>25000000000532</v>
+      </c>
+      <c r="F533" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000532, '');</v>
+      </c>
+      <c r="H533" s="4">
+        <v>32000000000532</v>
+      </c>
+    </row>
+    <row r="534" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B534" s="1" t="str">
+        <f>[1]MAIN!$B534</f>
+        <v>Nikko Septian</v>
+      </c>
+      <c r="C534" s="2">
+        <f>[1]MAIN!$F534</f>
+        <v>25000000000533</v>
+      </c>
+      <c r="F534" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000533, '');</v>
+      </c>
+      <c r="H534" s="4">
+        <v>32000000000533</v>
+      </c>
+    </row>
+    <row r="535" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B535" s="1" t="str">
+        <f>[1]MAIN!$B535</f>
+        <v>Novizan</v>
+      </c>
+      <c r="C535" s="2">
+        <f>[1]MAIN!$F535</f>
+        <v>25000000000534</v>
+      </c>
+      <c r="F535" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000534, '');</v>
+      </c>
+      <c r="H535" s="4">
+        <v>32000000000534</v>
+      </c>
+    </row>
+    <row r="536" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B536" s="1" t="str">
+        <f>[1]MAIN!$B536</f>
+        <v>Oqi Suhaqi Yunus</v>
+      </c>
+      <c r="C536" s="2">
+        <f>[1]MAIN!$F536</f>
+        <v>25000000000535</v>
+      </c>
+      <c r="F536" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000535, '');</v>
+      </c>
+      <c r="H536" s="4">
+        <v>32000000000535</v>
+      </c>
+    </row>
+    <row r="537" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B537" s="1" t="str">
+        <f>[1]MAIN!$B537</f>
+        <v>Restu Dwi</v>
+      </c>
+      <c r="C537" s="2">
+        <f>[1]MAIN!$F537</f>
+        <v>25000000000536</v>
+      </c>
+      <c r="F537" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000536, '');</v>
+      </c>
+      <c r="H537" s="4">
+        <v>32000000000536</v>
+      </c>
+    </row>
+    <row r="538" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B538" s="1" t="str">
+        <f>[1]MAIN!$B538</f>
+        <v>Rizal Amri</v>
+      </c>
+      <c r="C538" s="2">
+        <f>[1]MAIN!$F538</f>
+        <v>25000000000537</v>
+      </c>
+      <c r="F538" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000537, '');</v>
+      </c>
+      <c r="H538" s="4">
+        <v>32000000000537</v>
+      </c>
+    </row>
+    <row r="539" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B539" s="1" t="str">
+        <f>[1]MAIN!$B539</f>
+        <v>Ronny Anindika Arnold</v>
+      </c>
+      <c r="C539" s="2">
+        <f>[1]MAIN!$F539</f>
+        <v>25000000000538</v>
+      </c>
+      <c r="F539" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000538, '');</v>
+      </c>
+      <c r="H539" s="4">
+        <v>32000000000538</v>
+      </c>
+    </row>
+    <row r="540" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B540" s="1" t="str">
+        <f>[1]MAIN!$B540</f>
+        <v>Samta Harahap</v>
+      </c>
+      <c r="C540" s="2">
+        <f>[1]MAIN!$F540</f>
+        <v>25000000000539</v>
+      </c>
+      <c r="F540" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000539, '');</v>
+      </c>
+      <c r="H540" s="4">
+        <v>32000000000539</v>
+      </c>
+    </row>
+    <row r="541" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B541" s="1" t="str">
+        <f>[1]MAIN!$B541</f>
+        <v>Vingky Hendriek Yomerlin</v>
+      </c>
+      <c r="C541" s="2">
+        <f>[1]MAIN!$F541</f>
+        <v>25000000000540</v>
+      </c>
+      <c r="F541" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000540, '');</v>
+      </c>
+      <c r="H541" s="4">
+        <v>32000000000540</v>
+      </c>
+    </row>
+    <row r="542" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B542" s="1" t="str">
+        <f>[1]MAIN!$B542</f>
+        <v>Wahyu Teluk Naga</v>
+      </c>
+      <c r="C542" s="2">
+        <f>[1]MAIN!$F542</f>
+        <v>25000000000541</v>
+      </c>
+      <c r="F542" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000541, '');</v>
+      </c>
+      <c r="H542" s="4">
+        <v>32000000000541</v>
+      </c>
+    </row>
+    <row r="543" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B543" s="1" t="str">
+        <f>[1]MAIN!$B543</f>
+        <v>Wardah Laily Khoiriyah</v>
+      </c>
+      <c r="C543" s="2">
+        <f>[1]MAIN!$F543</f>
+        <v>25000000000542</v>
+      </c>
+      <c r="F543" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000542, '');</v>
+      </c>
+      <c r="H543" s="4">
+        <v>32000000000542</v>
+      </c>
+    </row>
+    <row r="544" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B544" s="1" t="str">
+        <f>[1]MAIN!$B544</f>
+        <v>Wawan Kusworo</v>
+      </c>
+      <c r="C544" s="2">
+        <f>[1]MAIN!$F544</f>
+        <v>25000000000543</v>
+      </c>
+      <c r="F544" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000543, '');</v>
+      </c>
+      <c r="H544" s="4">
+        <v>32000000000543</v>
+      </c>
+    </row>
+    <row r="545" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B545" s="1" t="str">
+        <f>[1]MAIN!$B545</f>
+        <v>Wulanraniasih</v>
+      </c>
+      <c r="C545" s="2">
+        <f>[1]MAIN!$F545</f>
+        <v>25000000000544</v>
+      </c>
+      <c r="F545" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000544, '');</v>
+      </c>
+      <c r="H545" s="4">
+        <v>32000000000544</v>
+      </c>
+    </row>
+    <row r="546" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B546" s="1" t="str">
+        <f>[1]MAIN!$B546</f>
+        <v>Yogi Perbangkara</v>
+      </c>
+      <c r="C546" s="2">
+        <f>[1]MAIN!$F546</f>
+        <v>25000000000545</v>
+      </c>
+      <c r="F546" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000545, '');</v>
+      </c>
+      <c r="H546" s="4">
+        <v>32000000000545</v>
+      </c>
+    </row>
+    <row r="547" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B547" s="1" t="str">
+        <f>[1]MAIN!$B547</f>
+        <v>Yusuf Fathurahman</v>
+      </c>
+      <c r="C547" s="2">
+        <f>[1]MAIN!$F547</f>
+        <v>25000000000546</v>
+      </c>
+      <c r="F547" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000546, '');</v>
+      </c>
+      <c r="H547" s="4">
+        <v>32000000000546</v>
+      </c>
+    </row>
+    <row r="548" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B548" s="1" t="str">
+        <f>[1]MAIN!$B548</f>
+        <v>Zeinurani</v>
+      </c>
+      <c r="C548" s="2">
+        <f>[1]MAIN!$F548</f>
+        <v>25000000000547</v>
+      </c>
+      <c r="F548" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000547, '');</v>
+      </c>
+      <c r="H548" s="4">
+        <v>32000000000547</v>
+      </c>
+    </row>
+    <row r="549" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C549" s="2"/>
+      <c r="H549" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13312,13 +14308,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M512"/>
+  <dimension ref="A1:M548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C500" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F453" sqref="F453"/>
+      <selection pane="bottomRight" activeCell="E348" sqref="E348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13643,6 +14639,9 @@
       <c r="D13" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E13" s="2">
+        <v>111000000000007</v>
+      </c>
       <c r="F13" s="2">
         <v>160000000000003</v>
       </c>
@@ -13651,7 +14650,7 @@
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000012::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000012::bigint, 163000000000001::bigint, 111000000000007::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M13" s="8">
         <v>164000000000012</v>
@@ -15690,7 +16689,7 @@
     <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="str">
         <f>MAIN!B101</f>
-        <v>Deny Adi</v>
+        <v>Deny Adi Purnama</v>
       </c>
       <c r="C101" s="2">
         <f>MAIN!H101</f>
@@ -15699,12 +16698,21 @@
       <c r="D101" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E101" s="2">
+        <v>111000000000005</v>
+      </c>
+      <c r="F101" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000100::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000100::bigint, 163000000000001::bigint, 111000000000005::bigint, 160000000000001::bigint, '2023-01-05 00:00:00+07'::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M101" s="8">
         <v>164000000000100</v>
@@ -17263,12 +18271,18 @@
       <c r="D168" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E168" s="2">
+        <v>111000000000004</v>
+      </c>
+      <c r="F168" s="2">
+        <v>160000000000004</v>
+      </c>
       <c r="H168" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000167::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000167::bigint, 163000000000001::bigint, 111000000000004::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M168" s="8">
         <v>164000000000167</v>
@@ -17286,12 +18300,15 @@
       <c r="D169" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E169" s="2">
+        <v>111000000000007</v>
+      </c>
       <c r="H169" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000168::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000168::bigint, 163000000000001::bigint, 111000000000007::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M169" s="8">
         <v>164000000000168</v>
@@ -19235,12 +20252,18 @@
       <c r="D253" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E253" s="2">
+        <v>111000000000005</v>
+      </c>
+      <c r="F253" s="2">
+        <v>160000000000004</v>
+      </c>
       <c r="H253" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000252::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000252::bigint, 163000000000001::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M253" s="8">
         <v>164000000000252</v>
@@ -21442,15 +22465,15 @@
         <f>MAIN!H348</f>
         <v>32000000000347</v>
       </c>
-      <c r="D348" s="2">
-        <v>163000000000001</v>
+      <c r="F348" s="2">
+        <v>160000000000005</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K348" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000347::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000347::bigint, null::bigint, null::bigint, 160000000000005::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M348" s="8">
         <v>164000000000347</v>
@@ -23853,7 +24876,7 @@
         <v>15</v>
       </c>
       <c r="K451" s="1" t="str">
-        <f t="shared" ref="K451:K512" si="7">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
+        <f t="shared" ref="K451:K514" si="7">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
 CONCATENATE(IF(EXACT(C451, ""), ", null", CONCATENATE(", ", C451, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D451, ""), ", null", CONCATENATE(", ", D451, "")), "::bigint"),
 CONCATENATE(IF(EXACT(E451, ""), ", null", CONCATENATE(", ", E451, "")), "::bigint"),
@@ -23903,6 +24926,9 @@
       <c r="D453" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E453" s="2">
+        <v>111000000000004</v>
+      </c>
       <c r="F453" s="2">
         <v>160000000000003</v>
       </c>
@@ -23911,7 +24937,7 @@
       </c>
       <c r="K453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000452::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000452::bigint, 163000000000001::bigint, 111000000000004::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M453" s="8">
         <v>164000000000452</v>
@@ -24711,12 +25737,15 @@
       <c r="D488" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E488" s="2">
+        <v>111000000000004</v>
+      </c>
       <c r="H488" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K488" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000487::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000487::bigint, 163000000000001::bigint, 111000000000004::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M488" s="8">
         <v>164000000000487</v>
@@ -24906,7 +25935,7 @@
         <v>164000000000495</v>
       </c>
     </row>
-    <row r="497" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B497" s="1" t="str">
         <f>MAIN!B497</f>
         <v>Zainuddin</v>
@@ -24929,7 +25958,7 @@
         <v>164000000000496</v>
       </c>
     </row>
-    <row r="498" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B498" s="1" t="str">
         <f>MAIN!B498</f>
         <v>Zainudin Anwar</v>
@@ -24958,7 +25987,7 @@
         <v>164000000000497</v>
       </c>
     </row>
-    <row r="499" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="str">
         <f>MAIN!B499</f>
         <v>Zaire Dite Biscaya</v>
@@ -24981,7 +26010,7 @@
         <v>164000000000498</v>
       </c>
     </row>
-    <row r="500" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B500" s="1" t="str">
         <f>MAIN!B500</f>
         <v>Zalfi Yandri</v>
@@ -25004,7 +26033,7 @@
         <v>164000000000499</v>
       </c>
     </row>
-    <row r="501" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B501" s="1" t="str">
         <f>MAIN!B501</f>
         <v>Zam Roji</v>
@@ -25027,7 +26056,7 @@
         <v>164000000000500</v>
       </c>
     </row>
-    <row r="502" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B502" s="1" t="str">
         <f>MAIN!B502</f>
         <v>Zulfikar Siregar</v>
@@ -25050,7 +26079,10 @@
         <v>164000000000501</v>
       </c>
     </row>
-    <row r="503" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A503" s="11">
+        <v>44491</v>
+      </c>
       <c r="B503" s="1" t="str">
         <f>MAIN!B503</f>
         <v>Adythia Adikara</v>
@@ -25073,7 +26105,7 @@
         <v>164000000000502</v>
       </c>
     </row>
-    <row r="504" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B504" s="1" t="str">
         <f>MAIN!B504</f>
         <v>Agus Sopyan Hadi</v>
@@ -25096,7 +26128,7 @@
         <v>164000000000503</v>
       </c>
     </row>
-    <row r="505" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B505" s="1" t="str">
         <f>MAIN!B505</f>
         <v>Azis Purwandana</v>
@@ -25119,7 +26151,7 @@
         <v>164000000000504</v>
       </c>
     </row>
-    <row r="506" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B506" s="1" t="str">
         <f>MAIN!B506</f>
         <v>Heryanto</v>
@@ -25142,7 +26174,7 @@
         <v>164000000000505</v>
       </c>
     </row>
-    <row r="507" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B507" s="1" t="str">
         <f>MAIN!B507</f>
         <v>Imran</v>
@@ -25165,7 +26197,7 @@
         <v>164000000000506</v>
       </c>
     </row>
-    <row r="508" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="str">
         <f>MAIN!B508</f>
         <v>Khamim</v>
@@ -25188,7 +26220,7 @@
         <v>164000000000507</v>
       </c>
     </row>
-    <row r="509" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B509" s="1" t="str">
         <f>MAIN!B509</f>
         <v>Rafi Artman Siddiq</v>
@@ -25211,10 +26243,10 @@
         <v>164000000000508</v>
       </c>
     </row>
-    <row r="510" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B510" s="1" t="str">
         <f>MAIN!B510</f>
-        <v>Riza</v>
+        <v>Riza Emir Subekti</v>
       </c>
       <c r="C510" s="2">
         <f>MAIN!H510</f>
@@ -25234,7 +26266,7 @@
         <v>164000000000509</v>
       </c>
     </row>
-    <row r="511" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B511" s="1" t="str">
         <f>MAIN!B511</f>
         <v>Slamet Riadi</v>
@@ -25257,7 +26289,7 @@
         <v>164000000000510</v>
       </c>
     </row>
-    <row r="512" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="str">
         <f>MAIN!B512</f>
         <v>Wisnu Andra Isdianto</v>
@@ -25280,13 +26312,1096 @@
         <v>164000000000511</v>
       </c>
     </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A513" s="11">
+        <v>45069</v>
+      </c>
+      <c r="B513" s="1" t="str">
+        <f>MAIN!B513</f>
+        <v>Agus Budi Setiawan</v>
+      </c>
+      <c r="C513" s="2">
+        <f>MAIN!H513</f>
+        <v>32000000000512</v>
+      </c>
+      <c r="D513" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F513" s="2">
+        <v>160000000000003</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K513" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000512::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M513" s="8">
+        <v>164000000000512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B514" s="1" t="str">
+        <f>MAIN!B514</f>
+        <v>Ahmad Choerul</v>
+      </c>
+      <c r="C514" s="2">
+        <f>MAIN!H514</f>
+        <v>32000000000513</v>
+      </c>
+      <c r="D514" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F514" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K514" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000513::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M514" s="8">
+        <v>164000000000513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B515" s="1" t="str">
+        <f>MAIN!B515</f>
+        <v>Ahmad Yunadi</v>
+      </c>
+      <c r="C515" s="2">
+        <f>MAIN!H515</f>
+        <v>32000000000514</v>
+      </c>
+      <c r="D515" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F515" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K515" s="1" t="str">
+        <f t="shared" ref="K515:K548" si="8">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
+CONCATENATE(IF(EXACT(C515, ""), ", null", CONCATENATE(", ", C515, "")), "::bigint"),
+CONCATENATE(IF(EXACT(D515, ""), ", null", CONCATENATE(", ", D515, "")), "::bigint"),
+CONCATENATE(IF(EXACT(E515, ""), ", null", CONCATENATE(", ", E515, "")), "::bigint"),
+CONCATENATE(IF(EXACT(F515, ""), ", null", CONCATENATE(", ", F515, "")), "::bigint"),
+CONCATENATE(IF(EXACT(G515, ""), ", null", CONCATENATE(", '", G515, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(H515, ""), ", null", CONCATENATE(", '", H515, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(I515, ""), ", null", CONCATENATE(", ", I515, "")), "::bigint"),
+");")</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000514::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M515" s="8">
+        <v>164000000000514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B516" s="1" t="str">
+        <f>MAIN!B516</f>
+        <v>Asep mulyana</v>
+      </c>
+      <c r="C516" s="2">
+        <f>MAIN!H516</f>
+        <v>32000000000515</v>
+      </c>
+      <c r="D516" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F516" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K516" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000515::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M516" s="8">
+        <v>164000000000515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B517" s="1" t="str">
+        <f>MAIN!B517</f>
+        <v>Bagus Isdiantara</v>
+      </c>
+      <c r="C517" s="2">
+        <f>MAIN!H517</f>
+        <v>32000000000516</v>
+      </c>
+      <c r="D517" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F517" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K517" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000516::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M517" s="8">
+        <v>164000000000516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B518" s="1" t="str">
+        <f>MAIN!B518</f>
+        <v>Cahyana</v>
+      </c>
+      <c r="C518" s="2">
+        <f>MAIN!H518</f>
+        <v>32000000000517</v>
+      </c>
+      <c r="D518" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F518" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K518" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000517::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M518" s="8">
+        <v>164000000000517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B519" s="1" t="str">
+        <f>MAIN!B519</f>
+        <v>Dede Hartanto</v>
+      </c>
+      <c r="C519" s="2">
+        <f>MAIN!H519</f>
+        <v>32000000000518</v>
+      </c>
+      <c r="D519" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F519" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K519" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000518::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M519" s="8">
+        <v>164000000000518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B520" s="1" t="str">
+        <f>MAIN!B520</f>
+        <v>Denny Achmad</v>
+      </c>
+      <c r="C520" s="2">
+        <f>MAIN!H520</f>
+        <v>32000000000519</v>
+      </c>
+      <c r="D520" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F520" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K520" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000519::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M520" s="8">
+        <v>164000000000519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B521" s="1" t="str">
+        <f>MAIN!B521</f>
+        <v>Dian Setiawan</v>
+      </c>
+      <c r="C521" s="2">
+        <f>MAIN!H521</f>
+        <v>32000000000520</v>
+      </c>
+      <c r="D521" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F521" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K521" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000520::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M521" s="8">
+        <v>164000000000520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B522" s="1" t="str">
+        <f>MAIN!B522</f>
+        <v>Fabrian Danang Destiyara</v>
+      </c>
+      <c r="C522" s="2">
+        <f>MAIN!H522</f>
+        <v>32000000000521</v>
+      </c>
+      <c r="D522" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F522" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K522" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000521::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M522" s="8">
+        <v>164000000000521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B523" s="1" t="str">
+        <f>MAIN!B523</f>
+        <v>Ferdian Kriswantoro</v>
+      </c>
+      <c r="C523" s="2">
+        <f>MAIN!H523</f>
+        <v>32000000000522</v>
+      </c>
+      <c r="D523" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F523" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K523" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000522::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M523" s="8">
+        <v>164000000000522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B524" s="1" t="str">
+        <f>MAIN!B524</f>
+        <v>Fuzi Mafrozi</v>
+      </c>
+      <c r="C524" s="2">
+        <f>MAIN!H524</f>
+        <v>32000000000523</v>
+      </c>
+      <c r="D524" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F524" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K524" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000523::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M524" s="8">
+        <v>164000000000523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B525" s="1" t="str">
+        <f>MAIN!B525</f>
+        <v>Gilang Setiawan</v>
+      </c>
+      <c r="C525" s="2">
+        <f>MAIN!H525</f>
+        <v>32000000000524</v>
+      </c>
+      <c r="D525" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F525" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K525" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000524::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M525" s="8">
+        <v>164000000000524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B526" s="1" t="str">
+        <f>MAIN!B526</f>
+        <v>Idris Affandi</v>
+      </c>
+      <c r="C526" s="2">
+        <f>MAIN!H526</f>
+        <v>32000000000525</v>
+      </c>
+      <c r="D526" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F526" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K526" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000525::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M526" s="8">
+        <v>164000000000525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B527" s="1" t="str">
+        <f>MAIN!B527</f>
+        <v>Indra Wijaya</v>
+      </c>
+      <c r="C527" s="2">
+        <f>MAIN!H527</f>
+        <v>32000000000526</v>
+      </c>
+      <c r="D527" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F527" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K527" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000526::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M527" s="8">
+        <v>164000000000526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B528" s="1" t="str">
+        <f>MAIN!B528</f>
+        <v>Irma Maulidawati</v>
+      </c>
+      <c r="C528" s="2">
+        <f>MAIN!H528</f>
+        <v>32000000000527</v>
+      </c>
+      <c r="D528" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F528" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K528" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000527::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M528" s="8">
+        <v>164000000000527</v>
+      </c>
+    </row>
+    <row r="529" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B529" s="1" t="str">
+        <f>MAIN!B529</f>
+        <v>Istikaro Fauziah</v>
+      </c>
+      <c r="C529" s="2">
+        <f>MAIN!H529</f>
+        <v>32000000000528</v>
+      </c>
+      <c r="D529" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F529" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K529" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000528::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M529" s="8">
+        <v>164000000000528</v>
+      </c>
+    </row>
+    <row r="530" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B530" s="1" t="str">
+        <f>MAIN!B530</f>
+        <v>Muhammad Lukbani</v>
+      </c>
+      <c r="C530" s="2">
+        <f>MAIN!H530</f>
+        <v>32000000000529</v>
+      </c>
+      <c r="D530" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F530" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K530" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000529::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M530" s="8">
+        <v>164000000000529</v>
+      </c>
+    </row>
+    <row r="531" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B531" s="1" t="str">
+        <f>MAIN!B531</f>
+        <v>Muhammad Sholikhun</v>
+      </c>
+      <c r="C531" s="2">
+        <f>MAIN!H531</f>
+        <v>32000000000530</v>
+      </c>
+      <c r="D531" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F531" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K531" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000530::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M531" s="8">
+        <v>164000000000530</v>
+      </c>
+    </row>
+    <row r="532" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B532" s="1" t="str">
+        <f>MAIN!B532</f>
+        <v>Muhammad Syarifudin</v>
+      </c>
+      <c r="C532" s="2">
+        <f>MAIN!H532</f>
+        <v>32000000000531</v>
+      </c>
+      <c r="D532" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F532" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K532" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000531::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M532" s="8">
+        <v>164000000000531</v>
+      </c>
+    </row>
+    <row r="533" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B533" s="1" t="str">
+        <f>MAIN!B533</f>
+        <v>Nadia Rizkiah</v>
+      </c>
+      <c r="C533" s="2">
+        <f>MAIN!H533</f>
+        <v>32000000000532</v>
+      </c>
+      <c r="D533" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F533" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K533" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000532::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M533" s="8">
+        <v>164000000000532</v>
+      </c>
+    </row>
+    <row r="534" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B534" s="1" t="str">
+        <f>MAIN!B534</f>
+        <v>Nikko Septian</v>
+      </c>
+      <c r="C534" s="2">
+        <f>MAIN!H534</f>
+        <v>32000000000533</v>
+      </c>
+      <c r="D534" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F534" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K534" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000533::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M534" s="8">
+        <v>164000000000533</v>
+      </c>
+    </row>
+    <row r="535" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B535" s="1" t="str">
+        <f>MAIN!B535</f>
+        <v>Novizan</v>
+      </c>
+      <c r="C535" s="2">
+        <f>MAIN!H535</f>
+        <v>32000000000534</v>
+      </c>
+      <c r="D535" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F535" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K535" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000534::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M535" s="8">
+        <v>164000000000534</v>
+      </c>
+    </row>
+    <row r="536" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B536" s="1" t="str">
+        <f>MAIN!B536</f>
+        <v>Oqi Suhaqi Yunus</v>
+      </c>
+      <c r="C536" s="2">
+        <f>MAIN!H536</f>
+        <v>32000000000535</v>
+      </c>
+      <c r="D536" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F536" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K536" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000535::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M536" s="8">
+        <v>164000000000535</v>
+      </c>
+    </row>
+    <row r="537" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B537" s="1" t="str">
+        <f>MAIN!B537</f>
+        <v>Restu Dwi</v>
+      </c>
+      <c r="C537" s="2">
+        <f>MAIN!H537</f>
+        <v>32000000000536</v>
+      </c>
+      <c r="D537" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="E537" s="2">
+        <v>111000000000007</v>
+      </c>
+      <c r="F537" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K537" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000536::bigint, 163000000000001::bigint, 111000000000007::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M537" s="8">
+        <v>164000000000536</v>
+      </c>
+    </row>
+    <row r="538" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B538" s="1" t="str">
+        <f>MAIN!B538</f>
+        <v>Rizal Amri</v>
+      </c>
+      <c r="C538" s="2">
+        <f>MAIN!H538</f>
+        <v>32000000000537</v>
+      </c>
+      <c r="D538" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F538" s="2">
+        <v>160000000000003</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K538" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000537::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M538" s="8">
+        <v>164000000000537</v>
+      </c>
+    </row>
+    <row r="539" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B539" s="1" t="str">
+        <f>MAIN!B539</f>
+        <v>Ronny Anindika Arnold</v>
+      </c>
+      <c r="C539" s="2">
+        <f>MAIN!H539</f>
+        <v>32000000000538</v>
+      </c>
+      <c r="D539" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F539" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K539" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000538::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M539" s="8">
+        <v>164000000000538</v>
+      </c>
+    </row>
+    <row r="540" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B540" s="1" t="str">
+        <f>MAIN!B540</f>
+        <v>Samta Harahap</v>
+      </c>
+      <c r="C540" s="2">
+        <f>MAIN!H540</f>
+        <v>32000000000539</v>
+      </c>
+      <c r="D540" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F540" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K540" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000539::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M540" s="8">
+        <v>164000000000539</v>
+      </c>
+    </row>
+    <row r="541" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B541" s="1" t="str">
+        <f>MAIN!B541</f>
+        <v>Vingky Hendriek Yomerlin</v>
+      </c>
+      <c r="C541" s="2">
+        <f>MAIN!H541</f>
+        <v>32000000000540</v>
+      </c>
+      <c r="D541" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F541" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K541" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000540::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M541" s="8">
+        <v>164000000000540</v>
+      </c>
+    </row>
+    <row r="542" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B542" s="1" t="str">
+        <f>MAIN!B542</f>
+        <v>Wahyu Teluk Naga</v>
+      </c>
+      <c r="C542" s="2">
+        <f>MAIN!H542</f>
+        <v>32000000000541</v>
+      </c>
+      <c r="D542" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F542" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K542" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000541::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M542" s="8">
+        <v>164000000000541</v>
+      </c>
+    </row>
+    <row r="543" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B543" s="1" t="str">
+        <f>MAIN!B543</f>
+        <v>Wardah Laily Khoiriyah</v>
+      </c>
+      <c r="C543" s="2">
+        <f>MAIN!H543</f>
+        <v>32000000000542</v>
+      </c>
+      <c r="D543" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F543" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K543" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000542::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M543" s="8">
+        <v>164000000000542</v>
+      </c>
+    </row>
+    <row r="544" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B544" s="1" t="str">
+        <f>MAIN!B544</f>
+        <v>Wawan Kusworo</v>
+      </c>
+      <c r="C544" s="2">
+        <f>MAIN!H544</f>
+        <v>32000000000543</v>
+      </c>
+      <c r="D544" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F544" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K544" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000543::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M544" s="8">
+        <v>164000000000543</v>
+      </c>
+    </row>
+    <row r="545" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B545" s="1" t="str">
+        <f>MAIN!B545</f>
+        <v>Wulanraniasih</v>
+      </c>
+      <c r="C545" s="2">
+        <f>MAIN!H545</f>
+        <v>32000000000544</v>
+      </c>
+      <c r="D545" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F545" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K545" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000544::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M545" s="8">
+        <v>164000000000544</v>
+      </c>
+    </row>
+    <row r="546" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B546" s="1" t="str">
+        <f>MAIN!B546</f>
+        <v>Yogi Perbangkara</v>
+      </c>
+      <c r="C546" s="2">
+        <f>MAIN!H546</f>
+        <v>32000000000545</v>
+      </c>
+      <c r="D546" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="E546" s="2">
+        <v>111000000000004</v>
+      </c>
+      <c r="F546" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K546" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000545::bigint, 163000000000001::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M546" s="8">
+        <v>164000000000545</v>
+      </c>
+    </row>
+    <row r="547" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B547" s="1" t="str">
+        <f>MAIN!B547</f>
+        <v>Yusuf Fathurahman</v>
+      </c>
+      <c r="C547" s="2">
+        <f>MAIN!H547</f>
+        <v>32000000000546</v>
+      </c>
+      <c r="D547" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F547" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K547" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000546::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M547" s="8">
+        <v>164000000000546</v>
+      </c>
+    </row>
+    <row r="548" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B548" s="1" t="str">
+        <f>MAIN!B548</f>
+        <v>Zeinurani</v>
+      </c>
+      <c r="C548" s="2">
+        <f>MAIN!H548</f>
+        <v>32000000000547</v>
+      </c>
+      <c r="D548" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="F548" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K548" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000547::bigint, 163000000000001::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M548" s="8">
+        <v>164000000000547</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H512">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H513">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H513)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H524">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H524)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H540">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H540)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H514:H523">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H514)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H539 H525:H537">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H525)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H542:H548">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H542)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H541">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H541)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H538">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="14" customWidth="1"/>
+    <col min="7" max="8" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="str">
+        <f>'Internal Career (Last Position)'!B440</f>
+        <v>Teguh Pratama Januzir Sukin</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="str">
+        <f>'Internal Career (Last Position)'!B101</f>
+        <v>Deny Adi Purnama</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'Internal Career (Last Position)'!C101</f>
+        <v>32000000000100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>163000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>111000000000005</v>
+      </c>
+      <c r="F3" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
+CONCATENATE(IF(EXACT(C3, ""), ", null", CONCATENATE(", ", C3, "")), "::bigint"),
+CONCATENATE(IF(EXACT(D3, ""), ", null", CONCATENATE(", ", D3, "")), "::bigint"),
+CONCATENATE(IF(EXACT(E3, ""), ", null", CONCATENATE(", ", E3, "")), "::bigint"),
+CONCATENATE(IF(EXACT(F3, ""), ", null", CONCATENATE(", ", F3, "")), "::bigint"),
+CONCATENATE(IF(EXACT(G3, ""), ", null", CONCATENATE(", '", G3, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(H3, ""), ", null", CONCATENATE(", '", H3, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(I3, ""), ", null", CONCATENATE(", ", I3, "")), "::bigint"),
+");")</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000100::bigint, 163000000000001::bigint, 111000000000005::bigint, 160000000000001::bigint, '2018-05-02 00:00:00+07'::timestamptz, '2022-01-08 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="59">
   <si>
     <t>ID Pekerja</t>
   </si>
@@ -77,12 +77,132 @@
   <si>
     <t>2023-01-05 00:00:00+07</t>
   </si>
+  <si>
+    <t>110422962</t>
+  </si>
+  <si>
+    <t>010703020</t>
+  </si>
+  <si>
+    <t>130223978</t>
+  </si>
+  <si>
+    <t>310821007</t>
+  </si>
+  <si>
+    <t>100920934</t>
+  </si>
+  <si>
+    <t>060515769</t>
+  </si>
+  <si>
+    <t>050123975</t>
+  </si>
+  <si>
+    <t>040803040</t>
+  </si>
+  <si>
+    <t>200420932</t>
+  </si>
+  <si>
+    <t>060121944</t>
+  </si>
+  <si>
+    <t>010806250</t>
+  </si>
+  <si>
+    <t>070806256</t>
+  </si>
+  <si>
+    <t>040822965</t>
+  </si>
+  <si>
+    <t>040515767</t>
+  </si>
+  <si>
+    <t>070305123</t>
+  </si>
+  <si>
+    <t>010513665</t>
+  </si>
+  <si>
+    <t>030105116</t>
+  </si>
+  <si>
+    <t>061106279</t>
+  </si>
+  <si>
+    <t>211222971</t>
+  </si>
+  <si>
+    <t>141118892</t>
+  </si>
+  <si>
+    <t>240518874</t>
+  </si>
+  <si>
+    <t>010507354</t>
+  </si>
+  <si>
+    <t>140421948</t>
+  </si>
+  <si>
+    <t>261219925</t>
+  </si>
+  <si>
+    <t>010210516</t>
+  </si>
+  <si>
+    <t>030717839</t>
+  </si>
+  <si>
+    <t>090818879</t>
+  </si>
+  <si>
+    <t>040219900</t>
+  </si>
+  <si>
+    <t>090819915</t>
+  </si>
+  <si>
+    <t>090821952</t>
+  </si>
+  <si>
+    <t>Fabrian Danang Destiyara</t>
+  </si>
+  <si>
+    <t>110523979</t>
+  </si>
+  <si>
+    <t>020123976</t>
+  </si>
+  <si>
+    <t>031022970</t>
+  </si>
+  <si>
+    <t>080822967</t>
+  </si>
+  <si>
+    <t>040722964</t>
+  </si>
+  <si>
+    <t>050422961</t>
+  </si>
+  <si>
+    <t>050321947</t>
+  </si>
+  <si>
+    <t>220221946</t>
+  </si>
+  <si>
+    <t>030221945</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +220,18 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -139,10 +271,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -176,9 +309,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 3" xfId="1"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1136,7 +1279,7 @@
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Dionesius S. Duka</v>
+            <v>Dionesius Sostenist Duka</v>
           </cell>
           <cell r="F107">
             <v>25000000000106</v>
@@ -1272,7 +1415,7 @@
         </row>
         <row r="124">
           <cell r="B124" t="str">
-            <v>Eka Bagus</v>
+            <v>Eka Bagus Dwi Putra</v>
           </cell>
           <cell r="F124">
             <v>25000000000123</v>
@@ -1528,7 +1671,7 @@
         </row>
         <row r="156">
           <cell r="B156" t="str">
-            <v>Fikri Caesarandi</v>
+            <v>M. Fikri Caesarandi Hasibuan</v>
           </cell>
           <cell r="F156">
             <v>25000000000155</v>
@@ -1560,7 +1703,7 @@
         </row>
         <row r="160">
           <cell r="B160" t="str">
-            <v>Frando J. Siahan</v>
+            <v>Frando Judi Siahaan</v>
           </cell>
           <cell r="F160">
             <v>25000000000159</v>
@@ -1920,7 +2063,7 @@
         </row>
         <row r="205">
           <cell r="B205" t="str">
-            <v>Ilham</v>
+            <v>Ilham Akbar</v>
           </cell>
           <cell r="F205">
             <v>25000000000204</v>
@@ -2000,7 +2143,7 @@
         </row>
         <row r="215">
           <cell r="B215" t="str">
-            <v>Irvan Agus Dharma</v>
+            <v>Irvan Agus Dharma Eka Putra</v>
           </cell>
           <cell r="F215">
             <v>25000000000214</v>
@@ -2472,7 +2615,7 @@
         </row>
         <row r="274">
           <cell r="B274" t="str">
-            <v>Marbun Pantas Banjarmahon</v>
+            <v>Pantas Banjarnahor Marbun</v>
           </cell>
           <cell r="F274">
             <v>25000000000273</v>
@@ -2512,7 +2655,7 @@
         </row>
         <row r="279">
           <cell r="B279" t="str">
-            <v>Marungkil Sagala</v>
+            <v>T. Marungkil U. S. Sagala</v>
           </cell>
           <cell r="F279">
             <v>25000000000278</v>
@@ -2744,7 +2887,7 @@
         </row>
         <row r="308">
           <cell r="B308" t="str">
-            <v>Nandang</v>
+            <v>Nandang Effendi</v>
           </cell>
           <cell r="F308">
             <v>25000000000307</v>
@@ -3344,7 +3487,7 @@
         </row>
         <row r="383">
           <cell r="B383" t="str">
-            <v>Samad Abdul</v>
+            <v>Abdul Samad</v>
           </cell>
           <cell r="F383">
             <v>25000000000382</v>
@@ -3584,7 +3727,7 @@
         </row>
         <row r="413">
           <cell r="B413" t="str">
-            <v>Sudarlan Sudarlan</v>
+            <v>Sudarlan</v>
           </cell>
           <cell r="F413">
             <v>25000000000412</v>
@@ -3608,7 +3751,7 @@
         </row>
         <row r="416">
           <cell r="B416" t="str">
-            <v>Sugiarto Sugiarto</v>
+            <v>Sugiarto</v>
           </cell>
           <cell r="F416">
             <v>25000000000415</v>
@@ -4344,7 +4487,7 @@
         </row>
         <row r="508">
           <cell r="B508" t="str">
-            <v>Khamim</v>
+            <v>Khamim Taryono</v>
           </cell>
           <cell r="F508">
             <v>25000000000507</v>
@@ -4440,7 +4583,7 @@
         </row>
         <row r="520">
           <cell r="B520" t="str">
-            <v>Denny Achmad</v>
+            <v>Denny Achmad Ferlando</v>
           </cell>
           <cell r="F520">
             <v>25000000000519</v>
@@ -4455,9 +4598,6 @@
           </cell>
         </row>
         <row r="522">
-          <cell r="B522" t="str">
-            <v>Fabrian Danang Destiyara</v>
-          </cell>
           <cell r="F522">
             <v>25000000000521</v>
           </cell>
@@ -4668,6 +4808,46 @@
           </cell>
           <cell r="F548">
             <v>25000000000547</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="B549" t="str">
+            <v>Sulaeman</v>
+          </cell>
+          <cell r="F549">
+            <v>25000000000548</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="B550" t="str">
+            <v>Agus Nuryadi</v>
+          </cell>
+          <cell r="F550">
+            <v>25000000000549</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="B551" t="str">
+            <v>Dian Tri Rahmawati</v>
+          </cell>
+          <cell r="F551">
+            <v>25000000000550</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="B552" t="str">
+            <v>Langgeng Eko Dwiantoro</v>
+          </cell>
+          <cell r="F552">
+            <v>25000000000551</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="B553" t="str">
+            <v>Aldi Rizaldi</v>
+          </cell>
+          <cell r="F553">
+            <v>25000000000552</v>
           </cell>
         </row>
       </sheetData>
@@ -4965,10 +5145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H549"/>
+  <dimension ref="A1:H553"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
+      <selection activeCell="F559" sqref="F559:F560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4976,7 +5156,8 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="15"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -4985,7 +5166,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -5120,9 +5301,12 @@
         <f>[1]MAIN!$F9</f>
         <v>25000000000008</v>
       </c>
+      <c r="D9" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000008, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000008, '050321947');</v>
       </c>
       <c r="H9" s="4">
         <v>32000000000008</v>
@@ -5188,9 +5372,12 @@
         <f>[1]MAIN!$F13</f>
         <v>25000000000012</v>
       </c>
+      <c r="D13" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000012, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000012, '010703020');</v>
       </c>
       <c r="H13" s="4">
         <v>32000000000012</v>
@@ -5239,9 +5426,12 @@
         <f>[1]MAIN!$F16</f>
         <v>25000000000015</v>
       </c>
+      <c r="D16" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000015, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000015, '130223978');</v>
       </c>
       <c r="H16" s="4">
         <v>32000000000015</v>
@@ -5307,9 +5497,12 @@
         <f>[1]MAIN!$F20</f>
         <v>25000000000019</v>
       </c>
+      <c r="D20" s="15">
+        <v>150506222</v>
+      </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000019, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000019, '150506222');</v>
       </c>
       <c r="H20" s="4">
         <v>32000000000019</v>
@@ -5375,9 +5568,12 @@
         <f>[1]MAIN!$F24</f>
         <v>25000000000023</v>
       </c>
+      <c r="D24" s="15">
+        <v>141020935</v>
+      </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000023, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000023, '141020935');</v>
       </c>
       <c r="H24" s="4">
         <v>32000000000023</v>
@@ -5647,9 +5843,12 @@
         <f>[1]MAIN!$F40</f>
         <v>25000000000039</v>
       </c>
+      <c r="D40" s="15">
+        <v>100419903</v>
+      </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000039, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000039, '100419903');</v>
       </c>
       <c r="H40" s="4">
         <v>32000000000039</v>
@@ -5732,9 +5931,12 @@
         <f>[1]MAIN!$F45</f>
         <v>25000000000044</v>
       </c>
+      <c r="D45" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000044, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000044, '310821007');</v>
       </c>
       <c r="H45" s="4">
         <v>32000000000044</v>
@@ -6259,9 +6461,12 @@
         <f>[1]MAIN!$F76</f>
         <v>25000000000075</v>
       </c>
+      <c r="D76" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="F76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000075, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000075, '100920934');</v>
       </c>
       <c r="H76" s="4">
         <v>32000000000075</v>
@@ -6378,9 +6583,12 @@
         <f>[1]MAIN!$F83</f>
         <v>25000000000082</v>
       </c>
+      <c r="D83" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000082, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000082, '060515769');</v>
       </c>
       <c r="H83" s="4">
         <v>32000000000082</v>
@@ -6548,9 +6756,12 @@
         <f>[1]MAIN!$F93</f>
         <v>25000000000092</v>
       </c>
+      <c r="D93" s="15">
+        <v>31212631</v>
+      </c>
       <c r="F93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000092, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000092, '31212631');</v>
       </c>
       <c r="H93" s="4">
         <v>32000000000092</v>
@@ -6582,9 +6793,12 @@
         <f>[1]MAIN!$F95</f>
         <v>25000000000094</v>
       </c>
+      <c r="D95" s="15">
+        <v>171215791</v>
+      </c>
       <c r="F95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000094, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000094, '171215791');</v>
       </c>
       <c r="H95" s="4">
         <v>32000000000094</v>
@@ -6684,9 +6898,12 @@
         <f>[1]MAIN!$F101</f>
         <v>25000000000100</v>
       </c>
+      <c r="D101" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="F101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000100, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000100, '050123975');</v>
       </c>
       <c r="H101" s="4">
         <v>32000000000100</v>
@@ -6780,15 +6997,18 @@
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="str">
         <f>[1]MAIN!$B107</f>
-        <v>Dionesius S. Duka</v>
+        <v>Dionesius Sostenist Duka</v>
       </c>
       <c r="C107" s="2">
         <f>[1]MAIN!$F107</f>
         <v>25000000000106</v>
       </c>
+      <c r="D107" s="17">
+        <v>10605133</v>
+      </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000106, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000106, '10605133');</v>
       </c>
       <c r="H107" s="4">
         <v>32000000000106</v>
@@ -6956,9 +7176,12 @@
         <f>[1]MAIN!$F117</f>
         <v>25000000000116</v>
       </c>
+      <c r="D117" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000116, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000116, '040803040');</v>
       </c>
       <c r="H117" s="4">
         <v>32000000000116</v>
@@ -7069,15 +7292,18 @@
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="str">
         <f>[1]MAIN!$B124</f>
-        <v>Eka Bagus</v>
+        <v>Eka Bagus Dwi Putra</v>
       </c>
       <c r="C124" s="2">
         <f>[1]MAIN!$F124</f>
         <v>25000000000123</v>
       </c>
+      <c r="D124" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000123, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000123, '200420932');</v>
       </c>
       <c r="H124" s="4">
         <v>32000000000123</v>
@@ -7109,9 +7335,12 @@
         <f>[1]MAIN!$F126</f>
         <v>25000000000125</v>
       </c>
+      <c r="D126" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000125, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000125, '060121944');</v>
       </c>
       <c r="H126" s="4">
         <v>32000000000125</v>
@@ -7330,9 +7559,12 @@
         <f>[1]MAIN!$F139</f>
         <v>25000000000138</v>
       </c>
+      <c r="D139" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000138, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000138, '010806250');</v>
       </c>
       <c r="H139" s="4">
         <v>32000000000138</v>
@@ -7613,15 +7845,18 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="str">
         <f>[1]MAIN!$B156</f>
-        <v>Fikri Caesarandi</v>
+        <v>M. Fikri Caesarandi Hasibuan</v>
       </c>
       <c r="C156" s="2">
         <f>[1]MAIN!$F156</f>
         <v>25000000000155</v>
       </c>
+      <c r="D156" s="15">
+        <v>160916799</v>
+      </c>
       <c r="F156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000155, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000155, '160916799');</v>
       </c>
       <c r="H156" s="4">
         <v>32000000000155</v>
@@ -7653,9 +7888,12 @@
         <f>[1]MAIN!$F158</f>
         <v>25000000000157</v>
       </c>
+      <c r="D158" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="F158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000157, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000157, '070305123');</v>
       </c>
       <c r="H158" s="4">
         <v>32000000000157</v>
@@ -7681,15 +7919,18 @@
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="str">
         <f>[1]MAIN!$B160</f>
-        <v>Frando J. Siahan</v>
+        <v>Frando Judi Siahaan</v>
       </c>
       <c r="C160" s="2">
         <f>[1]MAIN!$F160</f>
         <v>25000000000159</v>
       </c>
+      <c r="D160" s="15">
+        <v>181114748</v>
+      </c>
       <c r="F160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000159, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000159, '181114748');</v>
       </c>
       <c r="H160" s="4">
         <v>32000000000159</v>
@@ -7840,9 +8081,12 @@
         <f>[1]MAIN!$F169</f>
         <v>25000000000168</v>
       </c>
+      <c r="D169" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="F169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000168, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000168, '070806256');</v>
       </c>
       <c r="H169" s="4">
         <v>32000000000168</v>
@@ -8316,9 +8560,12 @@
         <f>[1]MAIN!$F197</f>
         <v>25000000000196</v>
       </c>
+      <c r="D197" s="15">
+        <v>191015786</v>
+      </c>
       <c r="F197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000196, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000196, '191015786');</v>
       </c>
       <c r="H197" s="4">
         <v>32000000000196</v>
@@ -8446,15 +8693,18 @@
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="str">
         <f>[1]MAIN!$B205</f>
-        <v>Ilham</v>
+        <v>Ilham Akbar</v>
       </c>
       <c r="C205" s="2">
         <f>[1]MAIN!$F205</f>
         <v>25000000000204</v>
       </c>
+      <c r="D205" s="15">
+        <v>170217825</v>
+      </c>
       <c r="F205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000204, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000204, '170217825');</v>
       </c>
       <c r="H205" s="4">
         <v>32000000000204</v>
@@ -8616,15 +8866,18 @@
     <row r="215" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="str">
         <f>[1]MAIN!$B215</f>
-        <v>Irvan Agus Dharma</v>
+        <v>Irvan Agus Dharma Eka Putra</v>
       </c>
       <c r="C215" s="2">
         <f>[1]MAIN!$F215</f>
         <v>25000000000214</v>
       </c>
+      <c r="D215" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="F215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000214, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000214, '220221946');</v>
       </c>
       <c r="H215" s="4">
         <v>32000000000214</v>
@@ -8673,9 +8926,12 @@
         <f>[1]MAIN!$F218</f>
         <v>25000000000217</v>
       </c>
+      <c r="D218" s="15">
+        <v>150805153</v>
+      </c>
       <c r="F218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000217, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000217, '150805153');</v>
       </c>
       <c r="H218" s="4">
         <v>32000000000217</v>
@@ -8928,9 +9184,12 @@
         <f>[1]MAIN!$F233</f>
         <v>25000000000232</v>
       </c>
+      <c r="D233" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="F233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000232, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000232, '040515767');</v>
       </c>
       <c r="H233" s="4">
         <v>32000000000232</v>
@@ -9285,9 +9544,12 @@
         <f>[1]MAIN!$F254</f>
         <v>25000000000253</v>
       </c>
+      <c r="D254" s="15">
+        <v>190803044</v>
+      </c>
       <c r="F254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000253, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000253, '190803044');</v>
       </c>
       <c r="H254" s="4">
         <v>32000000000253</v>
@@ -9438,9 +9700,12 @@
         <f>[1]MAIN!$F263</f>
         <v>25000000000262</v>
       </c>
+      <c r="D263" s="15">
+        <v>170918883</v>
+      </c>
       <c r="F263" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000262, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000262, '170918883');</v>
       </c>
       <c r="H263" s="4">
         <v>32000000000262</v>
@@ -9619,15 +9884,18 @@
     <row r="274" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="str">
         <f>[1]MAIN!$B274</f>
-        <v>Marbun Pantas Banjarmahon</v>
+        <v>Pantas Banjarnahor Marbun</v>
       </c>
       <c r="C274" s="2">
         <f>[1]MAIN!$F274</f>
         <v>25000000000273</v>
       </c>
+      <c r="D274" s="15">
+        <v>160603011</v>
+      </c>
       <c r="F274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000273, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000273, '160603011');</v>
       </c>
       <c r="H274" s="4">
         <v>32000000000273</v>
@@ -9676,9 +9944,12 @@
         <f>[1]MAIN!$F277</f>
         <v>25000000000276</v>
       </c>
+      <c r="D277" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="F277" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000276, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000276, '010513665');</v>
       </c>
       <c r="H277" s="4">
         <v>32000000000276</v>
@@ -9693,9 +9964,12 @@
         <f>[1]MAIN!$F278</f>
         <v>25000000000277</v>
       </c>
+      <c r="D278" s="15">
+        <v>110621951</v>
+      </c>
       <c r="F278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000277, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000277, '110621951');</v>
       </c>
       <c r="H278" s="4">
         <v>32000000000277</v>
@@ -9704,15 +9978,18 @@
     <row r="279" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="str">
         <f>[1]MAIN!$B279</f>
-        <v>Marungkil Sagala</v>
+        <v>T. Marungkil U. S. Sagala</v>
       </c>
       <c r="C279" s="2">
         <f>[1]MAIN!$F279</f>
         <v>25000000000278</v>
       </c>
+      <c r="D279" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="F279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000278, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000278, '010210516');</v>
       </c>
       <c r="H279" s="4">
         <v>32000000000278</v>
@@ -10101,9 +10378,12 @@
         <f>[1]MAIN!$F302</f>
         <v>25000000000301</v>
       </c>
+      <c r="D302" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="F302" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000301, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000301, '030105116');</v>
       </c>
       <c r="H302" s="4">
         <v>32000000000301</v>
@@ -10197,15 +10477,18 @@
     <row r="308" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="str">
         <f>[1]MAIN!$B308</f>
-        <v>Nandang</v>
+        <v>Nandang Effendi</v>
       </c>
       <c r="C308" s="2">
         <f>[1]MAIN!$F308</f>
         <v>25000000000307</v>
       </c>
+      <c r="D308" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="F308" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000307, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000307, '061106279');</v>
       </c>
       <c r="H308" s="4">
         <v>32000000000307</v>
@@ -10594,9 +10877,12 @@
         <f>[1]MAIN!$F331</f>
         <v>25000000000330</v>
       </c>
+      <c r="D331" s="15">
+        <v>260115754</v>
+      </c>
       <c r="F331" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000330, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000330, '260115754');</v>
       </c>
       <c r="H331" s="4">
         <v>32000000000330</v>
@@ -10968,9 +11254,12 @@
         <f>[1]MAIN!$F353</f>
         <v>25000000000352</v>
       </c>
+      <c r="D353" s="15">
+        <v>221110557</v>
+      </c>
       <c r="F353" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000352, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000352, '221110557');</v>
       </c>
       <c r="H353" s="4">
         <v>32000000000352</v>
@@ -11308,9 +11597,12 @@
         <f>[1]MAIN!$F373</f>
         <v>25000000000372</v>
       </c>
+      <c r="D373" s="15">
+        <v>160921954</v>
+      </c>
       <c r="F373" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000372, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000372, '160921954');</v>
       </c>
       <c r="H373" s="4">
         <v>32000000000372</v>
@@ -11410,9 +11702,12 @@
         <f>[1]MAIN!$F379</f>
         <v>25000000000378</v>
       </c>
+      <c r="D379" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="F379" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000378, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000378, '030221945');</v>
       </c>
       <c r="H379" s="4">
         <v>32000000000378</v>
@@ -11472,15 +11767,18 @@
     <row r="383" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="str">
         <f>[1]MAIN!$B383</f>
-        <v>Samad Abdul</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="C383" s="2">
         <f>[1]MAIN!$F383</f>
         <v>25000000000382</v>
       </c>
+      <c r="D383" s="15">
+        <v>210904088</v>
+      </c>
       <c r="F383" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000382, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000382, '210904088');</v>
       </c>
       <c r="H383" s="4">
         <v>32000000000382</v>
@@ -11631,9 +11929,12 @@
         <f>[1]MAIN!$F392</f>
         <v>25000000000391</v>
       </c>
+      <c r="D392" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="F392" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000391, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000391, '141118892');</v>
       </c>
       <c r="H392" s="4">
         <v>32000000000391</v>
@@ -11665,9 +11966,12 @@
         <f>[1]MAIN!$F394</f>
         <v>25000000000393</v>
       </c>
+      <c r="D394" s="15">
+        <v>130906272</v>
+      </c>
       <c r="F394" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000393, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000393, '130906272');</v>
       </c>
       <c r="H394" s="4">
         <v>32000000000393</v>
@@ -11733,9 +12037,12 @@
         <f>[1]MAIN!$F398</f>
         <v>25000000000397</v>
       </c>
+      <c r="D398" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="F398" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000397, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000397, '240518874');</v>
       </c>
       <c r="H398" s="4">
         <v>32000000000397</v>
@@ -11982,15 +12289,18 @@
     <row r="413" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B413" s="1" t="str">
         <f>[1]MAIN!$B413</f>
-        <v>Sudarlan Sudarlan</v>
+        <v>Sudarlan</v>
       </c>
       <c r="C413" s="2">
         <f>[1]MAIN!$F413</f>
         <v>25000000000412</v>
       </c>
+      <c r="D413" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="F413" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000412, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000412, '010507354');</v>
       </c>
       <c r="H413" s="4">
         <v>32000000000412</v>
@@ -12005,9 +12315,12 @@
         <f>[1]MAIN!$F414</f>
         <v>25000000000413</v>
       </c>
+      <c r="D414" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="F414" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000413, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000413, '140421948');</v>
       </c>
       <c r="H414" s="4">
         <v>32000000000413</v>
@@ -12033,15 +12346,18 @@
     <row r="416" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="str">
         <f>[1]MAIN!$B416</f>
-        <v>Sugiarto Sugiarto</v>
+        <v>Sugiarto</v>
       </c>
       <c r="C416" s="2">
         <f>[1]MAIN!$F416</f>
         <v>25000000000415</v>
       </c>
+      <c r="D416" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="F416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000415, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000415, '080822967');</v>
       </c>
       <c r="H416" s="4">
         <v>32000000000415</v>
@@ -12260,9 +12576,12 @@
         <f>[1]MAIN!$F429</f>
         <v>25000000000428</v>
       </c>
+      <c r="D429" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F429" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000428, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000428, '261219925');</v>
       </c>
       <c r="H429" s="4">
         <v>32000000000428</v>
@@ -12447,9 +12766,12 @@
         <f>[1]MAIN!$F440</f>
         <v>25000000000439</v>
       </c>
+      <c r="D440" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="F440" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000439, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000439, '030717839');</v>
       </c>
       <c r="H440" s="4">
         <v>32000000000439</v>
@@ -12668,9 +12990,12 @@
         <f>[1]MAIN!$F453</f>
         <v>25000000000452</v>
       </c>
+      <c r="D453" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000452, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000452, '090818879');</v>
       </c>
       <c r="H453" s="4">
         <v>32000000000452</v>
@@ -12923,9 +13248,12 @@
         <f>[1]MAIN!$F468</f>
         <v>25000000000467</v>
       </c>
+      <c r="D468" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="F468" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000467, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000467, '040219900');</v>
       </c>
       <c r="H468" s="4">
         <v>32000000000467</v>
@@ -13263,9 +13591,12 @@
         <f>[1]MAIN!$F488</f>
         <v>25000000000487</v>
       </c>
+      <c r="D488" s="15">
+        <v>160714734</v>
+      </c>
       <c r="F488" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000487, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000487, '160714734');</v>
       </c>
       <c r="H488" s="4">
         <v>32000000000487</v>
@@ -13433,9 +13764,12 @@
         <f>[1]MAIN!$F498</f>
         <v>25000000000497</v>
       </c>
+      <c r="D498" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="F498" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000497, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000497, '090819915');</v>
       </c>
       <c r="H498" s="4">
         <v>32000000000497</v>
@@ -13600,15 +13934,18 @@
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="str">
         <f>[1]MAIN!$B508</f>
-        <v>Khamim</v>
+        <v>Khamim Taryono</v>
       </c>
       <c r="C508" s="2">
         <f>[1]MAIN!$F508</f>
         <v>25000000000507</v>
       </c>
+      <c r="D508" s="15">
+        <v>280621950</v>
+      </c>
       <c r="F508" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000507, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000507, '280621950');</v>
       </c>
       <c r="H508" s="4">
         <v>32000000000507</v>
@@ -13623,9 +13960,12 @@
         <f>[1]MAIN!$F509</f>
         <v>25000000000508</v>
       </c>
+      <c r="D509" s="15">
+        <v>130921953</v>
+      </c>
       <c r="F509" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000508, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000508, '130921953');</v>
       </c>
       <c r="H509" s="4">
         <v>32000000000508</v>
@@ -13640,9 +13980,12 @@
         <f>[1]MAIN!$F510</f>
         <v>25000000000509</v>
       </c>
+      <c r="D510" s="15">
+        <v>260716795</v>
+      </c>
       <c r="F510" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000509, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000509, '260716795');</v>
       </c>
       <c r="H510" s="4">
         <v>32000000000509</v>
@@ -13674,9 +14017,12 @@
         <f>[1]MAIN!$F512</f>
         <v>25000000000511</v>
       </c>
+      <c r="D512" s="15">
+        <v>150721949</v>
+      </c>
       <c r="F512" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000511, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000511, '150721949');</v>
       </c>
       <c r="H512" s="4">
         <v>32000000000511</v>
@@ -13694,9 +14040,12 @@
         <f>[1]MAIN!$F513</f>
         <v>25000000000512</v>
       </c>
+      <c r="D513" s="15">
+        <v>171121955</v>
+      </c>
       <c r="F513" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000512, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000512, '171121955');</v>
       </c>
       <c r="H513" s="4">
         <v>32000000000512</v>
@@ -13711,9 +14060,12 @@
         <f>[1]MAIN!$F514</f>
         <v>25000000000513</v>
       </c>
+      <c r="D514" s="15">
+        <v>191022969</v>
+      </c>
       <c r="F514" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000513, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000513, '191022969');</v>
       </c>
       <c r="H514" s="4">
         <v>32000000000513</v>
@@ -13728,9 +14080,12 @@
         <f>[1]MAIN!$F515</f>
         <v>25000000000514</v>
       </c>
+      <c r="D515" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="F515" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000514, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000514, '110422962');</v>
       </c>
       <c r="H515" s="4">
         <v>32000000000514</v>
@@ -13779,9 +14134,12 @@
         <f>[1]MAIN!$F518</f>
         <v>25000000000517</v>
       </c>
+      <c r="D518" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="F518" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000517, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000517, '090821952');</v>
       </c>
       <c r="H518" s="4">
         <v>32000000000517</v>
@@ -13807,15 +14165,18 @@
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="str">
         <f>[1]MAIN!$B520</f>
-        <v>Denny Achmad</v>
+        <v>Denny Achmad Ferlando</v>
       </c>
       <c r="C520" s="2">
         <f>[1]MAIN!$F520</f>
         <v>25000000000519</v>
       </c>
+      <c r="D520" s="15">
+        <v>170522963</v>
+      </c>
       <c r="F520" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000519, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000519, '170522963');</v>
       </c>
       <c r="H520" s="4">
         <v>32000000000519</v>
@@ -13839,17 +14200,19 @@
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B522" s="1" t="str">
-        <f>[1]MAIN!$B522</f>
-        <v>Fabrian Danang Destiyara</v>
+      <c r="B522" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C522" s="2">
         <f>[1]MAIN!$F522</f>
         <v>25000000000521</v>
       </c>
+      <c r="D522" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="F522" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000521, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000521, '110523979');</v>
       </c>
       <c r="H522" s="4">
         <v>32000000000521</v>
@@ -13864,9 +14227,12 @@
         <f>[1]MAIN!$F523</f>
         <v>25000000000522</v>
       </c>
+      <c r="D523" s="15">
+        <v>191022968</v>
+      </c>
       <c r="F523" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000522, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000522, '191022968');</v>
       </c>
       <c r="H523" s="4">
         <v>32000000000522</v>
@@ -13881,9 +14247,12 @@
         <f>[1]MAIN!$F524</f>
         <v>25000000000523</v>
       </c>
+      <c r="D524" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="F524" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000523, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000523, '040722964');</v>
       </c>
       <c r="H524" s="4">
         <v>32000000000523</v>
@@ -13949,9 +14318,12 @@
         <f>[1]MAIN!$F528</f>
         <v>25000000000527</v>
       </c>
+      <c r="D528" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="F528" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000527, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000527, '040822965');</v>
       </c>
       <c r="H528" s="4">
         <v>32000000000527</v>
@@ -13966,9 +14338,12 @@
         <f>[1]MAIN!$F529</f>
         <v>25000000000528</v>
       </c>
+      <c r="D529" s="15">
+        <v>170322960</v>
+      </c>
       <c r="F529" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000528, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000528, '170322960');</v>
       </c>
       <c r="H529" s="4">
         <v>32000000000528</v>
@@ -14034,9 +14409,12 @@
         <f>[1]MAIN!$F533</f>
         <v>25000000000532</v>
       </c>
+      <c r="D533" s="15">
+        <v>170222959</v>
+      </c>
       <c r="F533" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000532, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000532, '170222959');</v>
       </c>
       <c r="H533" s="4">
         <v>32000000000532</v>
@@ -14068,9 +14446,12 @@
         <f>[1]MAIN!$F535</f>
         <v>25000000000534</v>
       </c>
+      <c r="D535" s="15">
+        <v>291121956</v>
+      </c>
       <c r="F535" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000534, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000534, '291121956');</v>
       </c>
       <c r="H535" s="4">
         <v>32000000000534</v>
@@ -14119,9 +14500,12 @@
         <f>[1]MAIN!$F538</f>
         <v>25000000000537</v>
       </c>
+      <c r="D538" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="F538" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000537, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000537, '211222971');</v>
       </c>
       <c r="H538" s="4">
         <v>32000000000537</v>
@@ -14170,9 +14554,12 @@
         <f>[1]MAIN!$F541</f>
         <v>25000000000540</v>
       </c>
+      <c r="D541" s="15">
+        <v>131221957</v>
+      </c>
       <c r="F541" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000540, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000540, '131221957');</v>
       </c>
       <c r="H541" s="4">
         <v>32000000000540</v>
@@ -14204,9 +14591,12 @@
         <f>[1]MAIN!$F543</f>
         <v>25000000000542</v>
       </c>
+      <c r="D543" s="15">
+        <v>240122958</v>
+      </c>
       <c r="F543" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000542, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000542, '240122958');</v>
       </c>
       <c r="H543" s="4">
         <v>32000000000542</v>
@@ -14238,9 +14628,12 @@
         <f>[1]MAIN!$F545</f>
         <v>25000000000544</v>
       </c>
+      <c r="D545" s="15">
+        <v>180822966</v>
+      </c>
       <c r="F545" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000544, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000544, '180822966');</v>
       </c>
       <c r="H545" s="4">
         <v>32000000000544</v>
@@ -14255,9 +14648,12 @@
         <f>[1]MAIN!$F546</f>
         <v>25000000000545</v>
       </c>
+      <c r="D546" s="15">
+        <v>260123977</v>
+      </c>
       <c r="F546" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000545, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000545, '260123977');</v>
       </c>
       <c r="H546" s="4">
         <v>32000000000545</v>
@@ -14289,20 +14685,123 @@
         <f>[1]MAIN!$F548</f>
         <v>25000000000547</v>
       </c>
+      <c r="D548" s="15">
+        <v>271222973</v>
+      </c>
       <c r="F548" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000547, '');</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000547, '271222973');</v>
       </c>
       <c r="H548" s="4">
         <v>32000000000547</v>
       </c>
     </row>
     <row r="549" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C549" s="2"/>
-      <c r="H549" s="4"/>
+      <c r="B549" s="1" t="str">
+        <f>[1]MAIN!$B549</f>
+        <v>Sulaeman</v>
+      </c>
+      <c r="C549" s="2">
+        <f>[1]MAIN!$F549</f>
+        <v>25000000000548</v>
+      </c>
+      <c r="D549" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F549" s="1" t="str">
+        <f t="shared" ref="F549:F550" si="9">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorker_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C549, ", '", D549, "');")</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000548, '020123976');</v>
+      </c>
+      <c r="H549" s="4">
+        <v>32000000000548</v>
+      </c>
+    </row>
+    <row r="550" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B550" s="1" t="str">
+        <f>[1]MAIN!$B550</f>
+        <v>Agus Nuryadi</v>
+      </c>
+      <c r="C550" s="2">
+        <f>[1]MAIN!$F550</f>
+        <v>25000000000549</v>
+      </c>
+      <c r="D550" s="15">
+        <v>311022972</v>
+      </c>
+      <c r="F550" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000549, '311022972');</v>
+      </c>
+      <c r="H550" s="4">
+        <v>32000000000549</v>
+      </c>
+    </row>
+    <row r="551" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B551" s="1" t="str">
+        <f>[1]MAIN!$B551</f>
+        <v>Dian Tri Rahmawati</v>
+      </c>
+      <c r="C551" s="2">
+        <f>[1]MAIN!$F551</f>
+        <v>25000000000550</v>
+      </c>
+      <c r="D551" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F551" s="1" t="str">
+        <f t="shared" ref="F551:F552" si="10">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorker_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C551, ", '", D551, "');")</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000550, '031022970');</v>
+      </c>
+      <c r="H551" s="4">
+        <v>32000000000550</v>
+      </c>
+    </row>
+    <row r="552" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B552" s="1" t="str">
+        <f>[1]MAIN!$B552</f>
+        <v>Langgeng Eko Dwiantoro</v>
+      </c>
+      <c r="C552" s="2">
+        <f>[1]MAIN!$F552</f>
+        <v>25000000000551</v>
+      </c>
+      <c r="D552" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F552" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000551, '050422961');</v>
+      </c>
+      <c r="H552" s="4">
+        <v>32000000000551</v>
+      </c>
+    </row>
+    <row r="553" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B553" s="1" t="str">
+        <f>[1]MAIN!$B553</f>
+        <v>Aldi Rizaldi</v>
+      </c>
+      <c r="C553" s="2">
+        <f>[1]MAIN!$F553</f>
+        <v>25000000000552</v>
+      </c>
+      <c r="D553" s="15">
+        <v>110121943</v>
+      </c>
+      <c r="F553" s="1" t="str">
+        <f t="shared" ref="F553" si="11">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorker_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", C553, ", '", D553, "');")</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 25000000000552, '110121943');</v>
+      </c>
+      <c r="H553" s="4">
+        <v>32000000000552</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D515 D14:D15 D13 D16 D45 D76 D83 D101 D117 D124 D126 D139 D169 D528 D233 D158 D277 D302 D308 D538 D392 D398 D413:D414 D429 D279 D440 D453 D468 D498 D518 D522 D549 D551:D552 D416 D524 D9 D215 D379" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -14310,11 +14809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C338" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E348" sqref="E348"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14637,7 +15136,7 @@
         <v>32000000000012</v>
       </c>
       <c r="D13" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E13" s="2">
         <v>111000000000007</v>
@@ -14650,7 +15149,7 @@
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000012::bigint, 163000000000001::bigint, 111000000000007::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000012::bigint, 163000000000007::bigint, 111000000000007::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M13" s="8">
         <v>164000000000012</v>
@@ -14758,7 +15257,7 @@
         <v>32000000000017</v>
       </c>
       <c r="D18" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E18" s="2">
         <v>111000000000006</v>
@@ -14771,7 +15270,7 @@
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000017::bigint, 163000000000001::bigint, 111000000000006::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000017::bigint, 163000000000007::bigint, 111000000000006::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M18" s="8">
         <v>164000000000017</v>
@@ -16282,14 +16781,14 @@
         <v>32000000000082</v>
       </c>
       <c r="D83" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000082::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000082::bigint, 163000000000007::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M83" s="8">
         <v>164000000000082</v>
@@ -16512,14 +17011,14 @@
         <v>32000000000092</v>
       </c>
       <c r="D93" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000092::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000092::bigint, 163000000000007::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M93" s="8">
         <v>164000000000092</v>
@@ -16836,7 +17335,7 @@
     <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="str">
         <f>MAIN!B107</f>
-        <v>Dionesius S. Duka</v>
+        <v>Dionesius Sostenist Duka</v>
       </c>
       <c r="C107" s="2">
         <f>MAIN!H107</f>
@@ -17230,7 +17729,7 @@
     <row r="124" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="str">
         <f>MAIN!B124</f>
-        <v>Eka Bagus</v>
+        <v>Eka Bagus Dwi Putra</v>
       </c>
       <c r="C124" s="2">
         <f>MAIN!H124</f>
@@ -17596,14 +18095,14 @@
         <v>32000000000138</v>
       </c>
       <c r="D139" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000138::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000138::bigint, 163000000000007::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M139" s="8">
         <v>164000000000138</v>
@@ -17980,7 +18479,7 @@
     <row r="156" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="str">
         <f>MAIN!B156</f>
-        <v>Fikri Caesarandi</v>
+        <v>M. Fikri Caesarandi Hasibuan</v>
       </c>
       <c r="C156" s="2">
         <f>MAIN!H156</f>
@@ -18033,7 +18532,7 @@
         <v>32000000000157</v>
       </c>
       <c r="D158" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E158" s="2">
         <v>111000000000011</v>
@@ -18046,7 +18545,7 @@
       </c>
       <c r="K158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000007::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M158" s="8">
         <v>164000000000157</v>
@@ -18078,7 +18577,7 @@
     <row r="160" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="str">
         <f>MAIN!B160</f>
-        <v>Frando J. Siahan</v>
+        <v>Frando Judi Siahaan</v>
       </c>
       <c r="C160" s="2">
         <f>MAIN!H160</f>
@@ -18298,7 +18797,7 @@
         <v>32000000000168</v>
       </c>
       <c r="D169" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E169" s="2">
         <v>111000000000007</v>
@@ -18308,7 +18807,7 @@
       </c>
       <c r="K169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000168::bigint, 163000000000001::bigint, 111000000000007::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000168::bigint, 163000000000007::bigint, 111000000000007::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M169" s="8">
         <v>164000000000168</v>
@@ -18953,7 +19452,7 @@
         <v>32000000000196</v>
       </c>
       <c r="D197" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E197" s="2">
         <v>111000000000003</v>
@@ -18966,7 +19465,7 @@
       </c>
       <c r="K197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000196::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000196::bigint, 163000000000007::bigint, 111000000000003::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M197" s="8">
         <v>164000000000196</v>
@@ -19136,7 +19635,7 @@
     <row r="205" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="str">
         <f>MAIN!B205</f>
-        <v>Ilham</v>
+        <v>Ilham Akbar</v>
       </c>
       <c r="C205" s="2">
         <f>MAIN!H205</f>
@@ -19366,7 +19865,7 @@
     <row r="215" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="str">
         <f>MAIN!B215</f>
-        <v>Irvan Agus Dharma</v>
+        <v>Irvan Agus Dharma Eka Putra</v>
       </c>
       <c r="C215" s="2">
         <f>MAIN!H215</f>
@@ -19442,14 +19941,14 @@
         <v>32000000000217</v>
       </c>
       <c r="D218" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000217::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000217::bigint, 163000000000007::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M218" s="8">
         <v>164000000000217</v>
@@ -19787,7 +20286,7 @@
         <v>32000000000232</v>
       </c>
       <c r="D233" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="F233" s="2">
         <v>160000000000003</v>
@@ -19797,7 +20296,7 @@
       </c>
       <c r="K233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000232::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000232::bigint, 163000000000007::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M233" s="8">
         <v>164000000000232</v>
@@ -20250,7 +20749,7 @@
         <v>32000000000252</v>
       </c>
       <c r="D253" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E253" s="2">
         <v>111000000000005</v>
@@ -20263,7 +20762,7 @@
       </c>
       <c r="K253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000252::bigint, 163000000000001::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000252::bigint, 163000000000007::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M253" s="8">
         <v>164000000000252</v>
@@ -20279,7 +20778,7 @@
         <v>32000000000253</v>
       </c>
       <c r="D254" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E254" s="2">
         <v>111000000000006</v>
@@ -20292,7 +20791,7 @@
       </c>
       <c r="K254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000253::bigint, 163000000000001::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000253::bigint, 163000000000007::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M254" s="8">
         <v>164000000000253</v>
@@ -20746,21 +21245,21 @@
     <row r="274" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="str">
         <f>MAIN!B274</f>
-        <v>Marbun Pantas Banjarmahon</v>
+        <v>Pantas Banjarnahor Marbun</v>
       </c>
       <c r="C274" s="2">
         <f>MAIN!H274</f>
         <v>32000000000273</v>
       </c>
       <c r="D274" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000273::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000273::bigint, 163000000000007::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M274" s="8">
         <v>164000000000273</v>
@@ -20822,14 +21321,14 @@
         <v>32000000000276</v>
       </c>
       <c r="D277" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K277" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000276::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000276::bigint, 163000000000007::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M277" s="8">
         <v>164000000000276</v>
@@ -20861,21 +21360,21 @@
     <row r="279" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="str">
         <f>MAIN!B279</f>
-        <v>Marungkil Sagala</v>
+        <v>T. Marungkil U. S. Sagala</v>
       </c>
       <c r="C279" s="2">
         <f>MAIN!H279</f>
         <v>32000000000278</v>
       </c>
       <c r="D279" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000278::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000278::bigint, 163000000000007::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M279" s="8">
         <v>164000000000278</v>
@@ -21397,7 +21896,7 @@
         <v>32000000000301</v>
       </c>
       <c r="D302" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="F302" s="2">
         <v>160000000000003</v>
@@ -21407,7 +21906,7 @@
       </c>
       <c r="K302" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000301::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000301::bigint, 163000000000007::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M302" s="8">
         <v>164000000000301</v>
@@ -21531,7 +22030,7 @@
     <row r="308" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="str">
         <f>MAIN!B308</f>
-        <v>Nandang</v>
+        <v>Nandang Effendi</v>
       </c>
       <c r="C308" s="2">
         <f>MAIN!H308</f>
@@ -23264,7 +23763,7 @@
     <row r="383" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="str">
         <f>MAIN!B383</f>
-        <v>Samad Abdul</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="C383" s="2">
         <f>MAIN!H383</f>
@@ -23532,14 +24031,14 @@
         <v>32000000000393</v>
       </c>
       <c r="D394" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K394" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000393::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000393::bigint, 163000000000007::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M394" s="8">
         <v>164000000000393</v>
@@ -23968,7 +24467,7 @@
     <row r="413" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B413" s="1" t="str">
         <f>MAIN!B413</f>
-        <v>Sudarlan Sudarlan</v>
+        <v>Sudarlan</v>
       </c>
       <c r="C413" s="2">
         <f>MAIN!H413</f>
@@ -24043,7 +24542,7 @@
     <row r="416" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="str">
         <f>MAIN!B416</f>
-        <v>Sugiarto Sugiarto</v>
+        <v>Sugiarto</v>
       </c>
       <c r="C416" s="2">
         <f>MAIN!H416</f>
@@ -24611,7 +25110,7 @@
         <v>32000000000439</v>
       </c>
       <c r="D440" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E440" s="2">
         <v>111000000000003</v>
@@ -24624,7 +25123,7 @@
       </c>
       <c r="K440" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000439::bigint, 163000000000001::bigint, 111000000000003::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000439::bigint, 163000000000007::bigint, 111000000000003::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M440" s="8">
         <v>164000000000439</v>
@@ -24924,7 +25423,7 @@
         <v>32000000000452</v>
       </c>
       <c r="D453" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E453" s="2">
         <v>111000000000004</v>
@@ -24937,7 +25436,7 @@
       </c>
       <c r="K453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000452::bigint, 163000000000001::bigint, 111000000000004::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000452::bigint, 163000000000007::bigint, 111000000000004::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M453" s="8">
         <v>164000000000452</v>
@@ -25735,7 +26234,7 @@
         <v>32000000000487</v>
       </c>
       <c r="D488" s="2">
-        <v>163000000000001</v>
+        <v>163000000000007</v>
       </c>
       <c r="E488" s="2">
         <v>111000000000004</v>
@@ -25745,7 +26244,7 @@
       </c>
       <c r="K488" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000487::bigint, 163000000000001::bigint, 111000000000004::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000487::bigint, 163000000000007::bigint, 111000000000004::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M488" s="8">
         <v>164000000000487</v>
@@ -26200,7 +26699,7 @@
     <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="str">
         <f>MAIN!B508</f>
-        <v>Khamim</v>
+        <v>Khamim Taryono</v>
       </c>
       <c r="C508" s="2">
         <f>MAIN!H508</f>
@@ -26508,7 +27007,7 @@
     <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="str">
         <f>MAIN!B520</f>
-        <v>Denny Achmad</v>
+        <v>Denny Achmad Ferlando</v>
       </c>
       <c r="C520" s="2">
         <f>MAIN!H520</f>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -3954,7 +3954,7 @@
         </row>
         <row r="435">
           <cell r="B435" t="str">
-            <v>T. Assubki Ismail</v>
+            <v>Tajuddin Assubki Ismail</v>
           </cell>
           <cell r="F435">
             <v>25000000000434</v>
@@ -4934,8 +4934,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5230,8 +5230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H557"/>
   <sheetViews>
-    <sheetView topLeftCell="D541" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F557"/>
+    <sheetView topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="B522" sqref="B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12764,7 +12764,7 @@
     <row r="435" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="str">
         <f>[1]MAIN!$B435</f>
-        <v>T. Assubki Ismail</v>
+        <v>Tajuddin Assubki Ismail</v>
       </c>
       <c r="C435" s="2">
         <f>[1]MAIN!$F435</f>
@@ -14972,8 +14972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G563"/>
   <sheetViews>
-    <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="D561" sqref="D561"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="D523" sqref="D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="D436" s="1" t="str">
         <f>IF(EXACT(MAIN!$H435, ""), "", MAIN!$B435)</f>
-        <v>T. Assubki Ismail</v>
+        <v>Tajuddin Assubki Ismail</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.2">
@@ -22800,10 +22800,10 @@
   <dimension ref="A1:M557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D552" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L562" sqref="L562"/>
+      <selection pane="bottomRight" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24603,12 +24603,18 @@
       <c r="D76" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E76" s="2">
+        <v>111000000000005</v>
+      </c>
+      <c r="F76" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000075::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000075::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M76" s="8">
         <v>164000000000075</v>
@@ -24773,12 +24779,18 @@
       <c r="D83" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E83" s="2">
+        <v>111000000000005</v>
+      </c>
+      <c r="F83" s="2">
+        <v>160000000000002</v>
+      </c>
       <c r="H83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000082::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000082::bigint, 163000000000001::bigint, 111000000000005::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M83" s="8">
         <v>164000000000082</v>
@@ -25780,12 +25792,18 @@
       <c r="D126" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E126" s="2">
+        <v>111000000000011</v>
+      </c>
+      <c r="F126" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H126" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000125::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000125::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M126" s="8">
         <v>164000000000125</v>
@@ -29888,6 +29906,9 @@
       <c r="D302" s="2">
         <v>163000000000001</v>
       </c>
+      <c r="E302" s="2">
+        <v>111000000000005</v>
+      </c>
       <c r="F302" s="2">
         <v>160000000000003</v>
       </c>
@@ -29896,7 +29917,7 @@
       </c>
       <c r="K302" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000301::bigint, 163000000000001::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000301::bigint, 163000000000001::bigint, 111000000000005::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M302" s="8">
         <v>164000000000301</v>
@@ -31977,12 +31998,18 @@
       <c r="D392" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E392" s="2">
+        <v>111000000000004</v>
+      </c>
+      <c r="F392" s="2">
+        <v>160000000000001</v>
+      </c>
       <c r="H392" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K392" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000391::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000391::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M392" s="8">
         <v>164000000000391</v>
@@ -32975,7 +33002,7 @@
     <row r="435" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="str">
         <f>MAIN!B435</f>
-        <v>T. Assubki Ismail</v>
+        <v>Tajuddin Assubki Ismail</v>
       </c>
       <c r="C435" s="2">
         <f>MAIN!H435</f>
@@ -35058,6 +35085,9 @@
       <c r="D522" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E522" s="2">
+        <v>111000000000005</v>
+      </c>
       <c r="F522" s="2">
         <v>160000000000001</v>
       </c>
@@ -35066,7 +35096,7 @@
       </c>
       <c r="K522" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000521::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000521::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M522" s="8">
         <v>164000000000521</v>
@@ -35084,6 +35114,9 @@
       <c r="D523" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E523" s="2">
+        <v>111000000000012</v>
+      </c>
       <c r="F523" s="2">
         <v>160000000000001</v>
       </c>
@@ -35092,7 +35125,7 @@
       </c>
       <c r="K523" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000522::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000522::bigint, 163000000000002::bigint, 111000000000012::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M523" s="8">
         <v>164000000000522</v>
@@ -35214,6 +35247,9 @@
       <c r="D528" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E528" s="2">
+        <v>111000000000005</v>
+      </c>
       <c r="F528" s="2">
         <v>160000000000001</v>
       </c>
@@ -35222,7 +35258,7 @@
       </c>
       <c r="K528" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000527::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000527::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M528" s="8">
         <v>164000000000527</v>
@@ -35607,6 +35643,9 @@
       <c r="D543" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E543" s="2">
+        <v>111000000000011</v>
+      </c>
       <c r="F543" s="2">
         <v>160000000000001</v>
       </c>
@@ -35615,7 +35654,7 @@
       </c>
       <c r="K543" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000542::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000542::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M543" s="8">
         <v>164000000000542</v>
@@ -35659,6 +35698,9 @@
       <c r="D545" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E545" s="2">
+        <v>111000000000005</v>
+      </c>
       <c r="F545" s="2">
         <v>160000000000001</v>
       </c>
@@ -35667,7 +35709,7 @@
       </c>
       <c r="K545" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000544::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000544::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M545" s="8">
         <v>164000000000544</v>
@@ -35740,6 +35782,9 @@
       <c r="D548" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E548" s="2">
+        <v>111000000000005</v>
+      </c>
       <c r="F548" s="2">
         <v>160000000000001</v>
       </c>
@@ -35748,7 +35793,7 @@
       </c>
       <c r="K548" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000547::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000547::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M548" s="8">
         <v>164000000000547</v>
@@ -35821,6 +35866,9 @@
       <c r="D551" s="2">
         <v>163000000000002</v>
       </c>
+      <c r="E551" s="2">
+        <v>111000000000005</v>
+      </c>
       <c r="F551" s="2">
         <v>160000000000001</v>
       </c>
@@ -35829,7 +35877,7 @@
       </c>
       <c r="K551" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000550::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000550::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M551" s="8">
         <v>164000000000550</v>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -364,7 +364,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4934,8 +4954,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22800,10 +22820,10 @@
   <dimension ref="A1:M557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F126" sqref="F126"/>
+      <selection pane="bottomRight" activeCell="H233" sqref="H233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25799,11 +25819,11 @@
         <v>160000000000001</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000125::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000125::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M126" s="8">
         <v>164000000000125</v>
@@ -26549,11 +26569,11 @@
         <v>160000000000001</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M158" s="8">
         <v>164000000000157</v>
@@ -36038,52 +36058,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H512">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H513">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H524">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H524)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H514:H523">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539 H525:H537">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H525)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H542:H556">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H542)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H541">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H557">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H557)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -364,27 +364,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4954,8 +4934,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22820,10 +22800,10 @@
   <dimension ref="A1:M557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H391" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H233" sqref="H233"/>
+      <selection pane="bottomRight" activeCell="M400" sqref="M400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36058,52 +36038,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H512">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H513">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H524">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H524)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H514:H523">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539 H525:H537">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H525)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H542:H556">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H542)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H541">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H557">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H557)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4934,8 +4934,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22800,10 +22800,10 @@
   <dimension ref="A1:M557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H391" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M400" sqref="M400"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="66">
   <si>
     <t>ID Pekerja</t>
   </si>
@@ -385,7 +385,107 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5528,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H586"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D488" sqref="D488"/>
+    <sheetView topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="B583" sqref="B583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15767,7 +15867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+    <sheetView topLeftCell="A571" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -26268,13 +26368,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M568"/>
+  <dimension ref="A1:M586"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C521" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C569" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K568"/>
+      <selection pane="bottomRight" activeCell="C583" sqref="C583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38425,7 +38525,7 @@
         <v>10</v>
       </c>
       <c r="K517" s="1" t="str">
-        <f t="shared" ref="K517:K568" si="9">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
+        <f t="shared" ref="K517:K580" si="9">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
 CONCATENATE(IF(EXACT(C517, ""), ", null", CONCATENATE(", ", C517, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D517, ""), ", null", CONCATENATE(", ", D517, "")), "::bigint"),
 CONCATENATE(IF(EXACT(E517, ""), ", null", CONCATENATE(", ", E517, "")), "::bigint"),
@@ -39439,7 +39539,7 @@
         <v>32000000000554</v>
       </c>
       <c r="D555" s="2">
-        <v>163000000000009</v>
+        <v>163000000000002</v>
       </c>
       <c r="F555" s="2">
         <v>160000000000001</v>
@@ -39449,7 +39549,7 @@
       </c>
       <c r="K555" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000554::bigint, 163000000000009::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000554::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M555" s="8">
         <v>164000000000554</v>
@@ -39465,7 +39565,7 @@
         <v>32000000000555</v>
       </c>
       <c r="D556" s="2">
-        <v>163000000000010</v>
+        <v>163000000000002</v>
       </c>
       <c r="F556" s="2">
         <v>160000000000001</v>
@@ -39475,7 +39575,7 @@
       </c>
       <c r="K556" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000555::bigint, 163000000000010::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000555::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M556" s="8">
         <v>164000000000555</v>
@@ -39491,7 +39591,7 @@
         <v>32000000000556</v>
       </c>
       <c r="D557" s="2">
-        <v>163000000000011</v>
+        <v>163000000000002</v>
       </c>
       <c r="F557" s="2">
         <v>160000000000002</v>
@@ -39501,7 +39601,7 @@
       </c>
       <c r="K557" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000556::bigint, 163000000000011::bigint, null::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000556::bigint, 163000000000002::bigint, null::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M557" s="8">
         <v>164000000000556</v>
@@ -39520,7 +39620,7 @@
         <v>32000000000557</v>
       </c>
       <c r="D558" s="2">
-        <v>163000000000012</v>
+        <v>163000000000002</v>
       </c>
       <c r="F558" s="2">
         <v>160000000000003</v>
@@ -39530,7 +39630,7 @@
       </c>
       <c r="K558" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000557::bigint, 163000000000012::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000557::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M558" s="8">
         <v>164000000000557</v>
@@ -39546,7 +39646,7 @@
         <v>32000000000558</v>
       </c>
       <c r="D559" s="2">
-        <v>163000000000013</v>
+        <v>163000000000002</v>
       </c>
       <c r="F559" s="2">
         <v>160000000000004</v>
@@ -39556,7 +39656,7 @@
       </c>
       <c r="K559" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000558::bigint, 163000000000013::bigint, null::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000558::bigint, 163000000000002::bigint, null::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M559" s="8">
         <v>164000000000558</v>
@@ -39572,7 +39672,7 @@
         <v>32000000000559</v>
       </c>
       <c r="D560" s="2">
-        <v>163000000000014</v>
+        <v>163000000000002</v>
       </c>
       <c r="F560" s="2">
         <v>160000000000005</v>
@@ -39582,7 +39682,7 @@
       </c>
       <c r="K560" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000559::bigint, 163000000000014::bigint, null::bigint, 160000000000005::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000005::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M560" s="8">
         <v>164000000000559</v>
@@ -39598,7 +39698,7 @@
         <v>32000000000560</v>
       </c>
       <c r="D561" s="2">
-        <v>163000000000015</v>
+        <v>163000000000002</v>
       </c>
       <c r="F561" s="2">
         <v>160000000000006</v>
@@ -39608,7 +39708,7 @@
       </c>
       <c r="K561" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000560::bigint, 163000000000015::bigint, null::bigint, 160000000000006::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000560::bigint, 163000000000002::bigint, null::bigint, 160000000000006::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M561" s="8">
         <v>164000000000560</v>
@@ -39624,7 +39724,7 @@
         <v>32000000000561</v>
       </c>
       <c r="D562" s="2">
-        <v>163000000000016</v>
+        <v>163000000000002</v>
       </c>
       <c r="F562" s="2">
         <v>160000000000007</v>
@@ -39634,7 +39734,7 @@
       </c>
       <c r="K562" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000561::bigint, 163000000000016::bigint, null::bigint, 160000000000007::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000561::bigint, 163000000000002::bigint, null::bigint, 160000000000007::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M562" s="8">
         <v>164000000000561</v>
@@ -39650,7 +39750,7 @@
         <v>32000000000562</v>
       </c>
       <c r="D563" s="2">
-        <v>163000000000017</v>
+        <v>163000000000002</v>
       </c>
       <c r="F563" s="2">
         <v>160000000000008</v>
@@ -39660,7 +39760,7 @@
       </c>
       <c r="K563" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000562::bigint, 163000000000017::bigint, null::bigint, 160000000000008::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000562::bigint, 163000000000002::bigint, null::bigint, 160000000000008::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M563" s="8">
         <v>164000000000562</v>
@@ -39676,7 +39776,7 @@
         <v>32000000000563</v>
       </c>
       <c r="D564" s="2">
-        <v>163000000000018</v>
+        <v>163000000000002</v>
       </c>
       <c r="F564" s="2">
         <v>160000000000009</v>
@@ -39686,7 +39786,7 @@
       </c>
       <c r="K564" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000563::bigint, 163000000000018::bigint, null::bigint, 160000000000009::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000563::bigint, 163000000000002::bigint, null::bigint, 160000000000009::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M564" s="8">
         <v>164000000000563</v>
@@ -39702,7 +39802,7 @@
         <v>32000000000564</v>
       </c>
       <c r="D565" s="2">
-        <v>163000000000019</v>
+        <v>163000000000002</v>
       </c>
       <c r="F565" s="2">
         <v>160000000000010</v>
@@ -39712,7 +39812,7 @@
       </c>
       <c r="K565" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000564::bigint, 163000000000019::bigint, null::bigint, 160000000000010::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000564::bigint, 163000000000002::bigint, null::bigint, 160000000000010::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M565" s="8">
         <v>164000000000564</v>
@@ -39728,7 +39828,7 @@
         <v>32000000000565</v>
       </c>
       <c r="D566" s="2">
-        <v>163000000000020</v>
+        <v>163000000000002</v>
       </c>
       <c r="F566" s="2">
         <v>160000000000011</v>
@@ -39738,7 +39838,7 @@
       </c>
       <c r="K566" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000565::bigint, 163000000000020::bigint, null::bigint, 160000000000011::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000565::bigint, 163000000000002::bigint, null::bigint, 160000000000011::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M566" s="8">
         <v>164000000000565</v>
@@ -39754,7 +39854,7 @@
         <v>32000000000566</v>
       </c>
       <c r="D567" s="2">
-        <v>163000000000021</v>
+        <v>163000000000002</v>
       </c>
       <c r="F567" s="2">
         <v>160000000000012</v>
@@ -39764,7 +39864,7 @@
       </c>
       <c r="K567" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000566::bigint, 163000000000021::bigint, null::bigint, 160000000000012::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000566::bigint, 163000000000002::bigint, null::bigint, 160000000000012::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M567" s="8">
         <v>164000000000566</v>
@@ -39780,7 +39880,7 @@
         <v>32000000000567</v>
       </c>
       <c r="D568" s="2">
-        <v>163000000000022</v>
+        <v>163000000000002</v>
       </c>
       <c r="F568" s="2">
         <v>160000000000013</v>
@@ -39790,81 +39890,529 @@
       </c>
       <c r="K568" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000567::bigint, 163000000000022::bigint, null::bigint, 160000000000013::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000567::bigint, 163000000000002::bigint, null::bigint, 160000000000013::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M568" s="8">
         <v>164000000000567</v>
       </c>
     </row>
+    <row r="569" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B569" s="1" t="str">
+        <f>MAIN!B569</f>
+        <v>Joshika Pradirga</v>
+      </c>
+      <c r="C569" s="2">
+        <f>MAIN!H569</f>
+        <v>32000000000568</v>
+      </c>
+      <c r="D569" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K569" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M569" s="8">
+        <v>164000000000568</v>
+      </c>
+    </row>
+    <row r="570" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B570" s="1" t="str">
+        <f>MAIN!B570</f>
+        <v>Khaidir</v>
+      </c>
+      <c r="C570" s="2">
+        <f>MAIN!H570</f>
+        <v>32000000000569</v>
+      </c>
+      <c r="D570" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K570" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M570" s="8">
+        <v>164000000000569</v>
+      </c>
+    </row>
+    <row r="571" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B571" s="1" t="str">
+        <f>MAIN!B571</f>
+        <v>Latip Muhlanto</v>
+      </c>
+      <c r="C571" s="2">
+        <f>MAIN!H571</f>
+        <v>32000000000570</v>
+      </c>
+      <c r="D571" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K571" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M571" s="8">
+        <v>164000000000570</v>
+      </c>
+    </row>
+    <row r="572" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B572" s="1" t="str">
+        <f>MAIN!B572</f>
+        <v>Leonardo Putra</v>
+      </c>
+      <c r="C572" s="2">
+        <f>MAIN!H572</f>
+        <v>32000000000571</v>
+      </c>
+      <c r="D572" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K572" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M572" s="8">
+        <v>164000000000571</v>
+      </c>
+    </row>
+    <row r="573" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B573" s="1" t="str">
+        <f>MAIN!B573</f>
+        <v>Muhammad Ramadani</v>
+      </c>
+      <c r="C573" s="2">
+        <f>MAIN!H573</f>
+        <v>32000000000572</v>
+      </c>
+      <c r="D573" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K573" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M573" s="8">
+        <v>164000000000572</v>
+      </c>
+    </row>
+    <row r="574" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B574" s="1" t="str">
+        <f>MAIN!B574</f>
+        <v>Musdalipa</v>
+      </c>
+      <c r="C574" s="2">
+        <f>MAIN!H574</f>
+        <v>32000000000573</v>
+      </c>
+      <c r="D574" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K574" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M574" s="8">
+        <v>164000000000573</v>
+      </c>
+    </row>
+    <row r="575" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B575" s="1" t="str">
+        <f>MAIN!B575</f>
+        <v>Nico Melky</v>
+      </c>
+      <c r="C575" s="2">
+        <f>MAIN!H575</f>
+        <v>32000000000574</v>
+      </c>
+      <c r="D575" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K575" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M575" s="8">
+        <v>164000000000574</v>
+      </c>
+    </row>
+    <row r="576" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B576" s="1" t="str">
+        <f>MAIN!B576</f>
+        <v>Rahmata Novanisa</v>
+      </c>
+      <c r="C576" s="2">
+        <f>MAIN!H576</f>
+        <v>32000000000575</v>
+      </c>
+      <c r="D576" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K576" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M576" s="8">
+        <v>164000000000575</v>
+      </c>
+    </row>
+    <row r="577" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B577" s="1" t="str">
+        <f>MAIN!B577</f>
+        <v>Satrio Dhiaputra</v>
+      </c>
+      <c r="C577" s="2">
+        <f>MAIN!H577</f>
+        <v>32000000000576</v>
+      </c>
+      <c r="D577" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K577" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M577" s="8">
+        <v>164000000000576</v>
+      </c>
+    </row>
+    <row r="578" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B578" s="1" t="str">
+        <f>MAIN!B578</f>
+        <v>Sudirman</v>
+      </c>
+      <c r="C578" s="2">
+        <f>MAIN!H578</f>
+        <v>32000000000577</v>
+      </c>
+      <c r="D578" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K578" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M578" s="8">
+        <v>164000000000577</v>
+      </c>
+    </row>
+    <row r="579" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B579" s="1" t="str">
+        <f>MAIN!B579</f>
+        <v>Suparji</v>
+      </c>
+      <c r="C579" s="2">
+        <f>MAIN!H579</f>
+        <v>32000000000578</v>
+      </c>
+      <c r="D579" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K579" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M579" s="8">
+        <v>164000000000578</v>
+      </c>
+    </row>
+    <row r="580" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B580" s="1" t="str">
+        <f>MAIN!B580</f>
+        <v>Taufik Iskandar</v>
+      </c>
+      <c r="C580" s="2">
+        <f>MAIN!H580</f>
+        <v>32000000000579</v>
+      </c>
+      <c r="D580" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K580" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M580" s="8">
+        <v>164000000000579</v>
+      </c>
+    </row>
+    <row r="581" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B581" s="1" t="str">
+        <f>MAIN!B581</f>
+        <v>Tegar Hersaputra</v>
+      </c>
+      <c r="C581" s="2">
+        <f>MAIN!H581</f>
+        <v>32000000000580</v>
+      </c>
+      <c r="D581" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K581" s="1" t="str">
+        <f t="shared" ref="K581:K586" si="10">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID",
+CONCATENATE(IF(EXACT(C581, ""), ", null", CONCATENATE(", ", C581, "")), "::bigint"),
+CONCATENATE(IF(EXACT(D581, ""), ", null", CONCATENATE(", ", D581, "")), "::bigint"),
+CONCATENATE(IF(EXACT(E581, ""), ", null", CONCATENATE(", ", E581, "")), "::bigint"),
+CONCATENATE(IF(EXACT(F581, ""), ", null", CONCATENATE(", ", F581, "")), "::bigint"),
+CONCATENATE(IF(EXACT(G581, ""), ", null", CONCATENATE(", '", G581, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(H581, ""), ", null", CONCATENATE(", '", H581, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(I581, ""), ", null", CONCATENATE(", ", I581, "")), "::bigint"),
+");")</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M581" s="8">
+        <v>164000000000580</v>
+      </c>
+    </row>
+    <row r="582" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B582" s="1" t="str">
+        <f>MAIN!B582</f>
+        <v>Togar Sihombing</v>
+      </c>
+      <c r="C582" s="2">
+        <f>MAIN!H582</f>
+        <v>32000000000581</v>
+      </c>
+      <c r="D582" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K582" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M582" s="8">
+        <v>164000000000581</v>
+      </c>
+    </row>
+    <row r="583" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B583" s="1" t="str">
+        <f>MAIN!B583</f>
+        <v>Wisnu Trenggono</v>
+      </c>
+      <c r="C583" s="2">
+        <f>MAIN!H583</f>
+        <v>32000000000582</v>
+      </c>
+      <c r="D583" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="E583" s="2">
+        <v>111000000000003</v>
+      </c>
+      <c r="F583" s="2">
+        <v>160000000000001</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K583" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000582::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M583" s="8">
+        <v>164000000000582</v>
+      </c>
+    </row>
+    <row r="584" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B584" s="1" t="str">
+        <f>MAIN!B584</f>
+        <v>Yogo</v>
+      </c>
+      <c r="C584" s="2">
+        <f>MAIN!H584</f>
+        <v>32000000000583</v>
+      </c>
+      <c r="D584" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K584" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M584" s="8">
+        <v>164000000000583</v>
+      </c>
+    </row>
+    <row r="585" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B585" s="1" t="str">
+        <f>MAIN!B585</f>
+        <v>Yustiana Firda</v>
+      </c>
+      <c r="C585" s="2">
+        <f>MAIN!H585</f>
+        <v>32000000000584</v>
+      </c>
+      <c r="D585" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K585" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M585" s="8">
+        <v>164000000000584</v>
+      </c>
+    </row>
+    <row r="586" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B586" s="1" t="str">
+        <f>MAIN!B586</f>
+        <v>Zainal Abidin</v>
+      </c>
+      <c r="C586" s="2">
+        <f>MAIN!H586</f>
+        <v>32000000000585</v>
+      </c>
+      <c r="D586" s="2">
+        <v>163000000000002</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K586" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+      <c r="M586" s="8">
+        <v>164000000000585</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H512">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H511">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H511)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H522">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H522)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H512:H523">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H512)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539 H523:H537">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H523)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H540:H570">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
+  <conditionalFormatting sqref="H540:H583">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H539)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H536">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H513">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H524">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H524)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H541">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H538)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H583">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H583)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H584">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H584)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H586">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H586)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H585">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H585)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -385,67 +385,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -649,7 +589,7 @@
       <sheetName val="Pindahan dari DB ERP Live"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2" t="str">
@@ -5332,8 +5272,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -40326,92 +40266,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H512">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H511">
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H511)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H522">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H522)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H512:H523">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H512)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539 H523:H537">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H523)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540:H583">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H539">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H539)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H536">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H513">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H524">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H524)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H540">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H541">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H538">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H583">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H583)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H584">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H584)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H586">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H586)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H585">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",H585)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -589,7 +589,7 @@
       <sheetName val="Pindahan dari DB ERP Live"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2" t="str">
@@ -5272,8 +5272,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -26311,10 +26311,10 @@
   <dimension ref="A1:M586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C569" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C575" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C583" sqref="C583"/>
+      <selection pane="bottomRight" activeCell="B586" sqref="B586:D586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39534,14 +39534,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F557" s="2">
-        <v>160000000000002</v>
+        <v>160000000000001</v>
       </c>
       <c r="H557" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K557" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000556::bigint, 163000000000002::bigint, null::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000556::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M557" s="8">
         <v>164000000000556</v>
@@ -39563,14 +39563,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F558" s="2">
-        <v>160000000000003</v>
+        <v>160000000000001</v>
       </c>
       <c r="H558" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K558" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000557::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000557::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M558" s="8">
         <v>164000000000557</v>
@@ -39589,14 +39589,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F559" s="2">
-        <v>160000000000004</v>
+        <v>160000000000001</v>
       </c>
       <c r="H559" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K559" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000558::bigint, 163000000000002::bigint, null::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000558::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M559" s="8">
         <v>164000000000558</v>
@@ -39615,14 +39615,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F560" s="2">
-        <v>160000000000005</v>
+        <v>160000000000001</v>
       </c>
       <c r="H560" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K560" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000005::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M560" s="8">
         <v>164000000000559</v>
@@ -39641,14 +39641,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F561" s="2">
-        <v>160000000000006</v>
+        <v>160000000000001</v>
       </c>
       <c r="H561" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K561" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000560::bigint, 163000000000002::bigint, null::bigint, 160000000000006::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000560::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M561" s="8">
         <v>164000000000560</v>
@@ -39667,14 +39667,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F562" s="2">
-        <v>160000000000007</v>
+        <v>160000000000001</v>
       </c>
       <c r="H562" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K562" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000561::bigint, 163000000000002::bigint, null::bigint, 160000000000007::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000561::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M562" s="8">
         <v>164000000000561</v>
@@ -39693,14 +39693,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F563" s="2">
-        <v>160000000000008</v>
+        <v>160000000000001</v>
       </c>
       <c r="H563" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K563" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000562::bigint, 163000000000002::bigint, null::bigint, 160000000000008::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000562::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M563" s="8">
         <v>164000000000562</v>
@@ -39719,14 +39719,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F564" s="2">
-        <v>160000000000009</v>
+        <v>160000000000001</v>
       </c>
       <c r="H564" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K564" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000563::bigint, 163000000000002::bigint, null::bigint, 160000000000009::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000563::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M564" s="8">
         <v>164000000000563</v>
@@ -39745,14 +39745,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F565" s="2">
-        <v>160000000000010</v>
+        <v>160000000000001</v>
       </c>
       <c r="H565" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K565" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000564::bigint, 163000000000002::bigint, null::bigint, 160000000000010::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000564::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M565" s="8">
         <v>164000000000564</v>
@@ -39771,14 +39771,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F566" s="2">
-        <v>160000000000011</v>
+        <v>160000000000001</v>
       </c>
       <c r="H566" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K566" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000565::bigint, 163000000000002::bigint, null::bigint, 160000000000011::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000565::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M566" s="8">
         <v>164000000000565</v>
@@ -39797,14 +39797,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F567" s="2">
-        <v>160000000000012</v>
+        <v>160000000000001</v>
       </c>
       <c r="H567" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K567" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000566::bigint, 163000000000002::bigint, null::bigint, 160000000000012::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000566::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M567" s="8">
         <v>164000000000566</v>
@@ -39823,14 +39823,14 @@
         <v>163000000000002</v>
       </c>
       <c r="F568" s="2">
-        <v>160000000000013</v>
+        <v>160000000000001</v>
       </c>
       <c r="H568" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K568" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000567::bigint, 163000000000002::bigint, null::bigint, 160000000000013::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000567::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
       <c r="M568" s="8">
         <v>164000000000567</v>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -27995,7 +27995,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28137,8 +28137,9 @@
       </c>
       <c r="M5" s="32" t="str">
         <f t="shared" ref="M5:M68" si="1">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H5, ""), ", null", CONCATENATE(", '", H5, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I5, ""), ", null", CONCATENATE(", '", I5, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B5, ""), ", null", CONCATENATE(", ", B5, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D5, ""), ", null", CONCATENATE(", ", D5, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F5, ""), ", null", CONCATENATE(", ", F5, "")), "::bigint"),
@@ -28147,7 +28148,7 @@
 CONCATENATE(IF(EXACT(I5, ""), ", null", CONCATENATE(", '", I5, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J5, ""), ", null", CONCATENATE(", ", J5, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000002::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000002::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -28179,7 +28180,7 @@
       </c>
       <c r="M6" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000003::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000003::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -28211,7 +28212,7 @@
       </c>
       <c r="M7" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000004::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000004::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -28243,7 +28244,7 @@
       </c>
       <c r="M8" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000005::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000005::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -28275,7 +28276,7 @@
       </c>
       <c r="M9" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000006::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000006::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -28307,7 +28308,7 @@
       </c>
       <c r="M10" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000007::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000007::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -28339,7 +28340,7 @@
       </c>
       <c r="M11" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000008::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000008::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -28371,7 +28372,7 @@
       </c>
       <c r="M12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000009::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000009::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -28403,7 +28404,7 @@
       </c>
       <c r="M13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000010::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000010::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -28435,7 +28436,7 @@
       </c>
       <c r="M14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000011::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000011::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -28471,7 +28472,7 @@
       </c>
       <c r="M15" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000012::bigint, 163000000000002::bigint, 111000000000007::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000012::bigint, 163000000000002::bigint, 111000000000007::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -28503,7 +28504,7 @@
       </c>
       <c r="M16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000013::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000013::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -28535,7 +28536,7 @@
       </c>
       <c r="M17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000014::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000014::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -28567,7 +28568,7 @@
       </c>
       <c r="M18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000015::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000015::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -28599,7 +28600,7 @@
       </c>
       <c r="M19" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000016::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000016::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -28635,7 +28636,7 @@
       </c>
       <c r="M20" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000017::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000017::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -28667,7 +28668,7 @@
       </c>
       <c r="M21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000018::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000018::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -28699,7 +28700,7 @@
       </c>
       <c r="M22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000019::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000019::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
@@ -28731,7 +28732,7 @@
       </c>
       <c r="M23" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000020::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000020::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -28763,7 +28764,7 @@
       </c>
       <c r="M24" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000021::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000021::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
@@ -28795,7 +28796,7 @@
       </c>
       <c r="M25" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000022::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000022::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -28831,7 +28832,7 @@
       </c>
       <c r="M26" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000023::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000023::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
@@ -28863,7 +28864,7 @@
       </c>
       <c r="M27" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000024::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000024::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
@@ -28895,7 +28896,7 @@
       </c>
       <c r="M28" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000025::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000025::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
@@ -28927,7 +28928,7 @@
       </c>
       <c r="M29" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000026::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000026::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
@@ -28959,7 +28960,7 @@
       </c>
       <c r="M30" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000027::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000027::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
@@ -28991,7 +28992,7 @@
       </c>
       <c r="M31" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000028::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000028::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
@@ -29023,7 +29024,7 @@
       </c>
       <c r="M32" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000029::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000029::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -29055,7 +29056,7 @@
       </c>
       <c r="M33" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000030::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000030::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
@@ -29087,7 +29088,7 @@
       </c>
       <c r="M34" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000031::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000031::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -29119,7 +29120,7 @@
       </c>
       <c r="M35" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000032::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000032::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -29151,7 +29152,7 @@
       </c>
       <c r="M36" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000033::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000033::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
@@ -29183,7 +29184,7 @@
       </c>
       <c r="M37" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000034::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000034::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
@@ -29215,7 +29216,7 @@
       </c>
       <c r="M38" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000035::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000035::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
@@ -29247,7 +29248,7 @@
       </c>
       <c r="M39" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000036::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000036::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
@@ -29279,7 +29280,7 @@
       </c>
       <c r="M40" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000037::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000037::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
@@ -29311,7 +29312,7 @@
       </c>
       <c r="M41" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000038::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000038::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
@@ -29343,7 +29344,7 @@
       </c>
       <c r="M42" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000039::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000039::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
@@ -29375,7 +29376,7 @@
       </c>
       <c r="M43" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000040::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000040::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
@@ -29407,7 +29408,7 @@
       </c>
       <c r="M44" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000041::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000041::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
@@ -29439,7 +29440,7 @@
       </c>
       <c r="M45" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000042::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000042::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
@@ -29471,7 +29472,7 @@
       </c>
       <c r="M46" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000043::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000043::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
@@ -29503,7 +29504,7 @@
       </c>
       <c r="M47" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000044::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000044::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
@@ -29535,7 +29536,7 @@
       </c>
       <c r="M48" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000045::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000045::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
@@ -29567,7 +29568,7 @@
       </c>
       <c r="M49" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000046::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000046::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
@@ -29599,7 +29600,7 @@
       </c>
       <c r="M50" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000047::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000047::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
@@ -29631,7 +29632,7 @@
       </c>
       <c r="M51" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000048::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000048::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
@@ -29663,7 +29664,7 @@
       </c>
       <c r="M52" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000049::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000049::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
@@ -29695,7 +29696,7 @@
       </c>
       <c r="M53" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000050::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000050::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
@@ -29727,7 +29728,7 @@
       </c>
       <c r="M54" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000051::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000051::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
@@ -29759,7 +29760,7 @@
       </c>
       <c r="M55" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000052::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000052::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.2">
@@ -29791,7 +29792,7 @@
       </c>
       <c r="M56" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000053::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000053::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.2">
@@ -29823,7 +29824,7 @@
       </c>
       <c r="M57" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000054::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000054::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
@@ -29855,7 +29856,7 @@
       </c>
       <c r="M58" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000055::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000055::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
@@ -29887,7 +29888,7 @@
       </c>
       <c r="M59" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000056::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000056::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
@@ -29919,7 +29920,7 @@
       </c>
       <c r="M60" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000057::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000057::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.2">
@@ -29951,7 +29952,7 @@
       </c>
       <c r="M61" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000058::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000058::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
@@ -29983,7 +29984,7 @@
       </c>
       <c r="M62" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000059::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000059::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.2">
@@ -30015,7 +30016,7 @@
       </c>
       <c r="M63" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000060::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000060::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
@@ -30047,7 +30048,7 @@
       </c>
       <c r="M64" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000061::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000061::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
@@ -30079,7 +30080,7 @@
       </c>
       <c r="M65" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000062::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000062::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
@@ -30111,7 +30112,7 @@
       </c>
       <c r="M66" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000063::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000063::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.2">
@@ -30143,7 +30144,7 @@
       </c>
       <c r="M67" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000064::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000064::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
@@ -30175,7 +30176,7 @@
       </c>
       <c r="M68" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000065::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000065::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
@@ -30207,8 +30208,9 @@
       </c>
       <c r="M69" s="32" t="str">
         <f t="shared" ref="M69:M132" si="3">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H69, ""), ", null", CONCATENATE(", '", H69, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I69, ""), ", null", CONCATENATE(", '", I69, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B69, ""), ", null", CONCATENATE(", ", B69, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D69, ""), ", null", CONCATENATE(", ", D69, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F69, ""), ", null", CONCATENATE(", ", F69, "")), "::bigint"),
@@ -30217,7 +30219,7 @@
 CONCATENATE(IF(EXACT(I69, ""), ", null", CONCATENATE(", '", I69, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J69, ""), ", null", CONCATENATE(", ", J69, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000066::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000066::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
@@ -30249,7 +30251,7 @@
       </c>
       <c r="M70" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000067::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000067::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
@@ -30281,7 +30283,7 @@
       </c>
       <c r="M71" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000068::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000068::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
@@ -30313,7 +30315,7 @@
       </c>
       <c r="M72" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000069::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000069::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
@@ -30345,7 +30347,7 @@
       </c>
       <c r="M73" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000070::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000070::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
@@ -30377,7 +30379,7 @@
       </c>
       <c r="M74" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000071::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000071::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
@@ -30409,7 +30411,7 @@
       </c>
       <c r="M75" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000072::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000072::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
@@ -30441,7 +30443,7 @@
       </c>
       <c r="M76" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000073::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000073::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
@@ -30473,7 +30475,7 @@
       </c>
       <c r="M77" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000074::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000074::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.2">
@@ -30509,7 +30511,7 @@
       </c>
       <c r="M78" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000075::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000075::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.2">
@@ -30541,7 +30543,7 @@
       </c>
       <c r="M79" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000076::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000076::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.2">
@@ -30579,7 +30581,7 @@
       </c>
       <c r="M80" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '2014-09-30 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000077::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, '2010-03-01 00:00:00+07'::timestamptz, '2014-09-30 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '2010-03-01 00:00:00+07'::timestamptz, '2014-09-30 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000077::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, '2010-03-01 00:00:00+07'::timestamptz, '2014-09-30 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
@@ -30611,7 +30613,7 @@
       </c>
       <c r="M81" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000078::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000078::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
@@ -30643,7 +30645,7 @@
       </c>
       <c r="M82" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000079::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000079::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
@@ -30675,7 +30677,7 @@
       </c>
       <c r="M83" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000080::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000080::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.2">
@@ -30707,7 +30709,7 @@
       </c>
       <c r="M84" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000081::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000081::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.2">
@@ -30743,7 +30745,7 @@
       </c>
       <c r="M85" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000082::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000082::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
@@ -30775,7 +30777,7 @@
       </c>
       <c r="M86" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000083::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000083::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
@@ -30807,7 +30809,7 @@
       </c>
       <c r="M87" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000084::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000084::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
@@ -30839,7 +30841,7 @@
       </c>
       <c r="M88" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000085::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000085::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.2">
@@ -30871,7 +30873,7 @@
       </c>
       <c r="M89" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000086::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000086::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.2">
@@ -30903,7 +30905,7 @@
       </c>
       <c r="M90" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000087::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000087::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.2">
@@ -30935,7 +30937,7 @@
       </c>
       <c r="M91" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000088::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000088::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.2">
@@ -30967,7 +30969,7 @@
       </c>
       <c r="M92" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000089::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000089::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.2">
@@ -30999,7 +31001,7 @@
       </c>
       <c r="M93" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000090::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000090::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.2">
@@ -31031,7 +31033,7 @@
       </c>
       <c r="M94" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000091::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000091::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
@@ -31063,7 +31065,7 @@
       </c>
       <c r="M95" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000092::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000092::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.2">
@@ -31095,7 +31097,7 @@
       </c>
       <c r="M96" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000093::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000093::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.2">
@@ -31127,7 +31129,7 @@
       </c>
       <c r="M97" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000094::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000094::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.2">
@@ -31159,7 +31161,7 @@
       </c>
       <c r="M98" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000095::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000095::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.2">
@@ -31191,7 +31193,7 @@
       </c>
       <c r="M99" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000096::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000096::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.2">
@@ -31223,7 +31225,7 @@
       </c>
       <c r="M100" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000097::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000097::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.2">
@@ -31255,7 +31257,7 @@
       </c>
       <c r="M101" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000098::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000098::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.2">
@@ -31287,7 +31289,7 @@
       </c>
       <c r="M102" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000099::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000099::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.2">
@@ -31325,7 +31327,7 @@
       </c>
       <c r="M103" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000100::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, '2023-01-05 00:00:00+07'::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '2023-01-05 00:00:00+07'::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000100::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, '2023-01-05 00:00:00+07'::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.2">
@@ -31357,7 +31359,7 @@
       </c>
       <c r="M104" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000101::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000101::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.2">
@@ -31389,7 +31391,7 @@
       </c>
       <c r="M105" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000102::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000102::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.2">
@@ -31421,7 +31423,7 @@
       </c>
       <c r="M106" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000103::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000103::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.2">
@@ -31453,7 +31455,7 @@
       </c>
       <c r="M107" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000104::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000104::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.2">
@@ -31485,7 +31487,7 @@
       </c>
       <c r="M108" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000105::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000105::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.2">
@@ -31517,7 +31519,7 @@
       </c>
       <c r="M109" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000106::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000106::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.2">
@@ -31549,7 +31551,7 @@
       </c>
       <c r="M110" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000107::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000107::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.2">
@@ -31581,7 +31583,7 @@
       </c>
       <c r="M111" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000108::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000108::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.2">
@@ -31613,7 +31615,7 @@
       </c>
       <c r="M112" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000109::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000109::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.2">
@@ -31645,7 +31647,7 @@
       </c>
       <c r="M113" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000110::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000110::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.2">
@@ -31677,7 +31679,7 @@
       </c>
       <c r="M114" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000111::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000111::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.2">
@@ -31709,7 +31711,7 @@
       </c>
       <c r="M115" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000112::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000112::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.2">
@@ -31741,7 +31743,7 @@
       </c>
       <c r="M116" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000113::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000113::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.2">
@@ -31775,7 +31777,7 @@
       </c>
       <c r="M117" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000114::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000114::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.2">
@@ -31807,7 +31809,7 @@
       </c>
       <c r="M118" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000115::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000115::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.2">
@@ -31839,7 +31841,7 @@
       </c>
       <c r="M119" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000116::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000116::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.2">
@@ -31871,7 +31873,7 @@
       </c>
       <c r="M120" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000117::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000117::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.2">
@@ -31903,7 +31905,7 @@
       </c>
       <c r="M121" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000118::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000118::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.2">
@@ -31935,7 +31937,7 @@
       </c>
       <c r="M122" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000119::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000119::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.2">
@@ -31967,7 +31969,7 @@
       </c>
       <c r="M123" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000120::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000120::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.2">
@@ -31999,7 +32001,7 @@
       </c>
       <c r="M124" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000121::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000121::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.2">
@@ -32031,7 +32033,7 @@
       </c>
       <c r="M125" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000122::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000122::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.2">
@@ -32067,7 +32069,7 @@
       </c>
       <c r="M126" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000123::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000123::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.2">
@@ -32099,7 +32101,7 @@
       </c>
       <c r="M127" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000124::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000124::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.2">
@@ -32135,7 +32137,7 @@
       </c>
       <c r="M128" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000125::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000125::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.2">
@@ -32167,7 +32169,7 @@
       </c>
       <c r="M129" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000126::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000126::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.2">
@@ -32199,7 +32201,7 @@
       </c>
       <c r="M130" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000127::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000127::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.2">
@@ -32231,7 +32233,7 @@
       </c>
       <c r="M131" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000128::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000128::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.2">
@@ -32263,7 +32265,7 @@
       </c>
       <c r="M132" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000129::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000129::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.2">
@@ -32295,8 +32297,9 @@
       </c>
       <c r="M133" s="32" t="str">
         <f t="shared" ref="M133:M196" si="5">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H133, ""), ", null", CONCATENATE(", '", H133, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I133, ""), ", null", CONCATENATE(", '", I133, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B133, ""), ", null", CONCATENATE(", ", B133, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D133, ""), ", null", CONCATENATE(", ", D133, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F133, ""), ", null", CONCATENATE(", ", F133, "")), "::bigint"),
@@ -32305,7 +32308,7 @@
 CONCATENATE(IF(EXACT(I133, ""), ", null", CONCATENATE(", '", I133, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J133, ""), ", null", CONCATENATE(", ", J133, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000130::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000130::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.2">
@@ -32337,7 +32340,7 @@
       </c>
       <c r="M134" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000131::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000131::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.2">
@@ -32369,7 +32372,7 @@
       </c>
       <c r="M135" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000132::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000132::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.2">
@@ -32401,7 +32404,7 @@
       </c>
       <c r="M136" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000133::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000133::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.2">
@@ -32433,7 +32436,7 @@
       </c>
       <c r="M137" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000134::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000134::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.2">
@@ -32465,7 +32468,7 @@
       </c>
       <c r="M138" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000135::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000135::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.2">
@@ -32497,7 +32500,7 @@
       </c>
       <c r="M139" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000136::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000136::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.2">
@@ -32529,7 +32532,7 @@
       </c>
       <c r="M140" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000137::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000137::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.2">
@@ -32561,7 +32564,7 @@
       </c>
       <c r="M141" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000138::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000138::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.2">
@@ -32593,7 +32596,7 @@
       </c>
       <c r="M142" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000139::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000139::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.2">
@@ -32625,7 +32628,7 @@
       </c>
       <c r="M143" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000140::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000140::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.2">
@@ -32657,7 +32660,7 @@
       </c>
       <c r="M144" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000141::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000141::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.2">
@@ -32689,7 +32692,7 @@
       </c>
       <c r="M145" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000142::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000142::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.2">
@@ -32721,7 +32724,7 @@
       </c>
       <c r="M146" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000143::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000143::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.2">
@@ -32753,7 +32756,7 @@
       </c>
       <c r="M147" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000144::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000144::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.2">
@@ -32785,7 +32788,7 @@
       </c>
       <c r="M148" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000145::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000145::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.2">
@@ -32817,7 +32820,7 @@
       </c>
       <c r="M149" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000146::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000146::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.2">
@@ -32849,7 +32852,7 @@
       </c>
       <c r="M150" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000147::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000147::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.2">
@@ -32881,7 +32884,7 @@
       </c>
       <c r="M151" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000148::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000148::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.2">
@@ -32913,7 +32916,7 @@
       </c>
       <c r="M152" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000149::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000149::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.2">
@@ -32945,7 +32948,7 @@
       </c>
       <c r="M153" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000150::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000150::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.2">
@@ -32977,7 +32980,7 @@
       </c>
       <c r="M154" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000151::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000151::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.2">
@@ -33009,7 +33012,7 @@
       </c>
       <c r="M155" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000152::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000152::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.2">
@@ -33041,7 +33044,7 @@
       </c>
       <c r="M156" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000153::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000153::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.2">
@@ -33073,7 +33076,7 @@
       </c>
       <c r="M157" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000154::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000154::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.2">
@@ -33105,7 +33108,7 @@
       </c>
       <c r="M158" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000155::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000155::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.2">
@@ -33137,7 +33140,7 @@
       </c>
       <c r="M159" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000156::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000156::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.2">
@@ -33173,7 +33176,7 @@
       </c>
       <c r="M160" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000157::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000157::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.2">
@@ -33205,7 +33208,7 @@
       </c>
       <c r="M161" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000158::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000158::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.2">
@@ -33237,7 +33240,7 @@
       </c>
       <c r="M162" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000159::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000159::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.2">
@@ -33269,7 +33272,7 @@
       </c>
       <c r="M163" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000160::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000160::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.2">
@@ -33301,7 +33304,7 @@
       </c>
       <c r="M164" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000161::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000161::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.2">
@@ -33333,7 +33336,7 @@
       </c>
       <c r="M165" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000162::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000162::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.2">
@@ -33365,7 +33368,7 @@
       </c>
       <c r="M166" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000163::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000163::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.2">
@@ -33397,7 +33400,7 @@
       </c>
       <c r="M167" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000164::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000164::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.2">
@@ -33429,7 +33432,7 @@
       </c>
       <c r="M168" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000165::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000165::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.2">
@@ -33461,7 +33464,7 @@
       </c>
       <c r="M169" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000166::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000166::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.2">
@@ -33497,7 +33500,7 @@
       </c>
       <c r="M170" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000167::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000167::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.2">
@@ -33531,7 +33534,7 @@
       </c>
       <c r="M171" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000168::bigint, 163000000000002::bigint, 111000000000007::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000168::bigint, 163000000000002::bigint, 111000000000007::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.2">
@@ -33563,7 +33566,7 @@
       </c>
       <c r="M172" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000169::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000169::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.2">
@@ -33595,7 +33598,7 @@
       </c>
       <c r="M173" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000170::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000170::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.2">
@@ -33627,7 +33630,7 @@
       </c>
       <c r="M174" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000171::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000171::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.2">
@@ -33659,7 +33662,7 @@
       </c>
       <c r="M175" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000172::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000172::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.2">
@@ -33691,7 +33694,7 @@
       </c>
       <c r="M176" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000173::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000173::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.2">
@@ -33723,7 +33726,7 @@
       </c>
       <c r="M177" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000174::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000174::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.2">
@@ -33755,7 +33758,7 @@
       </c>
       <c r="M178" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000175::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000175::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.2">
@@ -33787,7 +33790,7 @@
       </c>
       <c r="M179" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000176::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000176::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.2">
@@ -33819,7 +33822,7 @@
       </c>
       <c r="M180" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000177::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000177::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.2">
@@ -33851,7 +33854,7 @@
       </c>
       <c r="M181" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000178::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000178::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.2">
@@ -33883,7 +33886,7 @@
       </c>
       <c r="M182" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000179::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000179::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.2">
@@ -33915,7 +33918,7 @@
       </c>
       <c r="M183" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000180::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000180::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.2">
@@ -33947,7 +33950,7 @@
       </c>
       <c r="M184" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000181::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000181::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.2">
@@ -33979,7 +33982,7 @@
       </c>
       <c r="M185" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000182::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000182::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.2">
@@ -34011,7 +34014,7 @@
       </c>
       <c r="M186" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000183::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000183::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.2">
@@ -34043,7 +34046,7 @@
       </c>
       <c r="M187" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000184::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000184::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.2">
@@ -34075,7 +34078,7 @@
       </c>
       <c r="M188" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000185::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000185::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.2">
@@ -34107,7 +34110,7 @@
       </c>
       <c r="M189" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000186::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000186::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.2">
@@ -34139,7 +34142,7 @@
       </c>
       <c r="M190" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000187::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000187::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.2">
@@ -34171,7 +34174,7 @@
       </c>
       <c r="M191" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000188::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000188::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.2">
@@ -34203,7 +34206,7 @@
       </c>
       <c r="M192" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000189::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000189::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.2">
@@ -34235,7 +34238,7 @@
       </c>
       <c r="M193" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000190::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000190::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.2">
@@ -34267,7 +34270,7 @@
       </c>
       <c r="M194" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000191::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000191::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.2">
@@ -34299,7 +34302,7 @@
       </c>
       <c r="M195" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000192::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000192::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.2">
@@ -34331,7 +34334,7 @@
       </c>
       <c r="M196" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000193::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000193::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.2">
@@ -34363,8 +34366,9 @@
       </c>
       <c r="M197" s="32" t="str">
         <f t="shared" ref="M197:M260" si="7">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H197, ""), ", null", CONCATENATE(", '", H197, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I197, ""), ", null", CONCATENATE(", '", I197, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B197, ""), ", null", CONCATENATE(", ", B197, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D197, ""), ", null", CONCATENATE(", ", D197, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F197, ""), ", null", CONCATENATE(", ", F197, "")), "::bigint"),
@@ -34373,7 +34377,7 @@
 CONCATENATE(IF(EXACT(I197, ""), ", null", CONCATENATE(", '", I197, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J197, ""), ", null", CONCATENATE(", ", J197, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000194::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000194::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.2">
@@ -34405,7 +34409,7 @@
       </c>
       <c r="M198" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000195::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000195::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.2">
@@ -34441,7 +34445,7 @@
       </c>
       <c r="M199" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000196::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000196::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.2">
@@ -34473,7 +34477,7 @@
       </c>
       <c r="M200" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000197::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000197::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.2">
@@ -34505,7 +34509,7 @@
       </c>
       <c r="M201" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000198::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000198::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.2">
@@ -34537,7 +34541,7 @@
       </c>
       <c r="M202" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000199::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000199::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.2">
@@ -34569,7 +34573,7 @@
       </c>
       <c r="M203" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000200::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000200::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.2">
@@ -34601,7 +34605,7 @@
       </c>
       <c r="M204" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000201::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000201::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.2">
@@ -34633,7 +34637,7 @@
       </c>
       <c r="M205" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000202::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000202::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.2">
@@ -34665,7 +34669,7 @@
       </c>
       <c r="M206" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000203::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000203::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.2">
@@ -34697,7 +34701,7 @@
       </c>
       <c r="M207" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000204::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000204::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="208" spans="2:13" x14ac:dyDescent="0.2">
@@ -34729,7 +34733,7 @@
       </c>
       <c r="M208" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000205::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000205::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="209" spans="2:13" x14ac:dyDescent="0.2">
@@ -34761,7 +34765,7 @@
       </c>
       <c r="M209" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000206::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000206::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="210" spans="2:13" x14ac:dyDescent="0.2">
@@ -34793,7 +34797,7 @@
       </c>
       <c r="M210" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000207::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000207::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="211" spans="2:13" x14ac:dyDescent="0.2">
@@ -34825,7 +34829,7 @@
       </c>
       <c r="M211" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000208::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000208::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="212" spans="2:13" x14ac:dyDescent="0.2">
@@ -34857,7 +34861,7 @@
       </c>
       <c r="M212" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000209::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000209::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="213" spans="2:13" x14ac:dyDescent="0.2">
@@ -34889,7 +34893,7 @@
       </c>
       <c r="M213" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000210::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000210::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="214" spans="2:13" x14ac:dyDescent="0.2">
@@ -34921,7 +34925,7 @@
       </c>
       <c r="M214" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000211::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000211::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="215" spans="2:13" x14ac:dyDescent="0.2">
@@ -34953,7 +34957,7 @@
       </c>
       <c r="M215" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000212::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000212::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="216" spans="2:13" x14ac:dyDescent="0.2">
@@ -34985,7 +34989,7 @@
       </c>
       <c r="M216" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000213::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000213::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="217" spans="2:13" x14ac:dyDescent="0.2">
@@ -35017,7 +35021,7 @@
       </c>
       <c r="M217" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000214::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000214::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="218" spans="2:13" x14ac:dyDescent="0.2">
@@ -35049,7 +35053,7 @@
       </c>
       <c r="M218" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000215::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000215::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="219" spans="2:13" x14ac:dyDescent="0.2">
@@ -35081,7 +35085,7 @@
       </c>
       <c r="M219" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000216::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000216::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="220" spans="2:13" x14ac:dyDescent="0.2">
@@ -35113,7 +35117,7 @@
       </c>
       <c r="M220" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000217::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000217::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="221" spans="2:13" x14ac:dyDescent="0.2">
@@ -35145,7 +35149,7 @@
       </c>
       <c r="M221" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000218::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000218::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="222" spans="2:13" x14ac:dyDescent="0.2">
@@ -35177,7 +35181,7 @@
       </c>
       <c r="M222" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000219::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000219::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="223" spans="2:13" x14ac:dyDescent="0.2">
@@ -35209,7 +35213,7 @@
       </c>
       <c r="M223" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000220::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000220::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="224" spans="2:13" x14ac:dyDescent="0.2">
@@ -35241,7 +35245,7 @@
       </c>
       <c r="M224" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000221::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000221::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.2">
@@ -35273,7 +35277,7 @@
       </c>
       <c r="M225" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000222::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000222::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.2">
@@ -35305,7 +35309,7 @@
       </c>
       <c r="M226" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000223::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000223::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.2">
@@ -35337,7 +35341,7 @@
       </c>
       <c r="M227" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000224::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000224::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.2">
@@ -35369,7 +35373,7 @@
       </c>
       <c r="M228" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000225::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000225::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.2">
@@ -35401,7 +35405,7 @@
       </c>
       <c r="M229" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000226::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000226::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.2">
@@ -35433,7 +35437,7 @@
       </c>
       <c r="M230" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000227::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000227::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="231" spans="2:13" x14ac:dyDescent="0.2">
@@ -35465,7 +35469,7 @@
       </c>
       <c r="M231" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000228::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000228::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.2">
@@ -35497,7 +35501,7 @@
       </c>
       <c r="M232" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000229::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000229::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.2">
@@ -35529,7 +35533,7 @@
       </c>
       <c r="M233" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000230::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000230::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.2">
@@ -35561,7 +35565,7 @@
       </c>
       <c r="M234" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000231::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000231::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.2">
@@ -35597,7 +35601,7 @@
       </c>
       <c r="M235" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000232::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000232::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.2">
@@ -35629,7 +35633,7 @@
       </c>
       <c r="M236" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000233::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000233::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.2">
@@ -35661,7 +35665,7 @@
       </c>
       <c r="M237" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000234::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000234::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.2">
@@ -35693,7 +35697,7 @@
       </c>
       <c r="M238" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000235::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000235::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="239" spans="2:13" x14ac:dyDescent="0.2">
@@ -35725,7 +35729,7 @@
       </c>
       <c r="M239" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000236::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000236::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.2">
@@ -35757,7 +35761,7 @@
       </c>
       <c r="M240" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000237::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000237::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.2">
@@ -35789,7 +35793,7 @@
       </c>
       <c r="M241" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000238::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000238::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.2">
@@ -35821,7 +35825,7 @@
       </c>
       <c r="M242" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000239::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000239::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.2">
@@ -35853,7 +35857,7 @@
       </c>
       <c r="M243" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000240::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000240::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.2">
@@ -35885,7 +35889,7 @@
       </c>
       <c r="M244" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000241::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000241::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.2">
@@ -35917,7 +35921,7 @@
       </c>
       <c r="M245" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000242::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000242::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.2">
@@ -35949,7 +35953,7 @@
       </c>
       <c r="M246" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000243::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000243::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.2">
@@ -35981,7 +35985,7 @@
       </c>
       <c r="M247" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000244::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000244::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.2">
@@ -36013,7 +36017,7 @@
       </c>
       <c r="M248" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000245::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000245::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="249" spans="2:13" x14ac:dyDescent="0.2">
@@ -36045,7 +36049,7 @@
       </c>
       <c r="M249" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000246::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000246::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="250" spans="2:13" x14ac:dyDescent="0.2">
@@ -36077,7 +36081,7 @@
       </c>
       <c r="M250" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000247::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000247::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="251" spans="2:13" x14ac:dyDescent="0.2">
@@ -36109,7 +36113,7 @@
       </c>
       <c r="M251" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000248::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000248::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="252" spans="2:13" x14ac:dyDescent="0.2">
@@ -36141,7 +36145,7 @@
       </c>
       <c r="M252" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000249::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000249::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="253" spans="2:13" x14ac:dyDescent="0.2">
@@ -36173,7 +36177,7 @@
       </c>
       <c r="M253" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000250::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000250::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="254" spans="2:13" x14ac:dyDescent="0.2">
@@ -36205,7 +36209,7 @@
       </c>
       <c r="M254" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000251::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000251::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.2">
@@ -36241,7 +36245,7 @@
       </c>
       <c r="M255" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000252::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000252::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.2">
@@ -36277,7 +36281,7 @@
       </c>
       <c r="M256" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000253::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000253::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="257" spans="2:13" x14ac:dyDescent="0.2">
@@ -36309,7 +36313,7 @@
       </c>
       <c r="M257" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000254::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000254::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="258" spans="2:13" x14ac:dyDescent="0.2">
@@ -36341,7 +36345,7 @@
       </c>
       <c r="M258" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000255::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000255::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="259" spans="2:13" x14ac:dyDescent="0.2">
@@ -36373,7 +36377,7 @@
       </c>
       <c r="M259" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000256::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000256::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="260" spans="2:13" x14ac:dyDescent="0.2">
@@ -36405,7 +36409,7 @@
       </c>
       <c r="M260" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000257::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000257::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="261" spans="2:13" x14ac:dyDescent="0.2">
@@ -36437,8 +36441,9 @@
       </c>
       <c r="M261" s="32" t="str">
         <f t="shared" ref="M261:M324" si="9">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H261, ""), ", null", CONCATENATE(", '", H261, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I261, ""), ", null", CONCATENATE(", '", I261, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B261, ""), ", null", CONCATENATE(", ", B261, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D261, ""), ", null", CONCATENATE(", ", D261, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F261, ""), ", null", CONCATENATE(", ", F261, "")), "::bigint"),
@@ -36447,7 +36452,7 @@
 CONCATENATE(IF(EXACT(I261, ""), ", null", CONCATENATE(", '", I261, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J261, ""), ", null", CONCATENATE(", ", J261, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000258::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000258::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="262" spans="2:13" x14ac:dyDescent="0.2">
@@ -36479,7 +36484,7 @@
       </c>
       <c r="M262" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000259::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000259::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="263" spans="2:13" x14ac:dyDescent="0.2">
@@ -36511,7 +36516,7 @@
       </c>
       <c r="M263" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000260::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000260::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="264" spans="2:13" x14ac:dyDescent="0.2">
@@ -36543,7 +36548,7 @@
       </c>
       <c r="M264" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000261::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000261::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="265" spans="2:13" x14ac:dyDescent="0.2">
@@ -36575,7 +36580,7 @@
       </c>
       <c r="M265" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000262::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000262::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="266" spans="2:13" x14ac:dyDescent="0.2">
@@ -36607,7 +36612,7 @@
       </c>
       <c r="M266" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000263::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000263::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="267" spans="2:13" x14ac:dyDescent="0.2">
@@ -36639,7 +36644,7 @@
       </c>
       <c r="M267" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000264::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000264::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="268" spans="2:13" x14ac:dyDescent="0.2">
@@ -36671,7 +36676,7 @@
       </c>
       <c r="M268" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000265::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000265::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="269" spans="2:13" x14ac:dyDescent="0.2">
@@ -36703,7 +36708,7 @@
       </c>
       <c r="M269" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000266::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000266::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="270" spans="2:13" x14ac:dyDescent="0.2">
@@ -36735,7 +36740,7 @@
       </c>
       <c r="M270" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000267::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000267::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="271" spans="2:13" x14ac:dyDescent="0.2">
@@ -36767,7 +36772,7 @@
       </c>
       <c r="M271" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000268::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000268::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="272" spans="2:13" x14ac:dyDescent="0.2">
@@ -36799,7 +36804,7 @@
       </c>
       <c r="M272" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000269::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000269::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="273" spans="2:13" x14ac:dyDescent="0.2">
@@ -36831,7 +36836,7 @@
       </c>
       <c r="M273" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000270::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000270::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="274" spans="2:13" x14ac:dyDescent="0.2">
@@ -36863,7 +36868,7 @@
       </c>
       <c r="M274" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000271::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000271::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="275" spans="2:13" x14ac:dyDescent="0.2">
@@ -36895,7 +36900,7 @@
       </c>
       <c r="M275" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000272::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000272::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.2">
@@ -36927,7 +36932,7 @@
       </c>
       <c r="M276" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000273::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000273::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.2">
@@ -36959,7 +36964,7 @@
       </c>
       <c r="M277" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000274::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000274::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.2">
@@ -36991,7 +36996,7 @@
       </c>
       <c r="M278" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000275::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000275::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.2">
@@ -37023,7 +37028,7 @@
       </c>
       <c r="M279" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000276::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000276::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="280" spans="2:13" x14ac:dyDescent="0.2">
@@ -37055,7 +37060,7 @@
       </c>
       <c r="M280" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000277::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000277::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.2">
@@ -37087,7 +37092,7 @@
       </c>
       <c r="M281" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000278::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000278::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.2">
@@ -37119,7 +37124,7 @@
       </c>
       <c r="M282" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000279::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000279::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="283" spans="2:13" x14ac:dyDescent="0.2">
@@ -37151,7 +37156,7 @@
       </c>
       <c r="M283" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000280::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000280::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.2">
@@ -37183,7 +37188,7 @@
       </c>
       <c r="M284" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000281::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000281::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.2">
@@ -37215,7 +37220,7 @@
       </c>
       <c r="M285" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000282::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000282::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="286" spans="2:13" x14ac:dyDescent="0.2">
@@ -37247,7 +37252,7 @@
       </c>
       <c r="M286" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000283::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000283::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.2">
@@ -37279,7 +37284,7 @@
       </c>
       <c r="M287" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000284::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000284::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.2">
@@ -37311,7 +37316,7 @@
       </c>
       <c r="M288" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000285::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000285::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="289" spans="2:13" x14ac:dyDescent="0.2">
@@ -37343,7 +37348,7 @@
       </c>
       <c r="M289" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000286::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000286::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="290" spans="2:13" x14ac:dyDescent="0.2">
@@ -37375,7 +37380,7 @@
       </c>
       <c r="M290" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000287::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000287::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="291" spans="2:13" x14ac:dyDescent="0.2">
@@ -37407,7 +37412,7 @@
       </c>
       <c r="M291" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000288::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000288::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.2">
@@ -37439,7 +37444,7 @@
       </c>
       <c r="M292" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000289::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000289::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.2">
@@ -37471,7 +37476,7 @@
       </c>
       <c r="M293" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000290::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000290::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.2">
@@ -37503,7 +37508,7 @@
       </c>
       <c r="M294" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000291::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000291::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.2">
@@ -37535,7 +37540,7 @@
       </c>
       <c r="M295" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000292::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000292::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="296" spans="2:13" x14ac:dyDescent="0.2">
@@ -37567,7 +37572,7 @@
       </c>
       <c r="M296" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000293::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000293::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="297" spans="2:13" x14ac:dyDescent="0.2">
@@ -37599,7 +37604,7 @@
       </c>
       <c r="M297" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000294::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000294::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="298" spans="2:13" x14ac:dyDescent="0.2">
@@ -37631,7 +37636,7 @@
       </c>
       <c r="M298" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000295::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000295::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="299" spans="2:13" x14ac:dyDescent="0.2">
@@ -37663,7 +37668,7 @@
       </c>
       <c r="M299" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000296::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000296::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="300" spans="2:13" x14ac:dyDescent="0.2">
@@ -37695,7 +37700,7 @@
       </c>
       <c r="M300" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000297::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000297::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.2">
@@ -37727,7 +37732,7 @@
       </c>
       <c r="M301" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000298::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000298::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.2">
@@ -37759,7 +37764,7 @@
       </c>
       <c r="M302" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000299::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000299::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.2">
@@ -37791,7 +37796,7 @@
       </c>
       <c r="M303" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000300::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000300::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.2">
@@ -37827,7 +37832,7 @@
       </c>
       <c r="M304" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000301::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000301::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.2">
@@ -37859,7 +37864,7 @@
       </c>
       <c r="M305" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000302::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000302::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.2">
@@ -37891,7 +37896,7 @@
       </c>
       <c r="M306" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000303::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000303::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.2">
@@ -37923,7 +37928,7 @@
       </c>
       <c r="M307" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000304::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000304::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="308" spans="2:13" x14ac:dyDescent="0.2">
@@ -37955,7 +37960,7 @@
       </c>
       <c r="M308" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000305::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000305::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.2">
@@ -37987,7 +37992,7 @@
       </c>
       <c r="M309" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000306::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000306::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.2">
@@ -38019,7 +38024,7 @@
       </c>
       <c r="M310" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000307::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000307::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.2">
@@ -38051,7 +38056,7 @@
       </c>
       <c r="M311" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000308::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000308::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="312" spans="2:13" x14ac:dyDescent="0.2">
@@ -38083,7 +38088,7 @@
       </c>
       <c r="M312" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000309::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000309::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="313" spans="2:13" x14ac:dyDescent="0.2">
@@ -38115,7 +38120,7 @@
       </c>
       <c r="M313" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000310::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000310::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="314" spans="2:13" x14ac:dyDescent="0.2">
@@ -38147,7 +38152,7 @@
       </c>
       <c r="M314" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000311::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000311::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="315" spans="2:13" x14ac:dyDescent="0.2">
@@ -38179,7 +38184,7 @@
       </c>
       <c r="M315" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000312::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000312::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="316" spans="2:13" x14ac:dyDescent="0.2">
@@ -38211,7 +38216,7 @@
       </c>
       <c r="M316" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000313::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000313::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="317" spans="2:13" x14ac:dyDescent="0.2">
@@ -38243,7 +38248,7 @@
       </c>
       <c r="M317" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000314::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000314::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.2">
@@ -38275,7 +38280,7 @@
       </c>
       <c r="M318" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000315::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000315::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.2">
@@ -38307,7 +38312,7 @@
       </c>
       <c r="M319" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000316::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000316::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.2">
@@ -38339,7 +38344,7 @@
       </c>
       <c r="M320" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000317::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000317::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.2">
@@ -38371,7 +38376,7 @@
       </c>
       <c r="M321" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000318::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000318::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.2">
@@ -38403,7 +38408,7 @@
       </c>
       <c r="M322" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000319::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000319::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.2">
@@ -38435,7 +38440,7 @@
       </c>
       <c r="M323" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000320::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000320::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.2">
@@ -38467,7 +38472,7 @@
       </c>
       <c r="M324" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000321::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000321::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.2">
@@ -38499,8 +38504,9 @@
       </c>
       <c r="M325" s="32" t="str">
         <f t="shared" ref="M325:M388" si="11">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H325, ""), ", null", CONCATENATE(", '", H325, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I325, ""), ", null", CONCATENATE(", '", I325, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B325, ""), ", null", CONCATENATE(", ", B325, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D325, ""), ", null", CONCATENATE(", ", D325, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F325, ""), ", null", CONCATENATE(", ", F325, "")), "::bigint"),
@@ -38509,7 +38515,7 @@
 CONCATENATE(IF(EXACT(I325, ""), ", null", CONCATENATE(", '", I325, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J325, ""), ", null", CONCATENATE(", ", J325, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000322::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000322::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="326" spans="2:13" x14ac:dyDescent="0.2">
@@ -38541,7 +38547,7 @@
       </c>
       <c r="M326" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000323::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000323::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.2">
@@ -38573,7 +38579,7 @@
       </c>
       <c r="M327" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000324::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000324::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.2">
@@ -38605,7 +38611,7 @@
       </c>
       <c r="M328" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000325::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000325::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.2">
@@ -38637,7 +38643,7 @@
       </c>
       <c r="M329" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000326::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000326::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.2">
@@ -38669,7 +38675,7 @@
       </c>
       <c r="M330" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000327::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000327::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="331" spans="2:13" x14ac:dyDescent="0.2">
@@ -38701,7 +38707,7 @@
       </c>
       <c r="M331" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000328::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000328::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="332" spans="2:13" x14ac:dyDescent="0.2">
@@ -38733,7 +38739,7 @@
       </c>
       <c r="M332" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000329::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000329::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="333" spans="2:13" x14ac:dyDescent="0.2">
@@ -38765,7 +38771,7 @@
       </c>
       <c r="M333" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000330::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000330::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="334" spans="2:13" x14ac:dyDescent="0.2">
@@ -38797,7 +38803,7 @@
       </c>
       <c r="M334" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000331::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000331::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="335" spans="2:13" x14ac:dyDescent="0.2">
@@ -38829,7 +38835,7 @@
       </c>
       <c r="M335" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000332::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000332::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="336" spans="2:13" x14ac:dyDescent="0.2">
@@ -38861,7 +38867,7 @@
       </c>
       <c r="M336" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000333::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000333::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="337" spans="2:13" x14ac:dyDescent="0.2">
@@ -38893,7 +38899,7 @@
       </c>
       <c r="M337" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000334::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000334::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="338" spans="2:13" x14ac:dyDescent="0.2">
@@ -38925,7 +38931,7 @@
       </c>
       <c r="M338" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000335::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000335::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="339" spans="2:13" x14ac:dyDescent="0.2">
@@ -38957,7 +38963,7 @@
       </c>
       <c r="M339" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000336::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000336::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="340" spans="2:13" x14ac:dyDescent="0.2">
@@ -38989,7 +38995,7 @@
       </c>
       <c r="M340" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000337::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000337::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="341" spans="2:13" x14ac:dyDescent="0.2">
@@ -39021,7 +39027,7 @@
       </c>
       <c r="M341" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000338::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000338::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="342" spans="2:13" x14ac:dyDescent="0.2">
@@ -39053,7 +39059,7 @@
       </c>
       <c r="M342" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000339::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000339::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="343" spans="2:13" x14ac:dyDescent="0.2">
@@ -39085,7 +39091,7 @@
       </c>
       <c r="M343" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000340::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000340::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="344" spans="2:13" x14ac:dyDescent="0.2">
@@ -39117,7 +39123,7 @@
       </c>
       <c r="M344" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000341::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000341::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="345" spans="2:13" x14ac:dyDescent="0.2">
@@ -39149,7 +39155,7 @@
       </c>
       <c r="M345" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000342::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000342::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="346" spans="2:13" x14ac:dyDescent="0.2">
@@ -39181,7 +39187,7 @@
       </c>
       <c r="M346" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000343::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000343::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="347" spans="2:13" x14ac:dyDescent="0.2">
@@ -39213,7 +39219,7 @@
       </c>
       <c r="M347" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000344::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000344::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="348" spans="2:13" x14ac:dyDescent="0.2">
@@ -39243,7 +39249,7 @@
       </c>
       <c r="M348" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000345::bigint, null::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000345::bigint, null::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="349" spans="2:13" x14ac:dyDescent="0.2">
@@ -39275,7 +39281,7 @@
       </c>
       <c r="M349" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000346::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000346::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="350" spans="2:13" x14ac:dyDescent="0.2">
@@ -39309,7 +39315,7 @@
       </c>
       <c r="M350" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000347::bigint, 163000000000002::bigint, null::bigint, 160000000000005::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000347::bigint, 163000000000002::bigint, null::bigint, 160000000000005::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="351" spans="2:13" x14ac:dyDescent="0.2">
@@ -39341,7 +39347,7 @@
       </c>
       <c r="M351" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000348::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000348::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="352" spans="2:13" x14ac:dyDescent="0.2">
@@ -39373,7 +39379,7 @@
       </c>
       <c r="M352" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000349::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000349::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="353" spans="2:13" x14ac:dyDescent="0.2">
@@ -39405,7 +39411,7 @@
       </c>
       <c r="M353" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000350::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000350::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="354" spans="2:13" x14ac:dyDescent="0.2">
@@ -39437,7 +39443,7 @@
       </c>
       <c r="M354" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000351::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000351::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="355" spans="2:13" x14ac:dyDescent="0.2">
@@ -39469,7 +39475,7 @@
       </c>
       <c r="M355" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000352::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000352::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="356" spans="2:13" x14ac:dyDescent="0.2">
@@ -39501,7 +39507,7 @@
       </c>
       <c r="M356" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000353::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000353::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="357" spans="2:13" x14ac:dyDescent="0.2">
@@ -39533,7 +39539,7 @@
       </c>
       <c r="M357" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000354::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000354::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="358" spans="2:13" x14ac:dyDescent="0.2">
@@ -39565,7 +39571,7 @@
       </c>
       <c r="M358" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000355::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000355::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="359" spans="2:13" x14ac:dyDescent="0.2">
@@ -39597,7 +39603,7 @@
       </c>
       <c r="M359" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000356::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000356::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="360" spans="2:13" x14ac:dyDescent="0.2">
@@ -39629,7 +39635,7 @@
       </c>
       <c r="M360" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000357::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000357::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="361" spans="2:13" x14ac:dyDescent="0.2">
@@ -39661,7 +39667,7 @@
       </c>
       <c r="M361" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000358::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000358::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="362" spans="2:13" x14ac:dyDescent="0.2">
@@ -39693,7 +39699,7 @@
       </c>
       <c r="M362" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000359::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000359::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="363" spans="2:13" x14ac:dyDescent="0.2">
@@ -39725,7 +39731,7 @@
       </c>
       <c r="M363" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000360::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000360::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="364" spans="2:13" x14ac:dyDescent="0.2">
@@ -39757,7 +39763,7 @@
       </c>
       <c r="M364" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000361::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000361::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="365" spans="2:13" x14ac:dyDescent="0.2">
@@ -39789,7 +39795,7 @@
       </c>
       <c r="M365" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000362::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000362::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="366" spans="2:13" x14ac:dyDescent="0.2">
@@ -39821,7 +39827,7 @@
       </c>
       <c r="M366" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000363::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000363::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="367" spans="2:13" x14ac:dyDescent="0.2">
@@ -39853,7 +39859,7 @@
       </c>
       <c r="M367" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000364::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000364::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="368" spans="2:13" x14ac:dyDescent="0.2">
@@ -39885,7 +39891,7 @@
       </c>
       <c r="M368" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000365::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000365::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="369" spans="2:13" x14ac:dyDescent="0.2">
@@ -39917,7 +39923,7 @@
       </c>
       <c r="M369" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000366::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000366::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="370" spans="2:13" x14ac:dyDescent="0.2">
@@ -39949,7 +39955,7 @@
       </c>
       <c r="M370" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000367::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000367::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="371" spans="2:13" x14ac:dyDescent="0.2">
@@ -39981,7 +39987,7 @@
       </c>
       <c r="M371" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000368::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000368::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="372" spans="2:13" x14ac:dyDescent="0.2">
@@ -40013,7 +40019,7 @@
       </c>
       <c r="M372" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000369::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000369::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="373" spans="2:13" x14ac:dyDescent="0.2">
@@ -40045,7 +40051,7 @@
       </c>
       <c r="M373" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000370::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000370::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="374" spans="2:13" x14ac:dyDescent="0.2">
@@ -40077,7 +40083,7 @@
       </c>
       <c r="M374" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000371::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000371::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="375" spans="2:13" x14ac:dyDescent="0.2">
@@ -40109,7 +40115,7 @@
       </c>
       <c r="M375" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000372::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000372::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="376" spans="2:13" x14ac:dyDescent="0.2">
@@ -40141,7 +40147,7 @@
       </c>
       <c r="M376" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000373::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000373::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="377" spans="2:13" x14ac:dyDescent="0.2">
@@ -40173,7 +40179,7 @@
       </c>
       <c r="M377" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000374::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000374::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="378" spans="2:13" x14ac:dyDescent="0.2">
@@ -40205,7 +40211,7 @@
       </c>
       <c r="M378" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000375::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000375::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="379" spans="2:13" x14ac:dyDescent="0.2">
@@ -40237,7 +40243,7 @@
       </c>
       <c r="M379" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000376::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000376::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="380" spans="2:13" x14ac:dyDescent="0.2">
@@ -40269,7 +40275,7 @@
       </c>
       <c r="M380" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000377::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000377::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="381" spans="2:13" x14ac:dyDescent="0.2">
@@ -40301,7 +40307,7 @@
       </c>
       <c r="M381" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000378::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000378::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="382" spans="2:13" x14ac:dyDescent="0.2">
@@ -40333,7 +40339,7 @@
       </c>
       <c r="M382" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000379::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000379::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="383" spans="2:13" x14ac:dyDescent="0.2">
@@ -40365,7 +40371,7 @@
       </c>
       <c r="M383" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000380::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000380::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="384" spans="2:13" x14ac:dyDescent="0.2">
@@ -40397,7 +40403,7 @@
       </c>
       <c r="M384" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000381::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000381::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="385" spans="2:13" x14ac:dyDescent="0.2">
@@ -40429,7 +40435,7 @@
       </c>
       <c r="M385" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000382::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000382::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="386" spans="2:13" x14ac:dyDescent="0.2">
@@ -40461,7 +40467,7 @@
       </c>
       <c r="M386" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000383::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000383::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="387" spans="2:13" x14ac:dyDescent="0.2">
@@ -40493,7 +40499,7 @@
       </c>
       <c r="M387" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000384::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000384::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="388" spans="2:13" x14ac:dyDescent="0.2">
@@ -40525,7 +40531,7 @@
       </c>
       <c r="M388" s="32" t="str">
         <f t="shared" si="11"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000385::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000385::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="389" spans="2:13" x14ac:dyDescent="0.2">
@@ -40557,8 +40563,9 @@
       </c>
       <c r="M389" s="32" t="str">
         <f t="shared" ref="M389:M452" si="13">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H389, ""), ", null", CONCATENATE(", '", H389, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I389, ""), ", null", CONCATENATE(", '", I389, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B389, ""), ", null", CONCATENATE(", ", B389, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D389, ""), ", null", CONCATENATE(", ", D389, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F389, ""), ", null", CONCATENATE(", ", F389, "")), "::bigint"),
@@ -40567,7 +40574,7 @@
 CONCATENATE(IF(EXACT(I389, ""), ", null", CONCATENATE(", '", I389, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J389, ""), ", null", CONCATENATE(", ", J389, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000386::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000386::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="390" spans="2:13" x14ac:dyDescent="0.2">
@@ -40599,7 +40606,7 @@
       </c>
       <c r="M390" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000387::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000387::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="391" spans="2:13" x14ac:dyDescent="0.2">
@@ -40631,7 +40638,7 @@
       </c>
       <c r="M391" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000388::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000388::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="392" spans="2:13" x14ac:dyDescent="0.2">
@@ -40663,7 +40670,7 @@
       </c>
       <c r="M392" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000389::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000389::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="393" spans="2:13" x14ac:dyDescent="0.2">
@@ -40695,7 +40702,7 @@
       </c>
       <c r="M393" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000390::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000390::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="394" spans="2:13" x14ac:dyDescent="0.2">
@@ -40731,7 +40738,7 @@
       </c>
       <c r="M394" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000391::bigint, 163000000000001::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000391::bigint, 163000000000001::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="395" spans="2:13" x14ac:dyDescent="0.2">
@@ -40763,7 +40770,7 @@
       </c>
       <c r="M395" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000392::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000392::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="396" spans="2:13" x14ac:dyDescent="0.2">
@@ -40795,7 +40802,7 @@
       </c>
       <c r="M396" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000393::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000393::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="397" spans="2:13" x14ac:dyDescent="0.2">
@@ -40827,7 +40834,7 @@
       </c>
       <c r="M397" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000394::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000394::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="398" spans="2:13" x14ac:dyDescent="0.2">
@@ -40859,7 +40866,7 @@
       </c>
       <c r="M398" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000395::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000395::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="399" spans="2:13" x14ac:dyDescent="0.2">
@@ -40891,7 +40898,7 @@
       </c>
       <c r="M399" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000396::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000396::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="400" spans="2:13" x14ac:dyDescent="0.2">
@@ -40927,7 +40934,7 @@
       </c>
       <c r="M400" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000397::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000397::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="401" spans="2:13" x14ac:dyDescent="0.2">
@@ -40959,7 +40966,7 @@
       </c>
       <c r="M401" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000398::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000398::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="402" spans="2:13" x14ac:dyDescent="0.2">
@@ -40991,7 +40998,7 @@
       </c>
       <c r="M402" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000399::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000399::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="403" spans="2:13" x14ac:dyDescent="0.2">
@@ -41023,7 +41030,7 @@
       </c>
       <c r="M403" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000400::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000400::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="404" spans="2:13" x14ac:dyDescent="0.2">
@@ -41055,7 +41062,7 @@
       </c>
       <c r="M404" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000401::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000401::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="405" spans="2:13" x14ac:dyDescent="0.2">
@@ -41087,7 +41094,7 @@
       </c>
       <c r="M405" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000402::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000402::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="406" spans="2:13" x14ac:dyDescent="0.2">
@@ -41119,7 +41126,7 @@
       </c>
       <c r="M406" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000403::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000403::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="407" spans="2:13" x14ac:dyDescent="0.2">
@@ -41151,7 +41158,7 @@
       </c>
       <c r="M407" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000404::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000404::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="408" spans="2:13" x14ac:dyDescent="0.2">
@@ -41183,7 +41190,7 @@
       </c>
       <c r="M408" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000405::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000405::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="409" spans="2:13" x14ac:dyDescent="0.2">
@@ -41215,7 +41222,7 @@
       </c>
       <c r="M409" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000406::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000406::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="410" spans="2:13" x14ac:dyDescent="0.2">
@@ -41247,7 +41254,7 @@
       </c>
       <c r="M410" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000407::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000407::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="411" spans="2:13" x14ac:dyDescent="0.2">
@@ -41279,7 +41286,7 @@
       </c>
       <c r="M411" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000408::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000408::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="412" spans="2:13" x14ac:dyDescent="0.2">
@@ -41311,7 +41318,7 @@
       </c>
       <c r="M412" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000409::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000409::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="413" spans="2:13" x14ac:dyDescent="0.2">
@@ -41343,7 +41350,7 @@
       </c>
       <c r="M413" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000410::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000410::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="414" spans="2:13" x14ac:dyDescent="0.2">
@@ -41375,7 +41382,7 @@
       </c>
       <c r="M414" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000411::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000411::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="415" spans="2:13" x14ac:dyDescent="0.2">
@@ -41407,7 +41414,7 @@
       </c>
       <c r="M415" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000412::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000412::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="416" spans="2:13" x14ac:dyDescent="0.2">
@@ -41443,7 +41450,7 @@
       </c>
       <c r="M416" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000413::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000413::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="417" spans="2:13" x14ac:dyDescent="0.2">
@@ -41475,7 +41482,7 @@
       </c>
       <c r="M417" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000414::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000414::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="418" spans="2:13" x14ac:dyDescent="0.2">
@@ -41507,7 +41514,7 @@
       </c>
       <c r="M418" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000415::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000415::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="419" spans="2:13" x14ac:dyDescent="0.2">
@@ -41539,7 +41546,7 @@
       </c>
       <c r="M419" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000416::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000416::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="420" spans="2:13" x14ac:dyDescent="0.2">
@@ -41571,7 +41578,7 @@
       </c>
       <c r="M420" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000417::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000417::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="421" spans="2:13" x14ac:dyDescent="0.2">
@@ -41603,7 +41610,7 @@
       </c>
       <c r="M421" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000418::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000418::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="422" spans="2:13" x14ac:dyDescent="0.2">
@@ -41635,7 +41642,7 @@
       </c>
       <c r="M422" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000419::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000419::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="423" spans="2:13" x14ac:dyDescent="0.2">
@@ -41667,7 +41674,7 @@
       </c>
       <c r="M423" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000420::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000420::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="424" spans="2:13" x14ac:dyDescent="0.2">
@@ -41699,7 +41706,7 @@
       </c>
       <c r="M424" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000421::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000421::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="425" spans="2:13" x14ac:dyDescent="0.2">
@@ -41731,7 +41738,7 @@
       </c>
       <c r="M425" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000422::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000422::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="426" spans="2:13" x14ac:dyDescent="0.2">
@@ -41763,7 +41770,7 @@
       </c>
       <c r="M426" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000423::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000423::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="427" spans="2:13" x14ac:dyDescent="0.2">
@@ -41795,7 +41802,7 @@
       </c>
       <c r="M427" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000424::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000424::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="428" spans="2:13" x14ac:dyDescent="0.2">
@@ -41827,7 +41834,7 @@
       </c>
       <c r="M428" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000425::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000425::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="429" spans="2:13" x14ac:dyDescent="0.2">
@@ -41859,7 +41866,7 @@
       </c>
       <c r="M429" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000426::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000426::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="430" spans="2:13" x14ac:dyDescent="0.2">
@@ -41891,7 +41898,7 @@
       </c>
       <c r="M430" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000427::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000427::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="431" spans="2:13" x14ac:dyDescent="0.2">
@@ -41927,7 +41934,7 @@
       </c>
       <c r="M431" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000428::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000428::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="432" spans="2:13" x14ac:dyDescent="0.2">
@@ -41959,7 +41966,7 @@
       </c>
       <c r="M432" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000429::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000429::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="433" spans="2:13" x14ac:dyDescent="0.2">
@@ -41991,7 +41998,7 @@
       </c>
       <c r="M433" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000430::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000430::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="434" spans="2:13" x14ac:dyDescent="0.2">
@@ -42023,7 +42030,7 @@
       </c>
       <c r="M434" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000431::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000431::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="435" spans="2:13" x14ac:dyDescent="0.2">
@@ -42055,7 +42062,7 @@
       </c>
       <c r="M435" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000432::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000432::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="436" spans="2:13" x14ac:dyDescent="0.2">
@@ -42087,7 +42094,7 @@
       </c>
       <c r="M436" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000433::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000433::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="437" spans="2:13" x14ac:dyDescent="0.2">
@@ -42121,7 +42128,7 @@
       </c>
       <c r="M437" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '2023-02-11 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000434::bigint, 163000000000002::bigint, null::bigint, null::bigint, '2003-7-7 00:00:00+07'::timestamptz, '2023-02-11 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '2003-7-7 00:00:00+07'::timestamptz, '2023-02-11 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000434::bigint, 163000000000002::bigint, null::bigint, null::bigint, '2003-7-7 00:00:00+07'::timestamptz, '2023-02-11 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="438" spans="2:13" x14ac:dyDescent="0.2">
@@ -42153,7 +42160,7 @@
       </c>
       <c r="M438" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000435::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000435::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="439" spans="2:13" x14ac:dyDescent="0.2">
@@ -42185,7 +42192,7 @@
       </c>
       <c r="M439" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000436::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000436::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="440" spans="2:13" x14ac:dyDescent="0.2">
@@ -42217,7 +42224,7 @@
       </c>
       <c r="M440" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000437::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000437::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="441" spans="2:13" x14ac:dyDescent="0.2">
@@ -42249,7 +42256,7 @@
       </c>
       <c r="M441" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000438::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000438::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="442" spans="2:13" x14ac:dyDescent="0.2">
@@ -42285,7 +42292,7 @@
       </c>
       <c r="M442" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000439::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000439::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="443" spans="2:13" x14ac:dyDescent="0.2">
@@ -42317,7 +42324,7 @@
       </c>
       <c r="M443" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000440::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000440::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="444" spans="2:13" x14ac:dyDescent="0.2">
@@ -42349,7 +42356,7 @@
       </c>
       <c r="M444" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000441::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000441::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="445" spans="2:13" x14ac:dyDescent="0.2">
@@ -42381,7 +42388,7 @@
       </c>
       <c r="M445" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000442::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000442::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="446" spans="2:13" x14ac:dyDescent="0.2">
@@ -42413,7 +42420,7 @@
       </c>
       <c r="M446" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000443::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000443::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="447" spans="2:13" x14ac:dyDescent="0.2">
@@ -42445,7 +42452,7 @@
       </c>
       <c r="M447" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000444::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000444::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="448" spans="2:13" x14ac:dyDescent="0.2">
@@ -42477,7 +42484,7 @@
       </c>
       <c r="M448" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000445::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000445::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="449" spans="2:13" x14ac:dyDescent="0.2">
@@ -42509,7 +42516,7 @@
       </c>
       <c r="M449" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000446::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000446::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="450" spans="2:13" x14ac:dyDescent="0.2">
@@ -42541,7 +42548,7 @@
       </c>
       <c r="M450" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000447::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000447::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="451" spans="2:13" x14ac:dyDescent="0.2">
@@ -42573,7 +42580,7 @@
       </c>
       <c r="M451" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000448::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000448::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="452" spans="2:13" x14ac:dyDescent="0.2">
@@ -42605,7 +42612,7 @@
       </c>
       <c r="M452" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000449::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000449::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="453" spans="2:13" x14ac:dyDescent="0.2">
@@ -42637,8 +42644,9 @@
       </c>
       <c r="M453" s="32" t="str">
         <f t="shared" ref="M453:M516" si="15">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H453, ""), ", null", CONCATENATE(", '", H453, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I453, ""), ", null", CONCATENATE(", '", I453, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B453, ""), ", null", CONCATENATE(", ", B453, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D453, ""), ", null", CONCATENATE(", ", D453, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F453, ""), ", null", CONCATENATE(", ", F453, "")), "::bigint"),
@@ -42647,7 +42655,7 @@
 CONCATENATE(IF(EXACT(I453, ""), ", null", CONCATENATE(", '", I453, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J453, ""), ", null", CONCATENATE(", ", J453, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000450::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000450::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="454" spans="2:13" x14ac:dyDescent="0.2">
@@ -42679,7 +42687,7 @@
       </c>
       <c r="M454" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000451::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000451::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="455" spans="2:13" x14ac:dyDescent="0.2">
@@ -42715,7 +42723,7 @@
       </c>
       <c r="M455" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000452::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000452::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="456" spans="2:13" x14ac:dyDescent="0.2">
@@ -42747,7 +42755,7 @@
       </c>
       <c r="M456" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000453::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000453::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="457" spans="2:13" x14ac:dyDescent="0.2">
@@ -42779,7 +42787,7 @@
       </c>
       <c r="M457" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000454::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000454::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="458" spans="2:13" x14ac:dyDescent="0.2">
@@ -42811,7 +42819,7 @@
       </c>
       <c r="M458" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000455::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000455::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="459" spans="2:13" x14ac:dyDescent="0.2">
@@ -42843,7 +42851,7 @@
       </c>
       <c r="M459" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000456::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000456::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="460" spans="2:13" x14ac:dyDescent="0.2">
@@ -42875,7 +42883,7 @@
       </c>
       <c r="M460" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000457::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000457::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="461" spans="2:13" x14ac:dyDescent="0.2">
@@ -42907,7 +42915,7 @@
       </c>
       <c r="M461" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000458::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000458::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="462" spans="2:13" x14ac:dyDescent="0.2">
@@ -42939,7 +42947,7 @@
       </c>
       <c r="M462" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000459::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000459::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="463" spans="2:13" x14ac:dyDescent="0.2">
@@ -42971,7 +42979,7 @@
       </c>
       <c r="M463" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000460::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000460::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="464" spans="2:13" x14ac:dyDescent="0.2">
@@ -43003,7 +43011,7 @@
       </c>
       <c r="M464" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000461::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000461::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="465" spans="2:13" x14ac:dyDescent="0.2">
@@ -43035,7 +43043,7 @@
       </c>
       <c r="M465" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000462::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000462::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="466" spans="2:13" x14ac:dyDescent="0.2">
@@ -43067,7 +43075,7 @@
       </c>
       <c r="M466" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000463::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000463::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="467" spans="2:13" x14ac:dyDescent="0.2">
@@ -43099,7 +43107,7 @@
       </c>
       <c r="M467" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000464::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000464::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="468" spans="2:13" x14ac:dyDescent="0.2">
@@ -43131,7 +43139,7 @@
       </c>
       <c r="M468" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000465::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000465::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="469" spans="2:13" x14ac:dyDescent="0.2">
@@ -43163,7 +43171,7 @@
       </c>
       <c r="M469" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000466::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000466::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="470" spans="2:13" x14ac:dyDescent="0.2">
@@ -43195,7 +43203,7 @@
       </c>
       <c r="M470" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000467::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000467::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="471" spans="2:13" x14ac:dyDescent="0.2">
@@ -43227,7 +43235,7 @@
       </c>
       <c r="M471" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000468::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000468::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="472" spans="2:13" x14ac:dyDescent="0.2">
@@ -43259,7 +43267,7 @@
       </c>
       <c r="M472" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000469::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000469::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="473" spans="2:13" x14ac:dyDescent="0.2">
@@ -43291,7 +43299,7 @@
       </c>
       <c r="M473" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000470::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000470::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="474" spans="2:13" x14ac:dyDescent="0.2">
@@ -43323,7 +43331,7 @@
       </c>
       <c r="M474" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000471::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000471::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="475" spans="2:13" x14ac:dyDescent="0.2">
@@ -43355,7 +43363,7 @@
       </c>
       <c r="M475" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000472::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000472::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="476" spans="2:13" x14ac:dyDescent="0.2">
@@ -43387,7 +43395,7 @@
       </c>
       <c r="M476" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000473::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000473::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="477" spans="2:13" x14ac:dyDescent="0.2">
@@ -43419,7 +43427,7 @@
       </c>
       <c r="M477" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000474::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000474::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="478" spans="2:13" x14ac:dyDescent="0.2">
@@ -43451,7 +43459,7 @@
       </c>
       <c r="M478" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000475::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000475::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="479" spans="2:13" x14ac:dyDescent="0.2">
@@ -43483,7 +43491,7 @@
       </c>
       <c r="M479" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000476::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000476::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="480" spans="2:13" x14ac:dyDescent="0.2">
@@ -43515,7 +43523,7 @@
       </c>
       <c r="M480" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000477::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000477::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="481" spans="2:13" x14ac:dyDescent="0.2">
@@ -43547,7 +43555,7 @@
       </c>
       <c r="M481" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000478::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000478::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="482" spans="2:13" x14ac:dyDescent="0.2">
@@ -43579,7 +43587,7 @@
       </c>
       <c r="M482" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000479::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000479::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="483" spans="2:13" x14ac:dyDescent="0.2">
@@ -43611,7 +43619,7 @@
       </c>
       <c r="M483" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000480::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000480::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="484" spans="2:13" x14ac:dyDescent="0.2">
@@ -43643,7 +43651,7 @@
       </c>
       <c r="M484" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000481::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000481::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="485" spans="2:13" x14ac:dyDescent="0.2">
@@ -43675,7 +43683,7 @@
       </c>
       <c r="M485" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000482::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000482::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="486" spans="2:13" x14ac:dyDescent="0.2">
@@ -43707,7 +43715,7 @@
       </c>
       <c r="M486" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000483::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000483::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="487" spans="2:13" x14ac:dyDescent="0.2">
@@ -43739,7 +43747,7 @@
       </c>
       <c r="M487" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000484::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000484::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="488" spans="2:13" x14ac:dyDescent="0.2">
@@ -43771,7 +43779,7 @@
       </c>
       <c r="M488" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000485::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000485::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="489" spans="2:13" x14ac:dyDescent="0.2">
@@ -43803,7 +43811,7 @@
       </c>
       <c r="M489" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000486::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000486::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="490" spans="2:13" x14ac:dyDescent="0.2">
@@ -43837,7 +43845,7 @@
       </c>
       <c r="M490" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000487::bigint, 163000000000002::bigint, 111000000000004::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000487::bigint, 163000000000002::bigint, 111000000000004::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="491" spans="2:13" x14ac:dyDescent="0.2">
@@ -43869,7 +43877,7 @@
       </c>
       <c r="M491" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000488::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000488::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="492" spans="2:13" x14ac:dyDescent="0.2">
@@ -43901,7 +43909,7 @@
       </c>
       <c r="M492" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000489::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000489::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="493" spans="2:13" x14ac:dyDescent="0.2">
@@ -43933,7 +43941,7 @@
       </c>
       <c r="M493" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000490::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000490::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="494" spans="2:13" x14ac:dyDescent="0.2">
@@ -43965,7 +43973,7 @@
       </c>
       <c r="M494" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000491::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000491::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="495" spans="2:13" x14ac:dyDescent="0.2">
@@ -43997,7 +44005,7 @@
       </c>
       <c r="M495" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000492::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000492::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="496" spans="2:13" x14ac:dyDescent="0.2">
@@ -44029,7 +44037,7 @@
       </c>
       <c r="M496" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000493::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000493::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.2">
@@ -44061,7 +44069,7 @@
       </c>
       <c r="M497" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000494::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000494::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.2">
@@ -44093,7 +44101,7 @@
       </c>
       <c r="M498" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000495::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000495::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.2">
@@ -44125,7 +44133,7 @@
       </c>
       <c r="M499" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000496::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000496::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.2">
@@ -44161,7 +44169,7 @@
       </c>
       <c r="M500" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000497::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000497::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.2">
@@ -44193,7 +44201,7 @@
       </c>
       <c r="M501" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000498::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000498::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.2">
@@ -44225,7 +44233,7 @@
       </c>
       <c r="M502" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000499::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000499::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.2">
@@ -44257,7 +44265,7 @@
       </c>
       <c r="M503" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000500::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000500::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.2">
@@ -44289,7 +44297,7 @@
       </c>
       <c r="M504" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000501::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000501::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.2">
@@ -44324,7 +44332,7 @@
       </c>
       <c r="M505" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000502::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000502::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.2">
@@ -44356,7 +44364,7 @@
       </c>
       <c r="M506" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000503::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000503::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.2">
@@ -44388,7 +44396,7 @@
       </c>
       <c r="M507" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000504::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000504::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.2">
@@ -44420,7 +44428,7 @@
       </c>
       <c r="M508" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000505::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000505::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.2">
@@ -44452,7 +44460,7 @@
       </c>
       <c r="M509" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000506::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000506::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.2">
@@ -44484,7 +44492,7 @@
       </c>
       <c r="M510" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000507::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000507::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.2">
@@ -44516,7 +44524,7 @@
       </c>
       <c r="M511" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000508::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000508::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.2">
@@ -44548,7 +44556,7 @@
       </c>
       <c r="M512" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000509::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000509::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.2">
@@ -44580,7 +44588,7 @@
       </c>
       <c r="M513" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000510::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000510::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.2">
@@ -44612,7 +44620,7 @@
       </c>
       <c r="M514" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000511::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000511::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.2">
@@ -44649,7 +44657,7 @@
       </c>
       <c r="M515" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000512::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000512::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.2">
@@ -44683,7 +44691,7 @@
       </c>
       <c r="M516" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000513::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000513::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.2">
@@ -44717,8 +44725,9 @@
       </c>
       <c r="M517" s="32" t="str">
         <f t="shared" ref="M517:M580" si="17">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H517, ""), ", null", CONCATENATE(", '", H517, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I517, ""), ", null", CONCATENATE(", '", I517, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B517, ""), ", null", CONCATENATE(", ", B517, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D517, ""), ", null", CONCATENATE(", ", D517, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F517, ""), ", null", CONCATENATE(", ", F517, "")), "::bigint"),
@@ -44727,7 +44736,7 @@
 CONCATENATE(IF(EXACT(I517, ""), ", null", CONCATENATE(", '", I517, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J517, ""), ", null", CONCATENATE(", ", J517, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000514::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000514::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.2">
@@ -44761,7 +44770,7 @@
       </c>
       <c r="M518" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000515::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000515::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.2">
@@ -44795,7 +44804,7 @@
       </c>
       <c r="M519" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000516::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000516::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.2">
@@ -44829,7 +44838,7 @@
       </c>
       <c r="M520" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000517::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000517::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.2">
@@ -44863,7 +44872,7 @@
       </c>
       <c r="M521" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000518::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000518::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.2">
@@ -44897,7 +44906,7 @@
       </c>
       <c r="M522" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000519::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000519::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.2">
@@ -44931,7 +44940,7 @@
       </c>
       <c r="M523" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000520::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000520::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.2">
@@ -44967,7 +44976,7 @@
       </c>
       <c r="M524" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000521::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000521::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.2">
@@ -45003,7 +45012,7 @@
       </c>
       <c r="M525" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000522::bigint, 163000000000002::bigint, 111000000000012::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000522::bigint, 163000000000002::bigint, 111000000000012::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.2">
@@ -45037,7 +45046,7 @@
       </c>
       <c r="M526" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000523::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000523::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.2">
@@ -45071,7 +45080,7 @@
       </c>
       <c r="M527" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000524::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000524::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.2">
@@ -45105,7 +45114,7 @@
       </c>
       <c r="M528" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000525::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000525::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="529" spans="2:13" x14ac:dyDescent="0.2">
@@ -45139,7 +45148,7 @@
       </c>
       <c r="M529" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000526::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000526::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="530" spans="2:13" x14ac:dyDescent="0.2">
@@ -45175,7 +45184,7 @@
       </c>
       <c r="M530" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000527::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000527::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="531" spans="2:13" x14ac:dyDescent="0.2">
@@ -45209,7 +45218,7 @@
       </c>
       <c r="M531" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000528::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000528::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="532" spans="2:13" x14ac:dyDescent="0.2">
@@ -45243,7 +45252,7 @@
       </c>
       <c r="M532" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000529::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000529::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="533" spans="2:13" x14ac:dyDescent="0.2">
@@ -45277,7 +45286,7 @@
       </c>
       <c r="M533" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000530::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000530::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="534" spans="2:13" x14ac:dyDescent="0.2">
@@ -45311,7 +45320,7 @@
       </c>
       <c r="M534" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000531::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000531::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="535" spans="2:13" x14ac:dyDescent="0.2">
@@ -45345,7 +45354,7 @@
       </c>
       <c r="M535" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000532::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000532::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="536" spans="2:13" x14ac:dyDescent="0.2">
@@ -45379,7 +45388,7 @@
       </c>
       <c r="M536" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000533::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000533::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="537" spans="2:13" x14ac:dyDescent="0.2">
@@ -45413,7 +45422,7 @@
       </c>
       <c r="M537" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000534::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000534::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="538" spans="2:13" x14ac:dyDescent="0.2">
@@ -45447,7 +45456,7 @@
       </c>
       <c r="M538" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000535::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000535::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="539" spans="2:13" x14ac:dyDescent="0.2">
@@ -45483,7 +45492,7 @@
       </c>
       <c r="M539" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000536::bigint, 163000000000002::bigint, 111000000000007::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000536::bigint, 163000000000002::bigint, 111000000000007::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="540" spans="2:13" x14ac:dyDescent="0.2">
@@ -45517,7 +45526,7 @@
       </c>
       <c r="M540" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000537::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000537::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="541" spans="2:13" x14ac:dyDescent="0.2">
@@ -45551,7 +45560,7 @@
       </c>
       <c r="M541" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000538::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000538::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="542" spans="2:13" x14ac:dyDescent="0.2">
@@ -45585,7 +45594,7 @@
       </c>
       <c r="M542" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000539::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000539::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="543" spans="2:13" x14ac:dyDescent="0.2">
@@ -45619,7 +45628,7 @@
       </c>
       <c r="M543" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '1900-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000540::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000540::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="544" spans="2:13" x14ac:dyDescent="0.2">
@@ -45653,7 +45662,7 @@
       </c>
       <c r="M544" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000541::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000541::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.2">
@@ -45689,7 +45698,7 @@
       </c>
       <c r="M545" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000542::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000542::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.2">
@@ -45723,7 +45732,7 @@
       </c>
       <c r="M546" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000543::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000543::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.2">
@@ -45759,7 +45768,7 @@
       </c>
       <c r="M547" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000544::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000544::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.2">
@@ -45795,7 +45804,7 @@
       </c>
       <c r="M548" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000545::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000545::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.2">
@@ -45829,7 +45838,7 @@
       </c>
       <c r="M549" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000546::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000546::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.2">
@@ -45865,7 +45874,7 @@
       </c>
       <c r="M550" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000547::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000547::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.2">
@@ -45899,7 +45908,7 @@
       </c>
       <c r="M551" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000548::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000548::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.2">
@@ -45933,7 +45942,7 @@
       </c>
       <c r="M552" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000549::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000549::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.2">
@@ -45969,7 +45978,7 @@
       </c>
       <c r="M553" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000550::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000550::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.2">
@@ -46003,7 +46012,7 @@
       </c>
       <c r="M554" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000551::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000551::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.2">
@@ -46037,7 +46046,7 @@
       </c>
       <c r="M555" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000552::bigint, 163000000000007::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000552::bigint, 163000000000007::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.2">
@@ -46071,7 +46080,7 @@
       </c>
       <c r="M556" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000553::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000553::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.2">
@@ -46105,7 +46114,7 @@
       </c>
       <c r="M557" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000554::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000554::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.2">
@@ -46139,7 +46148,7 @@
       </c>
       <c r="M558" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000555::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000555::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.2">
@@ -46173,7 +46182,7 @@
       </c>
       <c r="M559" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000556::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000556::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.2">
@@ -46210,7 +46219,7 @@
       </c>
       <c r="M560" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000557::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000557::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="561" spans="2:13" x14ac:dyDescent="0.2">
@@ -46244,7 +46253,7 @@
       </c>
       <c r="M561" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000558::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000558::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="562" spans="2:13" x14ac:dyDescent="0.2">
@@ -46278,7 +46287,7 @@
       </c>
       <c r="M562" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="563" spans="2:13" x14ac:dyDescent="0.2">
@@ -46312,7 +46321,7 @@
       </c>
       <c r="M563" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000560::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000560::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="564" spans="2:13" x14ac:dyDescent="0.2">
@@ -46346,7 +46355,7 @@
       </c>
       <c r="M564" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000561::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000561::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="565" spans="2:13" x14ac:dyDescent="0.2">
@@ -46380,7 +46389,7 @@
       </c>
       <c r="M565" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000562::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000562::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="566" spans="2:13" x14ac:dyDescent="0.2">
@@ -46414,7 +46423,7 @@
       </c>
       <c r="M566" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000563::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000563::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="567" spans="2:13" x14ac:dyDescent="0.2">
@@ -46448,7 +46457,7 @@
       </c>
       <c r="M567" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000564::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000564::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="568" spans="2:13" x14ac:dyDescent="0.2">
@@ -46482,7 +46491,7 @@
       </c>
       <c r="M568" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000565::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000565::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="569" spans="2:13" x14ac:dyDescent="0.2">
@@ -46516,7 +46525,7 @@
       </c>
       <c r="M569" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000566::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000566::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="570" spans="2:13" x14ac:dyDescent="0.2">
@@ -46550,7 +46559,7 @@
       </c>
       <c r="M570" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000567::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000567::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="571" spans="2:13" x14ac:dyDescent="0.2">
@@ -46582,7 +46591,7 @@
       </c>
       <c r="M571" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="572" spans="2:13" x14ac:dyDescent="0.2">
@@ -46614,7 +46623,7 @@
       </c>
       <c r="M572" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="573" spans="2:13" x14ac:dyDescent="0.2">
@@ -46646,7 +46655,7 @@
       </c>
       <c r="M573" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="574" spans="2:13" x14ac:dyDescent="0.2">
@@ -46678,7 +46687,7 @@
       </c>
       <c r="M574" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="575" spans="2:13" x14ac:dyDescent="0.2">
@@ -46710,7 +46719,7 @@
       </c>
       <c r="M575" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="576" spans="2:13" x14ac:dyDescent="0.2">
@@ -46742,7 +46751,7 @@
       </c>
       <c r="M576" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="577" spans="2:13" x14ac:dyDescent="0.2">
@@ -46774,7 +46783,7 @@
       </c>
       <c r="M577" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="578" spans="2:13" x14ac:dyDescent="0.2">
@@ -46806,7 +46815,7 @@
       </c>
       <c r="M578" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="579" spans="2:13" x14ac:dyDescent="0.2">
@@ -46838,7 +46847,7 @@
       </c>
       <c r="M579" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="580" spans="2:13" x14ac:dyDescent="0.2">
@@ -46870,7 +46879,7 @@
       </c>
       <c r="M580" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="581" spans="2:13" x14ac:dyDescent="0.2">
@@ -46902,8 +46911,9 @@
       </c>
       <c r="M581" s="32" t="str">
         <f t="shared" ref="M581:M588" si="19">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H581, ""), ", null", CONCATENATE(", '", H581, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I581, ""), ", null", CONCATENATE(", '", I581, "'")), "::timestamptz"),
-", null, null, varInstitutionBranchID, varBaseCurrencyID",
+", null, varInstitutionBranchID, varBaseCurrencyID",
 CONCATENATE(IF(EXACT(B581, ""), ", null", CONCATENATE(", ", B581, "")), "::bigint"),
 CONCATENATE(IF(EXACT(D581, ""), ", null", CONCATENATE(", ", D581, "")), "::bigint"),
 CONCATENATE(IF(EXACT(F581, ""), ", null", CONCATENATE(", ", F581, "")), "::bigint"),
@@ -46912,7 +46922,7 @@
 CONCATENATE(IF(EXACT(I581, ""), ", null", CONCATENATE(", '", I581, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J581, ""), ", null", CONCATENATE(", ", J581, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="582" spans="2:13" x14ac:dyDescent="0.2">
@@ -46944,7 +46954,7 @@
       </c>
       <c r="M582" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="583" spans="2:13" x14ac:dyDescent="0.2">
@@ -46976,7 +46986,7 @@
       </c>
       <c r="M583" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="584" spans="2:13" x14ac:dyDescent="0.2">
@@ -47008,7 +47018,7 @@
       </c>
       <c r="M584" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="585" spans="2:13" x14ac:dyDescent="0.2">
@@ -47044,7 +47054,7 @@
       </c>
       <c r="M585" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000582::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000582::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="586" spans="2:13" x14ac:dyDescent="0.2">
@@ -47076,7 +47086,7 @@
       </c>
       <c r="M586" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="587" spans="2:13" x14ac:dyDescent="0.2">
@@ -47108,7 +47118,7 @@
       </c>
       <c r="M587" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="588" spans="2:13" x14ac:dyDescent="0.2">
@@ -47140,7 +47150,7 @@
       </c>
       <c r="M588" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '9999-12-31 23:59:59+07'::timestamptz, null, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="589" spans="2:13" x14ac:dyDescent="0.2">

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -890,8 +890,8 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="B4">
@@ -5582,8 +5582,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -27995,7 +27995,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M588"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -6018,11 +6018,11 @@
   </sheetPr>
   <dimension ref="A1:G589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27991,11 +27991,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M589"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -27992,10 +27992,10 @@
   <dimension ref="A1:M589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C573" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33095,8 +33095,12 @@
         <f>IF(EXACT($D158, ""), "", VLOOKUP($D158, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
         <v>Karyawan Tetap (Purna Waktu)</v>
       </c>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
+      <c r="F158" s="13">
+        <v>111000000000011</v>
+      </c>
+      <c r="G158" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H158" s="12"/>
       <c r="I158" s="12" t="s">
         <v>6</v>
@@ -33108,7 +33112,7 @@
       </c>
       <c r="M158" s="32" t="str">
         <f t="shared" si="5"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000155::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000155::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.2">
@@ -37079,8 +37083,12 @@
         <f>IF(EXACT($D281, ""), "", VLOOKUP($D281, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
-      <c r="F281" s="13"/>
-      <c r="G281" s="13"/>
+      <c r="F281" s="13">
+        <v>111000000000011</v>
+      </c>
+      <c r="G281" s="13">
+        <v>160000000000003</v>
+      </c>
       <c r="H281" s="12"/>
       <c r="I281" s="12" t="s">
         <v>6</v>
@@ -37092,7 +37100,7 @@
       </c>
       <c r="M281" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000278::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000278::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.2">
@@ -46272,9 +46280,11 @@
         <f>IF(EXACT($D562, ""), "", VLOOKUP($D562, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
-      <c r="F562" s="13"/>
+      <c r="F562" s="13">
+        <v>111000000000005</v>
+      </c>
       <c r="G562" s="13">
-        <v>160000000000001</v>
+        <v>160000000000004</v>
       </c>
       <c r="H562" s="12"/>
       <c r="I562" s="12" t="s">
@@ -46287,7 +46297,7 @@
       </c>
       <c r="M562" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000559::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="563" spans="2:13" x14ac:dyDescent="0.2">
@@ -46579,7 +46589,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F571" s="13"/>
-      <c r="G571" s="13"/>
+      <c r="G571" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H571" s="12"/>
       <c r="I571" s="12" t="s">
         <v>6</v>
@@ -46591,7 +46603,7 @@
       </c>
       <c r="M571" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="572" spans="2:13" x14ac:dyDescent="0.2">
@@ -46611,7 +46623,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F572" s="13"/>
-      <c r="G572" s="13"/>
+      <c r="G572" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H572" s="12"/>
       <c r="I572" s="12" t="s">
         <v>6</v>
@@ -46623,7 +46637,7 @@
       </c>
       <c r="M572" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="573" spans="2:13" x14ac:dyDescent="0.2">
@@ -46643,7 +46657,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F573" s="13"/>
-      <c r="G573" s="13"/>
+      <c r="G573" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H573" s="12"/>
       <c r="I573" s="12" t="s">
         <v>6</v>
@@ -46655,7 +46671,7 @@
       </c>
       <c r="M573" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="574" spans="2:13" x14ac:dyDescent="0.2">
@@ -46675,7 +46691,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F574" s="13"/>
-      <c r="G574" s="13"/>
+      <c r="G574" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H574" s="12"/>
       <c r="I574" s="12" t="s">
         <v>6</v>
@@ -46687,7 +46705,7 @@
       </c>
       <c r="M574" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="575" spans="2:13" x14ac:dyDescent="0.2">
@@ -46707,7 +46725,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F575" s="13"/>
-      <c r="G575" s="13"/>
+      <c r="G575" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H575" s="12"/>
       <c r="I575" s="12" t="s">
         <v>6</v>
@@ -46719,7 +46739,7 @@
       </c>
       <c r="M575" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="576" spans="2:13" x14ac:dyDescent="0.2">
@@ -46739,7 +46759,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F576" s="13"/>
-      <c r="G576" s="13"/>
+      <c r="G576" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H576" s="12"/>
       <c r="I576" s="12" t="s">
         <v>6</v>
@@ -46751,7 +46773,7 @@
       </c>
       <c r="M576" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="577" spans="2:13" x14ac:dyDescent="0.2">
@@ -46771,7 +46793,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F577" s="13"/>
-      <c r="G577" s="13"/>
+      <c r="G577" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H577" s="12"/>
       <c r="I577" s="12" t="s">
         <v>6</v>
@@ -46783,7 +46807,7 @@
       </c>
       <c r="M577" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="578" spans="2:13" x14ac:dyDescent="0.2">
@@ -46803,7 +46827,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F578" s="13"/>
-      <c r="G578" s="13"/>
+      <c r="G578" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H578" s="12"/>
       <c r="I578" s="12" t="s">
         <v>6</v>
@@ -46815,7 +46841,7 @@
       </c>
       <c r="M578" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="579" spans="2:13" x14ac:dyDescent="0.2">
@@ -46835,7 +46861,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F579" s="13"/>
-      <c r="G579" s="13"/>
+      <c r="G579" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H579" s="12"/>
       <c r="I579" s="12" t="s">
         <v>6</v>
@@ -46847,7 +46875,7 @@
       </c>
       <c r="M579" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="580" spans="2:13" x14ac:dyDescent="0.2">
@@ -46867,7 +46895,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F580" s="13"/>
-      <c r="G580" s="13"/>
+      <c r="G580" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H580" s="12"/>
       <c r="I580" s="12" t="s">
         <v>6</v>
@@ -46879,7 +46909,7 @@
       </c>
       <c r="M580" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="581" spans="2:13" x14ac:dyDescent="0.2">
@@ -46899,7 +46929,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F581" s="13"/>
-      <c r="G581" s="13"/>
+      <c r="G581" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H581" s="12"/>
       <c r="I581" s="12" t="s">
         <v>6</v>
@@ -46922,7 +46954,7 @@
 CONCATENATE(IF(EXACT(I581, ""), ", null", CONCATENATE(", '", I581, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(J581, ""), ", null", CONCATENATE(", ", J581, "")), "::bigint"),
 ");")</f>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="582" spans="2:13" x14ac:dyDescent="0.2">
@@ -46942,7 +46974,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F582" s="13"/>
-      <c r="G582" s="13"/>
+      <c r="G582" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H582" s="12"/>
       <c r="I582" s="12" t="s">
         <v>6</v>
@@ -46954,7 +46988,7 @@
       </c>
       <c r="M582" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="583" spans="2:13" x14ac:dyDescent="0.2">
@@ -46974,7 +47008,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F583" s="13"/>
-      <c r="G583" s="13"/>
+      <c r="G583" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H583" s="12"/>
       <c r="I583" s="12" t="s">
         <v>6</v>
@@ -46986,7 +47022,7 @@
       </c>
       <c r="M583" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="584" spans="2:13" x14ac:dyDescent="0.2">
@@ -47006,7 +47042,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F584" s="13"/>
-      <c r="G584" s="13"/>
+      <c r="G584" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H584" s="12"/>
       <c r="I584" s="12" t="s">
         <v>6</v>
@@ -47018,7 +47056,7 @@
       </c>
       <c r="M584" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="585" spans="2:13" x14ac:dyDescent="0.2">
@@ -47074,7 +47112,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F586" s="13"/>
-      <c r="G586" s="13"/>
+      <c r="G586" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H586" s="12"/>
       <c r="I586" s="12" t="s">
         <v>6</v>
@@ -47086,7 +47126,7 @@
       </c>
       <c r="M586" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="587" spans="2:13" x14ac:dyDescent="0.2">
@@ -47106,7 +47146,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F587" s="13"/>
-      <c r="G587" s="13"/>
+      <c r="G587" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H587" s="12"/>
       <c r="I587" s="12" t="s">
         <v>6</v>
@@ -47118,7 +47160,7 @@
       </c>
       <c r="M587" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="588" spans="2:13" x14ac:dyDescent="0.2">
@@ -47138,7 +47180,9 @@
         <v>Karyawan Tidak Tetap (Kontrak)</v>
       </c>
       <c r="F588" s="13"/>
-      <c r="G588" s="13"/>
+      <c r="G588" s="13">
+        <v>160000000000001</v>
+      </c>
       <c r="H588" s="12"/>
       <c r="I588" s="12" t="s">
         <v>6</v>
@@ -47150,7 +47194,7 @@
       </c>
       <c r="M588" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
     <row r="589" spans="2:13" x14ac:dyDescent="0.2">

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="73">
   <si>
     <t>WorkerType_RefID</t>
   </si>
@@ -664,7 +664,219 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5574,11 +5786,51 @@
           </cell>
         </row>
         <row r="589">
-          <cell r="B589" t="str">
-            <v/>
+          <cell r="B589">
+            <v>25000000000586</v>
           </cell>
           <cell r="C589" t="str">
-            <v/>
+            <v>Budi Sandika</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="B590">
+            <v>25000000000587</v>
+          </cell>
+          <cell r="C590" t="str">
+            <v>Fachri Azhar</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="B591">
+            <v>25000000000588</v>
+          </cell>
+          <cell r="C591" t="str">
+            <v>Firmansyah Awaludin</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="B592">
+            <v>25000000000589</v>
+          </cell>
+          <cell r="C592" t="str">
+            <v>Iman Faisal Abdurahman</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="B593">
+            <v>25000000000590</v>
+          </cell>
+          <cell r="C593" t="str">
+            <v>Muhammad Irfan Alfikri</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="B594">
+            <v>25000000000591</v>
+          </cell>
+          <cell r="C594" t="str">
+            <v>Syafri Johansah</v>
           </cell>
         </row>
       </sheetData>
@@ -6016,13 +6268,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G589"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C580" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="J596" sqref="J596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6069,7 +6321,7 @@
         <v>25000000000001</v>
       </c>
       <c r="C4" s="41" t="str">
-        <f>IF(EXACT(B4, ""), "", VLOOKUP(B4, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B4, ""), "", VLOOKUP(B4, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Abdollah Syani Siregar</v>
       </c>
       <c r="D4" s="23"/>
@@ -6088,7 +6340,7 @@
         <v>25000000000002</v>
       </c>
       <c r="C5" s="41" t="str">
-        <f>IF(EXACT(B5, ""), "", VLOOKUP(B5, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B5, ""), "", VLOOKUP(B5, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Abdul Karim</v>
       </c>
       <c r="D5" s="23"/>
@@ -6107,7 +6359,7 @@
         <v>25000000000003</v>
       </c>
       <c r="C6" s="41" t="str">
-        <f>IF(EXACT(B6, ""), "", VLOOKUP(B6, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B6, ""), "", VLOOKUP(B6, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Abdul Rahman Sitompul</v>
       </c>
       <c r="D6" s="23"/>
@@ -6126,7 +6378,7 @@
         <v>25000000000004</v>
       </c>
       <c r="C7" s="41" t="str">
-        <f>IF(EXACT(B7, ""), "", VLOOKUP(B7, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B7, ""), "", VLOOKUP(B7, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Abdul Risan</v>
       </c>
       <c r="D7" s="23"/>
@@ -6145,7 +6397,7 @@
         <v>25000000000005</v>
       </c>
       <c r="C8" s="41" t="str">
-        <f>IF(EXACT(B8, ""), "", VLOOKUP(B8, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B8, ""), "", VLOOKUP(B8, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Abdullah Nabil</v>
       </c>
       <c r="D8" s="23"/>
@@ -6164,7 +6416,7 @@
         <v>25000000000006</v>
       </c>
       <c r="C9" s="41" t="str">
-        <f>IF(EXACT(B9, ""), "", VLOOKUP(B9, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B9, ""), "", VLOOKUP(B9, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Adhitya Danar</v>
       </c>
       <c r="D9" s="23"/>
@@ -6183,7 +6435,7 @@
         <v>25000000000007</v>
       </c>
       <c r="C10" s="41" t="str">
-        <f>IF(EXACT(B10, ""), "", VLOOKUP(B10, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B10, ""), "", VLOOKUP(B10, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Adi Ruswandi</v>
       </c>
       <c r="D10" s="23"/>
@@ -6202,7 +6454,7 @@
         <v>25000000000008</v>
       </c>
       <c r="C11" s="41" t="str">
-        <f>IF(EXACT(B11, ""), "", VLOOKUP(B11, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B11, ""), "", VLOOKUP(B11, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Adietya Dharmawan</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -6223,7 +6475,7 @@
         <v>25000000000009</v>
       </c>
       <c r="C12" s="41" t="str">
-        <f>IF(EXACT(B12, ""), "", VLOOKUP(B12, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B12, ""), "", VLOOKUP(B12, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Aditya Yudha Prawira</v>
       </c>
       <c r="D12" s="23"/>
@@ -6242,7 +6494,7 @@
         <v>25000000000010</v>
       </c>
       <c r="C13" s="41" t="str">
-        <f>IF(EXACT(B13, ""), "", VLOOKUP(B13, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B13, ""), "", VLOOKUP(B13, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Adli Margie</v>
       </c>
       <c r="D13" s="23"/>
@@ -6261,7 +6513,7 @@
         <v>25000000000011</v>
       </c>
       <c r="C14" s="41" t="str">
-        <f>IF(EXACT(B14, ""), "", VLOOKUP(B14, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B14, ""), "", VLOOKUP(B14, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Afrida Eka Putri</v>
       </c>
       <c r="D14" s="23"/>
@@ -6280,7 +6532,7 @@
         <v>25000000000012</v>
       </c>
       <c r="C15" s="41" t="str">
-        <f>IF(EXACT(B15, ""), "", VLOOKUP(B15, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B15, ""), "", VLOOKUP(B15, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Agnes Sutedja</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -6301,7 +6553,7 @@
         <v>25000000000013</v>
       </c>
       <c r="C16" s="41" t="str">
-        <f>IF(EXACT(B16, ""), "", VLOOKUP(B16, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B16, ""), "", VLOOKUP(B16, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Agung Hendarto</v>
       </c>
       <c r="D16" s="23"/>
@@ -6320,7 +6572,7 @@
         <v>25000000000014</v>
       </c>
       <c r="C17" s="41" t="str">
-        <f>IF(EXACT(B17, ""), "", VLOOKUP(B17, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B17, ""), "", VLOOKUP(B17, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Agus Priyatno Mahmudo</v>
       </c>
       <c r="D17" s="23"/>
@@ -6339,7 +6591,7 @@
         <v>25000000000015</v>
       </c>
       <c r="C18" s="41" t="str">
-        <f>IF(EXACT(B18, ""), "", VLOOKUP(B18, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B18, ""), "", VLOOKUP(B18, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Agus Salim</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -6360,7 +6612,7 @@
         <v>25000000000016</v>
       </c>
       <c r="C19" s="41" t="str">
-        <f>IF(EXACT(B19, ""), "", VLOOKUP(B19, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B19, ""), "", VLOOKUP(B19, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Agus Tanto</v>
       </c>
       <c r="D19" s="23"/>
@@ -6379,7 +6631,7 @@
         <v>25000000000017</v>
       </c>
       <c r="C20" s="41" t="str">
-        <f>IF(EXACT(B20, ""), "", VLOOKUP(B20, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B20, ""), "", VLOOKUP(B20, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ahmad Faiz Haems Muda</v>
       </c>
       <c r="D20" s="23"/>
@@ -6398,7 +6650,7 @@
         <v>25000000000018</v>
       </c>
       <c r="C21" s="41" t="str">
-        <f>IF(EXACT(B21, ""), "", VLOOKUP(B21, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B21, ""), "", VLOOKUP(B21, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ahmad Faza</v>
       </c>
       <c r="D21" s="23"/>
@@ -6417,7 +6669,7 @@
         <v>25000000000019</v>
       </c>
       <c r="C22" s="41" t="str">
-        <f>IF(EXACT(B22, ""), "", VLOOKUP(B22, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B22, ""), "", VLOOKUP(B22, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ahmad Syaifulloh</v>
       </c>
       <c r="D22" s="23">
@@ -6438,7 +6690,7 @@
         <v>25000000000020</v>
       </c>
       <c r="C23" s="41" t="str">
-        <f>IF(EXACT(B23, ""), "", VLOOKUP(B23, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B23, ""), "", VLOOKUP(B23, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ahmad Zulkarnaen</v>
       </c>
       <c r="D23" s="23"/>
@@ -6457,7 +6709,7 @@
         <v>25000000000021</v>
       </c>
       <c r="C24" s="41" t="str">
-        <f>IF(EXACT(B24, ""), "", VLOOKUP(B24, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B24, ""), "", VLOOKUP(B24, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ajan</v>
       </c>
       <c r="D24" s="23"/>
@@ -6476,7 +6728,7 @@
         <v>25000000000022</v>
       </c>
       <c r="C25" s="41" t="str">
-        <f>IF(EXACT(B25, ""), "", VLOOKUP(B25, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B25, ""), "", VLOOKUP(B25, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Al Amin</v>
       </c>
       <c r="D25" s="23"/>
@@ -6495,7 +6747,7 @@
         <v>25000000000023</v>
       </c>
       <c r="C26" s="41" t="str">
-        <f>IF(EXACT(B26, ""), "", VLOOKUP(B26, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B26, ""), "", VLOOKUP(B26, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Aldi Mulyadi</v>
       </c>
       <c r="D26" s="23">
@@ -6516,7 +6768,7 @@
         <v>25000000000024</v>
       </c>
       <c r="C27" s="41" t="str">
-        <f>IF(EXACT(B27, ""), "", VLOOKUP(B27, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B27, ""), "", VLOOKUP(B27, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Alexandri</v>
       </c>
       <c r="D27" s="23"/>
@@ -6535,7 +6787,7 @@
         <v>25000000000025</v>
       </c>
       <c r="C28" s="41" t="str">
-        <f>IF(EXACT(B28, ""), "", VLOOKUP(B28, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B28, ""), "", VLOOKUP(B28, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Alfaedi</v>
       </c>
       <c r="D28" s="23"/>
@@ -6554,7 +6806,7 @@
         <v>25000000000026</v>
       </c>
       <c r="C29" s="41" t="str">
-        <f>IF(EXACT(B29, ""), "", VLOOKUP(B29, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B29, ""), "", VLOOKUP(B29, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ali Wahono</v>
       </c>
       <c r="D29" s="23"/>
@@ -6573,7 +6825,7 @@
         <v>25000000000027</v>
       </c>
       <c r="C30" s="41" t="str">
-        <f>IF(EXACT(B30, ""), "", VLOOKUP(B30, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B30, ""), "", VLOOKUP(B30, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Alphaliyanri Lasria</v>
       </c>
       <c r="D30" s="23"/>
@@ -6592,7 +6844,7 @@
         <v>25000000000028</v>
       </c>
       <c r="C31" s="41" t="str">
-        <f>IF(EXACT(B31, ""), "", VLOOKUP(B31, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B31, ""), "", VLOOKUP(B31, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ambon Rumalean</v>
       </c>
       <c r="D31" s="23"/>
@@ -6611,7 +6863,7 @@
         <v>25000000000029</v>
       </c>
       <c r="C32" s="41" t="str">
-        <f>IF(EXACT(B32, ""), "", VLOOKUP(B32, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B32, ""), "", VLOOKUP(B32, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Amir Sofyan Hadi</v>
       </c>
       <c r="D32" s="23"/>
@@ -6630,7 +6882,7 @@
         <v>25000000000030</v>
       </c>
       <c r="C33" s="41" t="str">
-        <f>IF(EXACT(B33, ""), "", VLOOKUP(B33, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B33, ""), "", VLOOKUP(B33, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anak Agung Netti Ariani</v>
       </c>
       <c r="D33" s="23"/>
@@ -6649,7 +6901,7 @@
         <v>25000000000031</v>
       </c>
       <c r="C34" s="41" t="str">
-        <f>IF(EXACT(B34, ""), "", VLOOKUP(B34, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B34, ""), "", VLOOKUP(B34, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Andri Gunawan</v>
       </c>
       <c r="D34" s="23"/>
@@ -6668,7 +6920,7 @@
         <v>25000000000032</v>
       </c>
       <c r="C35" s="41" t="str">
-        <f>IF(EXACT(B35, ""), "", VLOOKUP(B35, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B35, ""), "", VLOOKUP(B35, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Andri Herdiansyah</v>
       </c>
       <c r="D35" s="23"/>
@@ -6687,7 +6939,7 @@
         <v>25000000000033</v>
       </c>
       <c r="C36" s="41" t="str">
-        <f>IF(EXACT(B36, ""), "", VLOOKUP(B36, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B36, ""), "", VLOOKUP(B36, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Andrie</v>
       </c>
       <c r="D36" s="23"/>
@@ -6706,7 +6958,7 @@
         <v>25000000000034</v>
       </c>
       <c r="C37" s="41" t="str">
-        <f>IF(EXACT(B37, ""), "", VLOOKUP(B37, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B37, ""), "", VLOOKUP(B37, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anggina Tri Yudandi</v>
       </c>
       <c r="D37" s="23"/>
@@ -6725,7 +6977,7 @@
         <v>25000000000035</v>
       </c>
       <c r="C38" s="41" t="str">
-        <f>IF(EXACT(B38, ""), "", VLOOKUP(B38, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B38, ""), "", VLOOKUP(B38, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anggit Ismiyanto</v>
       </c>
       <c r="D38" s="23"/>
@@ -6744,7 +6996,7 @@
         <v>25000000000036</v>
       </c>
       <c r="C39" s="41" t="str">
-        <f>IF(EXACT(B39, ""), "", VLOOKUP(B39, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B39, ""), "", VLOOKUP(B39, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anika Setyowati</v>
       </c>
       <c r="D39" s="23"/>
@@ -6763,7 +7015,7 @@
         <v>25000000000037</v>
       </c>
       <c r="C40" s="41" t="str">
-        <f>IF(EXACT(B40, ""), "", VLOOKUP(B40, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B40, ""), "", VLOOKUP(B40, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anisah</v>
       </c>
       <c r="D40" s="23"/>
@@ -6782,7 +7034,7 @@
         <v>25000000000038</v>
       </c>
       <c r="C41" s="41" t="str">
-        <f>IF(EXACT(B41, ""), "", VLOOKUP(B41, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B41, ""), "", VLOOKUP(B41, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anna Savitrie</v>
       </c>
       <c r="D41" s="23"/>
@@ -6801,7 +7053,7 @@
         <v>25000000000039</v>
       </c>
       <c r="C42" s="41" t="str">
-        <f>IF(EXACT(B42, ""), "", VLOOKUP(B42, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B42, ""), "", VLOOKUP(B42, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Annisa Dewi Arumsari</v>
       </c>
       <c r="D42" s="23">
@@ -6822,7 +7074,7 @@
         <v>25000000000040</v>
       </c>
       <c r="C43" s="41" t="str">
-        <f>IF(EXACT(B43, ""), "", VLOOKUP(B43, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B43, ""), "", VLOOKUP(B43, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Annyes Sri Maristi</v>
       </c>
       <c r="D43" s="23"/>
@@ -6841,7 +7093,7 @@
         <v>25000000000041</v>
       </c>
       <c r="C44" s="41" t="str">
-        <f>IF(EXACT(B44, ""), "", VLOOKUP(B44, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B44, ""), "", VLOOKUP(B44, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Antok</v>
       </c>
       <c r="D44" s="23"/>
@@ -6860,7 +7112,7 @@
         <v>25000000000042</v>
       </c>
       <c r="C45" s="41" t="str">
-        <f>IF(EXACT(B45, ""), "", VLOOKUP(B45, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B45, ""), "", VLOOKUP(B45, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anton Iryanto</v>
       </c>
       <c r="D45" s="23"/>
@@ -6879,7 +7131,7 @@
         <v>25000000000043</v>
       </c>
       <c r="C46" s="41" t="str">
-        <f>IF(EXACT(B46, ""), "", VLOOKUP(B46, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B46, ""), "", VLOOKUP(B46, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Antony Pakpahan</v>
       </c>
       <c r="D46" s="23"/>
@@ -6898,7 +7150,7 @@
         <v>25000000000044</v>
       </c>
       <c r="C47" s="41" t="str">
-        <f>IF(EXACT(B47, ""), "", VLOOKUP(B47, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B47, ""), "", VLOOKUP(B47, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anugerah Januariansyah</v>
       </c>
       <c r="D47" s="23" t="s">
@@ -6919,7 +7171,7 @@
         <v>25000000000045</v>
       </c>
       <c r="C48" s="41" t="str">
-        <f>IF(EXACT(B48, ""), "", VLOOKUP(B48, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B48, ""), "", VLOOKUP(B48, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Anwar Purnomo</v>
       </c>
       <c r="D48" s="23"/>
@@ -6938,7 +7190,7 @@
         <v>25000000000046</v>
       </c>
       <c r="C49" s="41" t="str">
-        <f>IF(EXACT(B49, ""), "", VLOOKUP(B49, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B49, ""), "", VLOOKUP(B49, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ardhi Swasono</v>
       </c>
       <c r="D49" s="23"/>
@@ -6957,7 +7209,7 @@
         <v>25000000000047</v>
       </c>
       <c r="C50" s="41" t="str">
-        <f>IF(EXACT(B50, ""), "", VLOOKUP(B50, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B50, ""), "", VLOOKUP(B50, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ardi</v>
       </c>
       <c r="D50" s="23"/>
@@ -6976,7 +7228,7 @@
         <v>25000000000048</v>
       </c>
       <c r="C51" s="41" t="str">
-        <f>IF(EXACT(B51, ""), "", VLOOKUP(B51, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B51, ""), "", VLOOKUP(B51, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ardiansyah</v>
       </c>
       <c r="D51" s="23"/>
@@ -6995,7 +7247,7 @@
         <v>25000000000049</v>
       </c>
       <c r="C52" s="41" t="str">
-        <f>IF(EXACT(B52, ""), "", VLOOKUP(B52, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B52, ""), "", VLOOKUP(B52, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ardisam</v>
       </c>
       <c r="D52" s="23"/>
@@ -7014,7 +7266,7 @@
         <v>25000000000050</v>
       </c>
       <c r="C53" s="41" t="str">
-        <f>IF(EXACT(B53, ""), "", VLOOKUP(B53, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B53, ""), "", VLOOKUP(B53, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ardita</v>
       </c>
       <c r="D53" s="23"/>
@@ -7033,7 +7285,7 @@
         <v>25000000000051</v>
       </c>
       <c r="C54" s="41" t="str">
-        <f>IF(EXACT(B54, ""), "", VLOOKUP(B54, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B54, ""), "", VLOOKUP(B54, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ares S. Mauboi</v>
       </c>
       <c r="D54" s="23"/>
@@ -7052,7 +7304,7 @@
         <v>25000000000052</v>
       </c>
       <c r="C55" s="41" t="str">
-        <f>IF(EXACT(B55, ""), "", VLOOKUP(B55, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B55, ""), "", VLOOKUP(B55, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Arfah Hanum</v>
       </c>
       <c r="D55" s="23"/>
@@ -7071,7 +7323,7 @@
         <v>25000000000053</v>
       </c>
       <c r="C56" s="41" t="str">
-        <f>IF(EXACT(B56, ""), "", VLOOKUP(B56, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B56, ""), "", VLOOKUP(B56, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Arfianti Haryani</v>
       </c>
       <c r="D56" s="23"/>
@@ -7090,7 +7342,7 @@
         <v>25000000000054</v>
       </c>
       <c r="C57" s="41" t="str">
-        <f>IF(EXACT(B57, ""), "", VLOOKUP(B57, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B57, ""), "", VLOOKUP(B57, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ari Priwarsono</v>
       </c>
       <c r="D57" s="23"/>
@@ -7109,7 +7361,7 @@
         <v>25000000000055</v>
       </c>
       <c r="C58" s="41" t="str">
-        <f>IF(EXACT(B58, ""), "", VLOOKUP(B58, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B58, ""), "", VLOOKUP(B58, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ari Yuniasmono</v>
       </c>
       <c r="D58" s="23"/>
@@ -7128,7 +7380,7 @@
         <v>25000000000056</v>
       </c>
       <c r="C59" s="41" t="str">
-        <f>IF(EXACT(B59, ""), "", VLOOKUP(B59, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B59, ""), "", VLOOKUP(B59, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Arif Gunawan</v>
       </c>
       <c r="D59" s="23"/>
@@ -7147,7 +7399,7 @@
         <v>25000000000057</v>
       </c>
       <c r="C60" s="41" t="str">
-        <f>IF(EXACT(B60, ""), "", VLOOKUP(B60, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B60, ""), "", VLOOKUP(B60, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Arif Prasetyo</v>
       </c>
       <c r="D60" s="23"/>
@@ -7166,7 +7418,7 @@
         <v>25000000000058</v>
       </c>
       <c r="C61" s="41" t="str">
-        <f>IF(EXACT(B61, ""), "", VLOOKUP(B61, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B61, ""), "", VLOOKUP(B61, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Arini</v>
       </c>
       <c r="D61" s="23"/>
@@ -7185,7 +7437,7 @@
         <v>25000000000059</v>
       </c>
       <c r="C62" s="41" t="str">
-        <f>IF(EXACT(B62, ""), "", VLOOKUP(B62, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B62, ""), "", VLOOKUP(B62, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ario Setyo Gunawan</v>
       </c>
       <c r="D62" s="23"/>
@@ -7204,7 +7456,7 @@
         <v>25000000000060</v>
       </c>
       <c r="C63" s="41" t="str">
-        <f>IF(EXACT(B63, ""), "", VLOOKUP(B63, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B63, ""), "", VLOOKUP(B63, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ario Yulianto Wibowo</v>
       </c>
       <c r="D63" s="23"/>
@@ -7223,7 +7475,7 @@
         <v>25000000000061</v>
       </c>
       <c r="C64" s="41" t="str">
-        <f>IF(EXACT(B64, ""), "", VLOOKUP(B64, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B64, ""), "", VLOOKUP(B64, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Aris Widodo Pamungkas</v>
       </c>
       <c r="D64" s="23"/>
@@ -7242,7 +7494,7 @@
         <v>25000000000062</v>
       </c>
       <c r="C65" s="41" t="str">
-        <f>IF(EXACT(B65, ""), "", VLOOKUP(B65, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B65, ""), "", VLOOKUP(B65, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Arjiyanto</v>
       </c>
       <c r="D65" s="23"/>
@@ -7261,7 +7513,7 @@
         <v>25000000000063</v>
       </c>
       <c r="C66" s="41" t="str">
-        <f>IF(EXACT(B66, ""), "", VLOOKUP(B66, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B66, ""), "", VLOOKUP(B66, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Arman</v>
       </c>
       <c r="D66" s="23"/>
@@ -7280,7 +7532,7 @@
         <v>25000000000064</v>
       </c>
       <c r="C67" s="41" t="str">
-        <f>IF(EXACT(B67, ""), "", VLOOKUP(B67, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B67, ""), "", VLOOKUP(B67, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Aryoko Sudiro</v>
       </c>
       <c r="D67" s="23"/>
@@ -7299,7 +7551,7 @@
         <v>25000000000065</v>
       </c>
       <c r="C68" s="41" t="str">
-        <f>IF(EXACT(B68, ""), "", VLOOKUP(B68, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B68, ""), "", VLOOKUP(B68, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Astamyugo</v>
       </c>
       <c r="D68" s="23"/>
@@ -7318,7 +7570,7 @@
         <v>25000000000066</v>
       </c>
       <c r="C69" s="41" t="str">
-        <f>IF(EXACT(B69, ""), "", VLOOKUP(B69, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B69, ""), "", VLOOKUP(B69, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Atmo Sastro Dinoto</v>
       </c>
       <c r="D69" s="23"/>
@@ -7337,7 +7589,7 @@
         <v>25000000000067</v>
       </c>
       <c r="C70" s="41" t="str">
-        <f>IF(EXACT(B70, ""), "", VLOOKUP(B70, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B70, ""), "", VLOOKUP(B70, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Awaludin</v>
       </c>
       <c r="D70" s="23"/>
@@ -7356,7 +7608,7 @@
         <v>25000000000068</v>
       </c>
       <c r="C71" s="41" t="str">
-        <f>IF(EXACT(B71, ""), "", VLOOKUP(B71, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B71, ""), "", VLOOKUP(B71, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bachtiar</v>
       </c>
       <c r="D71" s="23"/>
@@ -7375,7 +7627,7 @@
         <v>25000000000069</v>
       </c>
       <c r="C72" s="41" t="str">
-        <f>IF(EXACT(B72, ""), "", VLOOKUP(B72, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B72, ""), "", VLOOKUP(B72, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bambang Irawan</v>
       </c>
       <c r="D72" s="23"/>
@@ -7394,7 +7646,7 @@
         <v>25000000000070</v>
       </c>
       <c r="C73" s="41" t="str">
-        <f>IF(EXACT(B73, ""), "", VLOOKUP(B73, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B73, ""), "", VLOOKUP(B73, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bambang Prihatin</v>
       </c>
       <c r="D73" s="23"/>
@@ -7413,7 +7665,7 @@
         <v>25000000000071</v>
       </c>
       <c r="C74" s="41" t="str">
-        <f>IF(EXACT(B74, ""), "", VLOOKUP(B74, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B74, ""), "", VLOOKUP(B74, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bani Mustazeni</v>
       </c>
       <c r="D74" s="23"/>
@@ -7432,7 +7684,7 @@
         <v>25000000000072</v>
       </c>
       <c r="C75" s="41" t="str">
-        <f>IF(EXACT(B75, ""), "", VLOOKUP(B75, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B75, ""), "", VLOOKUP(B75, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bardai</v>
       </c>
       <c r="D75" s="23"/>
@@ -7451,7 +7703,7 @@
         <v>25000000000073</v>
       </c>
       <c r="C76" s="41" t="str">
-        <f>IF(EXACT(B76, ""), "", VLOOKUP(B76, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B76, ""), "", VLOOKUP(B76, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Barika</v>
       </c>
       <c r="D76" s="23"/>
@@ -7470,7 +7722,7 @@
         <v>25000000000074</v>
       </c>
       <c r="C77" s="41" t="str">
-        <f>IF(EXACT(B77, ""), "", VLOOKUP(B77, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B77, ""), "", VLOOKUP(B77, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bela Retmalantika</v>
       </c>
       <c r="D77" s="23"/>
@@ -7489,7 +7741,7 @@
         <v>25000000000075</v>
       </c>
       <c r="C78" s="41" t="str">
-        <f>IF(EXACT(B78, ""), "", VLOOKUP(B78, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B78, ""), "", VLOOKUP(B78, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Belina Lindarwani</v>
       </c>
       <c r="D78" s="23" t="s">
@@ -7510,7 +7762,7 @@
         <v>25000000000076</v>
       </c>
       <c r="C79" s="41" t="str">
-        <f>IF(EXACT(B79, ""), "", VLOOKUP(B79, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B79, ""), "", VLOOKUP(B79, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Benita Sofia</v>
       </c>
       <c r="D79" s="23"/>
@@ -7529,7 +7781,7 @@
         <v>25000000000077</v>
       </c>
       <c r="C80" s="41" t="str">
-        <f>IF(EXACT(B80, ""), "", VLOOKUP(B80, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B80, ""), "", VLOOKUP(B80, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bherly Novrandy</v>
       </c>
       <c r="D80" s="23"/>
@@ -7548,7 +7800,7 @@
         <v>25000000000078</v>
       </c>
       <c r="C81" s="41" t="str">
-        <f>IF(EXACT(B81, ""), "", VLOOKUP(B81, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B81, ""), "", VLOOKUP(B81, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Binsar</v>
       </c>
       <c r="D81" s="23"/>
@@ -7567,7 +7819,7 @@
         <v>25000000000079</v>
       </c>
       <c r="C82" s="41" t="str">
-        <f>IF(EXACT(B82, ""), "", VLOOKUP(B82, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B82, ""), "", VLOOKUP(B82, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bondhan Sosiarta</v>
       </c>
       <c r="D82" s="23"/>
@@ -7586,7 +7838,7 @@
         <v>25000000000080</v>
       </c>
       <c r="C83" s="41" t="str">
-        <f>IF(EXACT(B83, ""), "", VLOOKUP(B83, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B83, ""), "", VLOOKUP(B83, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Budi Pranata Sinaga</v>
       </c>
       <c r="D83" s="23"/>
@@ -7605,7 +7857,7 @@
         <v>25000000000081</v>
       </c>
       <c r="C84" s="41" t="str">
-        <f>IF(EXACT(B84, ""), "", VLOOKUP(B84, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B84, ""), "", VLOOKUP(B84, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Budi Satrio</v>
       </c>
       <c r="D84" s="23"/>
@@ -7624,7 +7876,7 @@
         <v>25000000000082</v>
       </c>
       <c r="C85" s="41" t="str">
-        <f>IF(EXACT(B85, ""), "", VLOOKUP(B85, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B85, ""), "", VLOOKUP(B85, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Budianto</v>
       </c>
       <c r="D85" s="23" t="s">
@@ -7645,7 +7897,7 @@
         <v>25000000000083</v>
       </c>
       <c r="C86" s="41" t="str">
-        <f>IF(EXACT(B86, ""), "", VLOOKUP(B86, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B86, ""), "", VLOOKUP(B86, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Budiman</v>
       </c>
       <c r="D86" s="23"/>
@@ -7664,7 +7916,7 @@
         <v>25000000000084</v>
       </c>
       <c r="C87" s="41" t="str">
-        <f>IF(EXACT(B87, ""), "", VLOOKUP(B87, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B87, ""), "", VLOOKUP(B87, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Cahyaning Annisa</v>
       </c>
       <c r="D87" s="23"/>
@@ -7683,7 +7935,7 @@
         <v>25000000000085</v>
       </c>
       <c r="C88" s="41" t="str">
-        <f>IF(EXACT(B88, ""), "", VLOOKUP(B88, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B88, ""), "", VLOOKUP(B88, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Cahyaningrum Widiastuti</v>
       </c>
       <c r="D88" s="23"/>
@@ -7702,7 +7954,7 @@
         <v>25000000000086</v>
       </c>
       <c r="C89" s="41" t="str">
-        <f>IF(EXACT(B89, ""), "", VLOOKUP(B89, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B89, ""), "", VLOOKUP(B89, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Cecep Maulana</v>
       </c>
       <c r="D89" s="23"/>
@@ -7721,7 +7973,7 @@
         <v>25000000000087</v>
       </c>
       <c r="C90" s="41" t="str">
-        <f>IF(EXACT(B90, ""), "", VLOOKUP(B90, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B90, ""), "", VLOOKUP(B90, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Chairul Musaddat</v>
       </c>
       <c r="D90" s="23"/>
@@ -7740,7 +7992,7 @@
         <v>25000000000088</v>
       </c>
       <c r="C91" s="41" t="str">
-        <f>IF(EXACT(B91, ""), "", VLOOKUP(B91, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B91, ""), "", VLOOKUP(B91, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Christianto</v>
       </c>
       <c r="D91" s="23"/>
@@ -7759,7 +8011,7 @@
         <v>25000000000089</v>
       </c>
       <c r="C92" s="41" t="str">
-        <f>IF(EXACT(B92, ""), "", VLOOKUP(B92, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B92, ""), "", VLOOKUP(B92, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dadan Hermawan</v>
       </c>
       <c r="D92" s="23"/>
@@ -7778,7 +8030,7 @@
         <v>25000000000090</v>
       </c>
       <c r="C93" s="41" t="str">
-        <f>IF(EXACT(B93, ""), "", VLOOKUP(B93, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B93, ""), "", VLOOKUP(B93, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dadan Suhendar</v>
       </c>
       <c r="D93" s="23"/>
@@ -7797,7 +8049,7 @@
         <v>25000000000091</v>
       </c>
       <c r="C94" s="41" t="str">
-        <f>IF(EXACT(B94, ""), "", VLOOKUP(B94, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B94, ""), "", VLOOKUP(B94, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dadi Anda Zuchradi</v>
       </c>
       <c r="D94" s="23"/>
@@ -7816,7 +8068,7 @@
         <v>25000000000092</v>
       </c>
       <c r="C95" s="41" t="str">
-        <f>IF(EXACT(B95, ""), "", VLOOKUP(B95, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B95, ""), "", VLOOKUP(B95, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Darsito</v>
       </c>
       <c r="D95" s="23" t="s">
@@ -7837,7 +8089,7 @@
         <v>25000000000093</v>
       </c>
       <c r="C96" s="41" t="str">
-        <f>IF(EXACT(B96, ""), "", VLOOKUP(B96, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B96, ""), "", VLOOKUP(B96, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>David Lumban Gaol</v>
       </c>
       <c r="D96" s="23"/>
@@ -7856,7 +8108,7 @@
         <v>25000000000094</v>
       </c>
       <c r="C97" s="41" t="str">
-        <f>IF(EXACT(B97, ""), "", VLOOKUP(B97, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B97, ""), "", VLOOKUP(B97, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Deddy Rochman</v>
       </c>
       <c r="D97" s="23">
@@ -7877,7 +8129,7 @@
         <v>25000000000095</v>
       </c>
       <c r="C98" s="41" t="str">
-        <f>IF(EXACT(B98, ""), "", VLOOKUP(B98, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B98, ""), "", VLOOKUP(B98, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dedi Kusnadi</v>
       </c>
       <c r="D98" s="23"/>
@@ -7896,7 +8148,7 @@
         <v>25000000000096</v>
       </c>
       <c r="C99" s="41" t="str">
-        <f>IF(EXACT(B99, ""), "", VLOOKUP(B99, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B99, ""), "", VLOOKUP(B99, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dedi Marciano Rizanur</v>
       </c>
       <c r="D99" s="23"/>
@@ -7915,7 +8167,7 @@
         <v>25000000000097</v>
       </c>
       <c r="C100" s="41" t="str">
-        <f>IF(EXACT(B100, ""), "", VLOOKUP(B100, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B100, ""), "", VLOOKUP(B100, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dedi Rianto</v>
       </c>
       <c r="D100" s="23"/>
@@ -7934,7 +8186,7 @@
         <v>25000000000098</v>
       </c>
       <c r="C101" s="41" t="str">
-        <f>IF(EXACT(B101, ""), "", VLOOKUP(B101, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B101, ""), "", VLOOKUP(B101, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dedi Syahputra</v>
       </c>
       <c r="D101" s="23"/>
@@ -7953,7 +8205,7 @@
         <v>25000000000099</v>
       </c>
       <c r="C102" s="41" t="str">
-        <f>IF(EXACT(B102, ""), "", VLOOKUP(B102, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B102, ""), "", VLOOKUP(B102, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Deni Setiawan</v>
       </c>
       <c r="D102" s="23"/>
@@ -7972,7 +8224,7 @@
         <v>25000000000100</v>
       </c>
       <c r="C103" s="41" t="str">
-        <f>IF(EXACT(B103, ""), "", VLOOKUP(B103, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B103, ""), "", VLOOKUP(B103, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Deny Adi Purnama</v>
       </c>
       <c r="D103" s="23" t="s">
@@ -7993,7 +8245,7 @@
         <v>25000000000101</v>
       </c>
       <c r="C104" s="41" t="str">
-        <f>IF(EXACT(B104, ""), "", VLOOKUP(B104, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B104, ""), "", VLOOKUP(B104, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Desi Herawati</v>
       </c>
       <c r="D104" s="23"/>
@@ -8012,7 +8264,7 @@
         <v>25000000000102</v>
       </c>
       <c r="C105" s="41" t="str">
-        <f>IF(EXACT(B105, ""), "", VLOOKUP(B105, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B105, ""), "", VLOOKUP(B105, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Desi Setiowati</v>
       </c>
       <c r="D105" s="23"/>
@@ -8031,7 +8283,7 @@
         <v>25000000000103</v>
       </c>
       <c r="C106" s="41" t="str">
-        <f>IF(EXACT(B106, ""), "", VLOOKUP(B106, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B106, ""), "", VLOOKUP(B106, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dian Firdaus</v>
       </c>
       <c r="D106" s="23"/>
@@ -8050,7 +8302,7 @@
         <v>25000000000104</v>
       </c>
       <c r="C107" s="41" t="str">
-        <f>IF(EXACT(B107, ""), "", VLOOKUP(B107, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B107, ""), "", VLOOKUP(B107, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dian Hariyana</v>
       </c>
       <c r="D107" s="23"/>
@@ -8069,7 +8321,7 @@
         <v>25000000000105</v>
       </c>
       <c r="C108" s="41" t="str">
-        <f>IF(EXACT(B108, ""), "", VLOOKUP(B108, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B108, ""), "", VLOOKUP(B108, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dinnar Budiarti</v>
       </c>
       <c r="D108" s="23"/>
@@ -8088,7 +8340,7 @@
         <v>25000000000106</v>
       </c>
       <c r="C109" s="41" t="str">
-        <f>IF(EXACT(B109, ""), "", VLOOKUP(B109, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B109, ""), "", VLOOKUP(B109, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dionesius Sostenist Duka</v>
       </c>
       <c r="D109" s="25" t="s">
@@ -8109,7 +8361,7 @@
         <v>25000000000107</v>
       </c>
       <c r="C110" s="41" t="str">
-        <f>IF(EXACT(B110, ""), "", VLOOKUP(B110, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B110, ""), "", VLOOKUP(B110, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Diyah Martina</v>
       </c>
       <c r="D110" s="23"/>
@@ -8128,7 +8380,7 @@
         <v>25000000000108</v>
       </c>
       <c r="C111" s="41" t="str">
-        <f>IF(EXACT(B111, ""), "", VLOOKUP(B111, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B111, ""), "", VLOOKUP(B111, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Djuang Tampubolon</v>
       </c>
       <c r="D111" s="23"/>
@@ -8147,7 +8399,7 @@
         <v>25000000000109</v>
       </c>
       <c r="C112" s="41" t="str">
-        <f>IF(EXACT(B112, ""), "", VLOOKUP(B112, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B112, ""), "", VLOOKUP(B112, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dodit Widiarto</v>
       </c>
       <c r="D112" s="23"/>
@@ -8166,7 +8418,7 @@
         <v>25000000000110</v>
       </c>
       <c r="C113" s="41" t="str">
-        <f>IF(EXACT(B113, ""), "", VLOOKUP(B113, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B113, ""), "", VLOOKUP(B113, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dony Darmawan</v>
       </c>
       <c r="D113" s="23"/>
@@ -8185,7 +8437,7 @@
         <v>25000000000111</v>
       </c>
       <c r="C114" s="41" t="str">
-        <f>IF(EXACT(B114, ""), "", VLOOKUP(B114, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B114, ""), "", VLOOKUP(B114, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dony Setiawan</v>
       </c>
       <c r="D114" s="23"/>
@@ -8204,7 +8456,7 @@
         <v>25000000000112</v>
       </c>
       <c r="C115" s="41" t="str">
-        <f>IF(EXACT(B115, ""), "", VLOOKUP(B115, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B115, ""), "", VLOOKUP(B115, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dudi Rustandi</v>
       </c>
       <c r="D115" s="23"/>
@@ -8223,7 +8475,7 @@
         <v>25000000000113</v>
       </c>
       <c r="C116" s="41" t="str">
-        <f>IF(EXACT(B116, ""), "", VLOOKUP(B116, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B116, ""), "", VLOOKUP(B116, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dudung</v>
       </c>
       <c r="D116" s="23"/>
@@ -8242,7 +8494,7 @@
         <v>25000000000114</v>
       </c>
       <c r="C117" s="41" t="str">
-        <f>IF(EXACT(B117, ""), "", VLOOKUP(B117, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B117, ""), "", VLOOKUP(B117, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dwi Joko</v>
       </c>
       <c r="D117" s="23"/>
@@ -8261,7 +8513,7 @@
         <v>25000000000115</v>
       </c>
       <c r="C118" s="41" t="str">
-        <f>IF(EXACT(B118, ""), "", VLOOKUP(B118, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B118, ""), "", VLOOKUP(B118, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dwinanto Prabowo</v>
       </c>
       <c r="D118" s="23"/>
@@ -8280,7 +8532,7 @@
         <v>25000000000116</v>
       </c>
       <c r="C119" s="41" t="str">
-        <f>IF(EXACT(B119, ""), "", VLOOKUP(B119, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B119, ""), "", VLOOKUP(B119, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Edi Waluyo</v>
       </c>
       <c r="D119" s="23" t="s">
@@ -8301,7 +8553,7 @@
         <v>25000000000117</v>
       </c>
       <c r="C120" s="41" t="str">
-        <f>IF(EXACT(B120, ""), "", VLOOKUP(B120, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B120, ""), "", VLOOKUP(B120, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Edi Siswanto</v>
       </c>
       <c r="D120" s="23"/>
@@ -8320,7 +8572,7 @@
         <v>25000000000118</v>
       </c>
       <c r="C121" s="41" t="str">
-        <f>IF(EXACT(B121, ""), "", VLOOKUP(B121, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B121, ""), "", VLOOKUP(B121, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Edi Turnip</v>
       </c>
       <c r="D121" s="23"/>
@@ -8339,7 +8591,7 @@
         <v>25000000000119</v>
       </c>
       <c r="C122" s="41" t="str">
-        <f>IF(EXACT(B122, ""), "", VLOOKUP(B122, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B122, ""), "", VLOOKUP(B122, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Edy Putra Waskita</v>
       </c>
       <c r="D122" s="23"/>
@@ -8358,7 +8610,7 @@
         <v>25000000000120</v>
       </c>
       <c r="C123" s="41" t="str">
-        <f>IF(EXACT(B123, ""), "", VLOOKUP(B123, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B123, ""), "", VLOOKUP(B123, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Edy Situmeang</v>
       </c>
       <c r="D123" s="23"/>
@@ -8377,7 +8629,7 @@
         <v>25000000000121</v>
       </c>
       <c r="C124" s="41" t="str">
-        <f>IF(EXACT(B124, ""), "", VLOOKUP(B124, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B124, ""), "", VLOOKUP(B124, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Effendi fendi</v>
       </c>
       <c r="D124" s="23"/>
@@ -8396,7 +8648,7 @@
         <v>25000000000122</v>
       </c>
       <c r="C125" s="41" t="str">
-        <f>IF(EXACT(B125, ""), "", VLOOKUP(B125, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B125, ""), "", VLOOKUP(B125, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Efrina Dwililia</v>
       </c>
       <c r="D125" s="23"/>
@@ -8415,7 +8667,7 @@
         <v>25000000000123</v>
       </c>
       <c r="C126" s="41" t="str">
-        <f>IF(EXACT(B126, ""), "", VLOOKUP(B126, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B126, ""), "", VLOOKUP(B126, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Eka Bagus Dwi Putra</v>
       </c>
       <c r="D126" s="23" t="s">
@@ -8436,7 +8688,7 @@
         <v>25000000000124</v>
       </c>
       <c r="C127" s="41" t="str">
-        <f>IF(EXACT(B127, ""), "", VLOOKUP(B127, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B127, ""), "", VLOOKUP(B127, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Eka Hamidah</v>
       </c>
       <c r="D127" s="23"/>
@@ -8455,7 +8707,7 @@
         <v>25000000000125</v>
       </c>
       <c r="C128" s="41" t="str">
-        <f>IF(EXACT(B128, ""), "", VLOOKUP(B128, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B128, ""), "", VLOOKUP(B128, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Eka Purwanti</v>
       </c>
       <c r="D128" s="23" t="s">
@@ -8476,7 +8728,7 @@
         <v>25000000000126</v>
       </c>
       <c r="C129" s="41" t="str">
-        <f>IF(EXACT(B129, ""), "", VLOOKUP(B129, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B129, ""), "", VLOOKUP(B129, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Eko Kurniawan</v>
       </c>
       <c r="D129" s="23"/>
@@ -8495,7 +8747,7 @@
         <v>25000000000127</v>
       </c>
       <c r="C130" s="41" t="str">
-        <f>IF(EXACT(B130, ""), "", VLOOKUP(B130, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B130, ""), "", VLOOKUP(B130, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Eko Laksono</v>
       </c>
       <c r="D130" s="23"/>
@@ -8514,7 +8766,7 @@
         <v>25000000000128</v>
       </c>
       <c r="C131" s="41" t="str">
-        <f>IF(EXACT(B131, ""), "", VLOOKUP(B131, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B131, ""), "", VLOOKUP(B131, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Eko Syambudi</v>
       </c>
       <c r="D131" s="23"/>
@@ -8533,7 +8785,7 @@
         <v>25000000000129</v>
       </c>
       <c r="C132" s="41" t="str">
-        <f>IF(EXACT(B132, ""), "", VLOOKUP(B132, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B132, ""), "", VLOOKUP(B132, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Elieser Ferdy P.</v>
       </c>
       <c r="D132" s="23"/>
@@ -8552,7 +8804,7 @@
         <v>25000000000130</v>
       </c>
       <c r="C133" s="41" t="str">
-        <f>IF(EXACT(B133, ""), "", VLOOKUP(B133, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B133, ""), "", VLOOKUP(B133, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Elisa</v>
       </c>
       <c r="D133" s="23"/>
@@ -8571,7 +8823,7 @@
         <v>25000000000131</v>
       </c>
       <c r="C134" s="41" t="str">
-        <f>IF(EXACT(B134, ""), "", VLOOKUP(B134, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B134, ""), "", VLOOKUP(B134, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Elsa Jayanti</v>
       </c>
       <c r="D134" s="23"/>
@@ -8590,7 +8842,7 @@
         <v>25000000000132</v>
       </c>
       <c r="C135" s="41" t="str">
-        <f>IF(EXACT(B135, ""), "", VLOOKUP(B135, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B135, ""), "", VLOOKUP(B135, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Elsa Mardian</v>
       </c>
       <c r="D135" s="23"/>
@@ -8609,7 +8861,7 @@
         <v>25000000000133</v>
       </c>
       <c r="C136" s="41" t="str">
-        <f>IF(EXACT(B136, ""), "", VLOOKUP(B136, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B136, ""), "", VLOOKUP(B136, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Emir Paranita Nasution</v>
       </c>
       <c r="D136" s="23"/>
@@ -8628,7 +8880,7 @@
         <v>25000000000134</v>
       </c>
       <c r="C137" s="41" t="str">
-        <f>IF(EXACT(B137, ""), "", VLOOKUP(B137, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B137, ""), "", VLOOKUP(B137, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Enceng Hemawan</v>
       </c>
       <c r="D137" s="23"/>
@@ -8647,7 +8899,7 @@
         <v>25000000000135</v>
       </c>
       <c r="C138" s="41" t="str">
-        <f>IF(EXACT(B138, ""), "", VLOOKUP(B138, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B138, ""), "", VLOOKUP(B138, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Endang</v>
       </c>
       <c r="D138" s="23"/>
@@ -8666,7 +8918,7 @@
         <v>25000000000136</v>
       </c>
       <c r="C139" s="41" t="str">
-        <f>IF(EXACT(B139, ""), "", VLOOKUP(B139, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B139, ""), "", VLOOKUP(B139, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Endang Lestari</v>
       </c>
       <c r="D139" s="23"/>
@@ -8685,7 +8937,7 @@
         <v>25000000000137</v>
       </c>
       <c r="C140" s="41" t="str">
-        <f>IF(EXACT(B140, ""), "", VLOOKUP(B140, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B140, ""), "", VLOOKUP(B140, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Endang Sobari</v>
       </c>
       <c r="D140" s="23"/>
@@ -8704,7 +8956,7 @@
         <v>25000000000138</v>
       </c>
       <c r="C141" s="41" t="str">
-        <f>IF(EXACT(B141, ""), "", VLOOKUP(B141, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B141, ""), "", VLOOKUP(B141, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Endang Sutrisna</v>
       </c>
       <c r="D141" s="23" t="s">
@@ -8725,7 +8977,7 @@
         <v>25000000000139</v>
       </c>
       <c r="C142" s="41" t="str">
-        <f>IF(EXACT(B142, ""), "", VLOOKUP(B142, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B142, ""), "", VLOOKUP(B142, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Erfananda Rasyid</v>
       </c>
       <c r="D142" s="23"/>
@@ -8744,7 +8996,7 @@
         <v>25000000000140</v>
       </c>
       <c r="C143" s="41" t="str">
-        <f>IF(EXACT(B143, ""), "", VLOOKUP(B143, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B143, ""), "", VLOOKUP(B143, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ernawati</v>
       </c>
       <c r="D143" s="23"/>
@@ -8763,7 +9015,7 @@
         <v>25000000000141</v>
       </c>
       <c r="C144" s="41" t="str">
-        <f>IF(EXACT(B144, ""), "", VLOOKUP(B144, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B144, ""), "", VLOOKUP(B144, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Erwin Firmansyah</v>
       </c>
       <c r="D144" s="23"/>
@@ -8782,7 +9034,7 @@
         <v>25000000000142</v>
       </c>
       <c r="C145" s="41" t="str">
-        <f>IF(EXACT(B145, ""), "", VLOOKUP(B145, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B145, ""), "", VLOOKUP(B145, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Erwin Said</v>
       </c>
       <c r="D145" s="23"/>
@@ -8801,7 +9053,7 @@
         <v>25000000000143</v>
       </c>
       <c r="C146" s="41" t="str">
-        <f>IF(EXACT(B146, ""), "", VLOOKUP(B146, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B146, ""), "", VLOOKUP(B146, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Esa Annahar</v>
       </c>
       <c r="D146" s="23"/>
@@ -8820,7 +9072,7 @@
         <v>25000000000144</v>
       </c>
       <c r="C147" s="41" t="str">
-        <f>IF(EXACT(B147, ""), "", VLOOKUP(B147, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B147, ""), "", VLOOKUP(B147, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Faiz Horifal</v>
       </c>
       <c r="D147" s="23"/>
@@ -8839,7 +9091,7 @@
         <v>25000000000145</v>
       </c>
       <c r="C148" s="41" t="str">
-        <f>IF(EXACT(B148, ""), "", VLOOKUP(B148, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B148, ""), "", VLOOKUP(B148, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Fani Dwi Astutik</v>
       </c>
       <c r="D148" s="23"/>
@@ -8858,7 +9110,7 @@
         <v>25000000000146</v>
       </c>
       <c r="C149" s="41" t="str">
-        <f>IF(EXACT(B149, ""), "", VLOOKUP(B149, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B149, ""), "", VLOOKUP(B149, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Fardi Nauli R</v>
       </c>
       <c r="D149" s="23"/>
@@ -8877,7 +9129,7 @@
         <v>25000000000147</v>
       </c>
       <c r="C150" s="41" t="str">
-        <f>IF(EXACT(B150, ""), "", VLOOKUP(B150, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B150, ""), "", VLOOKUP(B150, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Farekh Huzair</v>
       </c>
       <c r="D150" s="23"/>
@@ -8896,7 +9148,7 @@
         <v>25000000000148</v>
       </c>
       <c r="C151" s="41" t="str">
-        <f>IF(EXACT(B151, ""), "", VLOOKUP(B151, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B151, ""), "", VLOOKUP(B151, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Farhana</v>
       </c>
       <c r="D151" s="23"/>
@@ -8915,7 +9167,7 @@
         <v>25000000000149</v>
       </c>
       <c r="C152" s="41" t="str">
-        <f>IF(EXACT(B152, ""), "", VLOOKUP(B152, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B152, ""), "", VLOOKUP(B152, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Febriyanto Ahdiat</v>
       </c>
       <c r="D152" s="23"/>
@@ -8934,7 +9186,7 @@
         <v>25000000000150</v>
       </c>
       <c r="C153" s="41" t="str">
-        <f>IF(EXACT(B153, ""), "", VLOOKUP(B153, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B153, ""), "", VLOOKUP(B153, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Febryan Mahsyar</v>
       </c>
       <c r="D153" s="23"/>
@@ -8953,7 +9205,7 @@
         <v>25000000000151</v>
       </c>
       <c r="C154" s="41" t="str">
-        <f>IF(EXACT(B154, ""), "", VLOOKUP(B154, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B154, ""), "", VLOOKUP(B154, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Felpy</v>
       </c>
       <c r="D154" s="23"/>
@@ -8972,7 +9224,7 @@
         <v>25000000000152</v>
       </c>
       <c r="C155" s="41" t="str">
-        <f>IF(EXACT(B155, ""), "", VLOOKUP(B155, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B155, ""), "", VLOOKUP(B155, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Feri Priyanto</v>
       </c>
       <c r="D155" s="23"/>
@@ -8991,7 +9243,7 @@
         <v>25000000000153</v>
       </c>
       <c r="C156" s="41" t="str">
-        <f>IF(EXACT(B156, ""), "", VLOOKUP(B156, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B156, ""), "", VLOOKUP(B156, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ferry P Simanjuntak</v>
       </c>
       <c r="D156" s="23"/>
@@ -9010,7 +9262,7 @@
         <v>25000000000154</v>
       </c>
       <c r="C157" s="41" t="str">
-        <f>IF(EXACT(B157, ""), "", VLOOKUP(B157, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B157, ""), "", VLOOKUP(B157, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Fikri</v>
       </c>
       <c r="D157" s="23"/>
@@ -9029,7 +9281,7 @@
         <v>25000000000155</v>
       </c>
       <c r="C158" s="41" t="str">
-        <f>IF(EXACT(B158, ""), "", VLOOKUP(B158, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B158, ""), "", VLOOKUP(B158, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>M. Fikri Caesarandi Hasibuan</v>
       </c>
       <c r="D158" s="23">
@@ -9050,7 +9302,7 @@
         <v>25000000000156</v>
       </c>
       <c r="C159" s="41" t="str">
-        <f>IF(EXACT(B159, ""), "", VLOOKUP(B159, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B159, ""), "", VLOOKUP(B159, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Firman Akbar</v>
       </c>
       <c r="D159" s="23"/>
@@ -9069,7 +9321,7 @@
         <v>25000000000157</v>
       </c>
       <c r="C160" s="41" t="str">
-        <f>IF(EXACT(B160, ""), "", VLOOKUP(B160, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B160, ""), "", VLOOKUP(B160, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Fitriastuti Kurnia</v>
       </c>
       <c r="D160" s="23" t="s">
@@ -9090,7 +9342,7 @@
         <v>25000000000158</v>
       </c>
       <c r="C161" s="41" t="str">
-        <f>IF(EXACT(B161, ""), "", VLOOKUP(B161, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B161, ""), "", VLOOKUP(B161, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Francis Imanuel</v>
       </c>
       <c r="D161" s="23"/>
@@ -9109,7 +9361,7 @@
         <v>25000000000159</v>
       </c>
       <c r="C162" s="41" t="str">
-        <f>IF(EXACT(B162, ""), "", VLOOKUP(B162, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B162, ""), "", VLOOKUP(B162, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Frando Judi Siahaan</v>
       </c>
       <c r="D162" s="23">
@@ -9130,7 +9382,7 @@
         <v>25000000000160</v>
       </c>
       <c r="C163" s="41" t="str">
-        <f>IF(EXACT(B163, ""), "", VLOOKUP(B163, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B163, ""), "", VLOOKUP(B163, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Frederika Intan</v>
       </c>
       <c r="D163" s="23"/>
@@ -9149,7 +9401,7 @@
         <v>25000000000161</v>
       </c>
       <c r="C164" s="41" t="str">
-        <f>IF(EXACT(B164, ""), "", VLOOKUP(B164, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B164, ""), "", VLOOKUP(B164, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Fuad Febrian</v>
       </c>
       <c r="D164" s="23"/>
@@ -9168,7 +9420,7 @@
         <v>25000000000162</v>
       </c>
       <c r="C165" s="41" t="str">
-        <f>IF(EXACT(B165, ""), "", VLOOKUP(B165, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B165, ""), "", VLOOKUP(B165, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Fuzi Mafhrozi</v>
       </c>
       <c r="D165" s="23"/>
@@ -9187,7 +9439,7 @@
         <v>25000000000163</v>
       </c>
       <c r="C166" s="41" t="str">
-        <f>IF(EXACT(B166, ""), "", VLOOKUP(B166, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B166, ""), "", VLOOKUP(B166, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Galuh Swastika</v>
       </c>
       <c r="D166" s="23"/>
@@ -9206,7 +9458,7 @@
         <v>25000000000164</v>
       </c>
       <c r="C167" s="41" t="str">
-        <f>IF(EXACT(B167, ""), "", VLOOKUP(B167, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B167, ""), "", VLOOKUP(B167, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ganda Yuharis R.</v>
       </c>
       <c r="D167" s="23"/>
@@ -9225,7 +9477,7 @@
         <v>25000000000165</v>
       </c>
       <c r="C168" s="41" t="str">
-        <f>IF(EXACT(B168, ""), "", VLOOKUP(B168, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B168, ""), "", VLOOKUP(B168, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Gatot Harsono</v>
       </c>
       <c r="D168" s="23"/>
@@ -9244,7 +9496,7 @@
         <v>25000000000166</v>
       </c>
       <c r="C169" s="41" t="str">
-        <f>IF(EXACT(B169, ""), "", VLOOKUP(B169, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B169, ""), "", VLOOKUP(B169, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Gina Septa</v>
       </c>
       <c r="D169" s="23"/>
@@ -9263,7 +9515,7 @@
         <v>25000000000167</v>
       </c>
       <c r="C170" s="41" t="str">
-        <f>IF(EXACT(B170, ""), "", VLOOKUP(B170, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B170, ""), "", VLOOKUP(B170, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Grace Kurniawan</v>
       </c>
       <c r="D170" s="23"/>
@@ -9282,7 +9534,7 @@
         <v>25000000000168</v>
       </c>
       <c r="C171" s="41" t="str">
-        <f>IF(EXACT(B171, ""), "", VLOOKUP(B171, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B171, ""), "", VLOOKUP(B171, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Gunawan</v>
       </c>
       <c r="D171" s="23" t="s">
@@ -9303,7 +9555,7 @@
         <v>25000000000169</v>
       </c>
       <c r="C172" s="41" t="str">
-        <f>IF(EXACT(B172, ""), "", VLOOKUP(B172, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B172, ""), "", VLOOKUP(B172, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Gustia Rakhmanita</v>
       </c>
       <c r="D172" s="23"/>
@@ -9322,7 +9574,7 @@
         <v>25000000000170</v>
       </c>
       <c r="C173" s="41" t="str">
-        <f>IF(EXACT(B173, ""), "", VLOOKUP(B173, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B173, ""), "", VLOOKUP(B173, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Habib Abdullah</v>
       </c>
       <c r="D173" s="23"/>
@@ -9341,7 +9593,7 @@
         <v>25000000000171</v>
       </c>
       <c r="C174" s="41" t="str">
-        <f>IF(EXACT(B174, ""), "", VLOOKUP(B174, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B174, ""), "", VLOOKUP(B174, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hadi Kasmuri</v>
       </c>
       <c r="D174" s="23"/>
@@ -9360,7 +9612,7 @@
         <v>25000000000172</v>
       </c>
       <c r="C175" s="41" t="str">
-        <f>IF(EXACT(B175, ""), "", VLOOKUP(B175, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B175, ""), "", VLOOKUP(B175, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Haikal</v>
       </c>
       <c r="D175" s="23"/>
@@ -9379,7 +9631,7 @@
         <v>25000000000173</v>
       </c>
       <c r="C176" s="41" t="str">
-        <f>IF(EXACT(B176, ""), "", VLOOKUP(B176, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B176, ""), "", VLOOKUP(B176, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hanantowiryo Tamtama</v>
       </c>
       <c r="D176" s="23"/>
@@ -9398,7 +9650,7 @@
         <v>25000000000174</v>
       </c>
       <c r="C177" s="41" t="str">
-        <f>IF(EXACT(B177, ""), "", VLOOKUP(B177, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B177, ""), "", VLOOKUP(B177, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Handoko</v>
       </c>
       <c r="D177" s="23"/>
@@ -9417,7 +9669,7 @@
         <v>25000000000175</v>
       </c>
       <c r="C178" s="41" t="str">
-        <f>IF(EXACT(B178, ""), "", VLOOKUP(B178, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B178, ""), "", VLOOKUP(B178, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hanif Ashari</v>
       </c>
       <c r="D178" s="23"/>
@@ -9436,7 +9688,7 @@
         <v>25000000000176</v>
       </c>
       <c r="C179" s="41" t="str">
-        <f>IF(EXACT(B179, ""), "", VLOOKUP(B179, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B179, ""), "", VLOOKUP(B179, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hanif Eko Saputro</v>
       </c>
       <c r="D179" s="23"/>
@@ -9455,7 +9707,7 @@
         <v>25000000000177</v>
       </c>
       <c r="C180" s="41" t="str">
-        <f>IF(EXACT(B180, ""), "", VLOOKUP(B180, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B180, ""), "", VLOOKUP(B180, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hardianto</v>
       </c>
       <c r="D180" s="23"/>
@@ -9474,7 +9726,7 @@
         <v>25000000000178</v>
       </c>
       <c r="C181" s="41" t="str">
-        <f>IF(EXACT(B181, ""), "", VLOOKUP(B181, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B181, ""), "", VLOOKUP(B181, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Harlen Amudi Purba</v>
       </c>
       <c r="D181" s="23"/>
@@ -9493,7 +9745,7 @@
         <v>25000000000179</v>
       </c>
       <c r="C182" s="41" t="str">
-        <f>IF(EXACT(B182, ""), "", VLOOKUP(B182, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B182, ""), "", VLOOKUP(B182, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Harry Isnaeni</v>
       </c>
       <c r="D182" s="23"/>
@@ -9512,7 +9764,7 @@
         <v>25000000000180</v>
       </c>
       <c r="C183" s="41" t="str">
-        <f>IF(EXACT(B183, ""), "", VLOOKUP(B183, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B183, ""), "", VLOOKUP(B183, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hasan Gani</v>
       </c>
       <c r="D183" s="23"/>
@@ -9531,7 +9783,7 @@
         <v>25000000000181</v>
       </c>
       <c r="C184" s="41" t="str">
-        <f>IF(EXACT(B184, ""), "", VLOOKUP(B184, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B184, ""), "", VLOOKUP(B184, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hasrul</v>
       </c>
       <c r="D184" s="23"/>
@@ -9550,7 +9802,7 @@
         <v>25000000000182</v>
       </c>
       <c r="C185" s="41" t="str">
-        <f>IF(EXACT(B185, ""), "", VLOOKUP(B185, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B185, ""), "", VLOOKUP(B185, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hendar Pambudi</v>
       </c>
       <c r="D185" s="23"/>
@@ -9569,7 +9821,7 @@
         <v>25000000000183</v>
       </c>
       <c r="C186" s="41" t="str">
-        <f>IF(EXACT(B186, ""), "", VLOOKUP(B186, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B186, ""), "", VLOOKUP(B186, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hendri Kustian</v>
       </c>
       <c r="D186" s="23"/>
@@ -9588,7 +9840,7 @@
         <v>25000000000184</v>
       </c>
       <c r="C187" s="41" t="str">
-        <f>IF(EXACT(B187, ""), "", VLOOKUP(B187, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B187, ""), "", VLOOKUP(B187, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hendrik</v>
       </c>
       <c r="D187" s="23"/>
@@ -9607,7 +9859,7 @@
         <v>25000000000185</v>
       </c>
       <c r="C188" s="41" t="str">
-        <f>IF(EXACT(B188, ""), "", VLOOKUP(B188, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B188, ""), "", VLOOKUP(B188, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Herdi Yulia Rohmana</v>
       </c>
       <c r="D188" s="23"/>
@@ -9626,7 +9878,7 @@
         <v>25000000000186</v>
       </c>
       <c r="C189" s="41" t="str">
-        <f>IF(EXACT(B189, ""), "", VLOOKUP(B189, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B189, ""), "", VLOOKUP(B189, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Heri Susanto</v>
       </c>
       <c r="D189" s="23"/>
@@ -9645,7 +9897,7 @@
         <v>25000000000187</v>
       </c>
       <c r="C190" s="41" t="str">
-        <f>IF(EXACT(B190, ""), "", VLOOKUP(B190, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B190, ""), "", VLOOKUP(B190, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Herlin Juli Asri</v>
       </c>
       <c r="D190" s="23"/>
@@ -9664,7 +9916,7 @@
         <v>25000000000188</v>
       </c>
       <c r="C191" s="41" t="str">
-        <f>IF(EXACT(B191, ""), "", VLOOKUP(B191, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B191, ""), "", VLOOKUP(B191, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Herman Budoyo</v>
       </c>
       <c r="D191" s="23"/>
@@ -9683,7 +9935,7 @@
         <v>25000000000189</v>
       </c>
       <c r="C192" s="41" t="str">
-        <f>IF(EXACT(B192, ""), "", VLOOKUP(B192, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B192, ""), "", VLOOKUP(B192, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Herni Yuliati</v>
       </c>
       <c r="D192" s="23"/>
@@ -9702,7 +9954,7 @@
         <v>25000000000190</v>
       </c>
       <c r="C193" s="41" t="str">
-        <f>IF(EXACT(B193, ""), "", VLOOKUP(B193, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B193, ""), "", VLOOKUP(B193, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hernita Dwi</v>
       </c>
       <c r="D193" s="23"/>
@@ -9721,7 +9973,7 @@
         <v>25000000000191</v>
       </c>
       <c r="C194" s="41" t="str">
-        <f>IF(EXACT(B194, ""), "", VLOOKUP(B194, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B194, ""), "", VLOOKUP(B194, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Herri Setyawan</v>
       </c>
       <c r="D194" s="23"/>
@@ -9740,7 +9992,7 @@
         <v>25000000000192</v>
       </c>
       <c r="C195" s="41" t="str">
-        <f>IF(EXACT(B195, ""), "", VLOOKUP(B195, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B195, ""), "", VLOOKUP(B195, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Heru Sugiri</v>
       </c>
       <c r="D195" s="23"/>
@@ -9759,7 +10011,7 @@
         <v>25000000000193</v>
       </c>
       <c r="C196" s="41" t="str">
-        <f>IF(EXACT(B196, ""), "", VLOOKUP(B196, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B196, ""), "", VLOOKUP(B196, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Hervian Bagus Saputra</v>
       </c>
       <c r="D196" s="23"/>
@@ -9778,7 +10030,7 @@
         <v>25000000000194</v>
       </c>
       <c r="C197" s="41" t="str">
-        <f>IF(EXACT(B197, ""), "", VLOOKUP(B197, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B197, ""), "", VLOOKUP(B197, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>H.R. Marlina S. T. R.</v>
       </c>
       <c r="D197" s="23"/>
@@ -9797,7 +10049,7 @@
         <v>25000000000195</v>
       </c>
       <c r="C198" s="41" t="str">
-        <f>IF(EXACT(B198, ""), "", VLOOKUP(B198, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B198, ""), "", VLOOKUP(B198, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ibrahim Soukani</v>
       </c>
       <c r="D198" s="23"/>
@@ -9816,7 +10068,7 @@
         <v>25000000000196</v>
       </c>
       <c r="C199" s="41" t="str">
-        <f>IF(EXACT(B199, ""), "", VLOOKUP(B199, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B199, ""), "", VLOOKUP(B199, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Icha Mailinda Syamsoedin</v>
       </c>
       <c r="D199" s="23">
@@ -9837,7 +10089,7 @@
         <v>25000000000197</v>
       </c>
       <c r="C200" s="41" t="str">
-        <f>IF(EXACT(B200, ""), "", VLOOKUP(B200, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B200, ""), "", VLOOKUP(B200, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ichsanudin</v>
       </c>
       <c r="D200" s="23"/>
@@ -9856,7 +10108,7 @@
         <v>25000000000198</v>
       </c>
       <c r="C201" s="41" t="str">
-        <f>IF(EXACT(B201, ""), "", VLOOKUP(B201, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B201, ""), "", VLOOKUP(B201, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ida Tri Wulaningsih</v>
       </c>
       <c r="D201" s="23"/>
@@ -9875,7 +10127,7 @@
         <v>25000000000199</v>
       </c>
       <c r="C202" s="41" t="str">
-        <f>IF(EXACT(B202, ""), "", VLOOKUP(B202, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B202, ""), "", VLOOKUP(B202, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Idham</v>
       </c>
       <c r="D202" s="23"/>
@@ -9894,7 +10146,7 @@
         <v>25000000000200</v>
       </c>
       <c r="C203" s="41" t="str">
-        <f>IF(EXACT(B203, ""), "", VLOOKUP(B203, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B203, ""), "", VLOOKUP(B203, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Idham Nasution</v>
       </c>
       <c r="D203" s="23"/>
@@ -9913,7 +10165,7 @@
         <v>25000000000201</v>
       </c>
       <c r="C204" s="41" t="str">
-        <f>IF(EXACT(B204, ""), "", VLOOKUP(B204, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B204, ""), "", VLOOKUP(B204, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Idian</v>
       </c>
       <c r="D204" s="23"/>
@@ -9932,7 +10184,7 @@
         <v>25000000000202</v>
       </c>
       <c r="C205" s="41" t="str">
-        <f>IF(EXACT(B205, ""), "", VLOOKUP(B205, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B205, ""), "", VLOOKUP(B205, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ikun M. Soedrajat</v>
       </c>
       <c r="D205" s="23"/>
@@ -9951,7 +10203,7 @@
         <v>25000000000203</v>
       </c>
       <c r="C206" s="41" t="str">
-        <f>IF(EXACT(B206, ""), "", VLOOKUP(B206, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B206, ""), "", VLOOKUP(B206, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ilham Arisyandy</v>
       </c>
       <c r="D206" s="23"/>
@@ -9970,7 +10222,7 @@
         <v>25000000000204</v>
       </c>
       <c r="C207" s="41" t="str">
-        <f>IF(EXACT(B207, ""), "", VLOOKUP(B207, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B207, ""), "", VLOOKUP(B207, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ilham Akbar</v>
       </c>
       <c r="D207" s="23">
@@ -9991,7 +10243,7 @@
         <v>25000000000205</v>
       </c>
       <c r="C208" s="41" t="str">
-        <f>IF(EXACT(B208, ""), "", VLOOKUP(B208, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B208, ""), "", VLOOKUP(B208, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Imam Basuki</v>
       </c>
       <c r="D208" s="23"/>
@@ -10010,7 +10262,7 @@
         <v>25000000000206</v>
       </c>
       <c r="C209" s="41" t="str">
-        <f>IF(EXACT(B209, ""), "", VLOOKUP(B209, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B209, ""), "", VLOOKUP(B209, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Imam Mustofa</v>
       </c>
       <c r="D209" s="23"/>
@@ -10029,7 +10281,7 @@
         <v>25000000000207</v>
       </c>
       <c r="C210" s="41" t="str">
-        <f>IF(EXACT(B210, ""), "", VLOOKUP(B210, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B210, ""), "", VLOOKUP(B210, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Imam Safiiy</v>
       </c>
       <c r="D210" s="23"/>
@@ -10048,7 +10300,7 @@
         <v>25000000000208</v>
       </c>
       <c r="C211" s="41" t="str">
-        <f>IF(EXACT(B211, ""), "", VLOOKUP(B211, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B211, ""), "", VLOOKUP(B211, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Iman Hakiki</v>
       </c>
       <c r="D211" s="23"/>
@@ -10067,7 +10319,7 @@
         <v>25000000000209</v>
       </c>
       <c r="C212" s="41" t="str">
-        <f>IF(EXACT(B212, ""), "", VLOOKUP(B212, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B212, ""), "", VLOOKUP(B212, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Imelda Claudia</v>
       </c>
       <c r="D212" s="23"/>
@@ -10086,7 +10338,7 @@
         <v>25000000000210</v>
       </c>
       <c r="C213" s="41" t="str">
-        <f>IF(EXACT(B213, ""), "", VLOOKUP(B213, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B213, ""), "", VLOOKUP(B213, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Indawan Haryadi</v>
       </c>
       <c r="D213" s="23"/>
@@ -10105,7 +10357,7 @@
         <v>25000000000211</v>
       </c>
       <c r="C214" s="41" t="str">
-        <f>IF(EXACT(B214, ""), "", VLOOKUP(B214, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B214, ""), "", VLOOKUP(B214, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Indra Jaya</v>
       </c>
       <c r="D214" s="23"/>
@@ -10124,7 +10376,7 @@
         <v>25000000000212</v>
       </c>
       <c r="C215" s="41" t="str">
-        <f>IF(EXACT(B215, ""), "", VLOOKUP(B215, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B215, ""), "", VLOOKUP(B215, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Indra Muchtar</v>
       </c>
       <c r="D215" s="23"/>
@@ -10143,7 +10395,7 @@
         <v>25000000000213</v>
       </c>
       <c r="C216" s="41" t="str">
-        <f>IF(EXACT(B216, ""), "", VLOOKUP(B216, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B216, ""), "", VLOOKUP(B216, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Irvan</v>
       </c>
       <c r="D216" s="23"/>
@@ -10162,7 +10414,7 @@
         <v>25000000000214</v>
       </c>
       <c r="C217" s="41" t="str">
-        <f>IF(EXACT(B217, ""), "", VLOOKUP(B217, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B217, ""), "", VLOOKUP(B217, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Irvan Agus Dharma Eka Putra</v>
       </c>
       <c r="D217" s="23" t="s">
@@ -10183,7 +10435,7 @@
         <v>25000000000215</v>
       </c>
       <c r="C218" s="41" t="str">
-        <f>IF(EXACT(B218, ""), "", VLOOKUP(B218, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B218, ""), "", VLOOKUP(B218, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Irwan</v>
       </c>
       <c r="D218" s="23"/>
@@ -10202,7 +10454,7 @@
         <v>25000000000216</v>
       </c>
       <c r="C219" s="41" t="str">
-        <f>IF(EXACT(B219, ""), "", VLOOKUP(B219, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B219, ""), "", VLOOKUP(B219, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Isa Anshori</v>
       </c>
       <c r="D219" s="23"/>
@@ -10221,7 +10473,7 @@
         <v>25000000000217</v>
       </c>
       <c r="C220" s="41" t="str">
-        <f>IF(EXACT(B220, ""), "", VLOOKUP(B220, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B220, ""), "", VLOOKUP(B220, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Isa Taufiq</v>
       </c>
       <c r="D220" s="23">
@@ -10242,7 +10494,7 @@
         <v>25000000000218</v>
       </c>
       <c r="C221" s="41" t="str">
-        <f>IF(EXACT(B221, ""), "", VLOOKUP(B221, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B221, ""), "", VLOOKUP(B221, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Iskandarsyah</v>
       </c>
       <c r="D221" s="23"/>
@@ -10261,7 +10513,7 @@
         <v>25000000000219</v>
       </c>
       <c r="C222" s="41" t="str">
-        <f>IF(EXACT(B222, ""), "", VLOOKUP(B222, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B222, ""), "", VLOOKUP(B222, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Istanto Istanto</v>
       </c>
       <c r="D222" s="23"/>
@@ -10280,7 +10532,7 @@
         <v>25000000000220</v>
       </c>
       <c r="C223" s="41" t="str">
-        <f>IF(EXACT(B223, ""), "", VLOOKUP(B223, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B223, ""), "", VLOOKUP(B223, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Iswahyuni</v>
       </c>
       <c r="D223" s="23"/>
@@ -10299,7 +10551,7 @@
         <v>25000000000221</v>
       </c>
       <c r="C224" s="41" t="str">
-        <f>IF(EXACT(B224, ""), "", VLOOKUP(B224, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B224, ""), "", VLOOKUP(B224, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Iva Nurvahayati</v>
       </c>
       <c r="D224" s="23"/>
@@ -10318,7 +10570,7 @@
         <v>25000000000222</v>
       </c>
       <c r="C225" s="41" t="str">
-        <f>IF(EXACT(B225, ""), "", VLOOKUP(B225, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B225, ""), "", VLOOKUP(B225, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Iwan Setiawan</v>
       </c>
       <c r="D225" s="23"/>
@@ -10337,7 +10589,7 @@
         <v>25000000000223</v>
       </c>
       <c r="C226" s="41" t="str">
-        <f>IF(EXACT(B226, ""), "", VLOOKUP(B226, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B226, ""), "", VLOOKUP(B226, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Iwan Sumantri</v>
       </c>
       <c r="D226" s="23"/>
@@ -10356,7 +10608,7 @@
         <v>25000000000224</v>
       </c>
       <c r="C227" s="41" t="str">
-        <f>IF(EXACT(B227, ""), "", VLOOKUP(B227, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B227, ""), "", VLOOKUP(B227, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Iwan Wibawa</v>
       </c>
       <c r="D227" s="23"/>
@@ -10375,7 +10627,7 @@
         <v>25000000000225</v>
       </c>
       <c r="C228" s="41" t="str">
-        <f>IF(EXACT(B228, ""), "", VLOOKUP(B228, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B228, ""), "", VLOOKUP(B228, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Iyus Darwin</v>
       </c>
       <c r="D228" s="23"/>
@@ -10394,7 +10646,7 @@
         <v>25000000000226</v>
       </c>
       <c r="C229" s="41" t="str">
-        <f>IF(EXACT(B229, ""), "", VLOOKUP(B229, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B229, ""), "", VLOOKUP(B229, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jaenudin</v>
       </c>
       <c r="D229" s="23"/>
@@ -10413,7 +10665,7 @@
         <v>25000000000227</v>
       </c>
       <c r="C230" s="41" t="str">
-        <f>IF(EXACT(B230, ""), "", VLOOKUP(B230, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B230, ""), "", VLOOKUP(B230, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jaruli Samosir</v>
       </c>
       <c r="D230" s="23"/>
@@ -10432,7 +10684,7 @@
         <v>25000000000228</v>
       </c>
       <c r="C231" s="41" t="str">
-        <f>IF(EXACT(B231, ""), "", VLOOKUP(B231, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B231, ""), "", VLOOKUP(B231, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jaya Ganef</v>
       </c>
       <c r="D231" s="23"/>
@@ -10451,7 +10703,7 @@
         <v>25000000000229</v>
       </c>
       <c r="C232" s="41" t="str">
-        <f>IF(EXACT(B232, ""), "", VLOOKUP(B232, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B232, ""), "", VLOOKUP(B232, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jaya Sitepu</v>
       </c>
       <c r="D232" s="23"/>
@@ -10470,7 +10722,7 @@
         <v>25000000000230</v>
       </c>
       <c r="C233" s="41" t="str">
-        <f>IF(EXACT(B233, ""), "", VLOOKUP(B233, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B233, ""), "", VLOOKUP(B233, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jeefrianda H. P. Sigalingging</v>
       </c>
       <c r="D233" s="23"/>
@@ -10489,7 +10741,7 @@
         <v>25000000000231</v>
       </c>
       <c r="C234" s="41" t="str">
-        <f>IF(EXACT(B234, ""), "", VLOOKUP(B234, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B234, ""), "", VLOOKUP(B234, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jerry Djajasaputra</v>
       </c>
       <c r="D234" s="23"/>
@@ -10508,7 +10760,7 @@
         <v>25000000000232</v>
       </c>
       <c r="C235" s="41" t="str">
-        <f>IF(EXACT(B235, ""), "", VLOOKUP(B235, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B235, ""), "", VLOOKUP(B235, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jimmywal</v>
       </c>
       <c r="D235" s="23" t="s">
@@ -10529,7 +10781,7 @@
         <v>25000000000233</v>
       </c>
       <c r="C236" s="41" t="str">
-        <f>IF(EXACT(B236, ""), "", VLOOKUP(B236, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B236, ""), "", VLOOKUP(B236, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jodie Satria</v>
       </c>
       <c r="D236" s="23"/>
@@ -10548,7 +10800,7 @@
         <v>25000000000234</v>
       </c>
       <c r="C237" s="41" t="str">
-        <f>IF(EXACT(B237, ""), "", VLOOKUP(B237, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B237, ""), "", VLOOKUP(B237, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Johannes Silalahi</v>
       </c>
       <c r="D237" s="23"/>
@@ -10567,7 +10819,7 @@
         <v>25000000000235</v>
       </c>
       <c r="C238" s="41" t="str">
-        <f>IF(EXACT(B238, ""), "", VLOOKUP(B238, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B238, ""), "", VLOOKUP(B238, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Joko Wiyono</v>
       </c>
       <c r="D238" s="23"/>
@@ -10586,7 +10838,7 @@
         <v>25000000000236</v>
       </c>
       <c r="C239" s="41" t="str">
-        <f>IF(EXACT(B239, ""), "", VLOOKUP(B239, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B239, ""), "", VLOOKUP(B239, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jondril Hantoni</v>
       </c>
       <c r="D239" s="23"/>
@@ -10605,7 +10857,7 @@
         <v>25000000000237</v>
       </c>
       <c r="C240" s="41" t="str">
-        <f>IF(EXACT(B240, ""), "", VLOOKUP(B240, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B240, ""), "", VLOOKUP(B240, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jonhar Aziz</v>
       </c>
       <c r="D240" s="23"/>
@@ -10624,7 +10876,7 @@
         <v>25000000000238</v>
       </c>
       <c r="C241" s="41" t="str">
-        <f>IF(EXACT(B241, ""), "", VLOOKUP(B241, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B241, ""), "", VLOOKUP(B241, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Juan Talitha</v>
       </c>
       <c r="D241" s="23"/>
@@ -10643,7 +10895,7 @@
         <v>25000000000239</v>
       </c>
       <c r="C242" s="41" t="str">
-        <f>IF(EXACT(B242, ""), "", VLOOKUP(B242, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B242, ""), "", VLOOKUP(B242, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Juharja Juharja</v>
       </c>
       <c r="D242" s="23"/>
@@ -10662,7 +10914,7 @@
         <v>25000000000240</v>
       </c>
       <c r="C243" s="41" t="str">
-        <f>IF(EXACT(B243, ""), "", VLOOKUP(B243, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B243, ""), "", VLOOKUP(B243, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Juminar</v>
       </c>
       <c r="D243" s="23"/>
@@ -10681,7 +10933,7 @@
         <v>25000000000241</v>
       </c>
       <c r="C244" s="41" t="str">
-        <f>IF(EXACT(B244, ""), "", VLOOKUP(B244, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B244, ""), "", VLOOKUP(B244, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jumino</v>
       </c>
       <c r="D244" s="23"/>
@@ -10700,7 +10952,7 @@
         <v>25000000000242</v>
       </c>
       <c r="C245" s="41" t="str">
-        <f>IF(EXACT(B245, ""), "", VLOOKUP(B245, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B245, ""), "", VLOOKUP(B245, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Junaedi</v>
       </c>
       <c r="D245" s="23"/>
@@ -10719,7 +10971,7 @@
         <v>25000000000243</v>
       </c>
       <c r="C246" s="41" t="str">
-        <f>IF(EXACT(B246, ""), "", VLOOKUP(B246, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B246, ""), "", VLOOKUP(B246, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Junaidi</v>
       </c>
       <c r="D246" s="23"/>
@@ -10738,7 +10990,7 @@
         <v>25000000000244</v>
       </c>
       <c r="C247" s="41" t="str">
-        <f>IF(EXACT(B247, ""), "", VLOOKUP(B247, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B247, ""), "", VLOOKUP(B247, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jusuf Bobby Putra</v>
       </c>
       <c r="D247" s="23"/>
@@ -10757,7 +11009,7 @@
         <v>25000000000245</v>
       </c>
       <c r="C248" s="41" t="str">
-        <f>IF(EXACT(B248, ""), "", VLOOKUP(B248, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B248, ""), "", VLOOKUP(B248, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Jusuf Gandi</v>
       </c>
       <c r="D248" s="23"/>
@@ -10776,7 +11028,7 @@
         <v>25000000000246</v>
       </c>
       <c r="C249" s="41" t="str">
-        <f>IF(EXACT(B249, ""), "", VLOOKUP(B249, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B249, ""), "", VLOOKUP(B249, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kahar Triyono</v>
       </c>
       <c r="D249" s="23"/>
@@ -10795,7 +11047,7 @@
         <v>25000000000247</v>
       </c>
       <c r="C250" s="41" t="str">
-        <f>IF(EXACT(B250, ""), "", VLOOKUP(B250, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B250, ""), "", VLOOKUP(B250, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Keila</v>
       </c>
       <c r="D250" s="23"/>
@@ -10814,7 +11066,7 @@
         <v>25000000000248</v>
       </c>
       <c r="C251" s="41" t="str">
-        <f>IF(EXACT(B251, ""), "", VLOOKUP(B251, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B251, ""), "", VLOOKUP(B251, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kendra Daniswara</v>
       </c>
       <c r="D251" s="23"/>
@@ -10833,7 +11085,7 @@
         <v>25000000000249</v>
       </c>
       <c r="C252" s="41" t="str">
-        <f>IF(EXACT(B252, ""), "", VLOOKUP(B252, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B252, ""), "", VLOOKUP(B252, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kevin Henokh Tambunan</v>
       </c>
       <c r="D252" s="23"/>
@@ -10852,7 +11104,7 @@
         <v>25000000000250</v>
       </c>
       <c r="C253" s="41" t="str">
-        <f>IF(EXACT(B253, ""), "", VLOOKUP(B253, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B253, ""), "", VLOOKUP(B253, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Khafid Fahrurrozi</v>
       </c>
       <c r="D253" s="23"/>
@@ -10871,7 +11123,7 @@
         <v>25000000000251</v>
       </c>
       <c r="C254" s="41" t="str">
-        <f>IF(EXACT(B254, ""), "", VLOOKUP(B254, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B254, ""), "", VLOOKUP(B254, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kholik</v>
       </c>
       <c r="D254" s="23"/>
@@ -10890,7 +11142,7 @@
         <v>25000000000252</v>
       </c>
       <c r="C255" s="41" t="str">
-        <f>IF(EXACT(B255, ""), "", VLOOKUP(B255, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B255, ""), "", VLOOKUP(B255, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kiki Mustikawati</v>
       </c>
       <c r="D255" s="23"/>
@@ -10909,7 +11161,7 @@
         <v>25000000000253</v>
       </c>
       <c r="C256" s="41" t="str">
-        <f>IF(EXACT(B256, ""), "", VLOOKUP(B256, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B256, ""), "", VLOOKUP(B256, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kornelius Sakan</v>
       </c>
       <c r="D256" s="23">
@@ -10930,7 +11182,7 @@
         <v>25000000000254</v>
       </c>
       <c r="C257" s="41" t="str">
-        <f>IF(EXACT(B257, ""), "", VLOOKUP(B257, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B257, ""), "", VLOOKUP(B257, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kosasih</v>
       </c>
       <c r="D257" s="23"/>
@@ -10949,7 +11201,7 @@
         <v>25000000000255</v>
       </c>
       <c r="C258" s="41" t="str">
-        <f>IF(EXACT(B258, ""), "", VLOOKUP(B258, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B258, ""), "", VLOOKUP(B258, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Krisnawan</v>
       </c>
       <c r="D258" s="23"/>
@@ -10968,7 +11220,7 @@
         <v>25000000000256</v>
       </c>
       <c r="C259" s="41" t="str">
-        <f>IF(EXACT(B259, ""), "", VLOOKUP(B259, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B259, ""), "", VLOOKUP(B259, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kurniadi</v>
       </c>
       <c r="D259" s="23"/>
@@ -10987,7 +11239,7 @@
         <v>25000000000257</v>
       </c>
       <c r="C260" s="41" t="str">
-        <f>IF(EXACT(B260, ""), "", VLOOKUP(B260, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B260, ""), "", VLOOKUP(B260, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Kurniawan</v>
       </c>
       <c r="D260" s="23"/>
@@ -11006,7 +11258,7 @@
         <v>25000000000258</v>
       </c>
       <c r="C261" s="41" t="str">
-        <f>IF(EXACT(B261, ""), "", VLOOKUP(B261, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B261, ""), "", VLOOKUP(B261, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Laode</v>
       </c>
       <c r="D261" s="23"/>
@@ -11025,7 +11277,7 @@
         <v>25000000000259</v>
       </c>
       <c r="C262" s="41" t="str">
-        <f>IF(EXACT(B262, ""), "", VLOOKUP(B262, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B262, ""), "", VLOOKUP(B262, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Leo Nababan</v>
       </c>
       <c r="D262" s="23"/>
@@ -11044,7 +11296,7 @@
         <v>25000000000260</v>
       </c>
       <c r="C263" s="41" t="str">
-        <f>IF(EXACT(B263, ""), "", VLOOKUP(B263, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B263, ""), "", VLOOKUP(B263, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Liani Atmaningrum</v>
       </c>
       <c r="D263" s="23"/>
@@ -11063,7 +11315,7 @@
         <v>25000000000261</v>
       </c>
       <c r="C264" s="41" t="str">
-        <f>IF(EXACT(B264, ""), "", VLOOKUP(B264, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B264, ""), "", VLOOKUP(B264, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Liaseptriani Liaseptriani</v>
       </c>
       <c r="D264" s="23"/>
@@ -11082,7 +11334,7 @@
         <v>25000000000262</v>
       </c>
       <c r="C265" s="41" t="str">
-        <f>IF(EXACT(B265, ""), "", VLOOKUP(B265, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B265, ""), "", VLOOKUP(B265, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Lisma Natalia</v>
       </c>
       <c r="D265" s="23">
@@ -11103,7 +11355,7 @@
         <v>25000000000263</v>
       </c>
       <c r="C266" s="41" t="str">
-        <f>IF(EXACT(B266, ""), "", VLOOKUP(B266, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B266, ""), "", VLOOKUP(B266, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Listyo Hartanto</v>
       </c>
       <c r="D266" s="23"/>
@@ -11122,7 +11374,7 @@
         <v>25000000000264</v>
       </c>
       <c r="C267" s="41" t="str">
-        <f>IF(EXACT(B267, ""), "", VLOOKUP(B267, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B267, ""), "", VLOOKUP(B267, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>M. Ari Ardizah Nasution</v>
       </c>
       <c r="D267" s="23"/>
@@ -11141,7 +11393,7 @@
         <v>25000000000265</v>
       </c>
       <c r="C268" s="41" t="str">
-        <f>IF(EXACT(B268, ""), "", VLOOKUP(B268, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B268, ""), "", VLOOKUP(B268, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>M. Denny  Micrazudin</v>
       </c>
       <c r="D268" s="23"/>
@@ -11160,7 +11412,7 @@
         <v>25000000000266</v>
       </c>
       <c r="C269" s="41" t="str">
-        <f>IF(EXACT(B269, ""), "", VLOOKUP(B269, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B269, ""), "", VLOOKUP(B269, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>M. Ridho Pramudia</v>
       </c>
       <c r="D269" s="23"/>
@@ -11179,7 +11431,7 @@
         <v>25000000000267</v>
       </c>
       <c r="C270" s="41" t="str">
-        <f>IF(EXACT(B270, ""), "", VLOOKUP(B270, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B270, ""), "", VLOOKUP(B270, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>M. Rusdi</v>
       </c>
       <c r="D270" s="23"/>
@@ -11198,7 +11450,7 @@
         <v>25000000000268</v>
       </c>
       <c r="C271" s="41" t="str">
-        <f>IF(EXACT(B271, ""), "", VLOOKUP(B271, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B271, ""), "", VLOOKUP(B271, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>M. Ervan Isyawal Akbar</v>
       </c>
       <c r="D271" s="23"/>
@@ -11217,7 +11469,7 @@
         <v>25000000000269</v>
       </c>
       <c r="C272" s="41" t="str">
-        <f>IF(EXACT(B272, ""), "", VLOOKUP(B272, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B272, ""), "", VLOOKUP(B272, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Maharani Tanjungsari</v>
       </c>
       <c r="D272" s="23"/>
@@ -11236,7 +11488,7 @@
         <v>25000000000270</v>
       </c>
       <c r="C273" s="41" t="str">
-        <f>IF(EXACT(B273, ""), "", VLOOKUP(B273, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B273, ""), "", VLOOKUP(B273, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Maharani Uthmaniah</v>
       </c>
       <c r="D273" s="23"/>
@@ -11255,7 +11507,7 @@
         <v>25000000000271</v>
       </c>
       <c r="C274" s="41" t="str">
-        <f>IF(EXACT(B274, ""), "", VLOOKUP(B274, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B274, ""), "", VLOOKUP(B274, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Manotar Tamba</v>
       </c>
       <c r="D274" s="23"/>
@@ -11274,7 +11526,7 @@
         <v>25000000000272</v>
       </c>
       <c r="C275" s="41" t="str">
-        <f>IF(EXACT(B275, ""), "", VLOOKUP(B275, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B275, ""), "", VLOOKUP(B275, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Maradona Manurung</v>
       </c>
       <c r="D275" s="23"/>
@@ -11293,7 +11545,7 @@
         <v>25000000000273</v>
       </c>
       <c r="C276" s="41" t="str">
-        <f>IF(EXACT(B276, ""), "", VLOOKUP(B276, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B276, ""), "", VLOOKUP(B276, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Pantas Banjarnahor Marbun</v>
       </c>
       <c r="D276" s="23">
@@ -11314,7 +11566,7 @@
         <v>25000000000274</v>
       </c>
       <c r="C277" s="41" t="str">
-        <f>IF(EXACT(B277, ""), "", VLOOKUP(B277, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B277, ""), "", VLOOKUP(B277, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Marcella Avia Ramadhinaningrum</v>
       </c>
       <c r="D277" s="23"/>
@@ -11333,7 +11585,7 @@
         <v>25000000000275</v>
       </c>
       <c r="C278" s="41" t="str">
-        <f>IF(EXACT(B278, ""), "", VLOOKUP(B278, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B278, ""), "", VLOOKUP(B278, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Marissa Watak</v>
       </c>
       <c r="D278" s="23"/>
@@ -11352,7 +11604,7 @@
         <v>25000000000276</v>
       </c>
       <c r="C279" s="41" t="str">
-        <f>IF(EXACT(B279, ""), "", VLOOKUP(B279, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B279, ""), "", VLOOKUP(B279, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Marten Tabun</v>
       </c>
       <c r="D279" s="23" t="s">
@@ -11373,7 +11625,7 @@
         <v>25000000000277</v>
       </c>
       <c r="C280" s="41" t="str">
-        <f>IF(EXACT(B280, ""), "", VLOOKUP(B280, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B280, ""), "", VLOOKUP(B280, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Martimbul Rahman</v>
       </c>
       <c r="D280" s="23">
@@ -11394,7 +11646,7 @@
         <v>25000000000278</v>
       </c>
       <c r="C281" s="41" t="str">
-        <f>IF(EXACT(B281, ""), "", VLOOKUP(B281, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B281, ""), "", VLOOKUP(B281, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>T. Marungkil U. S. Sagala</v>
       </c>
       <c r="D281" s="23" t="s">
@@ -11415,7 +11667,7 @@
         <v>25000000000279</v>
       </c>
       <c r="C282" s="41" t="str">
-        <f>IF(EXACT(B282, ""), "", VLOOKUP(B282, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B282, ""), "", VLOOKUP(B282, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Marzuki</v>
       </c>
       <c r="D282" s="23"/>
@@ -11434,7 +11686,7 @@
         <v>25000000000280</v>
       </c>
       <c r="C283" s="41" t="str">
-        <f>IF(EXACT(B283, ""), "", VLOOKUP(B283, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B283, ""), "", VLOOKUP(B283, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mashuri Mashuri</v>
       </c>
       <c r="D283" s="23"/>
@@ -11453,7 +11705,7 @@
         <v>25000000000281</v>
       </c>
       <c r="C284" s="41" t="str">
-        <f>IF(EXACT(B284, ""), "", VLOOKUP(B284, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B284, ""), "", VLOOKUP(B284, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mat Soleh</v>
       </c>
       <c r="D284" s="23"/>
@@ -11472,7 +11724,7 @@
         <v>25000000000282</v>
       </c>
       <c r="C285" s="41" t="str">
-        <f>IF(EXACT(B285, ""), "", VLOOKUP(B285, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B285, ""), "", VLOOKUP(B285, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mhd Syahputra</v>
       </c>
       <c r="D285" s="23"/>
@@ -11491,7 +11743,7 @@
         <v>25000000000283</v>
       </c>
       <c r="C286" s="41" t="str">
-        <f>IF(EXACT(B286, ""), "", VLOOKUP(B286, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B286, ""), "", VLOOKUP(B286, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mia Puspitasari</v>
       </c>
       <c r="D286" s="23"/>
@@ -11510,7 +11762,7 @@
         <v>25000000000284</v>
       </c>
       <c r="C287" s="41" t="str">
-        <f>IF(EXACT(B287, ""), "", VLOOKUP(B287, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B287, ""), "", VLOOKUP(B287, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Midin Ena</v>
       </c>
       <c r="D287" s="23"/>
@@ -11529,7 +11781,7 @@
         <v>25000000000285</v>
       </c>
       <c r="C288" s="41" t="str">
-        <f>IF(EXACT(B288, ""), "", VLOOKUP(B288, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B288, ""), "", VLOOKUP(B288, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Miftakhul Muzakky</v>
       </c>
       <c r="D288" s="23"/>
@@ -11548,7 +11800,7 @@
         <v>25000000000286</v>
       </c>
       <c r="C289" s="41" t="str">
-        <f>IF(EXACT(B289, ""), "", VLOOKUP(B289, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B289, ""), "", VLOOKUP(B289, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mista</v>
       </c>
       <c r="D289" s="23"/>
@@ -11567,7 +11819,7 @@
         <v>25000000000287</v>
       </c>
       <c r="C290" s="41" t="str">
-        <f>IF(EXACT(B290, ""), "", VLOOKUP(B290, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B290, ""), "", VLOOKUP(B290, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mochamad Samman</v>
       </c>
       <c r="D290" s="23"/>
@@ -11586,7 +11838,7 @@
         <v>25000000000288</v>
       </c>
       <c r="C291" s="41" t="str">
-        <f>IF(EXACT(B291, ""), "", VLOOKUP(B291, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B291, ""), "", VLOOKUP(B291, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Moh. Afif</v>
       </c>
       <c r="D291" s="23"/>
@@ -11605,7 +11857,7 @@
         <v>25000000000289</v>
       </c>
       <c r="C292" s="41" t="str">
-        <f>IF(EXACT(B292, ""), "", VLOOKUP(B292, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B292, ""), "", VLOOKUP(B292, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mohammad Arman Tompo</v>
       </c>
       <c r="D292" s="23"/>
@@ -11624,7 +11876,7 @@
         <v>25000000000290</v>
       </c>
       <c r="C293" s="41" t="str">
-        <f>IF(EXACT(B293, ""), "", VLOOKUP(B293, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B293, ""), "", VLOOKUP(B293, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mohd. Elfan Pratama</v>
       </c>
       <c r="D293" s="23"/>
@@ -11643,7 +11895,7 @@
         <v>25000000000291</v>
       </c>
       <c r="C294" s="41" t="str">
-        <f>IF(EXACT(B294, ""), "", VLOOKUP(B294, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B294, ""), "", VLOOKUP(B294, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Monang Simarmata</v>
       </c>
       <c r="D294" s="23"/>
@@ -11662,7 +11914,7 @@
         <v>25000000000292</v>
       </c>
       <c r="C295" s="41" t="str">
-        <f>IF(EXACT(B295, ""), "", VLOOKUP(B295, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B295, ""), "", VLOOKUP(B295, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Moritz Thomsen Marbun</v>
       </c>
       <c r="D295" s="23"/>
@@ -11681,7 +11933,7 @@
         <v>25000000000293</v>
       </c>
       <c r="C296" s="41" t="str">
-        <f>IF(EXACT(B296, ""), "", VLOOKUP(B296, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B296, ""), "", VLOOKUP(B296, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhamad Hamdan Rifai</v>
       </c>
       <c r="D296" s="23"/>
@@ -11700,7 +11952,7 @@
         <v>25000000000294</v>
       </c>
       <c r="C297" s="41" t="str">
-        <f>IF(EXACT(B297, ""), "", VLOOKUP(B297, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B297, ""), "", VLOOKUP(B297, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhamad Ikhsan</v>
       </c>
       <c r="D297" s="23"/>
@@ -11719,7 +11971,7 @@
         <v>25000000000295</v>
       </c>
       <c r="C298" s="41" t="str">
-        <f>IF(EXACT(B298, ""), "", VLOOKUP(B298, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B298, ""), "", VLOOKUP(B298, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhamad Nurhamsach</v>
       </c>
       <c r="D298" s="23"/>
@@ -11738,7 +11990,7 @@
         <v>25000000000296</v>
       </c>
       <c r="C299" s="41" t="str">
-        <f>IF(EXACT(B299, ""), "", VLOOKUP(B299, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B299, ""), "", VLOOKUP(B299, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhammad Ardiansyah</v>
       </c>
       <c r="D299" s="23"/>
@@ -11757,7 +12009,7 @@
         <v>25000000000297</v>
       </c>
       <c r="C300" s="41" t="str">
-        <f>IF(EXACT(B300, ""), "", VLOOKUP(B300, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B300, ""), "", VLOOKUP(B300, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhammad Khadafy</v>
       </c>
       <c r="D300" s="23"/>
@@ -11776,7 +12028,7 @@
         <v>25000000000298</v>
       </c>
       <c r="C301" s="41" t="str">
-        <f>IF(EXACT(B301, ""), "", VLOOKUP(B301, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B301, ""), "", VLOOKUP(B301, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhammad Taufan</v>
       </c>
       <c r="D301" s="23"/>
@@ -11795,7 +12047,7 @@
         <v>25000000000299</v>
       </c>
       <c r="C302" s="41" t="str">
-        <f>IF(EXACT(B302, ""), "", VLOOKUP(B302, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B302, ""), "", VLOOKUP(B302, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muklis</v>
       </c>
       <c r="D302" s="23"/>
@@ -11814,7 +12066,7 @@
         <v>25000000000300</v>
       </c>
       <c r="C303" s="41" t="str">
-        <f>IF(EXACT(B303, ""), "", VLOOKUP(B303, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B303, ""), "", VLOOKUP(B303, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mulia Rohanson Harahap</v>
       </c>
       <c r="D303" s="23"/>
@@ -11833,7 +12085,7 @@
         <v>25000000000301</v>
       </c>
       <c r="C304" s="41" t="str">
-        <f>IF(EXACT(B304, ""), "", VLOOKUP(B304, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B304, ""), "", VLOOKUP(B304, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mullan Tresna</v>
       </c>
       <c r="D304" s="23" t="s">
@@ -11854,7 +12106,7 @@
         <v>25000000000302</v>
       </c>
       <c r="C305" s="41" t="str">
-        <f>IF(EXACT(B305, ""), "", VLOOKUP(B305, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B305, ""), "", VLOOKUP(B305, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mulyadi</v>
       </c>
       <c r="D305" s="23"/>
@@ -11873,7 +12125,7 @@
         <v>25000000000303</v>
       </c>
       <c r="C306" s="41" t="str">
-        <f>IF(EXACT(B306, ""), "", VLOOKUP(B306, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B306, ""), "", VLOOKUP(B306, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mulyono</v>
       </c>
       <c r="D306" s="23"/>
@@ -11892,7 +12144,7 @@
         <v>25000000000304</v>
       </c>
       <c r="C307" s="41" t="str">
-        <f>IF(EXACT(B307, ""), "", VLOOKUP(B307, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B307, ""), "", VLOOKUP(B307, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Murdiansyah</v>
       </c>
       <c r="D307" s="23"/>
@@ -11911,7 +12163,7 @@
         <v>25000000000305</v>
       </c>
       <c r="C308" s="41" t="str">
-        <f>IF(EXACT(B308, ""), "", VLOOKUP(B308, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B308, ""), "", VLOOKUP(B308, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Mursalim</v>
       </c>
       <c r="D308" s="23"/>
@@ -11930,7 +12182,7 @@
         <v>25000000000306</v>
       </c>
       <c r="C309" s="41" t="str">
-        <f>IF(EXACT(B309, ""), "", VLOOKUP(B309, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B309, ""), "", VLOOKUP(B309, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nancy Meriana Sinaga</v>
       </c>
       <c r="D309" s="23"/>
@@ -11949,7 +12201,7 @@
         <v>25000000000307</v>
       </c>
       <c r="C310" s="41" t="str">
-        <f>IF(EXACT(B310, ""), "", VLOOKUP(B310, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B310, ""), "", VLOOKUP(B310, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nandang Effendi</v>
       </c>
       <c r="D310" s="23" t="s">
@@ -11970,7 +12222,7 @@
         <v>25000000000308</v>
       </c>
       <c r="C311" s="41" t="str">
-        <f>IF(EXACT(B311, ""), "", VLOOKUP(B311, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B311, ""), "", VLOOKUP(B311, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Narno</v>
       </c>
       <c r="D311" s="23"/>
@@ -11989,7 +12241,7 @@
         <v>25000000000309</v>
       </c>
       <c r="C312" s="41" t="str">
-        <f>IF(EXACT(B312, ""), "", VLOOKUP(B312, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B312, ""), "", VLOOKUP(B312, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nasrul Anwar P.</v>
       </c>
       <c r="D312" s="23"/>
@@ -12008,7 +12260,7 @@
         <v>25000000000310</v>
       </c>
       <c r="C313" s="41" t="str">
-        <f>IF(EXACT(B313, ""), "", VLOOKUP(B313, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B313, ""), "", VLOOKUP(B313, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nawal</v>
       </c>
       <c r="D313" s="23"/>
@@ -12027,7 +12279,7 @@
         <v>25000000000311</v>
       </c>
       <c r="C314" s="41" t="str">
-        <f>IF(EXACT(B314, ""), "", VLOOKUP(B314, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B314, ""), "", VLOOKUP(B314, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nawir Lahamutu</v>
       </c>
       <c r="D314" s="23"/>
@@ -12046,7 +12298,7 @@
         <v>25000000000312</v>
       </c>
       <c r="C315" s="41" t="str">
-        <f>IF(EXACT(B315, ""), "", VLOOKUP(B315, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B315, ""), "", VLOOKUP(B315, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nicky Kurnia</v>
       </c>
       <c r="D315" s="23"/>
@@ -12065,7 +12317,7 @@
         <v>25000000000313</v>
       </c>
       <c r="C316" s="41" t="str">
-        <f>IF(EXACT(B316, ""), "", VLOOKUP(B316, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B316, ""), "", VLOOKUP(B316, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Noercholis Firmansyah</v>
       </c>
       <c r="D316" s="23"/>
@@ -12084,7 +12336,7 @@
         <v>25000000000314</v>
       </c>
       <c r="C317" s="41" t="str">
-        <f>IF(EXACT(B317, ""), "", VLOOKUP(B317, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B317, ""), "", VLOOKUP(B317, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nopitasari</v>
       </c>
       <c r="D317" s="23"/>
@@ -12103,7 +12355,7 @@
         <v>25000000000315</v>
       </c>
       <c r="C318" s="41" t="str">
-        <f>IF(EXACT(B318, ""), "", VLOOKUP(B318, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B318, ""), "", VLOOKUP(B318, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nora Meilissa</v>
       </c>
       <c r="D318" s="23"/>
@@ -12122,7 +12374,7 @@
         <v>25000000000316</v>
       </c>
       <c r="C319" s="41" t="str">
-        <f>IF(EXACT(B319, ""), "", VLOOKUP(B319, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B319, ""), "", VLOOKUP(B319, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Novalia</v>
       </c>
       <c r="D319" s="23"/>
@@ -12141,7 +12393,7 @@
         <v>25000000000317</v>
       </c>
       <c r="C320" s="41" t="str">
-        <f>IF(EXACT(B320, ""), "", VLOOKUP(B320, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B320, ""), "", VLOOKUP(B320, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Novan Nugraha</v>
       </c>
       <c r="D320" s="23"/>
@@ -12160,7 +12412,7 @@
         <v>25000000000318</v>
       </c>
       <c r="C321" s="41" t="str">
-        <f>IF(EXACT(B321, ""), "", VLOOKUP(B321, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B321, ""), "", VLOOKUP(B321, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nugraha</v>
       </c>
       <c r="D321" s="23"/>
@@ -12179,7 +12431,7 @@
         <v>25000000000319</v>
       </c>
       <c r="C322" s="41" t="str">
-        <f>IF(EXACT(B322, ""), "", VLOOKUP(B322, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B322, ""), "", VLOOKUP(B322, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nugroho Putranto</v>
       </c>
       <c r="D322" s="23"/>
@@ -12198,7 +12450,7 @@
         <v>25000000000320</v>
       </c>
       <c r="C323" s="41" t="str">
-        <f>IF(EXACT(B323, ""), "", VLOOKUP(B323, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B323, ""), "", VLOOKUP(B323, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nur Indra Sri Melati</v>
       </c>
       <c r="D323" s="23"/>
@@ -12217,7 +12469,7 @@
         <v>25000000000321</v>
       </c>
       <c r="C324" s="41" t="str">
-        <f>IF(EXACT(B324, ""), "", VLOOKUP(B324, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B324, ""), "", VLOOKUP(B324, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nur Kusumowati</v>
       </c>
       <c r="D324" s="23"/>
@@ -12236,7 +12488,7 @@
         <v>25000000000322</v>
       </c>
       <c r="C325" s="41" t="str">
-        <f>IF(EXACT(B325, ""), "", VLOOKUP(B325, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B325, ""), "", VLOOKUP(B325, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nurhidayat</v>
       </c>
       <c r="D325" s="23"/>
@@ -12255,7 +12507,7 @@
         <v>25000000000323</v>
       </c>
       <c r="C326" s="41" t="str">
-        <f>IF(EXACT(B326, ""), "", VLOOKUP(B326, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B326, ""), "", VLOOKUP(B326, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Otong Bustori</v>
       </c>
       <c r="D326" s="23"/>
@@ -12274,7 +12526,7 @@
         <v>25000000000324</v>
       </c>
       <c r="C327" s="41" t="str">
-        <f>IF(EXACT(B327, ""), "", VLOOKUP(B327, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B327, ""), "", VLOOKUP(B327, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Paino Suprayinto</v>
       </c>
       <c r="D327" s="23"/>
@@ -12293,7 +12545,7 @@
         <v>25000000000325</v>
       </c>
       <c r="C328" s="41" t="str">
-        <f>IF(EXACT(B328, ""), "", VLOOKUP(B328, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B328, ""), "", VLOOKUP(B328, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Panca Yudi Baskoro</v>
       </c>
       <c r="D328" s="23" t="s">
@@ -12314,7 +12566,7 @@
         <v>25000000000326</v>
       </c>
       <c r="C329" s="41" t="str">
-        <f>IF(EXACT(B329, ""), "", VLOOKUP(B329, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B329, ""), "", VLOOKUP(B329, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Panji Bima Santri</v>
       </c>
       <c r="D329" s="23"/>
@@ -12333,7 +12585,7 @@
         <v>25000000000327</v>
       </c>
       <c r="C330" s="41" t="str">
-        <f>IF(EXACT(B330, ""), "", VLOOKUP(B330, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B330, ""), "", VLOOKUP(B330, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Parulian Napitupulu</v>
       </c>
       <c r="D330" s="23"/>
@@ -12352,7 +12604,7 @@
         <v>25000000000328</v>
       </c>
       <c r="C331" s="41" t="str">
-        <f>IF(EXACT(B331, ""), "", VLOOKUP(B331, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B331, ""), "", VLOOKUP(B331, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Paryanto</v>
       </c>
       <c r="D331" s="23"/>
@@ -12371,7 +12623,7 @@
         <v>25000000000329</v>
       </c>
       <c r="C332" s="41" t="str">
-        <f>IF(EXACT(B332, ""), "", VLOOKUP(B332, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B332, ""), "", VLOOKUP(B332, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Pikri Hidayat</v>
       </c>
       <c r="D332" s="23"/>
@@ -12390,7 +12642,7 @@
         <v>25000000000330</v>
       </c>
       <c r="C333" s="41" t="str">
-        <f>IF(EXACT(B333, ""), "", VLOOKUP(B333, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B333, ""), "", VLOOKUP(B333, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Prayanti Dewi Anggraini</v>
       </c>
       <c r="D333" s="23">
@@ -12411,7 +12663,7 @@
         <v>25000000000331</v>
       </c>
       <c r="C334" s="41" t="str">
-        <f>IF(EXACT(B334, ""), "", VLOOKUP(B334, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B334, ""), "", VLOOKUP(B334, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Prayati Zai</v>
       </c>
       <c r="D334" s="23"/>
@@ -12430,7 +12682,7 @@
         <v>25000000000332</v>
       </c>
       <c r="C335" s="41" t="str">
-        <f>IF(EXACT(B335, ""), "", VLOOKUP(B335, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B335, ""), "", VLOOKUP(B335, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Pristu Andonoto</v>
       </c>
       <c r="D335" s="23"/>
@@ -12449,7 +12701,7 @@
         <v>25000000000333</v>
       </c>
       <c r="C336" s="41" t="str">
-        <f>IF(EXACT(B336, ""), "", VLOOKUP(B336, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B336, ""), "", VLOOKUP(B336, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Putra Perdana Tirtomoyo</v>
       </c>
       <c r="D336" s="23"/>
@@ -12468,7 +12720,7 @@
         <v>25000000000334</v>
       </c>
       <c r="C337" s="41" t="str">
-        <f>IF(EXACT(B337, ""), "", VLOOKUP(B337, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B337, ""), "", VLOOKUP(B337, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>R. Lar Kumalaning Tresno</v>
       </c>
       <c r="D337" s="23"/>
@@ -12487,7 +12739,7 @@
         <v>25000000000335</v>
       </c>
       <c r="C338" s="41" t="str">
-        <f>IF(EXACT(B338, ""), "", VLOOKUP(B338, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B338, ""), "", VLOOKUP(B338, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rachmad</v>
       </c>
       <c r="D338" s="23"/>
@@ -12506,7 +12758,7 @@
         <v>25000000000336</v>
       </c>
       <c r="C339" s="41" t="str">
-        <f>IF(EXACT(B339, ""), "", VLOOKUP(B339, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B339, ""), "", VLOOKUP(B339, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Radjiman</v>
       </c>
       <c r="D339" s="23"/>
@@ -12525,7 +12777,7 @@
         <v>25000000000337</v>
       </c>
       <c r="C340" s="41" t="str">
-        <f>IF(EXACT(B340, ""), "", VLOOKUP(B340, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B340, ""), "", VLOOKUP(B340, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rafi Firman Saputra</v>
       </c>
       <c r="D340" s="23"/>
@@ -12544,7 +12796,7 @@
         <v>25000000000338</v>
       </c>
       <c r="C341" s="41" t="str">
-        <f>IF(EXACT(B341, ""), "", VLOOKUP(B341, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B341, ""), "", VLOOKUP(B341, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rahmat Riyadi</v>
       </c>
       <c r="D341" s="23"/>
@@ -12563,7 +12815,7 @@
         <v>25000000000339</v>
       </c>
       <c r="C342" s="41" t="str">
-        <f>IF(EXACT(B342, ""), "", VLOOKUP(B342, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B342, ""), "", VLOOKUP(B342, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rahmat Sirfano</v>
       </c>
       <c r="D342" s="23"/>
@@ -12582,7 +12834,7 @@
         <v>25000000000340</v>
       </c>
       <c r="C343" s="41" t="str">
-        <f>IF(EXACT(B343, ""), "", VLOOKUP(B343, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B343, ""), "", VLOOKUP(B343, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rais Indra Noor</v>
       </c>
       <c r="D343" s="23"/>
@@ -12601,7 +12853,7 @@
         <v>25000000000341</v>
       </c>
       <c r="C344" s="41" t="str">
-        <f>IF(EXACT(B344, ""), "", VLOOKUP(B344, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B344, ""), "", VLOOKUP(B344, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rakman A. Hadi</v>
       </c>
       <c r="D344" s="23"/>
@@ -12620,7 +12872,7 @@
         <v>25000000000342</v>
       </c>
       <c r="C345" s="41" t="str">
-        <f>IF(EXACT(B345, ""), "", VLOOKUP(B345, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B345, ""), "", VLOOKUP(B345, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ramaizon</v>
       </c>
       <c r="D345" s="23"/>
@@ -12639,7 +12891,7 @@
         <v>25000000000343</v>
       </c>
       <c r="C346" s="41" t="str">
-        <f>IF(EXACT(B346, ""), "", VLOOKUP(B346, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B346, ""), "", VLOOKUP(B346, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rangga Darmawan</v>
       </c>
       <c r="D346" s="23"/>
@@ -12658,7 +12910,7 @@
         <v>25000000000344</v>
       </c>
       <c r="C347" s="41" t="str">
-        <f>IF(EXACT(B347, ""), "", VLOOKUP(B347, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B347, ""), "", VLOOKUP(B347, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Raoli Nainggolan</v>
       </c>
       <c r="D347" s="23"/>
@@ -12677,7 +12929,7 @@
         <v>25000000000345</v>
       </c>
       <c r="C348" s="41" t="str">
-        <f>IF(EXACT(B348, ""), "", VLOOKUP(B348, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B348, ""), "", VLOOKUP(B348, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rayan Suryadikara</v>
       </c>
       <c r="D348" s="23"/>
@@ -12696,7 +12948,7 @@
         <v>25000000000346</v>
       </c>
       <c r="C349" s="41" t="str">
-        <f>IF(EXACT(B349, ""), "", VLOOKUP(B349, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B349, ""), "", VLOOKUP(B349, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Redi Setiadi</v>
       </c>
       <c r="D349" s="23"/>
@@ -12715,7 +12967,7 @@
         <v>25000000000347</v>
       </c>
       <c r="C350" s="41" t="str">
-        <f>IF(EXACT(B350, ""), "", VLOOKUP(B350, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B350, ""), "", VLOOKUP(B350, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Redi Subekti</v>
       </c>
       <c r="D350" s="23"/>
@@ -12734,7 +12986,7 @@
         <v>25000000000348</v>
       </c>
       <c r="C351" s="41" t="str">
-        <f>IF(EXACT(B351, ""), "", VLOOKUP(B351, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B351, ""), "", VLOOKUP(B351, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rendy Prananta Purba</v>
       </c>
       <c r="D351" s="23"/>
@@ -12753,7 +13005,7 @@
         <v>25000000000349</v>
       </c>
       <c r="C352" s="41" t="str">
-        <f>IF(EXACT(B352, ""), "", VLOOKUP(B352, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B352, ""), "", VLOOKUP(B352, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Reni Septiana</v>
       </c>
       <c r="D352" s="23"/>
@@ -12772,7 +13024,7 @@
         <v>25000000000350</v>
       </c>
       <c r="C353" s="41" t="str">
-        <f>IF(EXACT(B353, ""), "", VLOOKUP(B353, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B353, ""), "", VLOOKUP(B353, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rere Ronggolawe</v>
       </c>
       <c r="D353" s="23"/>
@@ -12791,7 +13043,7 @@
         <v>25000000000351</v>
       </c>
       <c r="C354" s="41" t="str">
-        <f>IF(EXACT(B354, ""), "", VLOOKUP(B354, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B354, ""), "", VLOOKUP(B354, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Retnasha Gameswari</v>
       </c>
       <c r="D354" s="23"/>
@@ -12810,7 +13062,7 @@
         <v>25000000000352</v>
       </c>
       <c r="C355" s="41" t="str">
-        <f>IF(EXACT(B355, ""), "", VLOOKUP(B355, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B355, ""), "", VLOOKUP(B355, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rhino Priawan</v>
       </c>
       <c r="D355" s="23">
@@ -12831,7 +13083,7 @@
         <v>25000000000353</v>
       </c>
       <c r="C356" s="41" t="str">
-        <f>IF(EXACT(B356, ""), "", VLOOKUP(B356, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B356, ""), "", VLOOKUP(B356, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rian Yushak</v>
       </c>
       <c r="D356" s="23"/>
@@ -12850,7 +13102,7 @@
         <v>25000000000354</v>
       </c>
       <c r="C357" s="41" t="str">
-        <f>IF(EXACT(B357, ""), "", VLOOKUP(B357, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B357, ""), "", VLOOKUP(B357, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Riandi</v>
       </c>
       <c r="D357" s="23"/>
@@ -12869,7 +13121,7 @@
         <v>25000000000355</v>
       </c>
       <c r="C358" s="41" t="str">
-        <f>IF(EXACT(B358, ""), "", VLOOKUP(B358, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B358, ""), "", VLOOKUP(B358, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ricky Samuel</v>
       </c>
       <c r="D358" s="23"/>
@@ -12888,7 +13140,7 @@
         <v>25000000000356</v>
       </c>
       <c r="C359" s="41" t="str">
-        <f>IF(EXACT(B359, ""), "", VLOOKUP(B359, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B359, ""), "", VLOOKUP(B359, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ridwan Nurhadi</v>
       </c>
       <c r="D359" s="23"/>
@@ -12907,7 +13159,7 @@
         <v>25000000000357</v>
       </c>
       <c r="C360" s="41" t="str">
-        <f>IF(EXACT(B360, ""), "", VLOOKUP(B360, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B360, ""), "", VLOOKUP(B360, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rifki</v>
       </c>
       <c r="D360" s="23"/>
@@ -12926,7 +13178,7 @@
         <v>25000000000358</v>
       </c>
       <c r="C361" s="41" t="str">
-        <f>IF(EXACT(B361, ""), "", VLOOKUP(B361, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B361, ""), "", VLOOKUP(B361, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rika Ginting</v>
       </c>
       <c r="D361" s="23"/>
@@ -12945,7 +13197,7 @@
         <v>25000000000359</v>
       </c>
       <c r="C362" s="41" t="str">
-        <f>IF(EXACT(B362, ""), "", VLOOKUP(B362, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B362, ""), "", VLOOKUP(B362, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Riki Chairul Anwar</v>
       </c>
       <c r="D362" s="23"/>
@@ -12964,7 +13216,7 @@
         <v>25000000000360</v>
       </c>
       <c r="C363" s="41" t="str">
-        <f>IF(EXACT(B363, ""), "", VLOOKUP(B363, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B363, ""), "", VLOOKUP(B363, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Riki Evindra</v>
       </c>
       <c r="D363" s="23"/>
@@ -12983,7 +13235,7 @@
         <v>25000000000361</v>
       </c>
       <c r="C364" s="41" t="str">
-        <f>IF(EXACT(B364, ""), "", VLOOKUP(B364, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B364, ""), "", VLOOKUP(B364, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rinaldi Asrin</v>
       </c>
       <c r="D364" s="23"/>
@@ -13002,7 +13254,7 @@
         <v>25000000000362</v>
       </c>
       <c r="C365" s="41" t="str">
-        <f>IF(EXACT(B365, ""), "", VLOOKUP(B365, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B365, ""), "", VLOOKUP(B365, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rio Hakim</v>
       </c>
       <c r="D365" s="23"/>
@@ -13021,7 +13273,7 @@
         <v>25000000000363</v>
       </c>
       <c r="C366" s="41" t="str">
-        <f>IF(EXACT(B366, ""), "", VLOOKUP(B366, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B366, ""), "", VLOOKUP(B366, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rio Martha</v>
       </c>
       <c r="D366" s="23"/>
@@ -13040,7 +13292,7 @@
         <v>25000000000364</v>
       </c>
       <c r="C367" s="41" t="str">
-        <f>IF(EXACT(B367, ""), "", VLOOKUP(B367, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B367, ""), "", VLOOKUP(B367, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Risdyanto Risdyanto</v>
       </c>
       <c r="D367" s="23"/>
@@ -13059,7 +13311,7 @@
         <v>25000000000365</v>
       </c>
       <c r="C368" s="41" t="str">
-        <f>IF(EXACT(B368, ""), "", VLOOKUP(B368, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B368, ""), "", VLOOKUP(B368, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rizak Tri Septian</v>
       </c>
       <c r="D368" s="23"/>
@@ -13078,7 +13330,7 @@
         <v>25000000000366</v>
       </c>
       <c r="C369" s="41" t="str">
-        <f>IF(EXACT(B369, ""), "", VLOOKUP(B369, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B369, ""), "", VLOOKUP(B369, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rizki Akbar</v>
       </c>
       <c r="D369" s="23"/>
@@ -13097,7 +13349,7 @@
         <v>25000000000367</v>
       </c>
       <c r="C370" s="41" t="str">
-        <f>IF(EXACT(B370, ""), "", VLOOKUP(B370, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B370, ""), "", VLOOKUP(B370, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rizky Fauzy</v>
       </c>
       <c r="D370" s="23"/>
@@ -13116,7 +13368,7 @@
         <v>25000000000368</v>
       </c>
       <c r="C371" s="41" t="str">
-        <f>IF(EXACT(B371, ""), "", VLOOKUP(B371, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B371, ""), "", VLOOKUP(B371, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rizky Reza Pradipta</v>
       </c>
       <c r="D371" s="23"/>
@@ -13135,7 +13387,7 @@
         <v>25000000000369</v>
       </c>
       <c r="C372" s="41" t="str">
-        <f>IF(EXACT(B372, ""), "", VLOOKUP(B372, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B372, ""), "", VLOOKUP(B372, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rohendi Rohendi</v>
       </c>
       <c r="D372" s="23"/>
@@ -13154,7 +13406,7 @@
         <v>25000000000370</v>
       </c>
       <c r="C373" s="41" t="str">
-        <f>IF(EXACT(B373, ""), "", VLOOKUP(B373, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B373, ""), "", VLOOKUP(B373, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rohmani</v>
       </c>
       <c r="D373" s="23"/>
@@ -13173,7 +13425,7 @@
         <v>25000000000371</v>
       </c>
       <c r="C374" s="41" t="str">
-        <f>IF(EXACT(B374, ""), "", VLOOKUP(B374, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B374, ""), "", VLOOKUP(B374, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rommel Hutapea</v>
       </c>
       <c r="D374" s="23"/>
@@ -13192,7 +13444,7 @@
         <v>25000000000372</v>
       </c>
       <c r="C375" s="41" t="str">
-        <f>IF(EXACT(B375, ""), "", VLOOKUP(B375, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B375, ""), "", VLOOKUP(B375, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Roy Aditya</v>
       </c>
       <c r="D375" s="23">
@@ -13213,7 +13465,7 @@
         <v>25000000000373</v>
       </c>
       <c r="C376" s="41" t="str">
-        <f>IF(EXACT(B376, ""), "", VLOOKUP(B376, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B376, ""), "", VLOOKUP(B376, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rubah</v>
       </c>
       <c r="D376" s="23"/>
@@ -13232,7 +13484,7 @@
         <v>25000000000374</v>
       </c>
       <c r="C377" s="41" t="str">
-        <f>IF(EXACT(B377, ""), "", VLOOKUP(B377, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B377, ""), "", VLOOKUP(B377, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rudi Junaedi</v>
       </c>
       <c r="D377" s="23"/>
@@ -13251,7 +13503,7 @@
         <v>25000000000375</v>
       </c>
       <c r="C378" s="41" t="str">
-        <f>IF(EXACT(B378, ""), "", VLOOKUP(B378, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B378, ""), "", VLOOKUP(B378, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ruswandi</v>
       </c>
       <c r="D378" s="23"/>
@@ -13270,7 +13522,7 @@
         <v>25000000000376</v>
       </c>
       <c r="C379" s="41" t="str">
-        <f>IF(EXACT(B379, ""), "", VLOOKUP(B379, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B379, ""), "", VLOOKUP(B379, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ryan Bagus Sasminta</v>
       </c>
       <c r="D379" s="23"/>
@@ -13289,7 +13541,7 @@
         <v>25000000000377</v>
       </c>
       <c r="C380" s="41" t="str">
-        <f>IF(EXACT(B380, ""), "", VLOOKUP(B380, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B380, ""), "", VLOOKUP(B380, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Saarah Andriani</v>
       </c>
       <c r="D380" s="23"/>
@@ -13308,7 +13560,7 @@
         <v>25000000000378</v>
       </c>
       <c r="C381" s="41" t="str">
-        <f>IF(EXACT(B381, ""), "", VLOOKUP(B381, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B381, ""), "", VLOOKUP(B381, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Safira Nurbaiti</v>
       </c>
       <c r="D381" s="23" t="s">
@@ -13329,7 +13581,7 @@
         <v>25000000000379</v>
       </c>
       <c r="C382" s="41" t="str">
-        <f>IF(EXACT(B382, ""), "", VLOOKUP(B382, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B382, ""), "", VLOOKUP(B382, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Saifulloh</v>
       </c>
       <c r="D382" s="23"/>
@@ -13348,7 +13600,7 @@
         <v>25000000000380</v>
       </c>
       <c r="C383" s="41" t="str">
-        <f>IF(EXACT(B383, ""), "", VLOOKUP(B383, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B383, ""), "", VLOOKUP(B383, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Saifuloh</v>
       </c>
       <c r="D383" s="23"/>
@@ -13367,7 +13619,7 @@
         <v>25000000000381</v>
       </c>
       <c r="C384" s="41" t="str">
-        <f>IF(EXACT(B384, ""), "", VLOOKUP(B384, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B384, ""), "", VLOOKUP(B384, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sakinah Tantriani Lubis</v>
       </c>
       <c r="D384" s="23">
@@ -13388,7 +13640,7 @@
         <v>25000000000382</v>
       </c>
       <c r="C385" s="41" t="str">
-        <f>IF(EXACT(B385, ""), "", VLOOKUP(B385, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B385, ""), "", VLOOKUP(B385, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Abdul Samad</v>
       </c>
       <c r="D385" s="23">
@@ -13409,7 +13661,7 @@
         <v>25000000000383</v>
       </c>
       <c r="C386" s="41" t="str">
-        <f>IF(EXACT(B386, ""), "", VLOOKUP(B386, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B386, ""), "", VLOOKUP(B386, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Samsul Hadi</v>
       </c>
       <c r="D386" s="23"/>
@@ -13428,7 +13680,7 @@
         <v>25000000000384</v>
       </c>
       <c r="C387" s="41" t="str">
-        <f>IF(EXACT(B387, ""), "", VLOOKUP(B387, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B387, ""), "", VLOOKUP(B387, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sandika</v>
       </c>
       <c r="D387" s="23"/>
@@ -13447,7 +13699,7 @@
         <v>25000000000385</v>
       </c>
       <c r="C388" s="41" t="str">
-        <f>IF(EXACT(B388, ""), "", VLOOKUP(B388, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B388, ""), "", VLOOKUP(B388, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sang Toga Sitompul</v>
       </c>
       <c r="D388" s="23"/>
@@ -13466,7 +13718,7 @@
         <v>25000000000386</v>
       </c>
       <c r="C389" s="41" t="str">
-        <f>IF(EXACT(B389, ""), "", VLOOKUP(B389, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B389, ""), "", VLOOKUP(B389, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Santi Dewi R. W.</v>
       </c>
       <c r="D389" s="23"/>
@@ -13485,7 +13737,7 @@
         <v>25000000000387</v>
       </c>
       <c r="C390" s="41" t="str">
-        <f>IF(EXACT(B390, ""), "", VLOOKUP(B390, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B390, ""), "", VLOOKUP(B390, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sarah Sibarani</v>
       </c>
       <c r="D390" s="23"/>
@@ -13504,7 +13756,7 @@
         <v>25000000000388</v>
       </c>
       <c r="C391" s="41" t="str">
-        <f>IF(EXACT(B391, ""), "", VLOOKUP(B391, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B391, ""), "", VLOOKUP(B391, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sarif Hidayatul Umah</v>
       </c>
       <c r="D391" s="23"/>
@@ -13523,7 +13775,7 @@
         <v>25000000000389</v>
       </c>
       <c r="C392" s="41" t="str">
-        <f>IF(EXACT(B392, ""), "", VLOOKUP(B392, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B392, ""), "", VLOOKUP(B392, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Satria Budi Raharja</v>
       </c>
       <c r="D392" s="23"/>
@@ -13542,7 +13794,7 @@
         <v>25000000000390</v>
       </c>
       <c r="C393" s="41" t="str">
-        <f>IF(EXACT(B393, ""), "", VLOOKUP(B393, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B393, ""), "", VLOOKUP(B393, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Saut M. P. L. Tobing</v>
       </c>
       <c r="D393" s="23"/>
@@ -13561,7 +13813,7 @@
         <v>25000000000391</v>
       </c>
       <c r="C394" s="41" t="str">
-        <f>IF(EXACT(B394, ""), "", VLOOKUP(B394, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B394, ""), "", VLOOKUP(B394, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Seftiyan Hadi Maulana</v>
       </c>
       <c r="D394" s="23" t="s">
@@ -13582,7 +13834,7 @@
         <v>25000000000392</v>
       </c>
       <c r="C395" s="41" t="str">
-        <f>IF(EXACT(B395, ""), "", VLOOKUP(B395, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B395, ""), "", VLOOKUP(B395, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sena Andi Satria</v>
       </c>
       <c r="D395" s="23"/>
@@ -13601,7 +13853,7 @@
         <v>25000000000393</v>
       </c>
       <c r="C396" s="41" t="str">
-        <f>IF(EXACT(B396, ""), "", VLOOKUP(B396, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B396, ""), "", VLOOKUP(B396, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Setiadi</v>
       </c>
       <c r="D396" s="23">
@@ -13622,7 +13874,7 @@
         <v>25000000000394</v>
       </c>
       <c r="C397" s="41" t="str">
-        <f>IF(EXACT(B397, ""), "", VLOOKUP(B397, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B397, ""), "", VLOOKUP(B397, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sherly Tamira</v>
       </c>
       <c r="D397" s="23"/>
@@ -13641,7 +13893,7 @@
         <v>25000000000395</v>
       </c>
       <c r="C398" s="41" t="str">
-        <f>IF(EXACT(B398, ""), "", VLOOKUP(B398, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B398, ""), "", VLOOKUP(B398, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Shihab</v>
       </c>
       <c r="D398" s="23"/>
@@ -13660,7 +13912,7 @@
         <v>25000000000396</v>
       </c>
       <c r="C399" s="41" t="str">
-        <f>IF(EXACT(B399, ""), "", VLOOKUP(B399, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B399, ""), "", VLOOKUP(B399, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Shobarin Jabar</v>
       </c>
       <c r="D399" s="23"/>
@@ -13679,7 +13931,7 @@
         <v>25000000000397</v>
       </c>
       <c r="C400" s="41" t="str">
-        <f>IF(EXACT(B400, ""), "", VLOOKUP(B400, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B400, ""), "", VLOOKUP(B400, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sholehah</v>
       </c>
       <c r="D400" s="23" t="s">
@@ -13700,7 +13952,7 @@
         <v>25000000000398</v>
       </c>
       <c r="C401" s="41" t="str">
-        <f>IF(EXACT(B401, ""), "", VLOOKUP(B401, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B401, ""), "", VLOOKUP(B401, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sigit Rudiantono</v>
       </c>
       <c r="D401" s="23"/>
@@ -13719,7 +13971,7 @@
         <v>25000000000399</v>
       </c>
       <c r="C402" s="41" t="str">
-        <f>IF(EXACT(B402, ""), "", VLOOKUP(B402, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B402, ""), "", VLOOKUP(B402, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Silvia Putri</v>
       </c>
       <c r="D402" s="23"/>
@@ -13738,7 +13990,7 @@
         <v>25000000000400</v>
       </c>
       <c r="C403" s="41" t="str">
-        <f>IF(EXACT(B403, ""), "", VLOOKUP(B403, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B403, ""), "", VLOOKUP(B403, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Simron Ronaldi Nasution</v>
       </c>
       <c r="D403" s="23"/>
@@ -13757,7 +14009,7 @@
         <v>25000000000401</v>
       </c>
       <c r="C404" s="41" t="str">
-        <f>IF(EXACT(B404, ""), "", VLOOKUP(B404, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B404, ""), "", VLOOKUP(B404, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sinta Vera Trikawati</v>
       </c>
       <c r="D404" s="23"/>
@@ -13776,7 +14028,7 @@
         <v>25000000000402</v>
       </c>
       <c r="C405" s="41" t="str">
-        <f>IF(EXACT(B405, ""), "", VLOOKUP(B405, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B405, ""), "", VLOOKUP(B405, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sir Muhammad Zafrulloh Khan</v>
       </c>
       <c r="D405" s="23"/>
@@ -13795,7 +14047,7 @@
         <v>25000000000403</v>
       </c>
       <c r="C406" s="41" t="str">
-        <f>IF(EXACT(B406, ""), "", VLOOKUP(B406, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B406, ""), "", VLOOKUP(B406, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Siska Marlina</v>
       </c>
       <c r="D406" s="23"/>
@@ -13814,7 +14066,7 @@
         <v>25000000000404</v>
       </c>
       <c r="C407" s="41" t="str">
-        <f>IF(EXACT(B407, ""), "", VLOOKUP(B407, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B407, ""), "", VLOOKUP(B407, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Siswanto</v>
       </c>
       <c r="D407" s="23"/>
@@ -13833,7 +14085,7 @@
         <v>25000000000405</v>
       </c>
       <c r="C408" s="41" t="str">
-        <f>IF(EXACT(B408, ""), "", VLOOKUP(B408, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B408, ""), "", VLOOKUP(B408, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Siti Mulyani</v>
       </c>
       <c r="D408" s="23"/>
@@ -13852,7 +14104,7 @@
         <v>25000000000406</v>
       </c>
       <c r="C409" s="41" t="str">
-        <f>IF(EXACT(B409, ""), "", VLOOKUP(B409, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B409, ""), "", VLOOKUP(B409, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sjanti Devi</v>
       </c>
       <c r="D409" s="23"/>
@@ -13871,7 +14123,7 @@
         <v>25000000000407</v>
       </c>
       <c r="C410" s="41" t="str">
-        <f>IF(EXACT(B410, ""), "", VLOOKUP(B410, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B410, ""), "", VLOOKUP(B410, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Slamet Budi Setiawan</v>
       </c>
       <c r="D410" s="23"/>
@@ -13890,7 +14142,7 @@
         <v>25000000000408</v>
       </c>
       <c r="C411" s="41" t="str">
-        <f>IF(EXACT(B411, ""), "", VLOOKUP(B411, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B411, ""), "", VLOOKUP(B411, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sofyan Maulana</v>
       </c>
       <c r="D411" s="23"/>
@@ -13909,7 +14161,7 @@
         <v>25000000000409</v>
       </c>
       <c r="C412" s="41" t="str">
-        <f>IF(EXACT(B412, ""), "", VLOOKUP(B412, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B412, ""), "", VLOOKUP(B412, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Subagio</v>
       </c>
       <c r="D412" s="23"/>
@@ -13928,7 +14180,7 @@
         <v>25000000000410</v>
       </c>
       <c r="C413" s="41" t="str">
-        <f>IF(EXACT(B413, ""), "", VLOOKUP(B413, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B413, ""), "", VLOOKUP(B413, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Suci Mardiana</v>
       </c>
       <c r="D413" s="23"/>
@@ -13947,7 +14199,7 @@
         <v>25000000000411</v>
       </c>
       <c r="C414" s="41" t="str">
-        <f>IF(EXACT(B414, ""), "", VLOOKUP(B414, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B414, ""), "", VLOOKUP(B414, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Suci Rachma Sari</v>
       </c>
       <c r="D414" s="23"/>
@@ -13966,7 +14218,7 @@
         <v>25000000000412</v>
       </c>
       <c r="C415" s="41" t="str">
-        <f>IF(EXACT(B415, ""), "", VLOOKUP(B415, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B415, ""), "", VLOOKUP(B415, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sudarlan</v>
       </c>
       <c r="D415" s="23" t="s">
@@ -13987,7 +14239,7 @@
         <v>25000000000413</v>
       </c>
       <c r="C416" s="41" t="str">
-        <f>IF(EXACT(B416, ""), "", VLOOKUP(B416, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B416, ""), "", VLOOKUP(B416, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sufie Amalia</v>
       </c>
       <c r="D416" s="23" t="s">
@@ -14008,7 +14260,7 @@
         <v>25000000000414</v>
       </c>
       <c r="C417" s="41" t="str">
-        <f>IF(EXACT(B417, ""), "", VLOOKUP(B417, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B417, ""), "", VLOOKUP(B417, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sugeng Ismanto</v>
       </c>
       <c r="D417" s="23"/>
@@ -14027,7 +14279,7 @@
         <v>25000000000415</v>
       </c>
       <c r="C418" s="41" t="str">
-        <f>IF(EXACT(B418, ""), "", VLOOKUP(B418, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B418, ""), "", VLOOKUP(B418, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sugiarto</v>
       </c>
       <c r="D418" s="23" t="s">
@@ -14048,7 +14300,7 @@
         <v>25000000000416</v>
       </c>
       <c r="C419" s="41" t="str">
-        <f>IF(EXACT(B419, ""), "", VLOOKUP(B419, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B419, ""), "", VLOOKUP(B419, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sulih</v>
       </c>
       <c r="D419" s="23"/>
@@ -14067,7 +14319,7 @@
         <v>25000000000417</v>
       </c>
       <c r="C420" s="41" t="str">
-        <f>IF(EXACT(B420, ""), "", VLOOKUP(B420, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B420, ""), "", VLOOKUP(B420, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sumadi</v>
       </c>
       <c r="D420" s="23"/>
@@ -14086,7 +14338,7 @@
         <v>25000000000418</v>
       </c>
       <c r="C421" s="41" t="str">
-        <f>IF(EXACT(B421, ""), "", VLOOKUP(B421, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B421, ""), "", VLOOKUP(B421, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sumirat</v>
       </c>
       <c r="D421" s="23"/>
@@ -14105,7 +14357,7 @@
         <v>25000000000419</v>
       </c>
       <c r="C422" s="41" t="str">
-        <f>IF(EXACT(B422, ""), "", VLOOKUP(B422, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B422, ""), "", VLOOKUP(B422, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sunaryati</v>
       </c>
       <c r="D422" s="23"/>
@@ -14124,7 +14376,7 @@
         <v>25000000000420</v>
       </c>
       <c r="C423" s="41" t="str">
-        <f>IF(EXACT(B423, ""), "", VLOOKUP(B423, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B423, ""), "", VLOOKUP(B423, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Supriyadi</v>
       </c>
       <c r="D423" s="23"/>
@@ -14143,7 +14395,7 @@
         <v>25000000000421</v>
       </c>
       <c r="C424" s="41" t="str">
-        <f>IF(EXACT(B424, ""), "", VLOOKUP(B424, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B424, ""), "", VLOOKUP(B424, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Suriono Suriono</v>
       </c>
       <c r="D424" s="23"/>
@@ -14162,7 +14414,7 @@
         <v>25000000000422</v>
       </c>
       <c r="C425" s="41" t="str">
-        <f>IF(EXACT(B425, ""), "", VLOOKUP(B425, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B425, ""), "", VLOOKUP(B425, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Surono</v>
       </c>
       <c r="D425" s="23"/>
@@ -14181,7 +14433,7 @@
         <v>25000000000423</v>
       </c>
       <c r="C426" s="41" t="str">
-        <f>IF(EXACT(B426, ""), "", VLOOKUP(B426, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B426, ""), "", VLOOKUP(B426, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Surtoyo Syukri</v>
       </c>
       <c r="D426" s="23"/>
@@ -14200,7 +14452,7 @@
         <v>25000000000424</v>
       </c>
       <c r="C427" s="41" t="str">
-        <f>IF(EXACT(B427, ""), "", VLOOKUP(B427, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B427, ""), "", VLOOKUP(B427, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Suryadi</v>
       </c>
       <c r="D427" s="23"/>
@@ -14219,7 +14471,7 @@
         <v>25000000000425</v>
       </c>
       <c r="C428" s="41" t="str">
-        <f>IF(EXACT(B428, ""), "", VLOOKUP(B428, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B428, ""), "", VLOOKUP(B428, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Susilawati</v>
       </c>
       <c r="D428" s="23"/>
@@ -14238,7 +14490,7 @@
         <v>25000000000426</v>
       </c>
       <c r="C429" s="41" t="str">
-        <f>IF(EXACT(B429, ""), "", VLOOKUP(B429, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B429, ""), "", VLOOKUP(B429, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sutarno</v>
       </c>
       <c r="D429" s="23"/>
@@ -14257,7 +14509,7 @@
         <v>25000000000427</v>
       </c>
       <c r="C430" s="41" t="str">
-        <f>IF(EXACT(B430, ""), "", VLOOKUP(B430, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B430, ""), "", VLOOKUP(B430, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sutra Riandi</v>
       </c>
       <c r="D430" s="23"/>
@@ -14276,7 +14528,7 @@
         <v>25000000000428</v>
       </c>
       <c r="C431" s="41" t="str">
-        <f>IF(EXACT(B431, ""), "", VLOOKUP(B431, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B431, ""), "", VLOOKUP(B431, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Suyanto</v>
       </c>
       <c r="D431" s="23" t="s">
@@ -14297,7 +14549,7 @@
         <v>25000000000429</v>
       </c>
       <c r="C432" s="41" t="str">
-        <f>IF(EXACT(B432, ""), "", VLOOKUP(B432, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B432, ""), "", VLOOKUP(B432, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Swar Jono</v>
       </c>
       <c r="D432" s="23"/>
@@ -14316,7 +14568,7 @@
         <v>25000000000430</v>
       </c>
       <c r="C433" s="41" t="str">
-        <f>IF(EXACT(B433, ""), "", VLOOKUP(B433, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B433, ""), "", VLOOKUP(B433, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Syafruddin</v>
       </c>
       <c r="D433" s="23"/>
@@ -14335,7 +14587,7 @@
         <v>25000000000431</v>
       </c>
       <c r="C434" s="41" t="str">
-        <f>IF(EXACT(B434, ""), "", VLOOKUP(B434, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B434, ""), "", VLOOKUP(B434, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Syafrudin Machmud</v>
       </c>
       <c r="D434" s="23"/>
@@ -14354,7 +14606,7 @@
         <v>25000000000432</v>
       </c>
       <c r="C435" s="41" t="str">
-        <f>IF(EXACT(B435, ""), "", VLOOKUP(B435, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B435, ""), "", VLOOKUP(B435, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Syahrizal</v>
       </c>
       <c r="D435" s="23"/>
@@ -14373,7 +14625,7 @@
         <v>25000000000433</v>
       </c>
       <c r="C436" s="41" t="str">
-        <f>IF(EXACT(B436, ""), "", VLOOKUP(B436, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B436, ""), "", VLOOKUP(B436, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Syaiful Idjam</v>
       </c>
       <c r="D436" s="23"/>
@@ -14392,7 +14644,7 @@
         <v>25000000000434</v>
       </c>
       <c r="C437" s="41" t="str">
-        <f>IF(EXACT(B437, ""), "", VLOOKUP(B437, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B437, ""), "", VLOOKUP(B437, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tajuddin Assubki Ismail</v>
       </c>
       <c r="D437" s="23" t="s">
@@ -14413,7 +14665,7 @@
         <v>25000000000435</v>
       </c>
       <c r="C438" s="41" t="str">
-        <f>IF(EXACT(B438, ""), "", VLOOKUP(B438, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B438, ""), "", VLOOKUP(B438, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Taslim</v>
       </c>
       <c r="D438" s="23"/>
@@ -14432,7 +14684,7 @@
         <v>25000000000436</v>
       </c>
       <c r="C439" s="41" t="str">
-        <f>IF(EXACT(B439, ""), "", VLOOKUP(B439, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B439, ""), "", VLOOKUP(B439, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Taufik Mulia Pane</v>
       </c>
       <c r="D439" s="23"/>
@@ -14451,7 +14703,7 @@
         <v>25000000000437</v>
       </c>
       <c r="C440" s="41" t="str">
-        <f>IF(EXACT(B440, ""), "", VLOOKUP(B440, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B440, ""), "", VLOOKUP(B440, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tedy Harseno</v>
       </c>
       <c r="D440" s="23"/>
@@ -14470,7 +14722,7 @@
         <v>25000000000438</v>
       </c>
       <c r="C441" s="41" t="str">
-        <f>IF(EXACT(B441, ""), "", VLOOKUP(B441, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B441, ""), "", VLOOKUP(B441, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Teguh Joko Pamuji</v>
       </c>
       <c r="D441" s="23"/>
@@ -14489,7 +14741,7 @@
         <v>25000000000439</v>
       </c>
       <c r="C442" s="41" t="str">
-        <f>IF(EXACT(B442, ""), "", VLOOKUP(B442, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B442, ""), "", VLOOKUP(B442, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Teguh Pratama Januzir Sukin</v>
       </c>
       <c r="D442" s="23" t="s">
@@ -14510,7 +14762,7 @@
         <v>25000000000440</v>
       </c>
       <c r="C443" s="41" t="str">
-        <f>IF(EXACT(B443, ""), "", VLOOKUP(B443, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B443, ""), "", VLOOKUP(B443, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Teguh Susanto</v>
       </c>
       <c r="D443" s="23"/>
@@ -14529,7 +14781,7 @@
         <v>25000000000441</v>
       </c>
       <c r="C444" s="41" t="str">
-        <f>IF(EXACT(B444, ""), "", VLOOKUP(B444, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B444, ""), "", VLOOKUP(B444, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tenri Sumange</v>
       </c>
       <c r="D444" s="23"/>
@@ -14548,7 +14800,7 @@
         <v>25000000000442</v>
       </c>
       <c r="C445" s="41" t="str">
-        <f>IF(EXACT(B445, ""), "", VLOOKUP(B445, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B445, ""), "", VLOOKUP(B445, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Teuku Zulkifli</v>
       </c>
       <c r="D445" s="23"/>
@@ -14567,7 +14819,7 @@
         <v>25000000000443</v>
       </c>
       <c r="C446" s="41" t="str">
-        <f>IF(EXACT(B446, ""), "", VLOOKUP(B446, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B446, ""), "", VLOOKUP(B446, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tiara Kemalasari</v>
       </c>
       <c r="D446" s="23"/>
@@ -14586,7 +14838,7 @@
         <v>25000000000444</v>
       </c>
       <c r="C447" s="41" t="str">
-        <f>IF(EXACT(B447, ""), "", VLOOKUP(B447, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B447, ""), "", VLOOKUP(B447, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tjhang Linawati</v>
       </c>
       <c r="D447" s="23"/>
@@ -14605,7 +14857,7 @@
         <v>25000000000445</v>
       </c>
       <c r="C448" s="41" t="str">
-        <f>IF(EXACT(B448, ""), "", VLOOKUP(B448, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B448, ""), "", VLOOKUP(B448, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Totok Kristianto</v>
       </c>
       <c r="D448" s="23"/>
@@ -14624,7 +14876,7 @@
         <v>25000000000446</v>
       </c>
       <c r="C449" s="41" t="str">
-        <f>IF(EXACT(B449, ""), "", VLOOKUP(B449, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B449, ""), "", VLOOKUP(B449, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tri Aji</v>
       </c>
       <c r="D449" s="23"/>
@@ -14643,7 +14895,7 @@
         <v>25000000000447</v>
       </c>
       <c r="C450" s="41" t="str">
-        <f>IF(EXACT(B450, ""), "", VLOOKUP(B450, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B450, ""), "", VLOOKUP(B450, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tri M. Saputra</v>
       </c>
       <c r="D450" s="23"/>
@@ -14662,7 +14914,7 @@
         <v>25000000000448</v>
       </c>
       <c r="C451" s="41" t="str">
-        <f>IF(EXACT(B451, ""), "", VLOOKUP(B451, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B451, ""), "", VLOOKUP(B451, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Triani Irma</v>
       </c>
       <c r="D451" s="23"/>
@@ -14681,7 +14933,7 @@
         <v>25000000000449</v>
       </c>
       <c r="C452" s="41" t="str">
-        <f>IF(EXACT(B452, ""), "", VLOOKUP(B452, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B452, ""), "", VLOOKUP(B452, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Trisyanto</v>
       </c>
       <c r="D452" s="23"/>
@@ -14700,7 +14952,7 @@
         <v>25000000000450</v>
       </c>
       <c r="C453" s="41" t="str">
-        <f>IF(EXACT(B453, ""), "", VLOOKUP(B453, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B453, ""), "", VLOOKUP(B453, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Triwiarti Dibya</v>
       </c>
       <c r="D453" s="23"/>
@@ -14719,7 +14971,7 @@
         <v>25000000000451</v>
       </c>
       <c r="C454" s="41" t="str">
-        <f>IF(EXACT(B454, ""), "", VLOOKUP(B454, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B454, ""), "", VLOOKUP(B454, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Triyono</v>
       </c>
       <c r="D454" s="23"/>
@@ -14738,7 +14990,7 @@
         <v>25000000000452</v>
       </c>
       <c r="C455" s="41" t="str">
-        <f>IF(EXACT(B455, ""), "", VLOOKUP(B455, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B455, ""), "", VLOOKUP(B455, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Turita Pramuning Marantina</v>
       </c>
       <c r="D455" s="23" t="s">
@@ -14759,7 +15011,7 @@
         <v>25000000000453</v>
       </c>
       <c r="C456" s="41" t="str">
-        <f>IF(EXACT(B456, ""), "", VLOOKUP(B456, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B456, ""), "", VLOOKUP(B456, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tutus Ary</v>
       </c>
       <c r="D456" s="23"/>
@@ -14778,7 +15030,7 @@
         <v>25000000000454</v>
       </c>
       <c r="C457" s="41" t="str">
-        <f>IF(EXACT(B457, ""), "", VLOOKUP(B457, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B457, ""), "", VLOOKUP(B457, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ubaidillah</v>
       </c>
       <c r="D457" s="23"/>
@@ -14797,7 +15049,7 @@
         <v>25000000000455</v>
       </c>
       <c r="C458" s="41" t="str">
-        <f>IF(EXACT(B458, ""), "", VLOOKUP(B458, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B458, ""), "", VLOOKUP(B458, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ujang Barma</v>
       </c>
       <c r="D458" s="23"/>
@@ -14816,7 +15068,7 @@
         <v>25000000000456</v>
       </c>
       <c r="C459" s="41" t="str">
-        <f>IF(EXACT(B459, ""), "", VLOOKUP(B459, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B459, ""), "", VLOOKUP(B459, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ujang Suryana</v>
       </c>
       <c r="D459" s="23"/>
@@ -14835,7 +15087,7 @@
         <v>25000000000457</v>
       </c>
       <c r="C460" s="41" t="str">
-        <f>IF(EXACT(B460, ""), "", VLOOKUP(B460, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B460, ""), "", VLOOKUP(B460, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ulman Juanda</v>
       </c>
       <c r="D460" s="23"/>
@@ -14854,7 +15106,7 @@
         <v>25000000000458</v>
       </c>
       <c r="C461" s="41" t="str">
-        <f>IF(EXACT(B461, ""), "", VLOOKUP(B461, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B461, ""), "", VLOOKUP(B461, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Urbanus</v>
       </c>
       <c r="D461" s="23"/>
@@ -14873,7 +15125,7 @@
         <v>25000000000459</v>
       </c>
       <c r="C462" s="41" t="str">
-        <f>IF(EXACT(B462, ""), "", VLOOKUP(B462, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B462, ""), "", VLOOKUP(B462, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Uswatun Hasamah</v>
       </c>
       <c r="D462" s="23"/>
@@ -14892,7 +15144,7 @@
         <v>25000000000460</v>
       </c>
       <c r="C463" s="41" t="str">
-        <f>IF(EXACT(B463, ""), "", VLOOKUP(B463, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B463, ""), "", VLOOKUP(B463, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Uswatun Khasanah</v>
       </c>
       <c r="D463" s="23"/>
@@ -14911,7 +15163,7 @@
         <v>25000000000461</v>
       </c>
       <c r="C464" s="41" t="str">
-        <f>IF(EXACT(B464, ""), "", VLOOKUP(B464, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B464, ""), "", VLOOKUP(B464, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Utami Dewi</v>
       </c>
       <c r="D464" s="23"/>
@@ -14930,7 +15182,7 @@
         <v>25000000000462</v>
       </c>
       <c r="C465" s="41" t="str">
-        <f>IF(EXACT(B465, ""), "", VLOOKUP(B465, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B465, ""), "", VLOOKUP(B465, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Utanto</v>
       </c>
       <c r="D465" s="23"/>
@@ -14949,7 +15201,7 @@
         <v>25000000000463</v>
       </c>
       <c r="C466" s="41" t="str">
-        <f>IF(EXACT(B466, ""), "", VLOOKUP(B466, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B466, ""), "", VLOOKUP(B466, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Veradita Yulanda</v>
       </c>
       <c r="D466" s="23"/>
@@ -14968,7 +15220,7 @@
         <v>25000000000464</v>
       </c>
       <c r="C467" s="41" t="str">
-        <f>IF(EXACT(B467, ""), "", VLOOKUP(B467, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B467, ""), "", VLOOKUP(B467, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Vidhy Kartika Putri</v>
       </c>
       <c r="D467" s="23"/>
@@ -14987,7 +15239,7 @@
         <v>25000000000465</v>
       </c>
       <c r="C468" s="41" t="str">
-        <f>IF(EXACT(B468, ""), "", VLOOKUP(B468, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B468, ""), "", VLOOKUP(B468, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Vonny Agram</v>
       </c>
       <c r="D468" s="23"/>
@@ -15006,7 +15258,7 @@
         <v>25000000000466</v>
       </c>
       <c r="C469" s="41" t="str">
-        <f>IF(EXACT(B469, ""), "", VLOOKUP(B469, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B469, ""), "", VLOOKUP(B469, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wahyu</v>
       </c>
       <c r="D469" s="23"/>
@@ -15025,7 +15277,7 @@
         <v>25000000000467</v>
       </c>
       <c r="C470" s="41" t="str">
-        <f>IF(EXACT(B470, ""), "", VLOOKUP(B470, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B470, ""), "", VLOOKUP(B470, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wahyu Ramadhani</v>
       </c>
       <c r="D470" s="23" t="s">
@@ -15046,7 +15298,7 @@
         <v>25000000000468</v>
       </c>
       <c r="C471" s="41" t="str">
-        <f>IF(EXACT(B471, ""), "", VLOOKUP(B471, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B471, ""), "", VLOOKUP(B471, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wahyu Widodo</v>
       </c>
       <c r="D471" s="23"/>
@@ -15065,7 +15317,7 @@
         <v>25000000000469</v>
       </c>
       <c r="C472" s="41" t="str">
-        <f>IF(EXACT(B472, ""), "", VLOOKUP(B472, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B472, ""), "", VLOOKUP(B472, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Warsito Edy Saputra</v>
       </c>
       <c r="D472" s="23"/>
@@ -15084,7 +15336,7 @@
         <v>25000000000470</v>
       </c>
       <c r="C473" s="41" t="str">
-        <f>IF(EXACT(B473, ""), "", VLOOKUP(B473, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B473, ""), "", VLOOKUP(B473, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Weldi Wimar</v>
       </c>
       <c r="D473" s="23"/>
@@ -15103,7 +15355,7 @@
         <v>25000000000471</v>
       </c>
       <c r="C474" s="41" t="str">
-        <f>IF(EXACT(B474, ""), "", VLOOKUP(B474, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B474, ""), "", VLOOKUP(B474, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wendy Septiyan</v>
       </c>
       <c r="D474" s="23"/>
@@ -15122,7 +15374,7 @@
         <v>25000000000472</v>
       </c>
       <c r="C475" s="41" t="str">
-        <f>IF(EXACT(B475, ""), "", VLOOKUP(B475, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B475, ""), "", VLOOKUP(B475, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Willy Indarto</v>
       </c>
       <c r="D475" s="23"/>
@@ -15141,7 +15393,7 @@
         <v>25000000000473</v>
       </c>
       <c r="C476" s="41" t="str">
-        <f>IF(EXACT(B476, ""), "", VLOOKUP(B476, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B476, ""), "", VLOOKUP(B476, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Winda Suherman</v>
       </c>
       <c r="D476" s="23"/>
@@ -15160,7 +15412,7 @@
         <v>25000000000474</v>
       </c>
       <c r="C477" s="41" t="str">
-        <f>IF(EXACT(B477, ""), "", VLOOKUP(B477, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B477, ""), "", VLOOKUP(B477, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wisnu Ardian</v>
       </c>
       <c r="D477" s="23" t="s">
@@ -15181,7 +15433,7 @@
         <v>25000000000475</v>
       </c>
       <c r="C478" s="41" t="str">
-        <f>IF(EXACT(B478, ""), "", VLOOKUP(B478, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B478, ""), "", VLOOKUP(B478, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wisudanto C. Suntoyo</v>
       </c>
       <c r="D478" s="23"/>
@@ -15200,7 +15452,7 @@
         <v>25000000000476</v>
       </c>
       <c r="C479" s="41" t="str">
-        <f>IF(EXACT(B479, ""), "", VLOOKUP(B479, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B479, ""), "", VLOOKUP(B479, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yahya Adyasa Febriansyah</v>
       </c>
       <c r="D479" s="23"/>
@@ -15219,7 +15471,7 @@
         <v>25000000000477</v>
       </c>
       <c r="C480" s="41" t="str">
-        <f>IF(EXACT(B480, ""), "", VLOOKUP(B480, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B480, ""), "", VLOOKUP(B480, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yakup Sunaryo</v>
       </c>
       <c r="D480" s="23"/>
@@ -15238,7 +15490,7 @@
         <v>25000000000478</v>
       </c>
       <c r="C481" s="41" t="str">
-        <f>IF(EXACT(B481, ""), "", VLOOKUP(B481, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B481, ""), "", VLOOKUP(B481, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yanuar Tri Ananda</v>
       </c>
       <c r="D481" s="23"/>
@@ -15257,7 +15509,7 @@
         <v>25000000000479</v>
       </c>
       <c r="C482" s="41" t="str">
-        <f>IF(EXACT(B482, ""), "", VLOOKUP(B482, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B482, ""), "", VLOOKUP(B482, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yasir Liem</v>
       </c>
       <c r="D482" s="23"/>
@@ -15276,7 +15528,7 @@
         <v>25000000000480</v>
       </c>
       <c r="C483" s="41" t="str">
-        <f>IF(EXACT(B483, ""), "", VLOOKUP(B483, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B483, ""), "", VLOOKUP(B483, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yefri Hendrayani</v>
       </c>
       <c r="D483" s="23"/>
@@ -15295,7 +15547,7 @@
         <v>25000000000481</v>
       </c>
       <c r="C484" s="41" t="str">
-        <f>IF(EXACT(B484, ""), "", VLOOKUP(B484, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B484, ""), "", VLOOKUP(B484, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yessi Setiarini</v>
       </c>
       <c r="D484" s="23"/>
@@ -15314,7 +15566,7 @@
         <v>25000000000482</v>
       </c>
       <c r="C485" s="41" t="str">
-        <f>IF(EXACT(B485, ""), "", VLOOKUP(B485, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B485, ""), "", VLOOKUP(B485, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yorid Fae</v>
       </c>
       <c r="D485" s="23"/>
@@ -15333,7 +15585,7 @@
         <v>25000000000483</v>
       </c>
       <c r="C486" s="41" t="str">
-        <f>IF(EXACT(B486, ""), "", VLOOKUP(B486, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B486, ""), "", VLOOKUP(B486, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yosef Hang Wan</v>
       </c>
       <c r="D486" s="23"/>
@@ -15352,7 +15604,7 @@
         <v>25000000000484</v>
       </c>
       <c r="C487" s="41" t="str">
-        <f>IF(EXACT(B487, ""), "", VLOOKUP(B487, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B487, ""), "", VLOOKUP(B487, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yossie Deliana</v>
       </c>
       <c r="D487" s="23"/>
@@ -15371,7 +15623,7 @@
         <v>25000000000485</v>
       </c>
       <c r="C488" s="41" t="str">
-        <f>IF(EXACT(B488, ""), "", VLOOKUP(B488, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B488, ""), "", VLOOKUP(B488, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yudi Rahmadi</v>
       </c>
       <c r="D488" s="23"/>
@@ -15390,7 +15642,7 @@
         <v>25000000000486</v>
       </c>
       <c r="C489" s="41" t="str">
-        <f>IF(EXACT(B489, ""), "", VLOOKUP(B489, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B489, ""), "", VLOOKUP(B489, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yudo Jati Rahmat Satrio</v>
       </c>
       <c r="D489" s="23"/>
@@ -15409,7 +15661,7 @@
         <v>25000000000487</v>
       </c>
       <c r="C490" s="41" t="str">
-        <f>IF(EXACT(B490, ""), "", VLOOKUP(B490, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B490, ""), "", VLOOKUP(B490, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yuliandaru Suryoatmodjo</v>
       </c>
       <c r="D490" s="23">
@@ -15430,7 +15682,7 @@
         <v>25000000000488</v>
       </c>
       <c r="C491" s="41" t="str">
-        <f>IF(EXACT(B491, ""), "", VLOOKUP(B491, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B491, ""), "", VLOOKUP(B491, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yulianta</v>
       </c>
       <c r="D491" s="23"/>
@@ -15449,7 +15701,7 @@
         <v>25000000000489</v>
       </c>
       <c r="C492" s="41" t="str">
-        <f>IF(EXACT(B492, ""), "", VLOOKUP(B492, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B492, ""), "", VLOOKUP(B492, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yulianti</v>
       </c>
       <c r="D492" s="23"/>
@@ -15468,7 +15720,7 @@
         <v>25000000000490</v>
       </c>
       <c r="C493" s="41" t="str">
-        <f>IF(EXACT(B493, ""), "", VLOOKUP(B493, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B493, ""), "", VLOOKUP(B493, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yulius</v>
       </c>
       <c r="D493" s="23"/>
@@ -15487,7 +15739,7 @@
         <v>25000000000491</v>
       </c>
       <c r="C494" s="41" t="str">
-        <f>IF(EXACT(B494, ""), "", VLOOKUP(B494, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B494, ""), "", VLOOKUP(B494, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yunni Sazili</v>
       </c>
       <c r="D494" s="23"/>
@@ -15506,7 +15758,7 @@
         <v>25000000000492</v>
       </c>
       <c r="C495" s="41" t="str">
-        <f>IF(EXACT(B495, ""), "", VLOOKUP(B495, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B495, ""), "", VLOOKUP(B495, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yusman</v>
       </c>
       <c r="D495" s="23"/>
@@ -15525,7 +15777,7 @@
         <v>25000000000493</v>
       </c>
       <c r="C496" s="41" t="str">
-        <f>IF(EXACT(B496, ""), "", VLOOKUP(B496, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B496, ""), "", VLOOKUP(B496, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yusri Azhar</v>
       </c>
       <c r="D496" s="23"/>
@@ -15544,7 +15796,7 @@
         <v>25000000000494</v>
       </c>
       <c r="C497" s="41" t="str">
-        <f>IF(EXACT(B497, ""), "", VLOOKUP(B497, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B497, ""), "", VLOOKUP(B497, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zafrizal</v>
       </c>
       <c r="D497" s="23"/>
@@ -15563,7 +15815,7 @@
         <v>25000000000495</v>
       </c>
       <c r="C498" s="41" t="str">
-        <f>IF(EXACT(B498, ""), "", VLOOKUP(B498, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B498, ""), "", VLOOKUP(B498, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zafrizal Rifla (Ucok)</v>
       </c>
       <c r="D498" s="23"/>
@@ -15582,7 +15834,7 @@
         <v>25000000000496</v>
       </c>
       <c r="C499" s="41" t="str">
-        <f>IF(EXACT(B499, ""), "", VLOOKUP(B499, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B499, ""), "", VLOOKUP(B499, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zainuddin</v>
       </c>
       <c r="D499" s="23"/>
@@ -15601,7 +15853,7 @@
         <v>25000000000497</v>
       </c>
       <c r="C500" s="41" t="str">
-        <f>IF(EXACT(B500, ""), "", VLOOKUP(B500, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B500, ""), "", VLOOKUP(B500, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zainudin Anwar</v>
       </c>
       <c r="D500" s="23" t="s">
@@ -15622,7 +15874,7 @@
         <v>25000000000498</v>
       </c>
       <c r="C501" s="41" t="str">
-        <f>IF(EXACT(B501, ""), "", VLOOKUP(B501, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B501, ""), "", VLOOKUP(B501, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zaire Dite Biscaya</v>
       </c>
       <c r="D501" s="23"/>
@@ -15641,7 +15893,7 @@
         <v>25000000000499</v>
       </c>
       <c r="C502" s="41" t="str">
-        <f>IF(EXACT(B502, ""), "", VLOOKUP(B502, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B502, ""), "", VLOOKUP(B502, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zalfi Yandri</v>
       </c>
       <c r="D502" s="23"/>
@@ -15660,7 +15912,7 @@
         <v>25000000000500</v>
       </c>
       <c r="C503" s="41" t="str">
-        <f>IF(EXACT(B503, ""), "", VLOOKUP(B503, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B503, ""), "", VLOOKUP(B503, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zam Roji</v>
       </c>
       <c r="D503" s="23"/>
@@ -15679,7 +15931,7 @@
         <v>25000000000501</v>
       </c>
       <c r="C504" s="41" t="str">
-        <f>IF(EXACT(B504, ""), "", VLOOKUP(B504, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B504, ""), "", VLOOKUP(B504, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zulfikar Siregar</v>
       </c>
       <c r="D504" s="23"/>
@@ -15701,7 +15953,7 @@
         <v>25000000000502</v>
       </c>
       <c r="C505" s="41" t="str">
-        <f>IF(EXACT(B505, ""), "", VLOOKUP(B505, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B505, ""), "", VLOOKUP(B505, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Adythia Adikara</v>
       </c>
       <c r="D505" s="23"/>
@@ -15720,7 +15972,7 @@
         <v>25000000000503</v>
       </c>
       <c r="C506" s="41" t="str">
-        <f>IF(EXACT(B506, ""), "", VLOOKUP(B506, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B506, ""), "", VLOOKUP(B506, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Agus Sopyan Hadi</v>
       </c>
       <c r="D506" s="23"/>
@@ -15739,7 +15991,7 @@
         <v>25000000000504</v>
       </c>
       <c r="C507" s="41" t="str">
-        <f>IF(EXACT(B507, ""), "", VLOOKUP(B507, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B507, ""), "", VLOOKUP(B507, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Azis Purwandana</v>
       </c>
       <c r="D507" s="23"/>
@@ -15758,7 +16010,7 @@
         <v>25000000000505</v>
       </c>
       <c r="C508" s="41" t="str">
-        <f>IF(EXACT(B508, ""), "", VLOOKUP(B508, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B508, ""), "", VLOOKUP(B508, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Heryanto</v>
       </c>
       <c r="D508" s="23"/>
@@ -15777,7 +16029,7 @@
         <v>25000000000506</v>
       </c>
       <c r="C509" s="41" t="str">
-        <f>IF(EXACT(B509, ""), "", VLOOKUP(B509, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B509, ""), "", VLOOKUP(B509, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Imran</v>
       </c>
       <c r="D509" s="23"/>
@@ -15796,7 +16048,7 @@
         <v>25000000000507</v>
       </c>
       <c r="C510" s="41" t="str">
-        <f>IF(EXACT(B510, ""), "", VLOOKUP(B510, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B510, ""), "", VLOOKUP(B510, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Khamim Taryono</v>
       </c>
       <c r="D510" s="23">
@@ -15817,7 +16069,7 @@
         <v>25000000000508</v>
       </c>
       <c r="C511" s="41" t="str">
-        <f>IF(EXACT(B511, ""), "", VLOOKUP(B511, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B511, ""), "", VLOOKUP(B511, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rafi Artman Siddiq</v>
       </c>
       <c r="D511" s="23">
@@ -15838,7 +16090,7 @@
         <v>25000000000509</v>
       </c>
       <c r="C512" s="41" t="str">
-        <f>IF(EXACT(B512, ""), "", VLOOKUP(B512, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B512, ""), "", VLOOKUP(B512, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Riza Emir Subekti</v>
       </c>
       <c r="D512" s="23">
@@ -15859,7 +16111,7 @@
         <v>25000000000510</v>
       </c>
       <c r="C513" s="41" t="str">
-        <f>IF(EXACT(B513, ""), "", VLOOKUP(B513, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B513, ""), "", VLOOKUP(B513, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Slamet Riadi</v>
       </c>
       <c r="D513" s="23"/>
@@ -15878,7 +16130,7 @@
         <v>25000000000511</v>
       </c>
       <c r="C514" s="41" t="str">
-        <f>IF(EXACT(B514, ""), "", VLOOKUP(B514, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B514, ""), "", VLOOKUP(B514, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wisnu Andra Isdianto</v>
       </c>
       <c r="D514" s="23">
@@ -15902,7 +16154,7 @@
         <v>25000000000512</v>
       </c>
       <c r="C515" s="41" t="str">
-        <f>IF(EXACT(B515, ""), "", VLOOKUP(B515, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B515, ""), "", VLOOKUP(B515, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Agus Budi Setiawan</v>
       </c>
       <c r="D515" s="23">
@@ -15923,7 +16175,7 @@
         <v>25000000000513</v>
       </c>
       <c r="C516" s="41" t="str">
-        <f>IF(EXACT(B516, ""), "", VLOOKUP(B516, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B516, ""), "", VLOOKUP(B516, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ahmad Choerul</v>
       </c>
       <c r="D516" s="23">
@@ -15944,7 +16196,7 @@
         <v>25000000000514</v>
       </c>
       <c r="C517" s="41" t="str">
-        <f>IF(EXACT(B517, ""), "", VLOOKUP(B517, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B517, ""), "", VLOOKUP(B517, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Achmad Yunadi</v>
       </c>
       <c r="D517" s="23" t="s">
@@ -15965,7 +16217,7 @@
         <v>25000000000515</v>
       </c>
       <c r="C518" s="41" t="str">
-        <f>IF(EXACT(B518, ""), "", VLOOKUP(B518, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B518, ""), "", VLOOKUP(B518, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Asep mulyana</v>
       </c>
       <c r="D518" s="23"/>
@@ -15984,7 +16236,7 @@
         <v>25000000000516</v>
       </c>
       <c r="C519" s="41" t="str">
-        <f>IF(EXACT(B519, ""), "", VLOOKUP(B519, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B519, ""), "", VLOOKUP(B519, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Bagus Isdiantara</v>
       </c>
       <c r="D519" s="23"/>
@@ -16003,7 +16255,7 @@
         <v>25000000000517</v>
       </c>
       <c r="C520" s="41" t="str">
-        <f>IF(EXACT(B520, ""), "", VLOOKUP(B520, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B520, ""), "", VLOOKUP(B520, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Cahyana</v>
       </c>
       <c r="D520" s="23" t="s">
@@ -16024,7 +16276,7 @@
         <v>25000000000518</v>
       </c>
       <c r="C521" s="41" t="str">
-        <f>IF(EXACT(B521, ""), "", VLOOKUP(B521, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B521, ""), "", VLOOKUP(B521, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dede Hartanto</v>
       </c>
       <c r="D521" s="23"/>
@@ -16043,7 +16295,7 @@
         <v>25000000000519</v>
       </c>
       <c r="C522" s="41" t="str">
-        <f>IF(EXACT(B522, ""), "", VLOOKUP(B522, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B522, ""), "", VLOOKUP(B522, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Denny Achmad Ferlando</v>
       </c>
       <c r="D522" s="23">
@@ -16064,7 +16316,7 @@
         <v>25000000000520</v>
       </c>
       <c r="C523" s="41" t="str">
-        <f>IF(EXACT(B523, ""), "", VLOOKUP(B523, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B523, ""), "", VLOOKUP(B523, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dian Setiawan</v>
       </c>
       <c r="D523" s="23"/>
@@ -16083,7 +16335,7 @@
         <v>25000000000521</v>
       </c>
       <c r="C524" s="41" t="str">
-        <f>IF(EXACT(B524, ""), "", VLOOKUP(B524, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B524, ""), "", VLOOKUP(B524, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Fabrian Danang Destiyara</v>
       </c>
       <c r="D524" s="23" t="s">
@@ -16104,7 +16356,7 @@
         <v>25000000000522</v>
       </c>
       <c r="C525" s="41" t="str">
-        <f>IF(EXACT(B525, ""), "", VLOOKUP(B525, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B525, ""), "", VLOOKUP(B525, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ferdian Kriswantoro</v>
       </c>
       <c r="D525" s="23">
@@ -16125,7 +16377,7 @@
         <v>25000000000523</v>
       </c>
       <c r="C526" s="41" t="str">
-        <f>IF(EXACT(B526, ""), "", VLOOKUP(B526, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B526, ""), "", VLOOKUP(B526, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Fuzi Mafrozi</v>
       </c>
       <c r="D526" s="23" t="s">
@@ -16146,7 +16398,7 @@
         <v>25000000000524</v>
       </c>
       <c r="C527" s="41" t="str">
-        <f>IF(EXACT(B527, ""), "", VLOOKUP(B527, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B527, ""), "", VLOOKUP(B527, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Gilang Setiawan</v>
       </c>
       <c r="D527" s="23"/>
@@ -16165,7 +16417,7 @@
         <v>25000000000525</v>
       </c>
       <c r="C528" s="41" t="str">
-        <f>IF(EXACT(B528, ""), "", VLOOKUP(B528, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B528, ""), "", VLOOKUP(B528, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Idris Affandi</v>
       </c>
       <c r="D528" s="23"/>
@@ -16184,7 +16436,7 @@
         <v>25000000000526</v>
       </c>
       <c r="C529" s="41" t="str">
-        <f>IF(EXACT(B529, ""), "", VLOOKUP(B529, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B529, ""), "", VLOOKUP(B529, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Indra Wijaya</v>
       </c>
       <c r="D529" s="23"/>
@@ -16203,7 +16455,7 @@
         <v>25000000000527</v>
       </c>
       <c r="C530" s="41" t="str">
-        <f>IF(EXACT(B530, ""), "", VLOOKUP(B530, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B530, ""), "", VLOOKUP(B530, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Irma Maulidawati</v>
       </c>
       <c r="D530" s="23" t="s">
@@ -16224,7 +16476,7 @@
         <v>25000000000528</v>
       </c>
       <c r="C531" s="41" t="str">
-        <f>IF(EXACT(B531, ""), "", VLOOKUP(B531, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B531, ""), "", VLOOKUP(B531, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Istikaro Fauziah</v>
       </c>
       <c r="D531" s="23">
@@ -16245,7 +16497,7 @@
         <v>25000000000529</v>
       </c>
       <c r="C532" s="41" t="str">
-        <f>IF(EXACT(B532, ""), "", VLOOKUP(B532, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B532, ""), "", VLOOKUP(B532, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhammad Lukbani</v>
       </c>
       <c r="D532" s="23"/>
@@ -16264,7 +16516,7 @@
         <v>25000000000530</v>
       </c>
       <c r="C533" s="41" t="str">
-        <f>IF(EXACT(B533, ""), "", VLOOKUP(B533, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B533, ""), "", VLOOKUP(B533, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhammad Sholikhun</v>
       </c>
       <c r="D533" s="23"/>
@@ -16283,7 +16535,7 @@
         <v>25000000000531</v>
       </c>
       <c r="C534" s="41" t="str">
-        <f>IF(EXACT(B534, ""), "", VLOOKUP(B534, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B534, ""), "", VLOOKUP(B534, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhammad Syarifudin</v>
       </c>
       <c r="D534" s="23"/>
@@ -16302,7 +16554,7 @@
         <v>25000000000532</v>
       </c>
       <c r="C535" s="41" t="str">
-        <f>IF(EXACT(B535, ""), "", VLOOKUP(B535, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B535, ""), "", VLOOKUP(B535, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nadia Rizkiah</v>
       </c>
       <c r="D535" s="23">
@@ -16323,7 +16575,7 @@
         <v>25000000000533</v>
       </c>
       <c r="C536" s="41" t="str">
-        <f>IF(EXACT(B536, ""), "", VLOOKUP(B536, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B536, ""), "", VLOOKUP(B536, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nikko Septian</v>
       </c>
       <c r="D536" s="23"/>
@@ -16342,7 +16594,7 @@
         <v>25000000000534</v>
       </c>
       <c r="C537" s="41" t="str">
-        <f>IF(EXACT(B537, ""), "", VLOOKUP(B537, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B537, ""), "", VLOOKUP(B537, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Novizan</v>
       </c>
       <c r="D537" s="23">
@@ -16363,7 +16615,7 @@
         <v>25000000000535</v>
       </c>
       <c r="C538" s="41" t="str">
-        <f>IF(EXACT(B538, ""), "", VLOOKUP(B538, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B538, ""), "", VLOOKUP(B538, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Oqi Suhaqi Yunus</v>
       </c>
       <c r="D538" s="23"/>
@@ -16382,7 +16634,7 @@
         <v>25000000000536</v>
       </c>
       <c r="C539" s="41" t="str">
-        <f>IF(EXACT(B539, ""), "", VLOOKUP(B539, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B539, ""), "", VLOOKUP(B539, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Restu Dwi Anjayani</v>
       </c>
       <c r="D539" s="23"/>
@@ -16401,7 +16653,7 @@
         <v>25000000000537</v>
       </c>
       <c r="C540" s="41" t="str">
-        <f>IF(EXACT(B540, ""), "", VLOOKUP(B540, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B540, ""), "", VLOOKUP(B540, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rizal Amri</v>
       </c>
       <c r="D540" s="23" t="s">
@@ -16422,7 +16674,7 @@
         <v>25000000000538</v>
       </c>
       <c r="C541" s="41" t="str">
-        <f>IF(EXACT(B541, ""), "", VLOOKUP(B541, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B541, ""), "", VLOOKUP(B541, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ronny Anindika Arnold</v>
       </c>
       <c r="D541" s="23"/>
@@ -16441,7 +16693,7 @@
         <v>25000000000539</v>
       </c>
       <c r="C542" s="41" t="str">
-        <f>IF(EXACT(B542, ""), "", VLOOKUP(B542, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B542, ""), "", VLOOKUP(B542, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Samta Harahap</v>
       </c>
       <c r="D542" s="23"/>
@@ -16460,7 +16712,7 @@
         <v>25000000000540</v>
       </c>
       <c r="C543" s="41" t="str">
-        <f>IF(EXACT(B543, ""), "", VLOOKUP(B543, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B543, ""), "", VLOOKUP(B543, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Vingky Hendriek Yomerlin</v>
       </c>
       <c r="D543" s="23">
@@ -16481,7 +16733,7 @@
         <v>25000000000541</v>
       </c>
       <c r="C544" s="41" t="str">
-        <f>IF(EXACT(B544, ""), "", VLOOKUP(B544, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B544, ""), "", VLOOKUP(B544, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wahyu Teluk Naga</v>
       </c>
       <c r="D544" s="23"/>
@@ -16500,7 +16752,7 @@
         <v>25000000000542</v>
       </c>
       <c r="C545" s="41" t="str">
-        <f>IF(EXACT(B545, ""), "", VLOOKUP(B545, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B545, ""), "", VLOOKUP(B545, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wardah Laily Khoiriyah</v>
       </c>
       <c r="D545" s="23">
@@ -16521,7 +16773,7 @@
         <v>25000000000543</v>
       </c>
       <c r="C546" s="41" t="str">
-        <f>IF(EXACT(B546, ""), "", VLOOKUP(B546, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B546, ""), "", VLOOKUP(B546, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wawan Kusworo</v>
       </c>
       <c r="D546" s="23"/>
@@ -16540,7 +16792,7 @@
         <v>25000000000544</v>
       </c>
       <c r="C547" s="41" t="str">
-        <f>IF(EXACT(B547, ""), "", VLOOKUP(B547, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B547, ""), "", VLOOKUP(B547, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wulanraniasih</v>
       </c>
       <c r="D547" s="23">
@@ -16561,7 +16813,7 @@
         <v>25000000000545</v>
       </c>
       <c r="C548" s="41" t="str">
-        <f>IF(EXACT(B548, ""), "", VLOOKUP(B548, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B548, ""), "", VLOOKUP(B548, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yogi Perbangkara</v>
       </c>
       <c r="D548" s="23">
@@ -16582,7 +16834,7 @@
         <v>25000000000546</v>
       </c>
       <c r="C549" s="41" t="str">
-        <f>IF(EXACT(B549, ""), "", VLOOKUP(B549, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B549, ""), "", VLOOKUP(B549, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yusuf Fathurahman</v>
       </c>
       <c r="D549" s="23"/>
@@ -16601,7 +16853,7 @@
         <v>25000000000547</v>
       </c>
       <c r="C550" s="41" t="str">
-        <f>IF(EXACT(B550, ""), "", VLOOKUP(B550, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B550, ""), "", VLOOKUP(B550, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zeinurani</v>
       </c>
       <c r="D550" s="23">
@@ -16622,7 +16874,7 @@
         <v>25000000000548</v>
       </c>
       <c r="C551" s="41" t="str">
-        <f>IF(EXACT(B551, ""), "", VLOOKUP(B551, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B551, ""), "", VLOOKUP(B551, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sulaeman</v>
       </c>
       <c r="D551" s="23" t="s">
@@ -16643,7 +16895,7 @@
         <v>25000000000549</v>
       </c>
       <c r="C552" s="41" t="str">
-        <f>IF(EXACT(B552, ""), "", VLOOKUP(B552, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B552, ""), "", VLOOKUP(B552, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Agus Nuryadi</v>
       </c>
       <c r="D552" s="23">
@@ -16664,7 +16916,7 @@
         <v>25000000000550</v>
       </c>
       <c r="C553" s="41" t="str">
-        <f>IF(EXACT(B553, ""), "", VLOOKUP(B553, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B553, ""), "", VLOOKUP(B553, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Dian Tri Rahmawati</v>
       </c>
       <c r="D553" s="23" t="s">
@@ -16685,7 +16937,7 @@
         <v>25000000000551</v>
       </c>
       <c r="C554" s="41" t="str">
-        <f>IF(EXACT(B554, ""), "", VLOOKUP(B554, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B554, ""), "", VLOOKUP(B554, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Langgeng Eko Dwiantoro</v>
       </c>
       <c r="D554" s="23" t="s">
@@ -16706,7 +16958,7 @@
         <v>25000000000552</v>
       </c>
       <c r="C555" s="41" t="str">
-        <f>IF(EXACT(B555, ""), "", VLOOKUP(B555, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B555, ""), "", VLOOKUP(B555, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Aldi Rizaldi</v>
       </c>
       <c r="D555" s="23">
@@ -16727,7 +16979,7 @@
         <v>25000000000553</v>
       </c>
       <c r="C556" s="41" t="str">
-        <f>IF(EXACT(B556, ""), "", VLOOKUP(B556, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B556, ""), "", VLOOKUP(B556, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Masimin</v>
       </c>
       <c r="D556" s="23"/>
@@ -16746,7 +16998,7 @@
         <v>25000000000554</v>
       </c>
       <c r="C557" s="41" t="str">
-        <f>IF(EXACT(B557, ""), "", VLOOKUP(B557, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B557, ""), "", VLOOKUP(B557, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Santoso Dwi Cahyo</v>
       </c>
       <c r="D557" s="23"/>
@@ -16765,7 +17017,7 @@
         <v>25000000000555</v>
       </c>
       <c r="C558" s="41" t="str">
-        <f>IF(EXACT(B558, ""), "", VLOOKUP(B558, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B558, ""), "", VLOOKUP(B558, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wartono</v>
       </c>
       <c r="D558" s="23"/>
@@ -16784,7 +17036,7 @@
         <v>25000000000556</v>
       </c>
       <c r="C559" s="41" t="str">
-        <f>IF(EXACT(B559, ""), "", VLOOKUP(B559, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B559, ""), "", VLOOKUP(B559, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yusarman</v>
       </c>
       <c r="D559" s="23"/>
@@ -16806,7 +17058,7 @@
         <v>25000000000557</v>
       </c>
       <c r="C560" s="41" t="str">
-        <f>IF(EXACT(B560, ""), "", VLOOKUP(B560, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B560, ""), "", VLOOKUP(B560, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Abdul Rachman</v>
       </c>
       <c r="D560" s="23"/>
@@ -16825,7 +17077,7 @@
         <v>25000000000558</v>
       </c>
       <c r="C561" s="41" t="str">
-        <f>IF(EXACT(B561, ""), "", VLOOKUP(B561, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B561, ""), "", VLOOKUP(B561, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Aden Bagus</v>
       </c>
       <c r="D561" s="23"/>
@@ -16844,7 +17096,7 @@
         <v>25000000000559</v>
       </c>
       <c r="C562" s="41" t="str">
-        <f>IF(EXACT(B562, ""), "", VLOOKUP(B562, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B562, ""), "", VLOOKUP(B562, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Adhe Kurniawan</v>
       </c>
       <c r="D562" s="23"/>
@@ -16863,7 +17115,7 @@
         <v>25000000000560</v>
       </c>
       <c r="C563" s="41" t="str">
-        <f>IF(EXACT(B563, ""), "", VLOOKUP(B563, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B563, ""), "", VLOOKUP(B563, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ahmad Fauzi</v>
       </c>
       <c r="D563" s="23"/>
@@ -16882,7 +17134,7 @@
         <v>25000000000561</v>
       </c>
       <c r="C564" s="41" t="str">
-        <f>IF(EXACT(B564, ""), "", VLOOKUP(B564, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B564, ""), "", VLOOKUP(B564, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Ahmad Gunawan</v>
       </c>
       <c r="D564" s="23"/>
@@ -16901,7 +17153,7 @@
         <v>25000000000562</v>
       </c>
       <c r="C565" s="41" t="str">
-        <f>IF(EXACT(B565, ""), "", VLOOKUP(B565, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B565, ""), "", VLOOKUP(B565, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Andri Andriyan</v>
       </c>
       <c r="D565" s="23"/>
@@ -16920,7 +17172,7 @@
         <v>25000000000563</v>
       </c>
       <c r="C566" s="41" t="str">
-        <f>IF(EXACT(B566, ""), "", VLOOKUP(B566, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B566, ""), "", VLOOKUP(B566, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Budi Sulistianto</v>
       </c>
       <c r="D566" s="23"/>
@@ -16939,7 +17191,7 @@
         <v>25000000000564</v>
       </c>
       <c r="C567" s="41" t="str">
-        <f>IF(EXACT(B567, ""), "", VLOOKUP(B567, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B567, ""), "", VLOOKUP(B567, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Eka Budi</v>
       </c>
       <c r="D567" s="23"/>
@@ -16958,7 +17210,7 @@
         <v>25000000000565</v>
       </c>
       <c r="C568" s="41" t="str">
-        <f>IF(EXACT(B568, ""), "", VLOOKUP(B568, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B568, ""), "", VLOOKUP(B568, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Eka Kurniawan</v>
       </c>
       <c r="D568" s="23"/>
@@ -16977,7 +17229,7 @@
         <v>25000000000566</v>
       </c>
       <c r="C569" s="41" t="str">
-        <f>IF(EXACT(B569, ""), "", VLOOKUP(B569, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B569, ""), "", VLOOKUP(B569, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Haerul Gunawan</v>
       </c>
       <c r="D569" s="23"/>
@@ -16996,7 +17248,7 @@
         <v>25000000000567</v>
       </c>
       <c r="C570" s="41" t="str">
-        <f>IF(EXACT(B570, ""), "", VLOOKUP(B570, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B570, ""), "", VLOOKUP(B570, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Irvan Agus</v>
       </c>
       <c r="D570" s="23"/>
@@ -17015,7 +17267,7 @@
         <v>25000000000568</v>
       </c>
       <c r="C571" s="41" t="str">
-        <f>IF(EXACT(B571, ""), "", VLOOKUP(B571, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B571, ""), "", VLOOKUP(B571, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Joshika Pradirga</v>
       </c>
       <c r="D571" s="23"/>
@@ -17034,7 +17286,7 @@
         <v>25000000000569</v>
       </c>
       <c r="C572" s="41" t="str">
-        <f>IF(EXACT(B572, ""), "", VLOOKUP(B572, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B572, ""), "", VLOOKUP(B572, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Khaidir</v>
       </c>
       <c r="D572" s="23"/>
@@ -17053,7 +17305,7 @@
         <v>25000000000570</v>
       </c>
       <c r="C573" s="41" t="str">
-        <f>IF(EXACT(B573, ""), "", VLOOKUP(B573, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B573, ""), "", VLOOKUP(B573, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Latip Muhlanto</v>
       </c>
       <c r="D573" s="23"/>
@@ -17072,7 +17324,7 @@
         <v>25000000000571</v>
       </c>
       <c r="C574" s="41" t="str">
-        <f>IF(EXACT(B574, ""), "", VLOOKUP(B574, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B574, ""), "", VLOOKUP(B574, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Leonardo Putra</v>
       </c>
       <c r="D574" s="23"/>
@@ -17091,7 +17343,7 @@
         <v>25000000000572</v>
       </c>
       <c r="C575" s="41" t="str">
-        <f>IF(EXACT(B575, ""), "", VLOOKUP(B575, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B575, ""), "", VLOOKUP(B575, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Muhammad Ramadani</v>
       </c>
       <c r="D575" s="23"/>
@@ -17110,7 +17362,7 @@
         <v>25000000000573</v>
       </c>
       <c r="C576" s="41" t="str">
-        <f>IF(EXACT(B576, ""), "", VLOOKUP(B576, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B576, ""), "", VLOOKUP(B576, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Musdalipa</v>
       </c>
       <c r="D576" s="23"/>
@@ -17129,7 +17381,7 @@
         <v>25000000000574</v>
       </c>
       <c r="C577" s="41" t="str">
-        <f>IF(EXACT(B577, ""), "", VLOOKUP(B577, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B577, ""), "", VLOOKUP(B577, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Nico Melky</v>
       </c>
       <c r="D577" s="23"/>
@@ -17148,7 +17400,7 @@
         <v>25000000000575</v>
       </c>
       <c r="C578" s="41" t="str">
-        <f>IF(EXACT(B578, ""), "", VLOOKUP(B578, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B578, ""), "", VLOOKUP(B578, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Rahmata Novanisa</v>
       </c>
       <c r="D578" s="23"/>
@@ -17167,7 +17419,7 @@
         <v>25000000000576</v>
       </c>
       <c r="C579" s="41" t="str">
-        <f>IF(EXACT(B579, ""), "", VLOOKUP(B579, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B579, ""), "", VLOOKUP(B579, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Satrio Dhiaputra</v>
       </c>
       <c r="D579" s="23"/>
@@ -17186,7 +17438,7 @@
         <v>25000000000577</v>
       </c>
       <c r="C580" s="41" t="str">
-        <f>IF(EXACT(B580, ""), "", VLOOKUP(B580, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B580, ""), "", VLOOKUP(B580, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Sudirman</v>
       </c>
       <c r="D580" s="23"/>
@@ -17205,7 +17457,7 @@
         <v>25000000000578</v>
       </c>
       <c r="C581" s="41" t="str">
-        <f>IF(EXACT(B581, ""), "", VLOOKUP(B581, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B581, ""), "", VLOOKUP(B581, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Suparji</v>
       </c>
       <c r="D581" s="23"/>
@@ -17224,7 +17476,7 @@
         <v>25000000000579</v>
       </c>
       <c r="C582" s="41" t="str">
-        <f>IF(EXACT(B582, ""), "", VLOOKUP(B582, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B582, ""), "", VLOOKUP(B582, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Taufik Iskandar</v>
       </c>
       <c r="D582" s="23"/>
@@ -17243,7 +17495,7 @@
         <v>25000000000580</v>
       </c>
       <c r="C583" s="41" t="str">
-        <f>IF(EXACT(B583, ""), "", VLOOKUP(B583, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B583, ""), "", VLOOKUP(B583, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Tegar Hersaputra</v>
       </c>
       <c r="D583" s="23"/>
@@ -17262,7 +17514,7 @@
         <v>25000000000581</v>
       </c>
       <c r="C584" s="41" t="str">
-        <f>IF(EXACT(B584, ""), "", VLOOKUP(B584, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B584, ""), "", VLOOKUP(B584, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Togar Sihombing</v>
       </c>
       <c r="D584" s="23"/>
@@ -17281,7 +17533,7 @@
         <v>25000000000582</v>
       </c>
       <c r="C585" s="41" t="str">
-        <f>IF(EXACT(B585, ""), "", VLOOKUP(B585, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B585, ""), "", VLOOKUP(B585, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Wisnu Trenggono</v>
       </c>
       <c r="D585" s="23"/>
@@ -17300,7 +17552,7 @@
         <v>25000000000583</v>
       </c>
       <c r="C586" s="41" t="str">
-        <f>IF(EXACT(B586, ""), "", VLOOKUP(B586, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B586, ""), "", VLOOKUP(B586, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yogo</v>
       </c>
       <c r="D586" s="23"/>
@@ -17319,7 +17571,7 @@
         <v>25000000000584</v>
       </c>
       <c r="C587" s="41" t="str">
-        <f>IF(EXACT(B587, ""), "", VLOOKUP(B587, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B587, ""), "", VLOOKUP(B587, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Yustiana Firda</v>
       </c>
       <c r="D587" s="23"/>
@@ -17338,7 +17590,7 @@
         <v>25000000000585</v>
       </c>
       <c r="C588" s="41" t="str">
-        <f>IF(EXACT(B588, ""), "", VLOOKUP(B588, [1]DataLookUp!$B$4:$C$589, 2,FALSE ))</f>
+        <f>IF(EXACT(B588, ""), "", VLOOKUP(B588, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Zainal Abidin</v>
       </c>
       <c r="D588" s="23"/>
@@ -17352,18 +17604,129 @@
       </c>
     </row>
     <row r="589" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B589" s="16" t="str">
-        <f>IF(EXACT(MAIN!$F589, ""), "", MAIN!$F589)</f>
-        <v/>
-      </c>
-      <c r="C589" s="15"/>
-      <c r="D589" s="26"/>
-      <c r="F589" s="16"/>
-      <c r="G589" s="15"/>
+      <c r="B589" s="40">
+        <f>IF(EXACT([1]DataLookUp!$B589, ""), "", [1]DataLookUp!$B589)</f>
+        <v>25000000000586</v>
+      </c>
+      <c r="C589" s="41" t="str">
+        <f>IF(EXACT(B589, ""), "", VLOOKUP(B589, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
+        <v>Budi Sandika</v>
+      </c>
+      <c r="D589" s="23"/>
+      <c r="F589" s="31">
+        <f t="shared" ref="F589:F594" si="20" xml:space="preserve"> F588 + IF(EXACT(G589, ""), 0, 1)</f>
+        <v>32000000000586</v>
+      </c>
+      <c r="G589" s="32" t="str">
+        <f t="shared" ref="G589:G594" si="21">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorker_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", B589, "::bigint, ", IF(EXACT(D589, ""), "null", CONCATENATE("'", D589, "'")), "::varchar);")</f>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 25000000000586::bigint, null::varchar);</v>
+      </c>
+    </row>
+    <row r="590" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B590" s="40">
+        <f>IF(EXACT([1]DataLookUp!$B590, ""), "", [1]DataLookUp!$B590)</f>
+        <v>25000000000587</v>
+      </c>
+      <c r="C590" s="41" t="str">
+        <f>IF(EXACT(B590, ""), "", VLOOKUP(B590, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
+        <v>Fachri Azhar</v>
+      </c>
+      <c r="D590" s="23"/>
+      <c r="F590" s="31">
+        <f t="shared" si="20"/>
+        <v>32000000000587</v>
+      </c>
+      <c r="G590" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 25000000000587::bigint, null::varchar);</v>
+      </c>
+    </row>
+    <row r="591" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B591" s="40">
+        <f>IF(EXACT([1]DataLookUp!$B591, ""), "", [1]DataLookUp!$B591)</f>
+        <v>25000000000588</v>
+      </c>
+      <c r="C591" s="41" t="str">
+        <f>IF(EXACT(B591, ""), "", VLOOKUP(B591, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
+        <v>Firmansyah Awaludin</v>
+      </c>
+      <c r="D591" s="23"/>
+      <c r="F591" s="31">
+        <f t="shared" si="20"/>
+        <v>32000000000588</v>
+      </c>
+      <c r="G591" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 25000000000588::bigint, null::varchar);</v>
+      </c>
+    </row>
+    <row r="592" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B592" s="40">
+        <f>IF(EXACT([1]DataLookUp!$B592, ""), "", [1]DataLookUp!$B592)</f>
+        <v>25000000000589</v>
+      </c>
+      <c r="C592" s="41" t="str">
+        <f>IF(EXACT(B592, ""), "", VLOOKUP(B592, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
+        <v>Iman Faisal Abdurahman</v>
+      </c>
+      <c r="D592" s="23"/>
+      <c r="F592" s="31">
+        <f t="shared" si="20"/>
+        <v>32000000000589</v>
+      </c>
+      <c r="G592" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 25000000000589::bigint, null::varchar);</v>
+      </c>
+    </row>
+    <row r="593" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B593" s="40">
+        <f>IF(EXACT([1]DataLookUp!$B593, ""), "", [1]DataLookUp!$B593)</f>
+        <v>25000000000590</v>
+      </c>
+      <c r="C593" s="41" t="str">
+        <f>IF(EXACT(B593, ""), "", VLOOKUP(B593, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
+        <v>Muhammad Irfan Alfikri</v>
+      </c>
+      <c r="D593" s="23"/>
+      <c r="F593" s="31">
+        <f t="shared" si="20"/>
+        <v>32000000000590</v>
+      </c>
+      <c r="G593" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 25000000000590::bigint, null::varchar);</v>
+      </c>
+    </row>
+    <row r="594" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B594" s="40">
+        <f>IF(EXACT([1]DataLookUp!$B594, ""), "", [1]DataLookUp!$B594)</f>
+        <v>25000000000591</v>
+      </c>
+      <c r="C594" s="41" t="str">
+        <f>IF(EXACT(B594, ""), "", VLOOKUP(B594, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
+        <v>Syafri Johansah</v>
+      </c>
+      <c r="D594" s="23"/>
+      <c r="F594" s="31">
+        <f t="shared" si="20"/>
+        <v>32000000000591</v>
+      </c>
+      <c r="G594" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 25000000000591::bigint, null::varchar);</v>
+      </c>
+    </row>
+    <row r="595" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B595" s="16"/>
+      <c r="C595" s="15"/>
+      <c r="D595" s="26"/>
+      <c r="F595" s="16"/>
+      <c r="G595" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F4:F588">
-    <cfRule type="expression" dxfId="20" priority="1">
+  <conditionalFormatting sqref="F4:F594">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>EXACT(F3, F4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27955,17 +28318,17 @@
       </c>
     </row>
     <row r="589" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B589" s="38" t="str">
+      <c r="B589" s="38">
         <f>IF(EXACT(MAIN!$G589, ""), "", MAIN!$F589)</f>
-        <v/>
-      </c>
-      <c r="C589" s="46" t="str">
+        <v>32000000000586</v>
+      </c>
+      <c r="C589" s="46">
         <f>IF(EXACT(MAIN!$G589, ""), "", MAIN!$B589)</f>
-        <v/>
+        <v>25000000000586</v>
       </c>
       <c r="D589" s="44" t="str">
         <f>IF(EXACT(MAIN!$G589, ""), "", MAIN!$C589)</f>
-        <v/>
+        <v>Budi Sandika</v>
       </c>
       <c r="E589" s="45" t="str">
         <f>IF(EXACT(MAIN!$B589, ""), "", ""&amp;MAIN!$D589)</f>
@@ -27989,13 +28352,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M589"/>
+  <dimension ref="A1:M595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C573" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C579" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M588"/>
+      <selection pane="bottomRight" activeCell="G589" sqref="G589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44728,11 +45091,11 @@
       </c>
       <c r="J517" s="13"/>
       <c r="L517" s="31">
-        <f t="shared" ref="L517:L580" si="16" xml:space="preserve"> L516 + IF(EXACT(M517, ""), 0, 1)</f>
+        <f t="shared" ref="L517:L581" si="16" xml:space="preserve"> L516 + IF(EXACT(M517, ""), 0, 1)</f>
         <v>164000000000514</v>
       </c>
       <c r="M517" s="32" t="str">
-        <f t="shared" ref="M517:M580" si="17">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+        <f t="shared" ref="M517:M581" si="17">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
 CONCATENATE(IF(EXACT(H517, ""), ", null", CONCATENATE(", '", H517, "'")), "::timestamptz"),
 CONCATENATE(IF(EXACT(I517, ""), ", null", CONCATENATE(", '", I517, "'")), "::timestamptz"),
 ", null, varInstitutionBranchID, varBaseCurrencyID",
@@ -46938,22 +47301,11 @@
       </c>
       <c r="J581" s="13"/>
       <c r="L581" s="31">
-        <f t="shared" ref="L581:L588" si="18" xml:space="preserve"> L580 + IF(EXACT(M581, ""), 0, 1)</f>
+        <f t="shared" si="16"/>
         <v>164000000000578</v>
       </c>
       <c r="M581" s="32" t="str">
-        <f t="shared" ref="M581:M588" si="19">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
-CONCATENATE(IF(EXACT(H581, ""), ", null", CONCATENATE(", '", H581, "'")), "::timestamptz"),
-CONCATENATE(IF(EXACT(I581, ""), ", null", CONCATENATE(", '", I581, "'")), "::timestamptz"),
-", null, varInstitutionBranchID, varBaseCurrencyID",
-CONCATENATE(IF(EXACT(B581, ""), ", null", CONCATENATE(", ", B581, "")), "::bigint"),
-CONCATENATE(IF(EXACT(D581, ""), ", null", CONCATENATE(", ", D581, "")), "::bigint"),
-CONCATENATE(IF(EXACT(F581, ""), ", null", CONCATENATE(", ", F581, "")), "::bigint"),
-CONCATENATE(IF(EXACT(G581, ""), ", null", CONCATENATE(", ", G581, "")), "::bigint"),
-CONCATENATE(IF(EXACT(H581, ""), ", null", CONCATENATE(", '", H581, "'")), "::timestamptz"),
-CONCATENATE(IF(EXACT(I581, ""), ", null", CONCATENATE(", '", I581, "'")), "::timestamptz"),
-CONCATENATE(IF(EXACT(J581, ""), ", null", CONCATENATE(", ", J581, "")), "::bigint"),
-");")</f>
+        <f t="shared" si="17"/>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
@@ -46983,11 +47335,22 @@
       </c>
       <c r="J582" s="13"/>
       <c r="L582" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="L582:L594" si="18" xml:space="preserve"> L581 + IF(EXACT(M582, ""), 0, 1)</f>
         <v>164000000000579</v>
       </c>
       <c r="M582" s="32" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="M582:M594" si="19">CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblWorkerCareerInternal_SET""(varSystemLoginSession, null, null",
+CONCATENATE(IF(EXACT(H582, ""), ", null", CONCATENATE(", '", H582, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(I582, ""), ", null", CONCATENATE(", '", I582, "'")), "::timestamptz"),
+", null, varInstitutionBranchID, varBaseCurrencyID",
+CONCATENATE(IF(EXACT(B582, ""), ", null", CONCATENATE(", ", B582, "")), "::bigint"),
+CONCATENATE(IF(EXACT(D582, ""), ", null", CONCATENATE(", ", D582, "")), "::bigint"),
+CONCATENATE(IF(EXACT(F582, ""), ", null", CONCATENATE(", ", F582, "")), "::bigint"),
+CONCATENATE(IF(EXACT(G582, ""), ", null", CONCATENATE(", ", G582, "")), "::bigint"),
+CONCATENATE(IF(EXACT(H582, ""), ", null", CONCATENATE(", '", H582, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(I582, ""), ", null", CONCATENATE(", '", I582, "'")), "::timestamptz"),
+CONCATENATE(IF(EXACT(J582, ""), ", null", CONCATENATE(", ", J582, "")), "::bigint"),
+");")</f>
         <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
       </c>
     </row>
@@ -47198,123 +47561,300 @@
       </c>
     </row>
     <row r="589" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B589" s="49" t="str">
+      <c r="B589" s="49">
         <f>IF(EXACT(DataLookUp!$B589, ""), "", DataLookUp!$B589)</f>
-        <v/>
-      </c>
-      <c r="C589" s="44"/>
-      <c r="D589" s="16"/>
-      <c r="E589" s="49" t="str">
+        <v>32000000000586</v>
+      </c>
+      <c r="C589" s="41" t="str">
+        <f>MAIN!C589</f>
+        <v>Budi Sandika</v>
+      </c>
+      <c r="D589" s="13">
+        <v>163000000000002</v>
+      </c>
+      <c r="E589" s="40" t="str">
         <f>IF(EXACT($D589, ""), "", VLOOKUP($D589, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
-        <v/>
-      </c>
-      <c r="F589" s="16"/>
-      <c r="G589" s="16"/>
-      <c r="H589" s="15"/>
-      <c r="I589" s="15"/>
-      <c r="J589" s="16"/>
-      <c r="L589" s="33"/>
-      <c r="M589" s="34"/>
+        <v>Karyawan Tidak Tetap (Kontrak)</v>
+      </c>
+      <c r="F589" s="13"/>
+      <c r="G589" s="13">
+        <v>160000000000001</v>
+      </c>
+      <c r="H589" s="12"/>
+      <c r="I589" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J589" s="13"/>
+      <c r="L589" s="31">
+        <f t="shared" si="18"/>
+        <v>164000000000586</v>
+      </c>
+      <c r="M589" s="32" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000586::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+    </row>
+    <row r="590" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C590" s="41" t="str">
+        <f>MAIN!C590</f>
+        <v>Fachri Azhar</v>
+      </c>
+      <c r="D590" s="13">
+        <v>163000000000002</v>
+      </c>
+      <c r="E590" s="40" t="str">
+        <f>IF(EXACT($D590, ""), "", VLOOKUP($D590, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
+        <v>Karyawan Tidak Tetap (Kontrak)</v>
+      </c>
+      <c r="F590" s="13"/>
+      <c r="G590" s="13">
+        <v>160000000000001</v>
+      </c>
+      <c r="H590" s="12"/>
+      <c r="I590" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J590" s="13"/>
+      <c r="L590" s="31">
+        <f t="shared" si="18"/>
+        <v>164000000000587</v>
+      </c>
+      <c r="M590" s="32" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+    </row>
+    <row r="591" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C591" s="41" t="str">
+        <f>MAIN!C591</f>
+        <v>Firmansyah Awaludin</v>
+      </c>
+      <c r="D591" s="13">
+        <v>163000000000002</v>
+      </c>
+      <c r="E591" s="40" t="str">
+        <f>IF(EXACT($D591, ""), "", VLOOKUP($D591, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
+        <v>Karyawan Tidak Tetap (Kontrak)</v>
+      </c>
+      <c r="F591" s="13"/>
+      <c r="G591" s="13">
+        <v>160000000000001</v>
+      </c>
+      <c r="H591" s="12"/>
+      <c r="I591" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J591" s="13"/>
+      <c r="L591" s="31">
+        <f t="shared" si="18"/>
+        <v>164000000000588</v>
+      </c>
+      <c r="M591" s="32" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+    </row>
+    <row r="592" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C592" s="41" t="str">
+        <f>MAIN!C592</f>
+        <v>Iman Faisal Abdurahman</v>
+      </c>
+      <c r="D592" s="13">
+        <v>163000000000002</v>
+      </c>
+      <c r="E592" s="40" t="str">
+        <f>IF(EXACT($D592, ""), "", VLOOKUP($D592, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
+        <v>Karyawan Tidak Tetap (Kontrak)</v>
+      </c>
+      <c r="F592" s="13"/>
+      <c r="G592" s="13">
+        <v>160000000000001</v>
+      </c>
+      <c r="H592" s="12"/>
+      <c r="I592" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J592" s="13"/>
+      <c r="L592" s="31">
+        <f t="shared" si="18"/>
+        <v>164000000000589</v>
+      </c>
+      <c r="M592" s="32" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+    </row>
+    <row r="593" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C593" s="41" t="str">
+        <f>MAIN!C593</f>
+        <v>Muhammad Irfan Alfikri</v>
+      </c>
+      <c r="D593" s="13">
+        <v>163000000000002</v>
+      </c>
+      <c r="E593" s="40" t="str">
+        <f>IF(EXACT($D593, ""), "", VLOOKUP($D593, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
+        <v>Karyawan Tidak Tetap (Kontrak)</v>
+      </c>
+      <c r="F593" s="13"/>
+      <c r="G593" s="13">
+        <v>160000000000001</v>
+      </c>
+      <c r="H593" s="12"/>
+      <c r="I593" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J593" s="13"/>
+      <c r="L593" s="31">
+        <f t="shared" si="18"/>
+        <v>164000000000590</v>
+      </c>
+      <c r="M593" s="32" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+    </row>
+    <row r="594" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C594" s="41" t="str">
+        <f>MAIN!C594</f>
+        <v>Syafri Johansah</v>
+      </c>
+      <c r="D594" s="13">
+        <v>163000000000002</v>
+      </c>
+      <c r="E594" s="40" t="str">
+        <f>IF(EXACT($D594, ""), "", VLOOKUP($D594, [2]DataLookUp!$B$4:$D$15, 2, FALSE ))</f>
+        <v>Karyawan Tidak Tetap (Kontrak)</v>
+      </c>
+      <c r="F594" s="13"/>
+      <c r="G594" s="13">
+        <v>160000000000001</v>
+      </c>
+      <c r="H594" s="12"/>
+      <c r="I594" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J594" s="13"/>
+      <c r="L594" s="31">
+        <f t="shared" si="18"/>
+        <v>164000000000591</v>
+      </c>
+      <c r="M594" s="32" t="str">
+        <f t="shared" si="19"/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+      </c>
+    </row>
+    <row r="595" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C595" s="15"/>
+      <c r="D595" s="16"/>
+      <c r="E595" s="16"/>
+      <c r="F595" s="16"/>
+      <c r="G595" s="16"/>
+      <c r="H595" s="15"/>
+      <c r="I595" s="15"/>
+      <c r="J595" s="16"/>
+      <c r="L595" s="33"/>
+      <c r="M595" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I514">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="45" priority="29" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I513">
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I513)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I524">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I524)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I540">
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I514:I525">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I541 I525:I539">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I525)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I542:I585">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I542)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I541">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="38" priority="22" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I541)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I538">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I538)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I515">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I526">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="35" priority="18" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I526)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I542">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I542)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I543">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I543)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I540">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I540)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I585">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I585)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I586">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="9999-12-31 23:59:59+07">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="9999-12-31 23:59:59+07">
       <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I586)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I588">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="9999-12-31 23:59:59+07">
-      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I588)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I587">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="9999-12-31 23:59:59+07">
-      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I587)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L589">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="L4:L594">
+    <cfRule type="expression" dxfId="27" priority="10">
       <formula>EXACT(L3, L4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>EXACT(L4, L5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I587:I594">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="9999-12-31 23:59:59+07">
+      <formula>NOT(ISERROR(SEARCH("9999-12-31 23:59:59+07",I587)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L595">
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>EXACT(L594, L595)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47327,7 +47867,7 @@
   <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="74">
   <si>
     <t>WorkerType_RefID</t>
   </si>
@@ -248,6 +248,9 @@
   <si>
     <t>Ref ID
 Document Employment  Relationship</t>
+  </si>
+  <si>
+    <t>010803042</t>
   </si>
 </sst>
 </file>
@@ -664,199 +667,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -881,33 +696,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6270,11 +6058,11 @@
   </sheetPr>
   <dimension ref="A1:G595"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C580" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C548" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J596" sqref="J596"/>
+      <selection pane="bottomRight" activeCell="D553" sqref="D553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16982,14 +16770,16 @@
         <f>IF(EXACT(B556, ""), "", VLOOKUP(B556, [1]DataLookUp!$B$4:$C$594, 2,FALSE ))</f>
         <v>Masimin</v>
       </c>
-      <c r="D556" s="23"/>
+      <c r="D556" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="F556" s="31">
         <f t="shared" si="16"/>
         <v>32000000000553</v>
       </c>
       <c r="G556" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 25000000000553::bigint, null::varchar);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorker_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 25000000000553::bigint, '010803042'::varchar);</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
@@ -17726,14 +17516,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F4:F594">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>EXACT(F3, F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D11:D554" numberStoredAsText="1"/>
+    <ignoredError sqref="D11:D554 D556" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -17746,10 +17536,10 @@
   <dimension ref="B1:H592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C547" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E556" sqref="E556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17758,11 +17548,13 @@
     <col min="2" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B2" s="35" t="s">
         <v>69</v>
       </c>
@@ -17780,13 +17572,13 @@
         <v>Nomor Induk Pekerja</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="37">
         <f>IF(EXACT(MAIN!$G4, ""), "", MAIN!$F4)</f>
         <v>32000000000001</v>
@@ -17803,8 +17595,12 @@
         <f>IF(EXACT(MAIN!$B4, ""), "", ""&amp;MAIN!$D4)</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="2">
+        <f>C4</f>
+        <v>25000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="37">
         <f>IF(EXACT(MAIN!$G5, ""), "", MAIN!$F5)</f>
         <v>32000000000002</v>
@@ -17821,8 +17617,12 @@
         <f>IF(EXACT(MAIN!$B5, ""), "", ""&amp;MAIN!$D5)</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G68" si="0">C5</f>
+        <v>25000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="37">
         <f>IF(EXACT(MAIN!$G6, ""), "", MAIN!$F6)</f>
         <v>32000000000003</v>
@@ -17839,8 +17639,12 @@
         <f>IF(EXACT(MAIN!$B6, ""), "", ""&amp;MAIN!$D6)</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="37">
         <f>IF(EXACT(MAIN!$G7, ""), "", MAIN!$F7)</f>
         <v>32000000000004</v>
@@ -17857,8 +17661,12 @@
         <f>IF(EXACT(MAIN!$B7, ""), "", ""&amp;MAIN!$D7)</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="37">
         <f>IF(EXACT(MAIN!$G8, ""), "", MAIN!$F8)</f>
         <v>32000000000005</v>
@@ -17875,8 +17683,12 @@
         <f>IF(EXACT(MAIN!$B8, ""), "", ""&amp;MAIN!$D8)</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="37">
         <f>IF(EXACT(MAIN!$G9, ""), "", MAIN!$F9)</f>
         <v>32000000000006</v>
@@ -17893,8 +17705,12 @@
         <f>IF(EXACT(MAIN!$B9, ""), "", ""&amp;MAIN!$D9)</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="37">
         <f>IF(EXACT(MAIN!$G10, ""), "", MAIN!$F10)</f>
         <v>32000000000007</v>
@@ -17911,8 +17727,12 @@
         <f>IF(EXACT(MAIN!$B10, ""), "", ""&amp;MAIN!$D10)</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="37">
         <f>IF(EXACT(MAIN!$G11, ""), "", MAIN!$F11)</f>
         <v>32000000000008</v>
@@ -17929,8 +17749,12 @@
         <f>IF(EXACT(MAIN!$B11, ""), "", ""&amp;MAIN!$D11)</f>
         <v>050321947</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="37">
         <f>IF(EXACT(MAIN!$G12, ""), "", MAIN!$F12)</f>
         <v>32000000000009</v>
@@ -17947,8 +17771,12 @@
         <f>IF(EXACT(MAIN!$B12, ""), "", ""&amp;MAIN!$D12)</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="37">
         <f>IF(EXACT(MAIN!$G13, ""), "", MAIN!$F13)</f>
         <v>32000000000010</v>
@@ -17965,8 +17793,12 @@
         <f>IF(EXACT(MAIN!$B13, ""), "", ""&amp;MAIN!$D13)</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000010</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="37">
         <f>IF(EXACT(MAIN!$G14, ""), "", MAIN!$F14)</f>
         <v>32000000000011</v>
@@ -17983,8 +17815,12 @@
         <f>IF(EXACT(MAIN!$B14, ""), "", ""&amp;MAIN!$D14)</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="37">
         <f>IF(EXACT(MAIN!$G15, ""), "", MAIN!$F15)</f>
         <v>32000000000012</v>
@@ -18001,8 +17837,12 @@
         <f>IF(EXACT(MAIN!$B15, ""), "", ""&amp;MAIN!$D15)</f>
         <v>010703020</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000012</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="37">
         <f>IF(EXACT(MAIN!$G16, ""), "", MAIN!$F16)</f>
         <v>32000000000013</v>
@@ -18019,8 +17859,12 @@
         <f>IF(EXACT(MAIN!$B16, ""), "", ""&amp;MAIN!$D16)</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000013</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="37">
         <f>IF(EXACT(MAIN!$G17, ""), "", MAIN!$F17)</f>
         <v>32000000000014</v>
@@ -18037,8 +17881,12 @@
         <f>IF(EXACT(MAIN!$B17, ""), "", ""&amp;MAIN!$D17)</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="37">
         <f>IF(EXACT(MAIN!$G18, ""), "", MAIN!$F18)</f>
         <v>32000000000015</v>
@@ -18055,8 +17903,12 @@
         <f>IF(EXACT(MAIN!$B18, ""), "", ""&amp;MAIN!$D18)</f>
         <v>130223978</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000015</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="37">
         <f>IF(EXACT(MAIN!$G19, ""), "", MAIN!$F19)</f>
         <v>32000000000016</v>
@@ -18073,8 +17925,12 @@
         <f>IF(EXACT(MAIN!$B19, ""), "", ""&amp;MAIN!$D19)</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000016</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
         <f>IF(EXACT(MAIN!$G20, ""), "", MAIN!$F20)</f>
         <v>32000000000017</v>
@@ -18091,8 +17947,12 @@
         <f>IF(EXACT(MAIN!$B20, ""), "", ""&amp;MAIN!$D20)</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000017</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="37">
         <f>IF(EXACT(MAIN!$G21, ""), "", MAIN!$F21)</f>
         <v>32000000000018</v>
@@ -18109,8 +17969,12 @@
         <f>IF(EXACT(MAIN!$B21, ""), "", ""&amp;MAIN!$D21)</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000018</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
         <f>IF(EXACT(MAIN!$G22, ""), "", MAIN!$F22)</f>
         <v>32000000000019</v>
@@ -18127,8 +17991,12 @@
         <f>IF(EXACT(MAIN!$B22, ""), "", ""&amp;MAIN!$D22)</f>
         <v>150506222</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000019</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
         <f>IF(EXACT(MAIN!$G23, ""), "", MAIN!$F23)</f>
         <v>32000000000020</v>
@@ -18145,8 +18013,12 @@
         <f>IF(EXACT(MAIN!$B23, ""), "", ""&amp;MAIN!$D23)</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000020</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
         <f>IF(EXACT(MAIN!$G24, ""), "", MAIN!$F24)</f>
         <v>32000000000021</v>
@@ -18163,8 +18035,12 @@
         <f>IF(EXACT(MAIN!$B24, ""), "", ""&amp;MAIN!$D24)</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000021</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
         <f>IF(EXACT(MAIN!$G25, ""), "", MAIN!$F25)</f>
         <v>32000000000022</v>
@@ -18181,8 +18057,12 @@
         <f>IF(EXACT(MAIN!$B25, ""), "", ""&amp;MAIN!$D25)</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000022</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
         <f>IF(EXACT(MAIN!$G26, ""), "", MAIN!$F26)</f>
         <v>32000000000023</v>
@@ -18199,8 +18079,12 @@
         <f>IF(EXACT(MAIN!$B26, ""), "", ""&amp;MAIN!$D26)</f>
         <v>141020935</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000023</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
         <f>IF(EXACT(MAIN!$G27, ""), "", MAIN!$F27)</f>
         <v>32000000000024</v>
@@ -18217,8 +18101,12 @@
         <f>IF(EXACT(MAIN!$B27, ""), "", ""&amp;MAIN!$D27)</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000024</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
         <f>IF(EXACT(MAIN!$G28, ""), "", MAIN!$F28)</f>
         <v>32000000000025</v>
@@ -18235,8 +18123,12 @@
         <f>IF(EXACT(MAIN!$B28, ""), "", ""&amp;MAIN!$D28)</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000025</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
         <f>IF(EXACT(MAIN!$G29, ""), "", MAIN!$F29)</f>
         <v>32000000000026</v>
@@ -18253,8 +18145,12 @@
         <f>IF(EXACT(MAIN!$B29, ""), "", ""&amp;MAIN!$D29)</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000026</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="37">
         <f>IF(EXACT(MAIN!$G30, ""), "", MAIN!$F30)</f>
         <v>32000000000027</v>
@@ -18271,8 +18167,12 @@
         <f>IF(EXACT(MAIN!$B30, ""), "", ""&amp;MAIN!$D30)</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000027</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="37">
         <f>IF(EXACT(MAIN!$G31, ""), "", MAIN!$F31)</f>
         <v>32000000000028</v>
@@ -18289,8 +18189,12 @@
         <f>IF(EXACT(MAIN!$B31, ""), "", ""&amp;MAIN!$D31)</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000028</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
         <f>IF(EXACT(MAIN!$G32, ""), "", MAIN!$F32)</f>
         <v>32000000000029</v>
@@ -18307,8 +18211,12 @@
         <f>IF(EXACT(MAIN!$B32, ""), "", ""&amp;MAIN!$D32)</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000029</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
         <f>IF(EXACT(MAIN!$G33, ""), "", MAIN!$F33)</f>
         <v>32000000000030</v>
@@ -18325,8 +18233,12 @@
         <f>IF(EXACT(MAIN!$B33, ""), "", ""&amp;MAIN!$D33)</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000030</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
         <f>IF(EXACT(MAIN!$G34, ""), "", MAIN!$F34)</f>
         <v>32000000000031</v>
@@ -18343,8 +18255,12 @@
         <f>IF(EXACT(MAIN!$B34, ""), "", ""&amp;MAIN!$D34)</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000031</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
         <f>IF(EXACT(MAIN!$G35, ""), "", MAIN!$F35)</f>
         <v>32000000000032</v>
@@ -18361,8 +18277,12 @@
         <f>IF(EXACT(MAIN!$B35, ""), "", ""&amp;MAIN!$D35)</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000032</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="37">
         <f>IF(EXACT(MAIN!$G36, ""), "", MAIN!$F36)</f>
         <v>32000000000033</v>
@@ -18379,8 +18299,12 @@
         <f>IF(EXACT(MAIN!$B36, ""), "", ""&amp;MAIN!$D36)</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000033</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="37">
         <f>IF(EXACT(MAIN!$G37, ""), "", MAIN!$F37)</f>
         <v>32000000000034</v>
@@ -18397,8 +18321,12 @@
         <f>IF(EXACT(MAIN!$B37, ""), "", ""&amp;MAIN!$D37)</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000034</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="37">
         <f>IF(EXACT(MAIN!$G38, ""), "", MAIN!$F38)</f>
         <v>32000000000035</v>
@@ -18415,8 +18343,12 @@
         <f>IF(EXACT(MAIN!$B38, ""), "", ""&amp;MAIN!$D38)</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000035</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
         <f>IF(EXACT(MAIN!$G39, ""), "", MAIN!$F39)</f>
         <v>32000000000036</v>
@@ -18433,8 +18365,12 @@
         <f>IF(EXACT(MAIN!$B39, ""), "", ""&amp;MAIN!$D39)</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000036</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="37">
         <f>IF(EXACT(MAIN!$G40, ""), "", MAIN!$F40)</f>
         <v>32000000000037</v>
@@ -18451,8 +18387,12 @@
         <f>IF(EXACT(MAIN!$B40, ""), "", ""&amp;MAIN!$D40)</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000037</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="37">
         <f>IF(EXACT(MAIN!$G41, ""), "", MAIN!$F41)</f>
         <v>32000000000038</v>
@@ -18469,8 +18409,12 @@
         <f>IF(EXACT(MAIN!$B41, ""), "", ""&amp;MAIN!$D41)</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000038</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="37">
         <f>IF(EXACT(MAIN!$G42, ""), "", MAIN!$F42)</f>
         <v>32000000000039</v>
@@ -18487,8 +18431,12 @@
         <f>IF(EXACT(MAIN!$B42, ""), "", ""&amp;MAIN!$D42)</f>
         <v>100419903</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000039</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="37">
         <f>IF(EXACT(MAIN!$G43, ""), "", MAIN!$F43)</f>
         <v>32000000000040</v>
@@ -18505,8 +18453,12 @@
         <f>IF(EXACT(MAIN!$B43, ""), "", ""&amp;MAIN!$D43)</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000040</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
         <f>IF(EXACT(MAIN!$G44, ""), "", MAIN!$F44)</f>
         <v>32000000000041</v>
@@ -18523,8 +18475,12 @@
         <f>IF(EXACT(MAIN!$B44, ""), "", ""&amp;MAIN!$D44)</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000041</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
         <f>IF(EXACT(MAIN!$G45, ""), "", MAIN!$F45)</f>
         <v>32000000000042</v>
@@ -18541,8 +18497,12 @@
         <f>IF(EXACT(MAIN!$B45, ""), "", ""&amp;MAIN!$D45)</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000042</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
         <f>IF(EXACT(MAIN!$G46, ""), "", MAIN!$F46)</f>
         <v>32000000000043</v>
@@ -18559,8 +18519,12 @@
         <f>IF(EXACT(MAIN!$B46, ""), "", ""&amp;MAIN!$D46)</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000043</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
         <f>IF(EXACT(MAIN!$G47, ""), "", MAIN!$F47)</f>
         <v>32000000000044</v>
@@ -18577,8 +18541,12 @@
         <f>IF(EXACT(MAIN!$B47, ""), "", ""&amp;MAIN!$D47)</f>
         <v>310821007</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000044</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
         <f>IF(EXACT(MAIN!$G48, ""), "", MAIN!$F48)</f>
         <v>32000000000045</v>
@@ -18595,8 +18563,12 @@
         <f>IF(EXACT(MAIN!$B48, ""), "", ""&amp;MAIN!$D48)</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000045</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
         <f>IF(EXACT(MAIN!$G49, ""), "", MAIN!$F49)</f>
         <v>32000000000046</v>
@@ -18613,8 +18585,12 @@
         <f>IF(EXACT(MAIN!$B49, ""), "", ""&amp;MAIN!$D49)</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000046</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="37">
         <f>IF(EXACT(MAIN!$G50, ""), "", MAIN!$F50)</f>
         <v>32000000000047</v>
@@ -18631,8 +18607,12 @@
         <f>IF(EXACT(MAIN!$B50, ""), "", ""&amp;MAIN!$D50)</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000047</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="37">
         <f>IF(EXACT(MAIN!$G51, ""), "", MAIN!$F51)</f>
         <v>32000000000048</v>
@@ -18649,8 +18629,12 @@
         <f>IF(EXACT(MAIN!$B51, ""), "", ""&amp;MAIN!$D51)</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000048</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="37">
         <f>IF(EXACT(MAIN!$G52, ""), "", MAIN!$F52)</f>
         <v>32000000000049</v>
@@ -18667,8 +18651,12 @@
         <f>IF(EXACT(MAIN!$B52, ""), "", ""&amp;MAIN!$D52)</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000049</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="37">
         <f>IF(EXACT(MAIN!$G53, ""), "", MAIN!$F53)</f>
         <v>32000000000050</v>
@@ -18685,8 +18673,12 @@
         <f>IF(EXACT(MAIN!$B53, ""), "", ""&amp;MAIN!$D53)</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000050</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="37">
         <f>IF(EXACT(MAIN!$G54, ""), "", MAIN!$F54)</f>
         <v>32000000000051</v>
@@ -18703,8 +18695,12 @@
         <f>IF(EXACT(MAIN!$B54, ""), "", ""&amp;MAIN!$D54)</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000051</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="37">
         <f>IF(EXACT(MAIN!$G55, ""), "", MAIN!$F55)</f>
         <v>32000000000052</v>
@@ -18721,8 +18717,12 @@
         <f>IF(EXACT(MAIN!$B55, ""), "", ""&amp;MAIN!$D55)</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000052</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="37">
         <f>IF(EXACT(MAIN!$G56, ""), "", MAIN!$F56)</f>
         <v>32000000000053</v>
@@ -18739,8 +18739,12 @@
         <f>IF(EXACT(MAIN!$B56, ""), "", ""&amp;MAIN!$D56)</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000053</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="37">
         <f>IF(EXACT(MAIN!$G57, ""), "", MAIN!$F57)</f>
         <v>32000000000054</v>
@@ -18757,8 +18761,12 @@
         <f>IF(EXACT(MAIN!$B57, ""), "", ""&amp;MAIN!$D57)</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000054</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="37">
         <f>IF(EXACT(MAIN!$G58, ""), "", MAIN!$F58)</f>
         <v>32000000000055</v>
@@ -18775,8 +18783,12 @@
         <f>IF(EXACT(MAIN!$B58, ""), "", ""&amp;MAIN!$D58)</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000055</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="37">
         <f>IF(EXACT(MAIN!$G59, ""), "", MAIN!$F59)</f>
         <v>32000000000056</v>
@@ -18793,8 +18805,12 @@
         <f>IF(EXACT(MAIN!$B59, ""), "", ""&amp;MAIN!$D59)</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000056</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="37">
         <f>IF(EXACT(MAIN!$G60, ""), "", MAIN!$F60)</f>
         <v>32000000000057</v>
@@ -18811,8 +18827,12 @@
         <f>IF(EXACT(MAIN!$B60, ""), "", ""&amp;MAIN!$D60)</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G60" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000057</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="37">
         <f>IF(EXACT(MAIN!$G61, ""), "", MAIN!$F61)</f>
         <v>32000000000058</v>
@@ -18829,8 +18849,12 @@
         <f>IF(EXACT(MAIN!$B61, ""), "", ""&amp;MAIN!$D61)</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G61" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000058</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="37">
         <f>IF(EXACT(MAIN!$G62, ""), "", MAIN!$F62)</f>
         <v>32000000000059</v>
@@ -18847,8 +18871,12 @@
         <f>IF(EXACT(MAIN!$B62, ""), "", ""&amp;MAIN!$D62)</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000059</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="37">
         <f>IF(EXACT(MAIN!$G63, ""), "", MAIN!$F63)</f>
         <v>32000000000060</v>
@@ -18865,8 +18893,12 @@
         <f>IF(EXACT(MAIN!$B63, ""), "", ""&amp;MAIN!$D63)</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G63" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000060</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="37">
         <f>IF(EXACT(MAIN!$G64, ""), "", MAIN!$F64)</f>
         <v>32000000000061</v>
@@ -18883,8 +18915,12 @@
         <f>IF(EXACT(MAIN!$B64, ""), "", ""&amp;MAIN!$D64)</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G64" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000061</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="37">
         <f>IF(EXACT(MAIN!$G65, ""), "", MAIN!$F65)</f>
         <v>32000000000062</v>
@@ -18901,8 +18937,12 @@
         <f>IF(EXACT(MAIN!$B65, ""), "", ""&amp;MAIN!$D65)</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G65" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000062</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="37">
         <f>IF(EXACT(MAIN!$G66, ""), "", MAIN!$F66)</f>
         <v>32000000000063</v>
@@ -18919,8 +18959,12 @@
         <f>IF(EXACT(MAIN!$B66, ""), "", ""&amp;MAIN!$D66)</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G66" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000063</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="37">
         <f>IF(EXACT(MAIN!$G67, ""), "", MAIN!$F67)</f>
         <v>32000000000064</v>
@@ -18937,8 +18981,12 @@
         <f>IF(EXACT(MAIN!$B67, ""), "", ""&amp;MAIN!$D67)</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G67" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000064</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="37">
         <f>IF(EXACT(MAIN!$G68, ""), "", MAIN!$F68)</f>
         <v>32000000000065</v>
@@ -18955,8 +19003,12 @@
         <f>IF(EXACT(MAIN!$B68, ""), "", ""&amp;MAIN!$D68)</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G68" s="2">
+        <f t="shared" si="0"/>
+        <v>25000000000065</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="37">
         <f>IF(EXACT(MAIN!$G69, ""), "", MAIN!$F69)</f>
         <v>32000000000066</v>
@@ -18973,8 +19025,12 @@
         <f>IF(EXACT(MAIN!$B69, ""), "", ""&amp;MAIN!$D69)</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G69" s="2">
+        <f t="shared" ref="G69:G132" si="1">C69</f>
+        <v>25000000000066</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="37">
         <f>IF(EXACT(MAIN!$G70, ""), "", MAIN!$F70)</f>
         <v>32000000000067</v>
@@ -18991,8 +19047,12 @@
         <f>IF(EXACT(MAIN!$B70, ""), "", ""&amp;MAIN!$D70)</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G70" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000067</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="37">
         <f>IF(EXACT(MAIN!$G71, ""), "", MAIN!$F71)</f>
         <v>32000000000068</v>
@@ -19009,8 +19069,12 @@
         <f>IF(EXACT(MAIN!$B71, ""), "", ""&amp;MAIN!$D71)</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G71" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000068</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="37">
         <f>IF(EXACT(MAIN!$G72, ""), "", MAIN!$F72)</f>
         <v>32000000000069</v>
@@ -19027,8 +19091,12 @@
         <f>IF(EXACT(MAIN!$B72, ""), "", ""&amp;MAIN!$D72)</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G72" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000069</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="37">
         <f>IF(EXACT(MAIN!$G73, ""), "", MAIN!$F73)</f>
         <v>32000000000070</v>
@@ -19045,8 +19113,12 @@
         <f>IF(EXACT(MAIN!$B73, ""), "", ""&amp;MAIN!$D73)</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G73" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000070</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="37">
         <f>IF(EXACT(MAIN!$G74, ""), "", MAIN!$F74)</f>
         <v>32000000000071</v>
@@ -19063,8 +19135,12 @@
         <f>IF(EXACT(MAIN!$B74, ""), "", ""&amp;MAIN!$D74)</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G74" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000071</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="37">
         <f>IF(EXACT(MAIN!$G75, ""), "", MAIN!$F75)</f>
         <v>32000000000072</v>
@@ -19081,8 +19157,12 @@
         <f>IF(EXACT(MAIN!$B75, ""), "", ""&amp;MAIN!$D75)</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G75" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000072</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="37">
         <f>IF(EXACT(MAIN!$G76, ""), "", MAIN!$F76)</f>
         <v>32000000000073</v>
@@ -19099,8 +19179,12 @@
         <f>IF(EXACT(MAIN!$B76, ""), "", ""&amp;MAIN!$D76)</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G76" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000073</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="37">
         <f>IF(EXACT(MAIN!$G77, ""), "", MAIN!$F77)</f>
         <v>32000000000074</v>
@@ -19117,8 +19201,12 @@
         <f>IF(EXACT(MAIN!$B77, ""), "", ""&amp;MAIN!$D77)</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G77" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000074</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="37">
         <f>IF(EXACT(MAIN!$G78, ""), "", MAIN!$F78)</f>
         <v>32000000000075</v>
@@ -19135,8 +19223,12 @@
         <f>IF(EXACT(MAIN!$B78, ""), "", ""&amp;MAIN!$D78)</f>
         <v>100920934</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G78" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000075</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="37">
         <f>IF(EXACT(MAIN!$G79, ""), "", MAIN!$F79)</f>
         <v>32000000000076</v>
@@ -19153,8 +19245,12 @@
         <f>IF(EXACT(MAIN!$B79, ""), "", ""&amp;MAIN!$D79)</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G79" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000076</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="37">
         <f>IF(EXACT(MAIN!$G80, ""), "", MAIN!$F80)</f>
         <v>32000000000077</v>
@@ -19171,8 +19267,12 @@
         <f>IF(EXACT(MAIN!$B80, ""), "", ""&amp;MAIN!$D80)</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G80" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000077</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="37">
         <f>IF(EXACT(MAIN!$G81, ""), "", MAIN!$F81)</f>
         <v>32000000000078</v>
@@ -19189,8 +19289,12 @@
         <f>IF(EXACT(MAIN!$B81, ""), "", ""&amp;MAIN!$D81)</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G81" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000078</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="37">
         <f>IF(EXACT(MAIN!$G82, ""), "", MAIN!$F82)</f>
         <v>32000000000079</v>
@@ -19207,8 +19311,12 @@
         <f>IF(EXACT(MAIN!$B82, ""), "", ""&amp;MAIN!$D82)</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G82" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000079</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="37">
         <f>IF(EXACT(MAIN!$G83, ""), "", MAIN!$F83)</f>
         <v>32000000000080</v>
@@ -19225,8 +19333,12 @@
         <f>IF(EXACT(MAIN!$B83, ""), "", ""&amp;MAIN!$D83)</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G83" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000080</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="37">
         <f>IF(EXACT(MAIN!$G84, ""), "", MAIN!$F84)</f>
         <v>32000000000081</v>
@@ -19243,8 +19355,12 @@
         <f>IF(EXACT(MAIN!$B84, ""), "", ""&amp;MAIN!$D84)</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G84" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000081</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="37">
         <f>IF(EXACT(MAIN!$G85, ""), "", MAIN!$F85)</f>
         <v>32000000000082</v>
@@ -19261,8 +19377,12 @@
         <f>IF(EXACT(MAIN!$B85, ""), "", ""&amp;MAIN!$D85)</f>
         <v>060515769</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G85" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000082</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="37">
         <f>IF(EXACT(MAIN!$G86, ""), "", MAIN!$F86)</f>
         <v>32000000000083</v>
@@ -19279,8 +19399,12 @@
         <f>IF(EXACT(MAIN!$B86, ""), "", ""&amp;MAIN!$D86)</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G86" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000083</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="37">
         <f>IF(EXACT(MAIN!$G87, ""), "", MAIN!$F87)</f>
         <v>32000000000084</v>
@@ -19297,8 +19421,12 @@
         <f>IF(EXACT(MAIN!$B87, ""), "", ""&amp;MAIN!$D87)</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G87" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000084</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="37">
         <f>IF(EXACT(MAIN!$G88, ""), "", MAIN!$F88)</f>
         <v>32000000000085</v>
@@ -19315,8 +19443,12 @@
         <f>IF(EXACT(MAIN!$B88, ""), "", ""&amp;MAIN!$D88)</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G88" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000085</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="37">
         <f>IF(EXACT(MAIN!$G89, ""), "", MAIN!$F89)</f>
         <v>32000000000086</v>
@@ -19333,8 +19465,12 @@
         <f>IF(EXACT(MAIN!$B89, ""), "", ""&amp;MAIN!$D89)</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G89" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000086</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="37">
         <f>IF(EXACT(MAIN!$G90, ""), "", MAIN!$F90)</f>
         <v>32000000000087</v>
@@ -19351,8 +19487,12 @@
         <f>IF(EXACT(MAIN!$B90, ""), "", ""&amp;MAIN!$D90)</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G90" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000087</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="37">
         <f>IF(EXACT(MAIN!$G91, ""), "", MAIN!$F91)</f>
         <v>32000000000088</v>
@@ -19369,8 +19509,12 @@
         <f>IF(EXACT(MAIN!$B91, ""), "", ""&amp;MAIN!$D91)</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G91" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000088</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="37">
         <f>IF(EXACT(MAIN!$G92, ""), "", MAIN!$F92)</f>
         <v>32000000000089</v>
@@ -19387,8 +19531,12 @@
         <f>IF(EXACT(MAIN!$B92, ""), "", ""&amp;MAIN!$D92)</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G92" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000089</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="37">
         <f>IF(EXACT(MAIN!$G93, ""), "", MAIN!$F93)</f>
         <v>32000000000090</v>
@@ -19405,8 +19553,12 @@
         <f>IF(EXACT(MAIN!$B93, ""), "", ""&amp;MAIN!$D93)</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G93" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000090</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="37">
         <f>IF(EXACT(MAIN!$G94, ""), "", MAIN!$F94)</f>
         <v>32000000000091</v>
@@ -19423,8 +19575,12 @@
         <f>IF(EXACT(MAIN!$B94, ""), "", ""&amp;MAIN!$D94)</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G94" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000091</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="37">
         <f>IF(EXACT(MAIN!$G95, ""), "", MAIN!$F95)</f>
         <v>32000000000092</v>
@@ -19441,8 +19597,12 @@
         <f>IF(EXACT(MAIN!$B95, ""), "", ""&amp;MAIN!$D95)</f>
         <v>031212631</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G95" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000092</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="37">
         <f>IF(EXACT(MAIN!$G96, ""), "", MAIN!$F96)</f>
         <v>32000000000093</v>
@@ -19459,8 +19619,12 @@
         <f>IF(EXACT(MAIN!$B96, ""), "", ""&amp;MAIN!$D96)</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G96" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000093</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="37">
         <f>IF(EXACT(MAIN!$G97, ""), "", MAIN!$F97)</f>
         <v>32000000000094</v>
@@ -19477,8 +19641,12 @@
         <f>IF(EXACT(MAIN!$B97, ""), "", ""&amp;MAIN!$D97)</f>
         <v>171215791</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G97" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000094</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="37">
         <f>IF(EXACT(MAIN!$G98, ""), "", MAIN!$F98)</f>
         <v>32000000000095</v>
@@ -19495,8 +19663,12 @@
         <f>IF(EXACT(MAIN!$B98, ""), "", ""&amp;MAIN!$D98)</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G98" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000095</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="37">
         <f>IF(EXACT(MAIN!$G99, ""), "", MAIN!$F99)</f>
         <v>32000000000096</v>
@@ -19513,8 +19685,12 @@
         <f>IF(EXACT(MAIN!$B99, ""), "", ""&amp;MAIN!$D99)</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G99" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000096</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="37">
         <f>IF(EXACT(MAIN!$G100, ""), "", MAIN!$F100)</f>
         <v>32000000000097</v>
@@ -19531,8 +19707,12 @@
         <f>IF(EXACT(MAIN!$B100, ""), "", ""&amp;MAIN!$D100)</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G100" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000097</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="37">
         <f>IF(EXACT(MAIN!$G101, ""), "", MAIN!$F101)</f>
         <v>32000000000098</v>
@@ -19549,8 +19729,12 @@
         <f>IF(EXACT(MAIN!$B101, ""), "", ""&amp;MAIN!$D101)</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G101" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000098</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="37">
         <f>IF(EXACT(MAIN!$G102, ""), "", MAIN!$F102)</f>
         <v>32000000000099</v>
@@ -19567,8 +19751,12 @@
         <f>IF(EXACT(MAIN!$B102, ""), "", ""&amp;MAIN!$D102)</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G102" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000099</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="37">
         <f>IF(EXACT(MAIN!$G103, ""), "", MAIN!$F103)</f>
         <v>32000000000100</v>
@@ -19585,8 +19773,12 @@
         <f>IF(EXACT(MAIN!$B103, ""), "", ""&amp;MAIN!$D103)</f>
         <v>050123975</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G103" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="37">
         <f>IF(EXACT(MAIN!$G104, ""), "", MAIN!$F104)</f>
         <v>32000000000101</v>
@@ -19603,8 +19795,12 @@
         <f>IF(EXACT(MAIN!$B104, ""), "", ""&amp;MAIN!$D104)</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G104" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000101</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="37">
         <f>IF(EXACT(MAIN!$G105, ""), "", MAIN!$F105)</f>
         <v>32000000000102</v>
@@ -19621,8 +19817,12 @@
         <f>IF(EXACT(MAIN!$B105, ""), "", ""&amp;MAIN!$D105)</f>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G105" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000102</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="37">
         <f>IF(EXACT(MAIN!$G106, ""), "", MAIN!$F106)</f>
         <v>32000000000103</v>
@@ -19639,8 +19839,12 @@
         <f>IF(EXACT(MAIN!$B106, ""), "", ""&amp;MAIN!$D106)</f>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G106" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000103</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="37">
         <f>IF(EXACT(MAIN!$G107, ""), "", MAIN!$F107)</f>
         <v>32000000000104</v>
@@ -19657,8 +19861,12 @@
         <f>IF(EXACT(MAIN!$B107, ""), "", ""&amp;MAIN!$D107)</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G107" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000104</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="37">
         <f>IF(EXACT(MAIN!$G108, ""), "", MAIN!$F108)</f>
         <v>32000000000105</v>
@@ -19675,8 +19883,12 @@
         <f>IF(EXACT(MAIN!$B108, ""), "", ""&amp;MAIN!$D108)</f>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G108" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000105</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="37">
         <f>IF(EXACT(MAIN!$G109, ""), "", MAIN!$F109)</f>
         <v>32000000000106</v>
@@ -19693,8 +19905,12 @@
         <f>IF(EXACT(MAIN!$B109, ""), "", ""&amp;MAIN!$D109)</f>
         <v>010605133</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G109" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000106</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="37">
         <f>IF(EXACT(MAIN!$G110, ""), "", MAIN!$F110)</f>
         <v>32000000000107</v>
@@ -19711,8 +19927,12 @@
         <f>IF(EXACT(MAIN!$B110, ""), "", ""&amp;MAIN!$D110)</f>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G110" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000107</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="37">
         <f>IF(EXACT(MAIN!$G111, ""), "", MAIN!$F111)</f>
         <v>32000000000108</v>
@@ -19729,8 +19949,12 @@
         <f>IF(EXACT(MAIN!$B111, ""), "", ""&amp;MAIN!$D111)</f>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G111" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000108</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="37">
         <f>IF(EXACT(MAIN!$G112, ""), "", MAIN!$F112)</f>
         <v>32000000000109</v>
@@ -19747,8 +19971,12 @@
         <f>IF(EXACT(MAIN!$B112, ""), "", ""&amp;MAIN!$D112)</f>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G112" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000109</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="37">
         <f>IF(EXACT(MAIN!$G113, ""), "", MAIN!$F113)</f>
         <v>32000000000110</v>
@@ -19765,8 +19993,12 @@
         <f>IF(EXACT(MAIN!$B113, ""), "", ""&amp;MAIN!$D113)</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G113" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000110</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="37">
         <f>IF(EXACT(MAIN!$G114, ""), "", MAIN!$F114)</f>
         <v>32000000000111</v>
@@ -19783,8 +20015,12 @@
         <f>IF(EXACT(MAIN!$B114, ""), "", ""&amp;MAIN!$D114)</f>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G114" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000111</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="37">
         <f>IF(EXACT(MAIN!$G115, ""), "", MAIN!$F115)</f>
         <v>32000000000112</v>
@@ -19801,8 +20037,12 @@
         <f>IF(EXACT(MAIN!$B115, ""), "", ""&amp;MAIN!$D115)</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G115" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000112</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="37">
         <f>IF(EXACT(MAIN!$G116, ""), "", MAIN!$F116)</f>
         <v>32000000000113</v>
@@ -19819,8 +20059,12 @@
         <f>IF(EXACT(MAIN!$B116, ""), "", ""&amp;MAIN!$D116)</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G116" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000113</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="37">
         <f>IF(EXACT(MAIN!$G117, ""), "", MAIN!$F117)</f>
         <v>32000000000114</v>
@@ -19837,8 +20081,12 @@
         <f>IF(EXACT(MAIN!$B117, ""), "", ""&amp;MAIN!$D117)</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G117" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000114</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="37">
         <f>IF(EXACT(MAIN!$G118, ""), "", MAIN!$F118)</f>
         <v>32000000000115</v>
@@ -19855,8 +20103,12 @@
         <f>IF(EXACT(MAIN!$B118, ""), "", ""&amp;MAIN!$D118)</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G118" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000115</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="37">
         <f>IF(EXACT(MAIN!$G119, ""), "", MAIN!$F119)</f>
         <v>32000000000116</v>
@@ -19873,8 +20125,12 @@
         <f>IF(EXACT(MAIN!$B119, ""), "", ""&amp;MAIN!$D119)</f>
         <v>040803040</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G119" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000116</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="37">
         <f>IF(EXACT(MAIN!$G120, ""), "", MAIN!$F120)</f>
         <v>32000000000117</v>
@@ -19891,8 +20147,12 @@
         <f>IF(EXACT(MAIN!$B120, ""), "", ""&amp;MAIN!$D120)</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G120" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000117</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="37">
         <f>IF(EXACT(MAIN!$G121, ""), "", MAIN!$F121)</f>
         <v>32000000000118</v>
@@ -19909,8 +20169,12 @@
         <f>IF(EXACT(MAIN!$B121, ""), "", ""&amp;MAIN!$D121)</f>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G121" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000118</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="37">
         <f>IF(EXACT(MAIN!$G122, ""), "", MAIN!$F122)</f>
         <v>32000000000119</v>
@@ -19927,8 +20191,12 @@
         <f>IF(EXACT(MAIN!$B122, ""), "", ""&amp;MAIN!$D122)</f>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G122" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000119</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="37">
         <f>IF(EXACT(MAIN!$G123, ""), "", MAIN!$F123)</f>
         <v>32000000000120</v>
@@ -19945,8 +20213,12 @@
         <f>IF(EXACT(MAIN!$B123, ""), "", ""&amp;MAIN!$D123)</f>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G123" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000120</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="37">
         <f>IF(EXACT(MAIN!$G124, ""), "", MAIN!$F124)</f>
         <v>32000000000121</v>
@@ -19963,8 +20235,12 @@
         <f>IF(EXACT(MAIN!$B124, ""), "", ""&amp;MAIN!$D124)</f>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G124" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000121</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="37">
         <f>IF(EXACT(MAIN!$G125, ""), "", MAIN!$F125)</f>
         <v>32000000000122</v>
@@ -19981,8 +20257,12 @@
         <f>IF(EXACT(MAIN!$B125, ""), "", ""&amp;MAIN!$D125)</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G125" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000122</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="37">
         <f>IF(EXACT(MAIN!$G126, ""), "", MAIN!$F126)</f>
         <v>32000000000123</v>
@@ -19999,8 +20279,12 @@
         <f>IF(EXACT(MAIN!$B126, ""), "", ""&amp;MAIN!$D126)</f>
         <v>200420932</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G126" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000123</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="37">
         <f>IF(EXACT(MAIN!$G127, ""), "", MAIN!$F127)</f>
         <v>32000000000124</v>
@@ -20017,8 +20301,12 @@
         <f>IF(EXACT(MAIN!$B127, ""), "", ""&amp;MAIN!$D127)</f>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G127" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000124</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="37">
         <f>IF(EXACT(MAIN!$G128, ""), "", MAIN!$F128)</f>
         <v>32000000000125</v>
@@ -20035,8 +20323,12 @@
         <f>IF(EXACT(MAIN!$B128, ""), "", ""&amp;MAIN!$D128)</f>
         <v>060121944</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G128" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000125</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="37">
         <f>IF(EXACT(MAIN!$G129, ""), "", MAIN!$F129)</f>
         <v>32000000000126</v>
@@ -20053,8 +20345,12 @@
         <f>IF(EXACT(MAIN!$B129, ""), "", ""&amp;MAIN!$D129)</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G129" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000126</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="37">
         <f>IF(EXACT(MAIN!$G130, ""), "", MAIN!$F130)</f>
         <v>32000000000127</v>
@@ -20071,8 +20367,12 @@
         <f>IF(EXACT(MAIN!$B130, ""), "", ""&amp;MAIN!$D130)</f>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G130" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000127</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="37">
         <f>IF(EXACT(MAIN!$G131, ""), "", MAIN!$F131)</f>
         <v>32000000000128</v>
@@ -20089,8 +20389,12 @@
         <f>IF(EXACT(MAIN!$B131, ""), "", ""&amp;MAIN!$D131)</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G131" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000128</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="37">
         <f>IF(EXACT(MAIN!$G132, ""), "", MAIN!$F132)</f>
         <v>32000000000129</v>
@@ -20107,8 +20411,12 @@
         <f>IF(EXACT(MAIN!$B132, ""), "", ""&amp;MAIN!$D132)</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G132" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000000129</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="37">
         <f>IF(EXACT(MAIN!$G133, ""), "", MAIN!$F133)</f>
         <v>32000000000130</v>
@@ -20125,8 +20433,12 @@
         <f>IF(EXACT(MAIN!$B133, ""), "", ""&amp;MAIN!$D133)</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G133" s="2">
+        <f t="shared" ref="G133:G196" si="2">C133</f>
+        <v>25000000000130</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="37">
         <f>IF(EXACT(MAIN!$G134, ""), "", MAIN!$F134)</f>
         <v>32000000000131</v>
@@ -20143,8 +20455,12 @@
         <f>IF(EXACT(MAIN!$B134, ""), "", ""&amp;MAIN!$D134)</f>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G134" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000131</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="37">
         <f>IF(EXACT(MAIN!$G135, ""), "", MAIN!$F135)</f>
         <v>32000000000132</v>
@@ -20161,8 +20477,12 @@
         <f>IF(EXACT(MAIN!$B135, ""), "", ""&amp;MAIN!$D135)</f>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G135" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000132</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="37">
         <f>IF(EXACT(MAIN!$G136, ""), "", MAIN!$F136)</f>
         <v>32000000000133</v>
@@ -20179,8 +20499,12 @@
         <f>IF(EXACT(MAIN!$B136, ""), "", ""&amp;MAIN!$D136)</f>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G136" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000133</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="37">
         <f>IF(EXACT(MAIN!$G137, ""), "", MAIN!$F137)</f>
         <v>32000000000134</v>
@@ -20197,8 +20521,12 @@
         <f>IF(EXACT(MAIN!$B137, ""), "", ""&amp;MAIN!$D137)</f>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G137" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000134</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="37">
         <f>IF(EXACT(MAIN!$G138, ""), "", MAIN!$F138)</f>
         <v>32000000000135</v>
@@ -20215,8 +20543,12 @@
         <f>IF(EXACT(MAIN!$B138, ""), "", ""&amp;MAIN!$D138)</f>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G138" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000135</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="37">
         <f>IF(EXACT(MAIN!$G139, ""), "", MAIN!$F139)</f>
         <v>32000000000136</v>
@@ -20233,8 +20565,12 @@
         <f>IF(EXACT(MAIN!$B139, ""), "", ""&amp;MAIN!$D139)</f>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G139" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000136</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="37">
         <f>IF(EXACT(MAIN!$G140, ""), "", MAIN!$F140)</f>
         <v>32000000000137</v>
@@ -20251,8 +20587,12 @@
         <f>IF(EXACT(MAIN!$B140, ""), "", ""&amp;MAIN!$D140)</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G140" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000137</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="37">
         <f>IF(EXACT(MAIN!$G141, ""), "", MAIN!$F141)</f>
         <v>32000000000138</v>
@@ -20269,8 +20609,12 @@
         <f>IF(EXACT(MAIN!$B141, ""), "", ""&amp;MAIN!$D141)</f>
         <v>010806250</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G141" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000138</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="37">
         <f>IF(EXACT(MAIN!$G142, ""), "", MAIN!$F142)</f>
         <v>32000000000139</v>
@@ -20287,8 +20631,12 @@
         <f>IF(EXACT(MAIN!$B142, ""), "", ""&amp;MAIN!$D142)</f>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G142" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000139</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="37">
         <f>IF(EXACT(MAIN!$G143, ""), "", MAIN!$F143)</f>
         <v>32000000000140</v>
@@ -20305,8 +20653,12 @@
         <f>IF(EXACT(MAIN!$B143, ""), "", ""&amp;MAIN!$D143)</f>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G143" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000140</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="37">
         <f>IF(EXACT(MAIN!$G144, ""), "", MAIN!$F144)</f>
         <v>32000000000141</v>
@@ -20323,8 +20675,12 @@
         <f>IF(EXACT(MAIN!$B144, ""), "", ""&amp;MAIN!$D144)</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G144" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000141</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="37">
         <f>IF(EXACT(MAIN!$G145, ""), "", MAIN!$F145)</f>
         <v>32000000000142</v>
@@ -20341,8 +20697,12 @@
         <f>IF(EXACT(MAIN!$B145, ""), "", ""&amp;MAIN!$D145)</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G145" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000142</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="37">
         <f>IF(EXACT(MAIN!$G146, ""), "", MAIN!$F146)</f>
         <v>32000000000143</v>
@@ -20359,8 +20719,12 @@
         <f>IF(EXACT(MAIN!$B146, ""), "", ""&amp;MAIN!$D146)</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G146" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000143</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="37">
         <f>IF(EXACT(MAIN!$G147, ""), "", MAIN!$F147)</f>
         <v>32000000000144</v>
@@ -20377,8 +20741,12 @@
         <f>IF(EXACT(MAIN!$B147, ""), "", ""&amp;MAIN!$D147)</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G147" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000144</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="37">
         <f>IF(EXACT(MAIN!$G148, ""), "", MAIN!$F148)</f>
         <v>32000000000145</v>
@@ -20395,8 +20763,12 @@
         <f>IF(EXACT(MAIN!$B148, ""), "", ""&amp;MAIN!$D148)</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G148" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000145</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="37">
         <f>IF(EXACT(MAIN!$G149, ""), "", MAIN!$F149)</f>
         <v>32000000000146</v>
@@ -20413,8 +20785,12 @@
         <f>IF(EXACT(MAIN!$B149, ""), "", ""&amp;MAIN!$D149)</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G149" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000146</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="37">
         <f>IF(EXACT(MAIN!$G150, ""), "", MAIN!$F150)</f>
         <v>32000000000147</v>
@@ -20431,8 +20807,12 @@
         <f>IF(EXACT(MAIN!$B150, ""), "", ""&amp;MAIN!$D150)</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G150" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000147</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="37">
         <f>IF(EXACT(MAIN!$G151, ""), "", MAIN!$F151)</f>
         <v>32000000000148</v>
@@ -20449,8 +20829,12 @@
         <f>IF(EXACT(MAIN!$B151, ""), "", ""&amp;MAIN!$D151)</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G151" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000148</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="37">
         <f>IF(EXACT(MAIN!$G152, ""), "", MAIN!$F152)</f>
         <v>32000000000149</v>
@@ -20467,8 +20851,12 @@
         <f>IF(EXACT(MAIN!$B152, ""), "", ""&amp;MAIN!$D152)</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G152" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000149</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="37">
         <f>IF(EXACT(MAIN!$G153, ""), "", MAIN!$F153)</f>
         <v>32000000000150</v>
@@ -20485,8 +20873,12 @@
         <f>IF(EXACT(MAIN!$B153, ""), "", ""&amp;MAIN!$D153)</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G153" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000150</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="37">
         <f>IF(EXACT(MAIN!$G154, ""), "", MAIN!$F154)</f>
         <v>32000000000151</v>
@@ -20503,8 +20895,12 @@
         <f>IF(EXACT(MAIN!$B154, ""), "", ""&amp;MAIN!$D154)</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G154" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000151</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="37">
         <f>IF(EXACT(MAIN!$G155, ""), "", MAIN!$F155)</f>
         <v>32000000000152</v>
@@ -20521,8 +20917,12 @@
         <f>IF(EXACT(MAIN!$B155, ""), "", ""&amp;MAIN!$D155)</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G155" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000152</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="37">
         <f>IF(EXACT(MAIN!$G156, ""), "", MAIN!$F156)</f>
         <v>32000000000153</v>
@@ -20539,8 +20939,12 @@
         <f>IF(EXACT(MAIN!$B156, ""), "", ""&amp;MAIN!$D156)</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G156" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000153</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="37">
         <f>IF(EXACT(MAIN!$G157, ""), "", MAIN!$F157)</f>
         <v>32000000000154</v>
@@ -20557,8 +20961,12 @@
         <f>IF(EXACT(MAIN!$B157, ""), "", ""&amp;MAIN!$D157)</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G157" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000154</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="37">
         <f>IF(EXACT(MAIN!$G158, ""), "", MAIN!$F158)</f>
         <v>32000000000155</v>
@@ -20575,8 +20983,12 @@
         <f>IF(EXACT(MAIN!$B158, ""), "", ""&amp;MAIN!$D158)</f>
         <v>160916799</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G158" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000155</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="37">
         <f>IF(EXACT(MAIN!$G159, ""), "", MAIN!$F159)</f>
         <v>32000000000156</v>
@@ -20593,8 +21005,12 @@
         <f>IF(EXACT(MAIN!$B159, ""), "", ""&amp;MAIN!$D159)</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G159" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000156</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="37">
         <f>IF(EXACT(MAIN!$G160, ""), "", MAIN!$F160)</f>
         <v>32000000000157</v>
@@ -20611,8 +21027,12 @@
         <f>IF(EXACT(MAIN!$B160, ""), "", ""&amp;MAIN!$D160)</f>
         <v>070305123</v>
       </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G160" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000157</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="37">
         <f>IF(EXACT(MAIN!$G161, ""), "", MAIN!$F161)</f>
         <v>32000000000158</v>
@@ -20629,8 +21049,12 @@
         <f>IF(EXACT(MAIN!$B161, ""), "", ""&amp;MAIN!$D161)</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G161" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000158</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="37">
         <f>IF(EXACT(MAIN!$G162, ""), "", MAIN!$F162)</f>
         <v>32000000000159</v>
@@ -20647,8 +21071,12 @@
         <f>IF(EXACT(MAIN!$B162, ""), "", ""&amp;MAIN!$D162)</f>
         <v>181114748</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G162" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000159</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="37">
         <f>IF(EXACT(MAIN!$G163, ""), "", MAIN!$F163)</f>
         <v>32000000000160</v>
@@ -20665,8 +21093,12 @@
         <f>IF(EXACT(MAIN!$B163, ""), "", ""&amp;MAIN!$D163)</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G163" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000160</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="37">
         <f>IF(EXACT(MAIN!$G164, ""), "", MAIN!$F164)</f>
         <v>32000000000161</v>
@@ -20683,8 +21115,12 @@
         <f>IF(EXACT(MAIN!$B164, ""), "", ""&amp;MAIN!$D164)</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G164" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000161</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="37">
         <f>IF(EXACT(MAIN!$G165, ""), "", MAIN!$F165)</f>
         <v>32000000000162</v>
@@ -20701,8 +21137,12 @@
         <f>IF(EXACT(MAIN!$B165, ""), "", ""&amp;MAIN!$D165)</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G165" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000162</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="37">
         <f>IF(EXACT(MAIN!$G166, ""), "", MAIN!$F166)</f>
         <v>32000000000163</v>
@@ -20719,8 +21159,12 @@
         <f>IF(EXACT(MAIN!$B166, ""), "", ""&amp;MAIN!$D166)</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G166" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000163</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="37">
         <f>IF(EXACT(MAIN!$G167, ""), "", MAIN!$F167)</f>
         <v>32000000000164</v>
@@ -20737,8 +21181,12 @@
         <f>IF(EXACT(MAIN!$B167, ""), "", ""&amp;MAIN!$D167)</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G167" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000164</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="37">
         <f>IF(EXACT(MAIN!$G168, ""), "", MAIN!$F168)</f>
         <v>32000000000165</v>
@@ -20755,8 +21203,12 @@
         <f>IF(EXACT(MAIN!$B168, ""), "", ""&amp;MAIN!$D168)</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G168" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000165</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="37">
         <f>IF(EXACT(MAIN!$G169, ""), "", MAIN!$F169)</f>
         <v>32000000000166</v>
@@ -20773,8 +21225,12 @@
         <f>IF(EXACT(MAIN!$B169, ""), "", ""&amp;MAIN!$D169)</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G169" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000166</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="37">
         <f>IF(EXACT(MAIN!$G170, ""), "", MAIN!$F170)</f>
         <v>32000000000167</v>
@@ -20791,8 +21247,12 @@
         <f>IF(EXACT(MAIN!$B170, ""), "", ""&amp;MAIN!$D170)</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G170" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000167</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="37">
         <f>IF(EXACT(MAIN!$G171, ""), "", MAIN!$F171)</f>
         <v>32000000000168</v>
@@ -20809,8 +21269,12 @@
         <f>IF(EXACT(MAIN!$B171, ""), "", ""&amp;MAIN!$D171)</f>
         <v>070806256</v>
       </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G171" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000168</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="37">
         <f>IF(EXACT(MAIN!$G172, ""), "", MAIN!$F172)</f>
         <v>32000000000169</v>
@@ -20827,8 +21291,12 @@
         <f>IF(EXACT(MAIN!$B172, ""), "", ""&amp;MAIN!$D172)</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G172" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000169</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="37">
         <f>IF(EXACT(MAIN!$G173, ""), "", MAIN!$F173)</f>
         <v>32000000000170</v>
@@ -20845,8 +21313,12 @@
         <f>IF(EXACT(MAIN!$B173, ""), "", ""&amp;MAIN!$D173)</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G173" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000170</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="37">
         <f>IF(EXACT(MAIN!$G174, ""), "", MAIN!$F174)</f>
         <v>32000000000171</v>
@@ -20863,8 +21335,12 @@
         <f>IF(EXACT(MAIN!$B174, ""), "", ""&amp;MAIN!$D174)</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G174" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000171</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="37">
         <f>IF(EXACT(MAIN!$G175, ""), "", MAIN!$F175)</f>
         <v>32000000000172</v>
@@ -20881,8 +21357,12 @@
         <f>IF(EXACT(MAIN!$B175, ""), "", ""&amp;MAIN!$D175)</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G175" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000172</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="37">
         <f>IF(EXACT(MAIN!$G176, ""), "", MAIN!$F176)</f>
         <v>32000000000173</v>
@@ -20899,8 +21379,12 @@
         <f>IF(EXACT(MAIN!$B176, ""), "", ""&amp;MAIN!$D176)</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G176" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000173</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="37">
         <f>IF(EXACT(MAIN!$G177, ""), "", MAIN!$F177)</f>
         <v>32000000000174</v>
@@ -20917,8 +21401,12 @@
         <f>IF(EXACT(MAIN!$B177, ""), "", ""&amp;MAIN!$D177)</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G177" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000174</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="37">
         <f>IF(EXACT(MAIN!$G178, ""), "", MAIN!$F178)</f>
         <v>32000000000175</v>
@@ -20935,8 +21423,12 @@
         <f>IF(EXACT(MAIN!$B178, ""), "", ""&amp;MAIN!$D178)</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G178" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000175</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="37">
         <f>IF(EXACT(MAIN!$G179, ""), "", MAIN!$F179)</f>
         <v>32000000000176</v>
@@ -20953,8 +21445,12 @@
         <f>IF(EXACT(MAIN!$B179, ""), "", ""&amp;MAIN!$D179)</f>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G179" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000176</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="37">
         <f>IF(EXACT(MAIN!$G180, ""), "", MAIN!$F180)</f>
         <v>32000000000177</v>
@@ -20971,8 +21467,12 @@
         <f>IF(EXACT(MAIN!$B180, ""), "", ""&amp;MAIN!$D180)</f>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G180" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000177</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="37">
         <f>IF(EXACT(MAIN!$G181, ""), "", MAIN!$F181)</f>
         <v>32000000000178</v>
@@ -20989,8 +21489,12 @@
         <f>IF(EXACT(MAIN!$B181, ""), "", ""&amp;MAIN!$D181)</f>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G181" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000178</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="37">
         <f>IF(EXACT(MAIN!$G182, ""), "", MAIN!$F182)</f>
         <v>32000000000179</v>
@@ -21007,8 +21511,12 @@
         <f>IF(EXACT(MAIN!$B182, ""), "", ""&amp;MAIN!$D182)</f>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G182" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000179</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="37">
         <f>IF(EXACT(MAIN!$G183, ""), "", MAIN!$F183)</f>
         <v>32000000000180</v>
@@ -21025,8 +21533,12 @@
         <f>IF(EXACT(MAIN!$B183, ""), "", ""&amp;MAIN!$D183)</f>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G183" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000180</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="37">
         <f>IF(EXACT(MAIN!$G184, ""), "", MAIN!$F184)</f>
         <v>32000000000181</v>
@@ -21043,8 +21555,12 @@
         <f>IF(EXACT(MAIN!$B184, ""), "", ""&amp;MAIN!$D184)</f>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G184" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000181</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="37">
         <f>IF(EXACT(MAIN!$G185, ""), "", MAIN!$F185)</f>
         <v>32000000000182</v>
@@ -21061,8 +21577,12 @@
         <f>IF(EXACT(MAIN!$B185, ""), "", ""&amp;MAIN!$D185)</f>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G185" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000182</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="37">
         <f>IF(EXACT(MAIN!$G186, ""), "", MAIN!$F186)</f>
         <v>32000000000183</v>
@@ -21079,8 +21599,12 @@
         <f>IF(EXACT(MAIN!$B186, ""), "", ""&amp;MAIN!$D186)</f>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G186" s="2">
+        <f t="shared" si="2"/>
+        <v>25000000000183</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="37">
         <f>IF(EXACT(MAIN!$G187, ""), "", MAIN!$F187)</f>
         <v>32000000000184</v>
@@ -21097,8 +21621,12 @@
         <f>IF(EXAC